--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC95EB-F0F2-4D17-92A4-79032DB92D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9E59C-A550-4EDA-BE5B-72E4BFEE90DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="362">
   <si>
     <t>No.</t>
   </si>
@@ -1092,32 +1092,6 @@
       </rPr>
       <t>○</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="BIZ UDゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>＜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">acquisition&gt;
-Code ID: C0300001
-Code name: Project type
-Code pattern : 1
-Display name: Code value name
-No option selected: None
-</t>
-    </r>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2035,14 +2009,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Project type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Project classification</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>client_management_system.client_detail_retrieval_API</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2695,6 +2661,30 @@
   </si>
   <si>
     <t>PROJECT_ID(Request Parameter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">＜acquisition&gt;
+Code ID: C0300001
+Code name: PJ type
+Code pattern : 1
+Display name: Code value name
+No option selected: None
+</t>
+  </si>
+  <si>
+    <t>＜acquisition&gt;
+Code ID: C0300001
+Code name: PJ type
+Code pattern : 1
+Display name: Code value name
+No option selected: None</t>
+  </si>
+  <si>
+    <t>PJ classification</t>
+  </si>
+  <si>
+    <t>PJ type</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3792,6 +3782,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3855,57 +3849,48 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4035,11 +4020,17 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4197,10 +4188,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -7098,88 +7088,88 @@
     <row r="4" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="49"/>
-      <c r="C5" s="225" t="s">
+      <c r="C5" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="228" t="s">
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="226"/>
-      <c r="O5" s="226"/>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226"/>
-      <c r="T5" s="226"/>
-      <c r="U5" s="226"/>
-      <c r="V5" s="226"/>
-      <c r="W5" s="226"/>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="226"/>
-      <c r="AA5" s="226"/>
-      <c r="AB5" s="226"/>
-      <c r="AC5" s="226"/>
-      <c r="AD5" s="226"/>
-      <c r="AE5" s="226"/>
-      <c r="AF5" s="226"/>
-      <c r="AG5" s="227"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="231"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
+      <c r="U5" s="228"/>
+      <c r="V5" s="228"/>
+      <c r="W5" s="228"/>
+      <c r="X5" s="228"/>
+      <c r="Y5" s="228"/>
+      <c r="Z5" s="228"/>
+      <c r="AA5" s="228"/>
+      <c r="AB5" s="228"/>
+      <c r="AC5" s="228"/>
+      <c r="AD5" s="228"/>
+      <c r="AE5" s="228"/>
+      <c r="AF5" s="228"/>
+      <c r="AG5" s="229"/>
     </row>
     <row r="6" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="49"/>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="228" t="s">
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="226"/>
-      <c r="I6" s="226"/>
-      <c r="J6" s="226"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="226"/>
-      <c r="M6" s="226"/>
-      <c r="N6" s="226"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="226"/>
-      <c r="Q6" s="226"/>
-      <c r="R6" s="226"/>
-      <c r="S6" s="226"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="226"/>
-      <c r="V6" s="226"/>
-      <c r="W6" s="226"/>
-      <c r="X6" s="226"/>
-      <c r="Y6" s="226"/>
-      <c r="Z6" s="226"/>
-      <c r="AA6" s="226"/>
-      <c r="AB6" s="226"/>
-      <c r="AC6" s="226"/>
-      <c r="AD6" s="226"/>
-      <c r="AE6" s="226"/>
-      <c r="AF6" s="226"/>
-      <c r="AG6" s="227"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="228"/>
+      <c r="U6" s="228"/>
+      <c r="V6" s="228"/>
+      <c r="W6" s="228"/>
+      <c r="X6" s="228"/>
+      <c r="Y6" s="228"/>
+      <c r="Z6" s="228"/>
+      <c r="AA6" s="228"/>
+      <c r="AB6" s="228"/>
+      <c r="AC6" s="228"/>
+      <c r="AD6" s="228"/>
+      <c r="AE6" s="228"/>
+      <c r="AF6" s="228"/>
+      <c r="AG6" s="229"/>
     </row>
     <row r="7" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="49"/>
-      <c r="C7" s="216" t="s">
+      <c r="C7" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="96" t="s">
         <v>71</v>
       </c>
@@ -7212,10 +7202,10 @@
     </row>
     <row r="8" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="49"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="223"/>
       <c r="G8" s="99"/>
       <c r="H8" s="100"/>
       <c r="I8" s="100"/>
@@ -7246,10 +7236,10 @@
     </row>
     <row r="9" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="49"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223"/>
       <c r="G9" s="102" t="s">
         <v>72</v>
       </c>
@@ -7282,10 +7272,10 @@
     </row>
     <row r="10" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="49"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="226"/>
       <c r="G10" s="103"/>
       <c r="H10" s="104"/>
       <c r="I10" s="104"/>
@@ -7316,12 +7306,12 @@
     </row>
     <row r="11" spans="2:33" s="48" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="49"/>
-      <c r="C11" s="215" t="s">
+      <c r="C11" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="217"/>
       <c r="G11" s="106" t="s">
         <v>73</v>
       </c>
@@ -7433,7 +7423,7 @@
     </row>
     <row r="3" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7552,39 +7542,39 @@
       <c r="D50" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="326" t="s">
+      <c r="E50" s="325" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="326"/>
-      <c r="M50" s="326"/>
-      <c r="N50" s="326" t="s">
+      <c r="F50" s="325"/>
+      <c r="G50" s="325"/>
+      <c r="H50" s="325"/>
+      <c r="I50" s="325"/>
+      <c r="J50" s="325"/>
+      <c r="K50" s="325"/>
+      <c r="L50" s="325"/>
+      <c r="M50" s="325"/>
+      <c r="N50" s="325" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="326"/>
-      <c r="P50" s="326"/>
-      <c r="Q50" s="326" t="s">
+      <c r="O50" s="325"/>
+      <c r="P50" s="325"/>
+      <c r="Q50" s="325" t="s">
         <v>77</v>
       </c>
-      <c r="R50" s="326"/>
-      <c r="S50" s="326"/>
-      <c r="T50" s="326"/>
-      <c r="U50" s="326"/>
-      <c r="V50" s="326" t="s">
+      <c r="R50" s="325"/>
+      <c r="S50" s="325"/>
+      <c r="T50" s="325"/>
+      <c r="U50" s="325"/>
+      <c r="V50" s="325" t="s">
         <v>78</v>
       </c>
-      <c r="W50" s="326"/>
-      <c r="X50" s="326"/>
-      <c r="Y50" s="326"/>
-      <c r="Z50" s="326"/>
-      <c r="AA50" s="326"/>
-      <c r="AB50" s="326"/>
-      <c r="AC50" s="326"/>
+      <c r="W50" s="325"/>
+      <c r="X50" s="325"/>
+      <c r="Y50" s="325"/>
+      <c r="Z50" s="325"/>
+      <c r="AA50" s="325"/>
+      <c r="AB50" s="325"/>
+      <c r="AC50" s="325"/>
       <c r="AD50" s="73"/>
       <c r="AE50" s="73"/>
       <c r="AF50" s="73"/>
@@ -7595,39 +7585,39 @@
       <c r="D51" s="81">
         <v>1</v>
       </c>
-      <c r="E51" s="327" t="s">
+      <c r="E51" s="326" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="328"/>
-      <c r="G51" s="328"/>
-      <c r="H51" s="328"/>
-      <c r="I51" s="328"/>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="328"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="329" t="s">
+      <c r="F51" s="327"/>
+      <c r="G51" s="327"/>
+      <c r="H51" s="327"/>
+      <c r="I51" s="327"/>
+      <c r="J51" s="327"/>
+      <c r="K51" s="327"/>
+      <c r="L51" s="327"/>
+      <c r="M51" s="327"/>
+      <c r="N51" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="331" t="s">
+      <c r="O51" s="328"/>
+      <c r="P51" s="328"/>
+      <c r="Q51" s="330" t="s">
         <v>81</v>
       </c>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="331" t="s">
+      <c r="R51" s="331"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="331"/>
+      <c r="V51" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="W51" s="332"/>
-      <c r="X51" s="332"/>
-      <c r="Y51" s="332"/>
-      <c r="Z51" s="332"/>
-      <c r="AA51" s="332"/>
-      <c r="AB51" s="332"/>
-      <c r="AC51" s="332"/>
+      <c r="W51" s="331"/>
+      <c r="X51" s="331"/>
+      <c r="Y51" s="331"/>
+      <c r="Z51" s="331"/>
+      <c r="AA51" s="331"/>
+      <c r="AB51" s="331"/>
+      <c r="AC51" s="331"/>
       <c r="AM51" s="9"/>
     </row>
     <row r="52" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7771,42 +7761,42 @@
     </row>
     <row r="56" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="95"/>
-      <c r="D56" s="321" t="s">
+      <c r="D56" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="267" t="s">
+      <c r="E56" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="268"/>
-      <c r="G56" s="268"/>
-      <c r="H56" s="268"/>
-      <c r="I56" s="268"/>
-      <c r="J56" s="268"/>
-      <c r="K56" s="268"/>
-      <c r="L56" s="268"/>
-      <c r="M56" s="268"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
-      <c r="T56" s="268"/>
-      <c r="U56" s="268"/>
-      <c r="V56" s="268"/>
-      <c r="W56" s="268"/>
-      <c r="X56" s="268"/>
-      <c r="Y56" s="268"/>
-      <c r="Z56" s="268"/>
-      <c r="AA56" s="268"/>
-      <c r="AB56" s="268"/>
-      <c r="AC56" s="269"/>
-      <c r="AD56" s="216" t="s">
+      <c r="F56" s="263"/>
+      <c r="G56" s="263"/>
+      <c r="H56" s="263"/>
+      <c r="I56" s="263"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="263"/>
+      <c r="L56" s="263"/>
+      <c r="M56" s="263"/>
+      <c r="N56" s="263"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="263"/>
+      <c r="Q56" s="263"/>
+      <c r="R56" s="263"/>
+      <c r="S56" s="263"/>
+      <c r="T56" s="263"/>
+      <c r="U56" s="263"/>
+      <c r="V56" s="263"/>
+      <c r="W56" s="263"/>
+      <c r="X56" s="263"/>
+      <c r="Y56" s="263"/>
+      <c r="Z56" s="263"/>
+      <c r="AA56" s="263"/>
+      <c r="AB56" s="263"/>
+      <c r="AC56" s="264"/>
+      <c r="AD56" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="AE56" s="217"/>
-      <c r="AF56" s="217"/>
-      <c r="AG56" s="218"/>
+      <c r="AE56" s="219"/>
+      <c r="AF56" s="219"/>
+      <c r="AG56" s="220"/>
       <c r="AH56" s="111"/>
       <c r="AI56" s="111"/>
       <c r="AJ56" s="111"/>
@@ -7828,48 +7818,48 @@
     </row>
     <row r="57" spans="3:53" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="95"/>
-      <c r="D57" s="330"/>
-      <c r="E57" s="216" t="s">
+      <c r="D57" s="329"/>
+      <c r="E57" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="217"/>
-      <c r="G57" s="217"/>
-      <c r="H57" s="218"/>
-      <c r="I57" s="315" t="s">
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="J57" s="316"/>
-      <c r="K57" s="316"/>
-      <c r="L57" s="317"/>
-      <c r="M57" s="315" t="s">
+      <c r="J57" s="315"/>
+      <c r="K57" s="315"/>
+      <c r="L57" s="316"/>
+      <c r="M57" s="314" t="s">
         <v>88</v>
       </c>
-      <c r="N57" s="316"/>
-      <c r="O57" s="316"/>
-      <c r="P57" s="316"/>
-      <c r="Q57" s="316"/>
-      <c r="R57" s="316"/>
-      <c r="S57" s="316"/>
-      <c r="T57" s="317"/>
-      <c r="U57" s="216" t="s">
+      <c r="N57" s="315"/>
+      <c r="O57" s="315"/>
+      <c r="P57" s="315"/>
+      <c r="Q57" s="315"/>
+      <c r="R57" s="315"/>
+      <c r="S57" s="315"/>
+      <c r="T57" s="316"/>
+      <c r="U57" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="V57" s="217"/>
-      <c r="W57" s="217"/>
-      <c r="X57" s="217"/>
-      <c r="Y57" s="218"/>
-      <c r="Z57" s="216" t="s">
+      <c r="V57" s="219"/>
+      <c r="W57" s="219"/>
+      <c r="X57" s="219"/>
+      <c r="Y57" s="220"/>
+      <c r="Z57" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="AA57" s="217"/>
-      <c r="AB57" s="218"/>
-      <c r="AC57" s="321" t="s">
+      <c r="AA57" s="219"/>
+      <c r="AB57" s="220"/>
+      <c r="AC57" s="320" t="s">
         <v>91</v>
       </c>
-      <c r="AD57" s="219"/>
-      <c r="AE57" s="220"/>
-      <c r="AF57" s="220"/>
-      <c r="AG57" s="221"/>
+      <c r="AD57" s="221"/>
+      <c r="AE57" s="222"/>
+      <c r="AF57" s="222"/>
+      <c r="AG57" s="223"/>
       <c r="AH57" s="111"/>
       <c r="AI57" s="111"/>
       <c r="AJ57" s="111"/>
@@ -7889,47 +7879,47 @@
     </row>
     <row r="58" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="95"/>
-      <c r="D58" s="322"/>
-      <c r="E58" s="222"/>
-      <c r="F58" s="223"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="224"/>
-      <c r="I58" s="318"/>
-      <c r="J58" s="319"/>
-      <c r="K58" s="319"/>
-      <c r="L58" s="320"/>
-      <c r="M58" s="318"/>
-      <c r="N58" s="319"/>
-      <c r="O58" s="319"/>
-      <c r="P58" s="319"/>
-      <c r="Q58" s="319"/>
-      <c r="R58" s="319"/>
-      <c r="S58" s="319"/>
-      <c r="T58" s="320"/>
-      <c r="U58" s="222"/>
-      <c r="V58" s="223"/>
-      <c r="W58" s="223"/>
-      <c r="X58" s="223"/>
-      <c r="Y58" s="224"/>
-      <c r="Z58" s="222"/>
-      <c r="AA58" s="223"/>
-      <c r="AB58" s="224"/>
-      <c r="AC58" s="322"/>
-      <c r="AD58" s="222"/>
-      <c r="AE58" s="223"/>
-      <c r="AF58" s="223"/>
-      <c r="AG58" s="224"/>
+      <c r="D58" s="321"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="225"/>
+      <c r="G58" s="225"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="317"/>
+      <c r="J58" s="318"/>
+      <c r="K58" s="318"/>
+      <c r="L58" s="319"/>
+      <c r="M58" s="317"/>
+      <c r="N58" s="318"/>
+      <c r="O58" s="318"/>
+      <c r="P58" s="318"/>
+      <c r="Q58" s="318"/>
+      <c r="R58" s="318"/>
+      <c r="S58" s="318"/>
+      <c r="T58" s="319"/>
+      <c r="U58" s="224"/>
+      <c r="V58" s="225"/>
+      <c r="W58" s="225"/>
+      <c r="X58" s="225"/>
+      <c r="Y58" s="226"/>
+      <c r="Z58" s="224"/>
+      <c r="AA58" s="225"/>
+      <c r="AB58" s="226"/>
+      <c r="AC58" s="321"/>
+      <c r="AD58" s="224"/>
+      <c r="AE58" s="225"/>
+      <c r="AF58" s="225"/>
+      <c r="AG58" s="226"/>
       <c r="AH58" s="111"/>
       <c r="AI58" s="111"/>
       <c r="AJ58" s="111"/>
       <c r="AK58" s="111"/>
-      <c r="AL58" s="323" t="s">
+      <c r="AL58" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AM58" s="324"/>
-      <c r="AN58" s="324"/>
-      <c r="AO58" s="324"/>
-      <c r="AP58" s="325"/>
+      <c r="AM58" s="323"/>
+      <c r="AN58" s="323"/>
+      <c r="AO58" s="323"/>
+      <c r="AP58" s="324"/>
       <c r="AQ58" s="111"/>
       <c r="AR58" s="111"/>
       <c r="AS58" s="111"/>
@@ -7940,38 +7930,38 @@
     </row>
     <row r="59" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="95"/>
-      <c r="D59" s="312" t="s">
+      <c r="D59" s="311" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="313"/>
-      <c r="F59" s="313"/>
-      <c r="G59" s="313"/>
-      <c r="H59" s="313"/>
-      <c r="I59" s="313"/>
-      <c r="J59" s="313"/>
-      <c r="K59" s="313"/>
-      <c r="L59" s="313"/>
-      <c r="M59" s="313"/>
-      <c r="N59" s="313"/>
-      <c r="O59" s="313"/>
-      <c r="P59" s="313"/>
-      <c r="Q59" s="313"/>
-      <c r="R59" s="313"/>
-      <c r="S59" s="313"/>
-      <c r="T59" s="313"/>
-      <c r="U59" s="313"/>
-      <c r="V59" s="313"/>
-      <c r="W59" s="313"/>
-      <c r="X59" s="313"/>
-      <c r="Y59" s="313"/>
-      <c r="Z59" s="313"/>
-      <c r="AA59" s="313"/>
-      <c r="AB59" s="313"/>
-      <c r="AC59" s="313"/>
-      <c r="AD59" s="313"/>
-      <c r="AE59" s="313"/>
-      <c r="AF59" s="313"/>
-      <c r="AG59" s="314"/>
+      <c r="E59" s="312"/>
+      <c r="F59" s="312"/>
+      <c r="G59" s="312"/>
+      <c r="H59" s="312"/>
+      <c r="I59" s="312"/>
+      <c r="J59" s="312"/>
+      <c r="K59" s="312"/>
+      <c r="L59" s="312"/>
+      <c r="M59" s="312"/>
+      <c r="N59" s="312"/>
+      <c r="O59" s="312"/>
+      <c r="P59" s="312"/>
+      <c r="Q59" s="312"/>
+      <c r="R59" s="312"/>
+      <c r="S59" s="312"/>
+      <c r="T59" s="312"/>
+      <c r="U59" s="312"/>
+      <c r="V59" s="312"/>
+      <c r="W59" s="312"/>
+      <c r="X59" s="312"/>
+      <c r="Y59" s="312"/>
+      <c r="Z59" s="312"/>
+      <c r="AA59" s="312"/>
+      <c r="AB59" s="312"/>
+      <c r="AC59" s="312"/>
+      <c r="AD59" s="312"/>
+      <c r="AE59" s="312"/>
+      <c r="AF59" s="312"/>
+      <c r="AG59" s="313"/>
       <c r="AH59" s="111"/>
       <c r="AI59" s="111"/>
       <c r="AJ59" s="111"/>
@@ -7996,66 +7986,66 @@
       <c r="D60" s="122">
         <v>1</v>
       </c>
-      <c r="E60" s="228" t="s">
+      <c r="E60" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="229"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="311" t="s">
+      <c r="F60" s="231"/>
+      <c r="G60" s="231"/>
+      <c r="H60" s="304"/>
+      <c r="I60" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="311"/>
-      <c r="K60" s="311"/>
-      <c r="L60" s="311"/>
-      <c r="M60" s="256" t="s">
+      <c r="J60" s="310"/>
+      <c r="K60" s="310"/>
+      <c r="L60" s="310"/>
+      <c r="M60" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="257"/>
-      <c r="O60" s="257"/>
-      <c r="P60" s="257"/>
-      <c r="Q60" s="257"/>
-      <c r="R60" s="257"/>
-      <c r="S60" s="257"/>
-      <c r="T60" s="258"/>
-      <c r="U60" s="288" t="s">
+      <c r="N60" s="249"/>
+      <c r="O60" s="249"/>
+      <c r="P60" s="249"/>
+      <c r="Q60" s="249"/>
+      <c r="R60" s="249"/>
+      <c r="S60" s="249"/>
+      <c r="T60" s="250"/>
+      <c r="U60" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="289"/>
-      <c r="W60" s="289"/>
-      <c r="X60" s="289"/>
-      <c r="Y60" s="290"/>
-      <c r="Z60" s="288" t="s">
+      <c r="V60" s="284"/>
+      <c r="W60" s="284"/>
+      <c r="X60" s="284"/>
+      <c r="Y60" s="285"/>
+      <c r="Z60" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="AA60" s="289"/>
-      <c r="AB60" s="290"/>
+      <c r="AA60" s="284"/>
+      <c r="AB60" s="285"/>
       <c r="AC60" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="AD60" s="288" t="s">
+      <c r="AD60" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="AE60" s="289"/>
-      <c r="AF60" s="289"/>
-      <c r="AG60" s="290"/>
+      <c r="AE60" s="284"/>
+      <c r="AF60" s="284"/>
+      <c r="AG60" s="285"/>
       <c r="AH60" s="118"/>
       <c r="AI60" s="118"/>
       <c r="AJ60" s="118"/>
       <c r="AK60" s="118"/>
-      <c r="AL60" s="228" t="s">
+      <c r="AL60" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AM60" s="229" t="s">
+      <c r="AM60" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AN60" s="229" t="s">
+      <c r="AN60" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AO60" s="229" t="s">
+      <c r="AO60" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP60" s="239" t="s">
+      <c r="AP60" s="304" t="s">
         <v>17</v>
       </c>
       <c r="AQ60" s="118"/>
@@ -8074,66 +8064,66 @@
         <f>D60+1</f>
         <v>2</v>
       </c>
-      <c r="E61" s="228" t="s">
+      <c r="E61" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="229"/>
-      <c r="G61" s="229"/>
-      <c r="H61" s="239"/>
-      <c r="I61" s="311" t="s">
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="304"/>
+      <c r="I61" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="311"/>
-      <c r="K61" s="311"/>
-      <c r="L61" s="311"/>
-      <c r="M61" s="256" t="s">
+      <c r="J61" s="310"/>
+      <c r="K61" s="310"/>
+      <c r="L61" s="310"/>
+      <c r="M61" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="257"/>
-      <c r="O61" s="257"/>
-      <c r="P61" s="257"/>
-      <c r="Q61" s="257"/>
-      <c r="R61" s="257"/>
-      <c r="S61" s="257"/>
-      <c r="T61" s="258"/>
-      <c r="U61" s="288" t="s">
+      <c r="N61" s="249"/>
+      <c r="O61" s="249"/>
+      <c r="P61" s="249"/>
+      <c r="Q61" s="249"/>
+      <c r="R61" s="249"/>
+      <c r="S61" s="249"/>
+      <c r="T61" s="250"/>
+      <c r="U61" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V61" s="289"/>
-      <c r="W61" s="289"/>
-      <c r="X61" s="289"/>
-      <c r="Y61" s="290"/>
-      <c r="Z61" s="288" t="s">
+      <c r="V61" s="284"/>
+      <c r="W61" s="284"/>
+      <c r="X61" s="284"/>
+      <c r="Y61" s="285"/>
+      <c r="Z61" s="283" t="s">
         <v>97</v>
       </c>
-      <c r="AA61" s="289"/>
-      <c r="AB61" s="290"/>
+      <c r="AA61" s="284"/>
+      <c r="AB61" s="285"/>
       <c r="AC61" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="AD61" s="288" t="s">
+      <c r="AD61" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="AE61" s="289"/>
-      <c r="AF61" s="289"/>
-      <c r="AG61" s="290"/>
+      <c r="AE61" s="284"/>
+      <c r="AF61" s="284"/>
+      <c r="AG61" s="285"/>
       <c r="AH61" s="118"/>
       <c r="AI61" s="118"/>
       <c r="AJ61" s="118"/>
       <c r="AK61" s="118"/>
-      <c r="AL61" s="228" t="s">
+      <c r="AL61" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="AM61" s="229" t="s">
+      <c r="AM61" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AN61" s="229" t="s">
+      <c r="AN61" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AO61" s="229" t="s">
+      <c r="AO61" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP61" s="239" t="s">
+      <c r="AP61" s="304" t="s">
         <v>17</v>
       </c>
       <c r="AQ61" s="118"/>
@@ -8152,66 +8142,66 @@
         <f>D61+1</f>
         <v>3</v>
       </c>
-      <c r="E62" s="228" t="s">
-        <v>282</v>
-      </c>
-      <c r="F62" s="229"/>
-      <c r="G62" s="229"/>
-      <c r="H62" s="239"/>
-      <c r="I62" s="311" t="s">
+      <c r="E62" s="230" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="231"/>
+      <c r="G62" s="231"/>
+      <c r="H62" s="304"/>
+      <c r="I62" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="J62" s="311"/>
-      <c r="K62" s="311"/>
-      <c r="L62" s="311"/>
-      <c r="M62" s="256" t="s">
+      <c r="J62" s="310"/>
+      <c r="K62" s="310"/>
+      <c r="L62" s="310"/>
+      <c r="M62" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="N62" s="257"/>
-      <c r="O62" s="257"/>
-      <c r="P62" s="257"/>
-      <c r="Q62" s="257"/>
-      <c r="R62" s="257"/>
-      <c r="S62" s="257"/>
-      <c r="T62" s="258"/>
-      <c r="U62" s="288" t="s">
-        <v>124</v>
-      </c>
-      <c r="V62" s="289"/>
-      <c r="W62" s="289"/>
-      <c r="X62" s="289"/>
-      <c r="Y62" s="290"/>
-      <c r="Z62" s="288" t="s">
+      <c r="N62" s="249"/>
+      <c r="O62" s="249"/>
+      <c r="P62" s="249"/>
+      <c r="Q62" s="249"/>
+      <c r="R62" s="249"/>
+      <c r="S62" s="249"/>
+      <c r="T62" s="250"/>
+      <c r="U62" s="283" t="s">
+        <v>358</v>
+      </c>
+      <c r="V62" s="284"/>
+      <c r="W62" s="284"/>
+      <c r="X62" s="284"/>
+      <c r="Y62" s="285"/>
+      <c r="Z62" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA62" s="289"/>
-      <c r="AB62" s="290"/>
+      <c r="AA62" s="284"/>
+      <c r="AB62" s="285"/>
       <c r="AC62" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD62" s="288" t="s">
+      <c r="AD62" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="AE62" s="289"/>
-      <c r="AF62" s="289"/>
-      <c r="AG62" s="290"/>
+      <c r="AE62" s="284"/>
+      <c r="AF62" s="284"/>
+      <c r="AG62" s="285"/>
       <c r="AH62" s="111"/>
       <c r="AI62" s="111"/>
       <c r="AJ62" s="111"/>
       <c r="AK62" s="111"/>
-      <c r="AL62" s="228" t="s">
+      <c r="AL62" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AM62" s="229" t="s">
+      <c r="AM62" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AN62" s="229" t="s">
+      <c r="AN62" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AO62" s="229" t="s">
+      <c r="AO62" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AP62" s="239" t="s">
+      <c r="AP62" s="304" t="s">
         <v>13</v>
       </c>
       <c r="AQ62" s="111"/>
@@ -8228,66 +8218,66 @@
         <f>D62+1</f>
         <v>4</v>
       </c>
-      <c r="E63" s="228" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63" s="229"/>
-      <c r="G63" s="229"/>
-      <c r="H63" s="239"/>
-      <c r="I63" s="311" t="s">
+      <c r="E63" s="230" t="s">
+        <v>360</v>
+      </c>
+      <c r="F63" s="231"/>
+      <c r="G63" s="231"/>
+      <c r="H63" s="304"/>
+      <c r="I63" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="311"/>
-      <c r="K63" s="311"/>
-      <c r="L63" s="311"/>
-      <c r="M63" s="256" t="s">
+      <c r="J63" s="310"/>
+      <c r="K63" s="310"/>
+      <c r="L63" s="310"/>
+      <c r="M63" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="N63" s="257"/>
-      <c r="O63" s="257"/>
-      <c r="P63" s="257"/>
-      <c r="Q63" s="257"/>
-      <c r="R63" s="257"/>
-      <c r="S63" s="257"/>
-      <c r="T63" s="258"/>
-      <c r="U63" s="288" t="s">
-        <v>125</v>
-      </c>
-      <c r="V63" s="289"/>
-      <c r="W63" s="289"/>
-      <c r="X63" s="289"/>
-      <c r="Y63" s="290"/>
-      <c r="Z63" s="288" t="s">
+      <c r="N63" s="249"/>
+      <c r="O63" s="249"/>
+      <c r="P63" s="249"/>
+      <c r="Q63" s="249"/>
+      <c r="R63" s="249"/>
+      <c r="S63" s="249"/>
+      <c r="T63" s="250"/>
+      <c r="U63" s="283" t="s">
+        <v>124</v>
+      </c>
+      <c r="V63" s="284"/>
+      <c r="W63" s="284"/>
+      <c r="X63" s="284"/>
+      <c r="Y63" s="285"/>
+      <c r="Z63" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA63" s="289"/>
-      <c r="AB63" s="290"/>
+      <c r="AA63" s="284"/>
+      <c r="AB63" s="285"/>
       <c r="AC63" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD63" s="288" t="s">
+      <c r="AD63" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="AE63" s="289"/>
-      <c r="AF63" s="289"/>
-      <c r="AG63" s="290"/>
+      <c r="AE63" s="284"/>
+      <c r="AF63" s="284"/>
+      <c r="AG63" s="285"/>
       <c r="AH63" s="111"/>
       <c r="AI63" s="111"/>
       <c r="AJ63" s="111"/>
       <c r="AK63" s="111"/>
-      <c r="AL63" s="228" t="s">
+      <c r="AL63" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="AM63" s="229" t="s">
+      <c r="AM63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AN63" s="229" t="s">
+      <c r="AN63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AO63" s="229" t="s">
+      <c r="AO63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AP63" s="239" t="s">
+      <c r="AP63" s="304" t="s">
         <v>14</v>
       </c>
       <c r="AQ63" s="111"/>
@@ -8304,66 +8294,66 @@
         <f>D63+1</f>
         <v>5</v>
       </c>
-      <c r="E64" s="228" t="s">
+      <c r="E64" s="230" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="239"/>
-      <c r="I64" s="347" t="s">
+      <c r="F64" s="231"/>
+      <c r="G64" s="231"/>
+      <c r="H64" s="304"/>
+      <c r="I64" s="346" t="s">
         <v>4</v>
       </c>
-      <c r="J64" s="347"/>
-      <c r="K64" s="347"/>
-      <c r="L64" s="347"/>
-      <c r="M64" s="256" t="s">
+      <c r="J64" s="346"/>
+      <c r="K64" s="346"/>
+      <c r="L64" s="346"/>
+      <c r="M64" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N64" s="257"/>
-      <c r="O64" s="257"/>
-      <c r="P64" s="257"/>
-      <c r="Q64" s="257"/>
-      <c r="R64" s="257"/>
-      <c r="S64" s="257"/>
-      <c r="T64" s="258"/>
-      <c r="U64" s="288" t="s">
+      <c r="N64" s="249"/>
+      <c r="O64" s="249"/>
+      <c r="P64" s="249"/>
+      <c r="Q64" s="249"/>
+      <c r="R64" s="249"/>
+      <c r="S64" s="249"/>
+      <c r="T64" s="250"/>
+      <c r="U64" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="V64" s="289"/>
-      <c r="W64" s="289"/>
-      <c r="X64" s="289"/>
-      <c r="Y64" s="290"/>
-      <c r="Z64" s="288" t="s">
+      <c r="V64" s="284"/>
+      <c r="W64" s="284"/>
+      <c r="X64" s="284"/>
+      <c r="Y64" s="285"/>
+      <c r="Z64" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA64" s="289"/>
-      <c r="AB64" s="290"/>
+      <c r="AA64" s="284"/>
+      <c r="AB64" s="285"/>
       <c r="AC64" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD64" s="288" t="s">
+      <c r="AD64" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="AE64" s="289"/>
-      <c r="AF64" s="289"/>
-      <c r="AG64" s="290"/>
+      <c r="AE64" s="284"/>
+      <c r="AF64" s="284"/>
+      <c r="AG64" s="285"/>
       <c r="AH64" s="94"/>
       <c r="AI64" s="94"/>
       <c r="AJ64" s="94"/>
       <c r="AK64" s="94"/>
-      <c r="AL64" s="228" t="s">
+      <c r="AL64" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="AM64" s="229" t="s">
+      <c r="AM64" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AN64" s="229" t="s">
+      <c r="AN64" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AO64" s="229" t="s">
+      <c r="AO64" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP64" s="239" t="s">
+      <c r="AP64" s="304" t="s">
         <v>18</v>
       </c>
       <c r="AQ64" s="94"/>
@@ -8381,66 +8371,66 @@
         <f t="shared" ref="D65:D70" si="0">D64+1</f>
         <v>6</v>
       </c>
-      <c r="E65" s="228" t="s">
+      <c r="E65" s="230" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="229"/>
-      <c r="G65" s="229"/>
-      <c r="H65" s="239"/>
-      <c r="I65" s="347" t="s">
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="304"/>
+      <c r="I65" s="346" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="347"/>
-      <c r="K65" s="347"/>
-      <c r="L65" s="347"/>
-      <c r="M65" s="256" t="s">
+      <c r="J65" s="346"/>
+      <c r="K65" s="346"/>
+      <c r="L65" s="346"/>
+      <c r="M65" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N65" s="257"/>
-      <c r="O65" s="257"/>
-      <c r="P65" s="257"/>
-      <c r="Q65" s="257"/>
-      <c r="R65" s="257"/>
-      <c r="S65" s="257"/>
-      <c r="T65" s="258"/>
-      <c r="U65" s="288" t="s">
+      <c r="N65" s="249"/>
+      <c r="O65" s="249"/>
+      <c r="P65" s="249"/>
+      <c r="Q65" s="249"/>
+      <c r="R65" s="249"/>
+      <c r="S65" s="249"/>
+      <c r="T65" s="250"/>
+      <c r="U65" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="V65" s="289"/>
-      <c r="W65" s="289"/>
-      <c r="X65" s="289"/>
-      <c r="Y65" s="290"/>
-      <c r="Z65" s="288" t="s">
+      <c r="V65" s="284"/>
+      <c r="W65" s="284"/>
+      <c r="X65" s="284"/>
+      <c r="Y65" s="285"/>
+      <c r="Z65" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA65" s="289"/>
-      <c r="AB65" s="290"/>
+      <c r="AA65" s="284"/>
+      <c r="AB65" s="285"/>
       <c r="AC65" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD65" s="288" t="s">
+      <c r="AD65" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="AE65" s="289"/>
-      <c r="AF65" s="289"/>
-      <c r="AG65" s="290"/>
+      <c r="AE65" s="284"/>
+      <c r="AF65" s="284"/>
+      <c r="AG65" s="285"/>
       <c r="AH65" s="94"/>
       <c r="AI65" s="94"/>
       <c r="AJ65" s="94"/>
       <c r="AK65" s="94"/>
-      <c r="AL65" s="228" t="s">
+      <c r="AL65" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="AM65" s="229" t="s">
+      <c r="AM65" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AN65" s="229" t="s">
+      <c r="AN65" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AO65" s="229" t="s">
+      <c r="AO65" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP65" s="239" t="s">
+      <c r="AP65" s="304" t="s">
         <v>18</v>
       </c>
       <c r="AQ65" s="94"/>
@@ -8458,66 +8448,66 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E66" s="288" t="s">
+      <c r="E66" s="283" t="s">
         <v>107</v>
       </c>
-      <c r="F66" s="289"/>
-      <c r="G66" s="289"/>
-      <c r="H66" s="290"/>
-      <c r="I66" s="311" t="s">
+      <c r="F66" s="284"/>
+      <c r="G66" s="284"/>
+      <c r="H66" s="285"/>
+      <c r="I66" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="311"/>
-      <c r="K66" s="311"/>
-      <c r="L66" s="311"/>
-      <c r="M66" s="256" t="s">
+      <c r="J66" s="310"/>
+      <c r="K66" s="310"/>
+      <c r="L66" s="310"/>
+      <c r="M66" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="257"/>
-      <c r="O66" s="257"/>
-      <c r="P66" s="257"/>
-      <c r="Q66" s="257"/>
-      <c r="R66" s="257"/>
-      <c r="S66" s="257"/>
-      <c r="T66" s="258"/>
-      <c r="U66" s="288" t="s">
+      <c r="N66" s="249"/>
+      <c r="O66" s="249"/>
+      <c r="P66" s="249"/>
+      <c r="Q66" s="249"/>
+      <c r="R66" s="249"/>
+      <c r="S66" s="249"/>
+      <c r="T66" s="250"/>
+      <c r="U66" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V66" s="289"/>
-      <c r="W66" s="289"/>
-      <c r="X66" s="289"/>
-      <c r="Y66" s="290"/>
-      <c r="Z66" s="288" t="s">
+      <c r="V66" s="284"/>
+      <c r="W66" s="284"/>
+      <c r="X66" s="284"/>
+      <c r="Y66" s="285"/>
+      <c r="Z66" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA66" s="289"/>
-      <c r="AB66" s="290"/>
+      <c r="AA66" s="284"/>
+      <c r="AB66" s="285"/>
       <c r="AC66" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD66" s="288" t="s">
+      <c r="AD66" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="AE66" s="289"/>
-      <c r="AF66" s="289"/>
-      <c r="AG66" s="290"/>
+      <c r="AE66" s="284"/>
+      <c r="AF66" s="284"/>
+      <c r="AG66" s="285"/>
       <c r="AH66" s="124"/>
       <c r="AI66" s="124"/>
       <c r="AJ66" s="124"/>
       <c r="AK66" s="111"/>
-      <c r="AL66" s="228" t="s">
+      <c r="AL66" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="AM66" s="229" t="s">
+      <c r="AM66" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AN66" s="229" t="s">
+      <c r="AN66" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AO66" s="229" t="s">
+      <c r="AO66" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP66" s="239" t="s">
+      <c r="AP66" s="304" t="s">
         <v>15</v>
       </c>
       <c r="AQ66" s="111"/>
@@ -8534,66 +8524,66 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E67" s="288" t="s">
+      <c r="E67" s="283" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="289"/>
-      <c r="G67" s="289"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="311" t="s">
+      <c r="F67" s="284"/>
+      <c r="G67" s="284"/>
+      <c r="H67" s="285"/>
+      <c r="I67" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="311"/>
-      <c r="K67" s="311"/>
-      <c r="L67" s="311"/>
-      <c r="M67" s="256" t="s">
+      <c r="J67" s="310"/>
+      <c r="K67" s="310"/>
+      <c r="L67" s="310"/>
+      <c r="M67" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="257"/>
-      <c r="O67" s="257"/>
-      <c r="P67" s="257"/>
-      <c r="Q67" s="257"/>
-      <c r="R67" s="257"/>
-      <c r="S67" s="257"/>
-      <c r="T67" s="258"/>
-      <c r="U67" s="288" t="s">
+      <c r="N67" s="249"/>
+      <c r="O67" s="249"/>
+      <c r="P67" s="249"/>
+      <c r="Q67" s="249"/>
+      <c r="R67" s="249"/>
+      <c r="S67" s="249"/>
+      <c r="T67" s="250"/>
+      <c r="U67" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V67" s="289"/>
-      <c r="W67" s="289"/>
-      <c r="X67" s="289"/>
-      <c r="Y67" s="290"/>
-      <c r="Z67" s="288" t="s">
+      <c r="V67" s="284"/>
+      <c r="W67" s="284"/>
+      <c r="X67" s="284"/>
+      <c r="Y67" s="285"/>
+      <c r="Z67" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA67" s="289"/>
-      <c r="AB67" s="290"/>
+      <c r="AA67" s="284"/>
+      <c r="AB67" s="285"/>
       <c r="AC67" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD67" s="288" t="s">
+      <c r="AD67" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="AE67" s="289"/>
-      <c r="AF67" s="289"/>
-      <c r="AG67" s="290"/>
+      <c r="AE67" s="284"/>
+      <c r="AF67" s="284"/>
+      <c r="AG67" s="285"/>
       <c r="AH67" s="124"/>
       <c r="AI67" s="124"/>
       <c r="AJ67" s="124"/>
       <c r="AK67" s="111"/>
-      <c r="AL67" s="228" t="s">
+      <c r="AL67" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="AM67" s="229" t="s">
+      <c r="AM67" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AN67" s="229" t="s">
+      <c r="AN67" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AO67" s="229" t="s">
+      <c r="AO67" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP67" s="239" t="s">
+      <c r="AP67" s="304" t="s">
         <v>15</v>
       </c>
       <c r="AQ67" s="111"/>
@@ -8610,66 +8600,66 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E68" s="288" t="s">
+      <c r="E68" s="283" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="289"/>
-      <c r="G68" s="289"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="311" t="s">
+      <c r="F68" s="284"/>
+      <c r="G68" s="284"/>
+      <c r="H68" s="285"/>
+      <c r="I68" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="311"/>
-      <c r="K68" s="311"/>
-      <c r="L68" s="311"/>
-      <c r="M68" s="256" t="s">
+      <c r="J68" s="310"/>
+      <c r="K68" s="310"/>
+      <c r="L68" s="310"/>
+      <c r="M68" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N68" s="257"/>
-      <c r="O68" s="257"/>
-      <c r="P68" s="257"/>
-      <c r="Q68" s="257"/>
-      <c r="R68" s="257"/>
-      <c r="S68" s="257"/>
-      <c r="T68" s="258"/>
-      <c r="U68" s="288" t="s">
+      <c r="N68" s="249"/>
+      <c r="O68" s="249"/>
+      <c r="P68" s="249"/>
+      <c r="Q68" s="249"/>
+      <c r="R68" s="249"/>
+      <c r="S68" s="249"/>
+      <c r="T68" s="250"/>
+      <c r="U68" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V68" s="289"/>
-      <c r="W68" s="289"/>
-      <c r="X68" s="289"/>
-      <c r="Y68" s="290"/>
-      <c r="Z68" s="288" t="s">
+      <c r="V68" s="284"/>
+      <c r="W68" s="284"/>
+      <c r="X68" s="284"/>
+      <c r="Y68" s="285"/>
+      <c r="Z68" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA68" s="289"/>
-      <c r="AB68" s="290"/>
+      <c r="AA68" s="284"/>
+      <c r="AB68" s="285"/>
       <c r="AC68" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="288" t="s">
+      <c r="AD68" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="AE68" s="289"/>
-      <c r="AF68" s="289"/>
-      <c r="AG68" s="290"/>
+      <c r="AE68" s="284"/>
+      <c r="AF68" s="284"/>
+      <c r="AG68" s="285"/>
       <c r="AH68" s="118"/>
       <c r="AI68" s="118"/>
       <c r="AJ68" s="118"/>
       <c r="AK68" s="118"/>
-      <c r="AL68" s="228" t="s">
+      <c r="AL68" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="AM68" s="229" t="s">
+      <c r="AM68" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AN68" s="229" t="s">
+      <c r="AN68" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AO68" s="229" t="s">
+      <c r="AO68" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP68" s="239" t="s">
+      <c r="AP68" s="304" t="s">
         <v>16</v>
       </c>
       <c r="AQ68" s="118"/>
@@ -8688,66 +8678,66 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E69" s="288" t="s">
+      <c r="E69" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="289"/>
-      <c r="G69" s="289"/>
-      <c r="H69" s="290"/>
-      <c r="I69" s="311" t="s">
+      <c r="F69" s="284"/>
+      <c r="G69" s="284"/>
+      <c r="H69" s="285"/>
+      <c r="I69" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="J69" s="311"/>
-      <c r="K69" s="311"/>
-      <c r="L69" s="311"/>
-      <c r="M69" s="256" t="s">
+      <c r="J69" s="310"/>
+      <c r="K69" s="310"/>
+      <c r="L69" s="310"/>
+      <c r="M69" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N69" s="257"/>
-      <c r="O69" s="257"/>
-      <c r="P69" s="257"/>
-      <c r="Q69" s="257"/>
-      <c r="R69" s="257"/>
-      <c r="S69" s="257"/>
-      <c r="T69" s="258"/>
-      <c r="U69" s="288" t="s">
+      <c r="N69" s="249"/>
+      <c r="O69" s="249"/>
+      <c r="P69" s="249"/>
+      <c r="Q69" s="249"/>
+      <c r="R69" s="249"/>
+      <c r="S69" s="249"/>
+      <c r="T69" s="250"/>
+      <c r="U69" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V69" s="289"/>
-      <c r="W69" s="289"/>
-      <c r="X69" s="289"/>
-      <c r="Y69" s="290"/>
-      <c r="Z69" s="288" t="s">
+      <c r="V69" s="284"/>
+      <c r="W69" s="284"/>
+      <c r="X69" s="284"/>
+      <c r="Y69" s="285"/>
+      <c r="Z69" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="AA69" s="289"/>
-      <c r="AB69" s="290"/>
+      <c r="AA69" s="284"/>
+      <c r="AB69" s="285"/>
       <c r="AC69" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD69" s="288" t="s">
+      <c r="AD69" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="AE69" s="289"/>
-      <c r="AF69" s="289"/>
-      <c r="AG69" s="290"/>
+      <c r="AE69" s="284"/>
+      <c r="AF69" s="284"/>
+      <c r="AG69" s="285"/>
       <c r="AH69" s="118"/>
       <c r="AI69" s="118"/>
       <c r="AJ69" s="118"/>
       <c r="AK69" s="118"/>
-      <c r="AL69" s="228" t="s">
+      <c r="AL69" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="AM69" s="229" t="s">
+      <c r="AM69" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AN69" s="229" t="s">
+      <c r="AN69" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AO69" s="229" t="s">
+      <c r="AO69" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP69" s="239" t="s">
+      <c r="AP69" s="304" t="s">
         <v>16</v>
       </c>
       <c r="AQ69" s="118"/>
@@ -8766,66 +8756,66 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E70" s="288" t="s">
+      <c r="E70" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="289"/>
-      <c r="G70" s="289"/>
-      <c r="H70" s="290"/>
-      <c r="I70" s="311" t="s">
+      <c r="F70" s="284"/>
+      <c r="G70" s="284"/>
+      <c r="H70" s="285"/>
+      <c r="I70" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="311"/>
-      <c r="K70" s="311"/>
-      <c r="L70" s="311"/>
-      <c r="M70" s="309" t="s">
+      <c r="J70" s="310"/>
+      <c r="K70" s="310"/>
+      <c r="L70" s="310"/>
+      <c r="M70" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="N70" s="309"/>
-      <c r="O70" s="309"/>
-      <c r="P70" s="309"/>
-      <c r="Q70" s="309"/>
-      <c r="R70" s="309"/>
-      <c r="S70" s="309"/>
-      <c r="T70" s="309"/>
-      <c r="U70" s="310" t="s">
+      <c r="N70" s="308"/>
+      <c r="O70" s="308"/>
+      <c r="P70" s="308"/>
+      <c r="Q70" s="308"/>
+      <c r="R70" s="308"/>
+      <c r="S70" s="308"/>
+      <c r="T70" s="308"/>
+      <c r="U70" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="V70" s="310"/>
-      <c r="W70" s="310"/>
-      <c r="X70" s="310"/>
-      <c r="Y70" s="310"/>
-      <c r="Z70" s="310" t="s">
+      <c r="V70" s="309"/>
+      <c r="W70" s="309"/>
+      <c r="X70" s="309"/>
+      <c r="Y70" s="309"/>
+      <c r="Z70" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="AA70" s="310"/>
-      <c r="AB70" s="310"/>
+      <c r="AA70" s="309"/>
+      <c r="AB70" s="309"/>
       <c r="AC70" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD70" s="288" t="s">
+      <c r="AD70" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="AE70" s="289"/>
-      <c r="AF70" s="289"/>
-      <c r="AG70" s="290"/>
+      <c r="AE70" s="284"/>
+      <c r="AF70" s="284"/>
+      <c r="AG70" s="285"/>
       <c r="AH70" s="111"/>
       <c r="AI70" s="111"/>
       <c r="AJ70" s="111"/>
       <c r="AK70" s="111"/>
-      <c r="AL70" s="228" t="s">
+      <c r="AL70" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="AM70" s="229" t="s">
+      <c r="AM70" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN70" s="229" t="s">
+      <c r="AN70" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO70" s="229" t="s">
+      <c r="AO70" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP70" s="239" t="s">
+      <c r="AP70" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ70" s="111"/>
@@ -8838,38 +8828,38 @@
     </row>
     <row r="71" spans="3:51" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="95"/>
-      <c r="D71" s="312" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="313"/>
-      <c r="F71" s="313"/>
-      <c r="G71" s="313"/>
-      <c r="H71" s="313"/>
-      <c r="I71" s="313"/>
-      <c r="J71" s="313"/>
-      <c r="K71" s="313"/>
-      <c r="L71" s="313"/>
-      <c r="M71" s="313"/>
-      <c r="N71" s="313"/>
-      <c r="O71" s="313"/>
-      <c r="P71" s="313"/>
-      <c r="Q71" s="313"/>
-      <c r="R71" s="313"/>
-      <c r="S71" s="313"/>
-      <c r="T71" s="313"/>
-      <c r="U71" s="313"/>
-      <c r="V71" s="313"/>
-      <c r="W71" s="313"/>
-      <c r="X71" s="313"/>
-      <c r="Y71" s="313"/>
-      <c r="Z71" s="313"/>
-      <c r="AA71" s="313"/>
-      <c r="AB71" s="313"/>
-      <c r="AC71" s="313"/>
-      <c r="AD71" s="313"/>
-      <c r="AE71" s="313"/>
-      <c r="AF71" s="313"/>
-      <c r="AG71" s="314"/>
+      <c r="D71" s="311" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="312"/>
+      <c r="F71" s="312"/>
+      <c r="G71" s="312"/>
+      <c r="H71" s="312"/>
+      <c r="I71" s="312"/>
+      <c r="J71" s="312"/>
+      <c r="K71" s="312"/>
+      <c r="L71" s="312"/>
+      <c r="M71" s="312"/>
+      <c r="N71" s="312"/>
+      <c r="O71" s="312"/>
+      <c r="P71" s="312"/>
+      <c r="Q71" s="312"/>
+      <c r="R71" s="312"/>
+      <c r="S71" s="312"/>
+      <c r="T71" s="312"/>
+      <c r="U71" s="312"/>
+      <c r="V71" s="312"/>
+      <c r="W71" s="312"/>
+      <c r="X71" s="312"/>
+      <c r="Y71" s="312"/>
+      <c r="Z71" s="312"/>
+      <c r="AA71" s="312"/>
+      <c r="AB71" s="312"/>
+      <c r="AC71" s="312"/>
+      <c r="AD71" s="312"/>
+      <c r="AE71" s="312"/>
+      <c r="AF71" s="312"/>
+      <c r="AG71" s="313"/>
       <c r="AH71" s="111"/>
       <c r="AI71" s="111"/>
       <c r="AJ71" s="111"/>
@@ -8895,66 +8885,66 @@
         <f>D70+1</f>
         <v>12</v>
       </c>
-      <c r="E72" s="228" t="s">
+      <c r="E72" s="230" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="229"/>
-      <c r="G72" s="229"/>
-      <c r="H72" s="239"/>
-      <c r="I72" s="291" t="s">
+      <c r="F72" s="231"/>
+      <c r="G72" s="231"/>
+      <c r="H72" s="304"/>
+      <c r="I72" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="292"/>
-      <c r="K72" s="292"/>
-      <c r="L72" s="293"/>
-      <c r="M72" s="309" t="s">
+      <c r="J72" s="287"/>
+      <c r="K72" s="287"/>
+      <c r="L72" s="288"/>
+      <c r="M72" s="308" t="s">
         <v>119</v>
       </c>
-      <c r="N72" s="309"/>
-      <c r="O72" s="309"/>
-      <c r="P72" s="309"/>
-      <c r="Q72" s="309"/>
-      <c r="R72" s="309"/>
-      <c r="S72" s="309"/>
-      <c r="T72" s="309"/>
-      <c r="U72" s="310" t="s">
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="308"/>
+      <c r="Q72" s="308"/>
+      <c r="R72" s="308"/>
+      <c r="S72" s="308"/>
+      <c r="T72" s="308"/>
+      <c r="U72" s="309" t="s">
         <v>121</v>
       </c>
-      <c r="V72" s="310"/>
-      <c r="W72" s="310"/>
-      <c r="X72" s="310"/>
-      <c r="Y72" s="310"/>
-      <c r="Z72" s="310" t="s">
+      <c r="V72" s="309"/>
+      <c r="W72" s="309"/>
+      <c r="X72" s="309"/>
+      <c r="Y72" s="309"/>
+      <c r="Z72" s="309" t="s">
         <v>36</v>
       </c>
-      <c r="AA72" s="310"/>
-      <c r="AB72" s="310"/>
+      <c r="AA72" s="309"/>
+      <c r="AB72" s="309"/>
       <c r="AC72" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD72" s="288" t="s">
+      <c r="AD72" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE72" s="289"/>
-      <c r="AF72" s="289"/>
-      <c r="AG72" s="290"/>
+      <c r="AE72" s="284"/>
+      <c r="AF72" s="284"/>
+      <c r="AG72" s="285"/>
       <c r="AH72" s="111"/>
       <c r="AI72" s="111"/>
       <c r="AJ72" s="111"/>
       <c r="AK72" s="111"/>
-      <c r="AL72" s="228" t="s">
+      <c r="AL72" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM72" s="229" t="s">
+      <c r="AM72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN72" s="229" t="s">
+      <c r="AN72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO72" s="229" t="s">
+      <c r="AO72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP72" s="239" t="s">
+      <c r="AP72" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ72" s="111"/>
@@ -8971,66 +8961,66 @@
         <f t="shared" ref="D73:D80" si="1">D72+1</f>
         <v>13</v>
       </c>
-      <c r="E73" s="228" t="s">
+      <c r="E73" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="229"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="239"/>
-      <c r="I73" s="291" t="s">
+      <c r="F73" s="231"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="304"/>
+      <c r="I73" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J73" s="292"/>
-      <c r="K73" s="292"/>
-      <c r="L73" s="293"/>
-      <c r="M73" s="256" t="s">
-        <v>270</v>
-      </c>
-      <c r="N73" s="257"/>
-      <c r="O73" s="257"/>
-      <c r="P73" s="257"/>
-      <c r="Q73" s="257"/>
-      <c r="R73" s="257"/>
-      <c r="S73" s="257"/>
-      <c r="T73" s="258"/>
-      <c r="U73" s="288" t="s">
+      <c r="J73" s="287"/>
+      <c r="K73" s="287"/>
+      <c r="L73" s="288"/>
+      <c r="M73" s="248" t="s">
+        <v>269</v>
+      </c>
+      <c r="N73" s="249"/>
+      <c r="O73" s="249"/>
+      <c r="P73" s="249"/>
+      <c r="Q73" s="249"/>
+      <c r="R73" s="249"/>
+      <c r="S73" s="249"/>
+      <c r="T73" s="250"/>
+      <c r="U73" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V73" s="289"/>
-      <c r="W73" s="289"/>
-      <c r="X73" s="289"/>
-      <c r="Y73" s="290"/>
-      <c r="Z73" s="288" t="s">
+      <c r="V73" s="284"/>
+      <c r="W73" s="284"/>
+      <c r="X73" s="284"/>
+      <c r="Y73" s="285"/>
+      <c r="Z73" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="AA73" s="289"/>
-      <c r="AB73" s="290"/>
+      <c r="AA73" s="284"/>
+      <c r="AB73" s="285"/>
       <c r="AC73" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD73" s="288" t="s">
+      <c r="AD73" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE73" s="289"/>
-      <c r="AF73" s="289"/>
-      <c r="AG73" s="290"/>
+      <c r="AE73" s="284"/>
+      <c r="AF73" s="284"/>
+      <c r="AG73" s="285"/>
       <c r="AH73" s="118"/>
       <c r="AI73" s="118"/>
       <c r="AJ73" s="118"/>
       <c r="AK73" s="118"/>
-      <c r="AL73" s="228" t="s">
+      <c r="AL73" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM73" s="229" t="s">
+      <c r="AM73" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN73" s="229" t="s">
+      <c r="AN73" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO73" s="229" t="s">
+      <c r="AO73" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP73" s="239" t="s">
+      <c r="AP73" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ73" s="118"/>
@@ -9049,66 +9039,66 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="E74" s="228" t="s">
+      <c r="E74" s="230" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="229"/>
-      <c r="G74" s="229"/>
-      <c r="H74" s="239"/>
-      <c r="I74" s="291" t="s">
+      <c r="F74" s="231"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="304"/>
+      <c r="I74" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="292"/>
-      <c r="K74" s="292"/>
-      <c r="L74" s="293"/>
-      <c r="M74" s="256" t="s">
-        <v>270</v>
-      </c>
-      <c r="N74" s="257"/>
-      <c r="O74" s="257"/>
-      <c r="P74" s="257"/>
-      <c r="Q74" s="257"/>
-      <c r="R74" s="257"/>
-      <c r="S74" s="257"/>
-      <c r="T74" s="258"/>
-      <c r="U74" s="288" t="s">
+      <c r="J74" s="287"/>
+      <c r="K74" s="287"/>
+      <c r="L74" s="288"/>
+      <c r="M74" s="248" t="s">
+        <v>269</v>
+      </c>
+      <c r="N74" s="249"/>
+      <c r="O74" s="249"/>
+      <c r="P74" s="249"/>
+      <c r="Q74" s="249"/>
+      <c r="R74" s="249"/>
+      <c r="S74" s="249"/>
+      <c r="T74" s="250"/>
+      <c r="U74" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V74" s="289"/>
-      <c r="W74" s="289"/>
-      <c r="X74" s="289"/>
-      <c r="Y74" s="290"/>
-      <c r="Z74" s="288" t="s">
+      <c r="V74" s="284"/>
+      <c r="W74" s="284"/>
+      <c r="X74" s="284"/>
+      <c r="Y74" s="285"/>
+      <c r="Z74" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="AA74" s="289"/>
-      <c r="AB74" s="290"/>
+      <c r="AA74" s="284"/>
+      <c r="AB74" s="285"/>
       <c r="AC74" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD74" s="288" t="s">
+      <c r="AD74" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE74" s="289"/>
-      <c r="AF74" s="289"/>
-      <c r="AG74" s="290"/>
+      <c r="AE74" s="284"/>
+      <c r="AF74" s="284"/>
+      <c r="AG74" s="285"/>
       <c r="AH74" s="118"/>
       <c r="AI74" s="118"/>
       <c r="AJ74" s="118"/>
       <c r="AK74" s="118"/>
-      <c r="AL74" s="228" t="s">
+      <c r="AL74" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM74" s="229" t="s">
+      <c r="AM74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN74" s="229" t="s">
+      <c r="AN74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO74" s="229" t="s">
+      <c r="AO74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP74" s="239" t="s">
+      <c r="AP74" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ74" s="118"/>
@@ -9127,66 +9117,66 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E75" s="228" t="s">
+      <c r="E75" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="F75" s="229"/>
-      <c r="G75" s="229"/>
-      <c r="H75" s="239"/>
-      <c r="I75" s="291" t="s">
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="304"/>
+      <c r="I75" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J75" s="292"/>
-      <c r="K75" s="292"/>
-      <c r="L75" s="293"/>
-      <c r="M75" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="N75" s="257"/>
-      <c r="O75" s="257"/>
-      <c r="P75" s="257"/>
-      <c r="Q75" s="257"/>
-      <c r="R75" s="257"/>
-      <c r="S75" s="257"/>
-      <c r="T75" s="258"/>
-      <c r="U75" s="288" t="s">
-        <v>127</v>
-      </c>
-      <c r="V75" s="289"/>
-      <c r="W75" s="289"/>
-      <c r="X75" s="289"/>
-      <c r="Y75" s="290"/>
-      <c r="Z75" s="310" t="s">
+      <c r="J75" s="287"/>
+      <c r="K75" s="287"/>
+      <c r="L75" s="288"/>
+      <c r="M75" s="248" t="s">
+        <v>217</v>
+      </c>
+      <c r="N75" s="249"/>
+      <c r="O75" s="249"/>
+      <c r="P75" s="249"/>
+      <c r="Q75" s="249"/>
+      <c r="R75" s="249"/>
+      <c r="S75" s="249"/>
+      <c r="T75" s="250"/>
+      <c r="U75" s="283" t="s">
+        <v>359</v>
+      </c>
+      <c r="V75" s="284"/>
+      <c r="W75" s="284"/>
+      <c r="X75" s="284"/>
+      <c r="Y75" s="285"/>
+      <c r="Z75" s="309" t="s">
         <v>37</v>
       </c>
-      <c r="AA75" s="310"/>
-      <c r="AB75" s="310"/>
+      <c r="AA75" s="309"/>
+      <c r="AB75" s="309"/>
       <c r="AC75" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD75" s="288" t="s">
+      <c r="AD75" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE75" s="289"/>
-      <c r="AF75" s="289"/>
-      <c r="AG75" s="290"/>
+      <c r="AE75" s="284"/>
+      <c r="AF75" s="284"/>
+      <c r="AG75" s="285"/>
       <c r="AH75" s="111"/>
       <c r="AI75" s="111"/>
       <c r="AJ75" s="111"/>
       <c r="AK75" s="111"/>
-      <c r="AL75" s="228" t="s">
+      <c r="AL75" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM75" s="229" t="s">
+      <c r="AM75" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN75" s="229" t="s">
+      <c r="AN75" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO75" s="229" t="s">
+      <c r="AO75" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP75" s="239" t="s">
+      <c r="AP75" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ75" s="111"/>
@@ -9203,66 +9193,66 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E76" s="228" t="s">
+      <c r="E76" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="229"/>
-      <c r="G76" s="229"/>
-      <c r="H76" s="239"/>
-      <c r="I76" s="291" t="s">
+      <c r="F76" s="231"/>
+      <c r="G76" s="231"/>
+      <c r="H76" s="304"/>
+      <c r="I76" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J76" s="292"/>
-      <c r="K76" s="292"/>
-      <c r="L76" s="293"/>
-      <c r="M76" s="256" t="s">
-        <v>217</v>
-      </c>
-      <c r="N76" s="257"/>
-      <c r="O76" s="257"/>
-      <c r="P76" s="257"/>
-      <c r="Q76" s="257"/>
-      <c r="R76" s="257"/>
-      <c r="S76" s="257"/>
-      <c r="T76" s="258"/>
-      <c r="U76" s="288" t="s">
-        <v>128</v>
-      </c>
-      <c r="V76" s="289"/>
-      <c r="W76" s="289"/>
-      <c r="X76" s="289"/>
-      <c r="Y76" s="290"/>
-      <c r="Z76" s="310" t="s">
+      <c r="J76" s="287"/>
+      <c r="K76" s="287"/>
+      <c r="L76" s="288"/>
+      <c r="M76" s="248" t="s">
+        <v>216</v>
+      </c>
+      <c r="N76" s="249"/>
+      <c r="O76" s="249"/>
+      <c r="P76" s="249"/>
+      <c r="Q76" s="249"/>
+      <c r="R76" s="249"/>
+      <c r="S76" s="249"/>
+      <c r="T76" s="250"/>
+      <c r="U76" s="283" t="s">
+        <v>127</v>
+      </c>
+      <c r="V76" s="284"/>
+      <c r="W76" s="284"/>
+      <c r="X76" s="284"/>
+      <c r="Y76" s="285"/>
+      <c r="Z76" s="309" t="s">
         <v>37</v>
       </c>
-      <c r="AA76" s="310"/>
-      <c r="AB76" s="310"/>
+      <c r="AA76" s="309"/>
+      <c r="AB76" s="309"/>
       <c r="AC76" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD76" s="288" t="s">
+      <c r="AD76" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE76" s="289"/>
-      <c r="AF76" s="289"/>
-      <c r="AG76" s="290"/>
+      <c r="AE76" s="284"/>
+      <c r="AF76" s="284"/>
+      <c r="AG76" s="285"/>
       <c r="AH76" s="111"/>
       <c r="AI76" s="111"/>
       <c r="AJ76" s="111"/>
       <c r="AK76" s="111"/>
-      <c r="AL76" s="228" t="s">
+      <c r="AL76" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM76" s="229" t="s">
+      <c r="AM76" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN76" s="229" t="s">
+      <c r="AN76" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO76" s="229" t="s">
+      <c r="AO76" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP76" s="239" t="s">
+      <c r="AP76" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ76" s="111"/>
@@ -9279,66 +9269,66 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E77" s="228" t="s">
+      <c r="E77" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="F77" s="229"/>
-      <c r="G77" s="229"/>
-      <c r="H77" s="239"/>
-      <c r="I77" s="291" t="s">
+      <c r="F77" s="231"/>
+      <c r="G77" s="231"/>
+      <c r="H77" s="304"/>
+      <c r="I77" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J77" s="292"/>
-      <c r="K77" s="292"/>
-      <c r="L77" s="293"/>
-      <c r="M77" s="256" t="s">
-        <v>267</v>
-      </c>
-      <c r="N77" s="257"/>
-      <c r="O77" s="257"/>
-      <c r="P77" s="257"/>
-      <c r="Q77" s="257"/>
-      <c r="R77" s="257"/>
-      <c r="S77" s="257"/>
-      <c r="T77" s="258"/>
-      <c r="U77" s="288" t="s">
+      <c r="J77" s="287"/>
+      <c r="K77" s="287"/>
+      <c r="L77" s="288"/>
+      <c r="M77" s="248" t="s">
+        <v>266</v>
+      </c>
+      <c r="N77" s="249"/>
+      <c r="O77" s="249"/>
+      <c r="P77" s="249"/>
+      <c r="Q77" s="249"/>
+      <c r="R77" s="249"/>
+      <c r="S77" s="249"/>
+      <c r="T77" s="250"/>
+      <c r="U77" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="289"/>
-      <c r="W77" s="289"/>
-      <c r="X77" s="289"/>
-      <c r="Y77" s="290"/>
-      <c r="Z77" s="288" t="s">
+      <c r="V77" s="284"/>
+      <c r="W77" s="284"/>
+      <c r="X77" s="284"/>
+      <c r="Y77" s="285"/>
+      <c r="Z77" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA77" s="289"/>
-      <c r="AB77" s="290"/>
+      <c r="AA77" s="284"/>
+      <c r="AB77" s="285"/>
       <c r="AC77" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD77" s="288" t="s">
+      <c r="AD77" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE77" s="289"/>
-      <c r="AF77" s="289"/>
-      <c r="AG77" s="290"/>
+      <c r="AE77" s="284"/>
+      <c r="AF77" s="284"/>
+      <c r="AG77" s="285"/>
       <c r="AH77" s="118"/>
       <c r="AI77" s="118"/>
       <c r="AJ77" s="118"/>
       <c r="AK77" s="118"/>
-      <c r="AL77" s="228" t="s">
+      <c r="AL77" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM77" s="229" t="s">
+      <c r="AM77" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN77" s="229" t="s">
+      <c r="AN77" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO77" s="229" t="s">
+      <c r="AO77" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP77" s="239" t="s">
+      <c r="AP77" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ77" s="118"/>
@@ -9357,66 +9347,66 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="E78" s="228" t="s">
+      <c r="E78" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="229"/>
-      <c r="G78" s="229"/>
-      <c r="H78" s="239"/>
-      <c r="I78" s="306" t="s">
+      <c r="F78" s="231"/>
+      <c r="G78" s="231"/>
+      <c r="H78" s="304"/>
+      <c r="I78" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="J78" s="307"/>
-      <c r="K78" s="307"/>
-      <c r="L78" s="308"/>
-      <c r="M78" s="256" t="s">
-        <v>266</v>
-      </c>
-      <c r="N78" s="257"/>
-      <c r="O78" s="257"/>
-      <c r="P78" s="257"/>
-      <c r="Q78" s="257"/>
-      <c r="R78" s="257"/>
-      <c r="S78" s="257"/>
-      <c r="T78" s="258"/>
-      <c r="U78" s="288" t="s">
+      <c r="J78" s="306"/>
+      <c r="K78" s="306"/>
+      <c r="L78" s="307"/>
+      <c r="M78" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="N78" s="249"/>
+      <c r="O78" s="249"/>
+      <c r="P78" s="249"/>
+      <c r="Q78" s="249"/>
+      <c r="R78" s="249"/>
+      <c r="S78" s="249"/>
+      <c r="T78" s="250"/>
+      <c r="U78" s="283" t="s">
         <v>122</v>
       </c>
-      <c r="V78" s="289"/>
-      <c r="W78" s="289"/>
-      <c r="X78" s="289"/>
-      <c r="Y78" s="290"/>
-      <c r="Z78" s="288" t="s">
+      <c r="V78" s="284"/>
+      <c r="W78" s="284"/>
+      <c r="X78" s="284"/>
+      <c r="Y78" s="285"/>
+      <c r="Z78" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA78" s="289"/>
-      <c r="AB78" s="290"/>
+      <c r="AA78" s="284"/>
+      <c r="AB78" s="285"/>
       <c r="AC78" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD78" s="288" t="s">
+      <c r="AD78" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="289"/>
-      <c r="AF78" s="289"/>
-      <c r="AG78" s="290"/>
+      <c r="AE78" s="284"/>
+      <c r="AF78" s="284"/>
+      <c r="AG78" s="285"/>
       <c r="AH78" s="94"/>
       <c r="AI78" s="94"/>
       <c r="AJ78" s="94"/>
       <c r="AK78" s="94"/>
-      <c r="AL78" s="228" t="s">
+      <c r="AL78" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM78" s="229" t="s">
+      <c r="AM78" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN78" s="229" t="s">
+      <c r="AN78" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO78" s="229" t="s">
+      <c r="AO78" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP78" s="239" t="s">
+      <c r="AP78" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ78" s="94"/>
@@ -9434,66 +9424,66 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E79" s="288" t="s">
+      <c r="E79" s="283" t="s">
         <v>117</v>
       </c>
-      <c r="F79" s="289"/>
-      <c r="G79" s="289"/>
-      <c r="H79" s="290"/>
-      <c r="I79" s="291" t="s">
+      <c r="F79" s="284"/>
+      <c r="G79" s="284"/>
+      <c r="H79" s="285"/>
+      <c r="I79" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J79" s="292"/>
-      <c r="K79" s="292"/>
-      <c r="L79" s="293"/>
-      <c r="M79" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="N79" s="257"/>
-      <c r="O79" s="257"/>
-      <c r="P79" s="257"/>
-      <c r="Q79" s="257"/>
-      <c r="R79" s="257"/>
-      <c r="S79" s="257"/>
-      <c r="T79" s="258"/>
-      <c r="U79" s="288" t="s">
+      <c r="J79" s="287"/>
+      <c r="K79" s="287"/>
+      <c r="L79" s="288"/>
+      <c r="M79" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="N79" s="249"/>
+      <c r="O79" s="249"/>
+      <c r="P79" s="249"/>
+      <c r="Q79" s="249"/>
+      <c r="R79" s="249"/>
+      <c r="S79" s="249"/>
+      <c r="T79" s="250"/>
+      <c r="U79" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V79" s="289"/>
-      <c r="W79" s="289"/>
-      <c r="X79" s="289"/>
-      <c r="Y79" s="290"/>
-      <c r="Z79" s="288" t="s">
+      <c r="V79" s="284"/>
+      <c r="W79" s="284"/>
+      <c r="X79" s="284"/>
+      <c r="Y79" s="285"/>
+      <c r="Z79" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA79" s="289"/>
-      <c r="AB79" s="290"/>
+      <c r="AA79" s="284"/>
+      <c r="AB79" s="285"/>
       <c r="AC79" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD79" s="288" t="s">
+      <c r="AD79" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE79" s="289"/>
-      <c r="AF79" s="289"/>
-      <c r="AG79" s="290"/>
+      <c r="AE79" s="284"/>
+      <c r="AF79" s="284"/>
+      <c r="AG79" s="285"/>
       <c r="AH79" s="124"/>
       <c r="AI79" s="124"/>
       <c r="AJ79" s="124"/>
       <c r="AK79" s="111"/>
-      <c r="AL79" s="228" t="s">
+      <c r="AL79" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM79" s="229" t="s">
+      <c r="AM79" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN79" s="229" t="s">
+      <c r="AN79" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO79" s="229" t="s">
+      <c r="AO79" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP79" s="239" t="s">
+      <c r="AP79" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ79" s="111"/>
@@ -9510,66 +9500,66 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E80" s="288" t="s">
+      <c r="E80" s="283" t="s">
         <v>118</v>
       </c>
-      <c r="F80" s="289"/>
-      <c r="G80" s="289"/>
-      <c r="H80" s="290"/>
-      <c r="I80" s="291" t="s">
+      <c r="F80" s="284"/>
+      <c r="G80" s="284"/>
+      <c r="H80" s="285"/>
+      <c r="I80" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J80" s="292"/>
-      <c r="K80" s="292"/>
-      <c r="L80" s="293"/>
-      <c r="M80" s="256" t="s">
-        <v>269</v>
-      </c>
-      <c r="N80" s="257"/>
-      <c r="O80" s="257"/>
-      <c r="P80" s="257"/>
-      <c r="Q80" s="257"/>
-      <c r="R80" s="257"/>
-      <c r="S80" s="257"/>
-      <c r="T80" s="258"/>
-      <c r="U80" s="288" t="s">
+      <c r="J80" s="287"/>
+      <c r="K80" s="287"/>
+      <c r="L80" s="288"/>
+      <c r="M80" s="248" t="s">
+        <v>268</v>
+      </c>
+      <c r="N80" s="249"/>
+      <c r="O80" s="249"/>
+      <c r="P80" s="249"/>
+      <c r="Q80" s="249"/>
+      <c r="R80" s="249"/>
+      <c r="S80" s="249"/>
+      <c r="T80" s="250"/>
+      <c r="U80" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V80" s="289"/>
-      <c r="W80" s="289"/>
-      <c r="X80" s="289"/>
-      <c r="Y80" s="290"/>
-      <c r="Z80" s="288" t="s">
+      <c r="V80" s="284"/>
+      <c r="W80" s="284"/>
+      <c r="X80" s="284"/>
+      <c r="Y80" s="285"/>
+      <c r="Z80" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA80" s="289"/>
-      <c r="AB80" s="290"/>
+      <c r="AA80" s="284"/>
+      <c r="AB80" s="285"/>
       <c r="AC80" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD80" s="288" t="s">
+      <c r="AD80" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE80" s="289"/>
-      <c r="AF80" s="289"/>
-      <c r="AG80" s="290"/>
+      <c r="AE80" s="284"/>
+      <c r="AF80" s="284"/>
+      <c r="AG80" s="285"/>
       <c r="AH80" s="118"/>
       <c r="AI80" s="118"/>
       <c r="AJ80" s="118"/>
       <c r="AK80" s="118"/>
-      <c r="AL80" s="228" t="s">
+      <c r="AL80" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="AM80" s="229" t="s">
+      <c r="AM80" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AN80" s="229" t="s">
+      <c r="AN80" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AO80" s="229" t="s">
+      <c r="AO80" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP80" s="239" t="s">
+      <c r="AP80" s="304" t="s">
         <v>12</v>
       </c>
       <c r="AQ80" s="118"/>
@@ -9770,49 +9760,49 @@
     </row>
     <row r="85" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C85" s="94"/>
-      <c r="D85" s="348" t="s">
+      <c r="D85" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="296" t="s">
+      <c r="E85" s="291" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="292"/>
+      <c r="G85" s="292"/>
+      <c r="H85" s="292"/>
+      <c r="I85" s="292"/>
+      <c r="J85" s="293"/>
+      <c r="K85" s="291" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="297"/>
-      <c r="G85" s="297"/>
-      <c r="H85" s="297"/>
-      <c r="I85" s="297"/>
-      <c r="J85" s="298"/>
-      <c r="K85" s="296" t="s">
+      <c r="L85" s="292"/>
+      <c r="M85" s="292"/>
+      <c r="N85" s="293"/>
+      <c r="O85" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="L85" s="297"/>
-      <c r="M85" s="297"/>
-      <c r="N85" s="298"/>
-      <c r="O85" s="294" t="s">
+      <c r="P85" s="127" t="s">
         <v>131</v>
-      </c>
-      <c r="P85" s="127" t="s">
-        <v>132</v>
       </c>
       <c r="Q85" s="128"/>
       <c r="R85" s="128"/>
       <c r="S85" s="128"/>
       <c r="T85" s="128"/>
       <c r="U85" s="128"/>
-      <c r="V85" s="296" t="s">
+      <c r="V85" s="291" t="s">
         <v>78</v>
       </c>
-      <c r="W85" s="297"/>
-      <c r="X85" s="297"/>
-      <c r="Y85" s="297"/>
-      <c r="Z85" s="297"/>
-      <c r="AA85" s="297"/>
-      <c r="AB85" s="297"/>
-      <c r="AC85" s="297"/>
-      <c r="AD85" s="297"/>
-      <c r="AE85" s="297"/>
-      <c r="AF85" s="297"/>
-      <c r="AG85" s="297"/>
-      <c r="AH85" s="298"/>
+      <c r="W85" s="292"/>
+      <c r="X85" s="292"/>
+      <c r="Y85" s="292"/>
+      <c r="Z85" s="292"/>
+      <c r="AA85" s="292"/>
+      <c r="AB85" s="292"/>
+      <c r="AC85" s="292"/>
+      <c r="AD85" s="292"/>
+      <c r="AE85" s="292"/>
+      <c r="AF85" s="292"/>
+      <c r="AG85" s="292"/>
+      <c r="AH85" s="293"/>
       <c r="AK85" s="53"/>
       <c r="AL85" s="53"/>
       <c r="AM85" s="53"/>
@@ -9829,47 +9819,47 @@
     </row>
     <row r="86" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C86" s="94"/>
-      <c r="D86" s="349"/>
-      <c r="E86" s="299"/>
-      <c r="F86" s="300"/>
-      <c r="G86" s="300"/>
-      <c r="H86" s="300"/>
-      <c r="I86" s="300"/>
-      <c r="J86" s="301"/>
-      <c r="K86" s="299"/>
-      <c r="L86" s="300"/>
-      <c r="M86" s="300"/>
-      <c r="N86" s="301"/>
-      <c r="O86" s="295"/>
+      <c r="D86" s="348"/>
+      <c r="E86" s="294"/>
+      <c r="F86" s="295"/>
+      <c r="G86" s="295"/>
+      <c r="H86" s="295"/>
+      <c r="I86" s="295"/>
+      <c r="J86" s="296"/>
+      <c r="K86" s="294"/>
+      <c r="L86" s="295"/>
+      <c r="M86" s="295"/>
+      <c r="N86" s="296"/>
+      <c r="O86" s="290"/>
       <c r="P86" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q86" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="Q86" s="129" t="s">
+      <c r="R86" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="R86" s="129" t="s">
+      <c r="S86" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="S86" s="129" t="s">
+      <c r="T86" s="297" t="s">
         <v>136</v>
       </c>
-      <c r="T86" s="302" t="s">
-        <v>137</v>
-      </c>
-      <c r="U86" s="303"/>
-      <c r="V86" s="299"/>
-      <c r="W86" s="300"/>
-      <c r="X86" s="300"/>
-      <c r="Y86" s="300"/>
-      <c r="Z86" s="300"/>
-      <c r="AA86" s="300"/>
-      <c r="AB86" s="300"/>
-      <c r="AC86" s="300"/>
-      <c r="AD86" s="300"/>
-      <c r="AE86" s="300"/>
-      <c r="AF86" s="300"/>
-      <c r="AG86" s="300"/>
-      <c r="AH86" s="301"/>
+      <c r="U86" s="298"/>
+      <c r="V86" s="294"/>
+      <c r="W86" s="295"/>
+      <c r="X86" s="295"/>
+      <c r="Y86" s="295"/>
+      <c r="Z86" s="295"/>
+      <c r="AA86" s="295"/>
+      <c r="AB86" s="295"/>
+      <c r="AC86" s="295"/>
+      <c r="AD86" s="295"/>
+      <c r="AE86" s="295"/>
+      <c r="AF86" s="295"/>
+      <c r="AG86" s="295"/>
+      <c r="AH86" s="296"/>
       <c r="AK86" s="53"/>
       <c r="AL86" s="53"/>
       <c r="AM86" s="53"/>
@@ -9889,20 +9879,20 @@
       <c r="D87" s="132">
         <v>1</v>
       </c>
-      <c r="E87" s="236" t="s">
-        <v>138</v>
-      </c>
-      <c r="F87" s="237"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="237"/>
-      <c r="I87" s="237"/>
-      <c r="J87" s="238"/>
-      <c r="K87" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="L87" s="289"/>
-      <c r="M87" s="289"/>
-      <c r="N87" s="290"/>
+      <c r="E87" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="300"/>
+      <c r="G87" s="300"/>
+      <c r="H87" s="300"/>
+      <c r="I87" s="300"/>
+      <c r="J87" s="301"/>
+      <c r="K87" s="283" t="s">
+        <v>139</v>
+      </c>
+      <c r="L87" s="284"/>
+      <c r="M87" s="284"/>
+      <c r="N87" s="285"/>
       <c r="O87" s="133" t="s">
         <v>7</v>
       </c>
@@ -9910,7 +9900,7 @@
         <v>5</v>
       </c>
       <c r="Q87" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R87" s="134" t="s">
         <v>5</v>
@@ -9918,25 +9908,25 @@
       <c r="S87" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T87" s="304" t="s">
+      <c r="T87" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="U87" s="305"/>
-      <c r="V87" s="288" t="s">
+      <c r="U87" s="303"/>
+      <c r="V87" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="W87" s="289"/>
-      <c r="X87" s="289"/>
-      <c r="Y87" s="289"/>
-      <c r="Z87" s="289"/>
-      <c r="AA87" s="289"/>
-      <c r="AB87" s="289"/>
-      <c r="AC87" s="289"/>
-      <c r="AD87" s="289"/>
-      <c r="AE87" s="289"/>
-      <c r="AF87" s="289"/>
-      <c r="AG87" s="289"/>
-      <c r="AH87" s="290"/>
+      <c r="W87" s="284"/>
+      <c r="X87" s="284"/>
+      <c r="Y87" s="284"/>
+      <c r="Z87" s="284"/>
+      <c r="AA87" s="284"/>
+      <c r="AB87" s="284"/>
+      <c r="AC87" s="284"/>
+      <c r="AD87" s="284"/>
+      <c r="AE87" s="284"/>
+      <c r="AF87" s="284"/>
+      <c r="AG87" s="284"/>
+      <c r="AH87" s="285"/>
       <c r="AK87" s="53"/>
       <c r="AL87" s="53"/>
       <c r="AM87" s="53"/>
@@ -9956,20 +9946,20 @@
       <c r="D88" s="132">
         <v>2</v>
       </c>
-      <c r="E88" s="236" t="s">
+      <c r="E88" s="299" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="300"/>
+      <c r="G88" s="300"/>
+      <c r="H88" s="300"/>
+      <c r="I88" s="300"/>
+      <c r="J88" s="301"/>
+      <c r="K88" s="283" t="s">
         <v>139</v>
       </c>
-      <c r="F88" s="237"/>
-      <c r="G88" s="237"/>
-      <c r="H88" s="237"/>
-      <c r="I88" s="237"/>
-      <c r="J88" s="238"/>
-      <c r="K88" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="L88" s="289"/>
-      <c r="M88" s="289"/>
-      <c r="N88" s="290"/>
+      <c r="L88" s="284"/>
+      <c r="M88" s="284"/>
+      <c r="N88" s="285"/>
       <c r="O88" s="133" t="s">
         <v>7</v>
       </c>
@@ -9977,7 +9967,7 @@
         <v>5</v>
       </c>
       <c r="Q88" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R88" s="134" t="s">
         <v>5</v>
@@ -9985,25 +9975,25 @@
       <c r="S88" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T88" s="304" t="s">
+      <c r="T88" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="U88" s="305"/>
-      <c r="V88" s="288" t="s">
+      <c r="U88" s="303"/>
+      <c r="V88" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="W88" s="289"/>
-      <c r="X88" s="289"/>
-      <c r="Y88" s="289"/>
-      <c r="Z88" s="289"/>
-      <c r="AA88" s="289"/>
-      <c r="AB88" s="289"/>
-      <c r="AC88" s="289"/>
-      <c r="AD88" s="289"/>
-      <c r="AE88" s="289"/>
-      <c r="AF88" s="289"/>
-      <c r="AG88" s="289"/>
-      <c r="AH88" s="290"/>
+      <c r="W88" s="284"/>
+      <c r="X88" s="284"/>
+      <c r="Y88" s="284"/>
+      <c r="Z88" s="284"/>
+      <c r="AA88" s="284"/>
+      <c r="AB88" s="284"/>
+      <c r="AC88" s="284"/>
+      <c r="AD88" s="284"/>
+      <c r="AE88" s="284"/>
+      <c r="AF88" s="284"/>
+      <c r="AG88" s="284"/>
+      <c r="AH88" s="285"/>
       <c r="AK88" s="53"/>
       <c r="AL88" s="53"/>
       <c r="AM88" s="53"/>
@@ -10194,276 +10184,276 @@
       <c r="D93" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="345" t="s">
+      <c r="E93" s="344" t="s">
+        <v>141</v>
+      </c>
+      <c r="F93" s="257"/>
+      <c r="G93" s="257"/>
+      <c r="H93" s="257"/>
+      <c r="I93" s="257"/>
+      <c r="J93" s="345"/>
+      <c r="K93" s="344" t="s">
         <v>142</v>
       </c>
-      <c r="F93" s="262"/>
-      <c r="G93" s="262"/>
-      <c r="H93" s="262"/>
-      <c r="I93" s="262"/>
-      <c r="J93" s="346"/>
-      <c r="K93" s="345" t="s">
+      <c r="L93" s="257"/>
+      <c r="M93" s="257"/>
+      <c r="N93" s="257"/>
+      <c r="O93" s="257"/>
+      <c r="P93" s="257"/>
+      <c r="Q93" s="258"/>
+      <c r="R93" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="L93" s="262"/>
-      <c r="M93" s="262"/>
-      <c r="N93" s="262"/>
-      <c r="O93" s="262"/>
-      <c r="P93" s="262"/>
-      <c r="Q93" s="263"/>
-      <c r="R93" s="225" t="s">
+      <c r="S93" s="257"/>
+      <c r="T93" s="257"/>
+      <c r="U93" s="257"/>
+      <c r="V93" s="257"/>
+      <c r="W93" s="257"/>
+      <c r="X93" s="257"/>
+      <c r="Y93" s="258"/>
+      <c r="Z93" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="S93" s="262"/>
-      <c r="T93" s="262"/>
-      <c r="U93" s="262"/>
-      <c r="V93" s="262"/>
-      <c r="W93" s="262"/>
-      <c r="X93" s="262"/>
-      <c r="Y93" s="263"/>
-      <c r="Z93" s="267" t="s">
+      <c r="AA93" s="263"/>
+      <c r="AB93" s="263"/>
+      <c r="AC93" s="263"/>
+      <c r="AD93" s="264"/>
+      <c r="AE93" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="AA93" s="268"/>
-      <c r="AB93" s="268"/>
-      <c r="AC93" s="268"/>
-      <c r="AD93" s="269"/>
-      <c r="AE93" s="264" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF93" s="265"/>
-      <c r="AG93" s="265"/>
-      <c r="AH93" s="266"/>
+      <c r="AF93" s="260"/>
+      <c r="AG93" s="260"/>
+      <c r="AH93" s="261"/>
     </row>
     <row r="94" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="94"/>
       <c r="D94" s="137">
         <v>1</v>
       </c>
-      <c r="E94" s="270" t="s">
+      <c r="E94" s="265" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="266"/>
+      <c r="G94" s="266"/>
+      <c r="H94" s="266"/>
+      <c r="I94" s="266"/>
+      <c r="J94" s="267"/>
+      <c r="K94" s="283" t="s">
+        <v>161</v>
+      </c>
+      <c r="L94" s="284"/>
+      <c r="M94" s="284"/>
+      <c r="N94" s="284"/>
+      <c r="O94" s="284"/>
+      <c r="P94" s="284"/>
+      <c r="Q94" s="285"/>
+      <c r="R94" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="F94" s="271"/>
-      <c r="G94" s="271"/>
-      <c r="H94" s="271"/>
-      <c r="I94" s="271"/>
-      <c r="J94" s="272"/>
-      <c r="K94" s="288" t="s">
-        <v>162</v>
-      </c>
-      <c r="L94" s="289"/>
-      <c r="M94" s="289"/>
-      <c r="N94" s="289"/>
-      <c r="O94" s="289"/>
-      <c r="P94" s="289"/>
-      <c r="Q94" s="290"/>
-      <c r="R94" s="288" t="s">
-        <v>150</v>
-      </c>
-      <c r="S94" s="289"/>
-      <c r="T94" s="289"/>
-      <c r="U94" s="289"/>
-      <c r="V94" s="289"/>
-      <c r="W94" s="289"/>
-      <c r="X94" s="289"/>
-      <c r="Y94" s="290"/>
-      <c r="Z94" s="288" t="s">
+      <c r="S94" s="284"/>
+      <c r="T94" s="284"/>
+      <c r="U94" s="284"/>
+      <c r="V94" s="284"/>
+      <c r="W94" s="284"/>
+      <c r="X94" s="284"/>
+      <c r="Y94" s="285"/>
+      <c r="Z94" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="AA94" s="289"/>
-      <c r="AB94" s="289"/>
-      <c r="AC94" s="289"/>
-      <c r="AD94" s="290"/>
-      <c r="AE94" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF94" s="274"/>
-      <c r="AG94" s="274"/>
-      <c r="AH94" s="275"/>
+      <c r="AA94" s="284"/>
+      <c r="AB94" s="284"/>
+      <c r="AC94" s="284"/>
+      <c r="AD94" s="285"/>
+      <c r="AE94" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF94" s="269"/>
+      <c r="AG94" s="269"/>
+      <c r="AH94" s="270"/>
     </row>
     <row r="95" spans="3:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="94"/>
       <c r="D95" s="138">
         <v>2</v>
       </c>
-      <c r="E95" s="339" t="s">
+      <c r="E95" s="338" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="339"/>
+      <c r="G95" s="339"/>
+      <c r="H95" s="339"/>
+      <c r="I95" s="339"/>
+      <c r="J95" s="340"/>
+      <c r="K95" s="338" t="s">
+        <v>157</v>
+      </c>
+      <c r="L95" s="339"/>
+      <c r="M95" s="339"/>
+      <c r="N95" s="339"/>
+      <c r="O95" s="339"/>
+      <c r="P95" s="339"/>
+      <c r="Q95" s="340"/>
+      <c r="R95" s="338" t="s">
         <v>151</v>
       </c>
-      <c r="F95" s="340"/>
-      <c r="G95" s="340"/>
-      <c r="H95" s="340"/>
-      <c r="I95" s="340"/>
-      <c r="J95" s="341"/>
-      <c r="K95" s="339" t="s">
-        <v>158</v>
-      </c>
-      <c r="L95" s="340"/>
-      <c r="M95" s="340"/>
-      <c r="N95" s="340"/>
-      <c r="O95" s="340"/>
-      <c r="P95" s="340"/>
-      <c r="Q95" s="341"/>
-      <c r="R95" s="339" t="s">
-        <v>152</v>
-      </c>
-      <c r="S95" s="340"/>
-      <c r="T95" s="340"/>
-      <c r="U95" s="340"/>
-      <c r="V95" s="340"/>
-      <c r="W95" s="340"/>
-      <c r="X95" s="340"/>
-      <c r="Y95" s="341"/>
-      <c r="Z95" s="339" t="s">
+      <c r="S95" s="339"/>
+      <c r="T95" s="339"/>
+      <c r="U95" s="339"/>
+      <c r="V95" s="339"/>
+      <c r="W95" s="339"/>
+      <c r="X95" s="339"/>
+      <c r="Y95" s="340"/>
+      <c r="Z95" s="338" t="s">
         <v>34</v>
       </c>
-      <c r="AA95" s="340"/>
-      <c r="AB95" s="340"/>
-      <c r="AC95" s="340"/>
-      <c r="AD95" s="341"/>
-      <c r="AE95" s="342" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF95" s="343"/>
-      <c r="AG95" s="343"/>
-      <c r="AH95" s="344"/>
+      <c r="AA95" s="339"/>
+      <c r="AB95" s="339"/>
+      <c r="AC95" s="339"/>
+      <c r="AD95" s="340"/>
+      <c r="AE95" s="341" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF95" s="342"/>
+      <c r="AG95" s="342"/>
+      <c r="AH95" s="343"/>
     </row>
     <row r="96" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="94"/>
       <c r="D96" s="137">
         <v>3</v>
       </c>
-      <c r="E96" s="270" t="s">
+      <c r="E96" s="265" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" s="266"/>
+      <c r="G96" s="266"/>
+      <c r="H96" s="266"/>
+      <c r="I96" s="266"/>
+      <c r="J96" s="267"/>
+      <c r="K96" s="283" t="s">
+        <v>299</v>
+      </c>
+      <c r="L96" s="284"/>
+      <c r="M96" s="284"/>
+      <c r="N96" s="284"/>
+      <c r="O96" s="284"/>
+      <c r="P96" s="284"/>
+      <c r="Q96" s="285"/>
+      <c r="R96" s="283" t="s">
         <v>153</v>
       </c>
-      <c r="F96" s="271"/>
-      <c r="G96" s="271"/>
-      <c r="H96" s="271"/>
-      <c r="I96" s="271"/>
-      <c r="J96" s="272"/>
-      <c r="K96" s="288" t="s">
-        <v>302</v>
-      </c>
-      <c r="L96" s="289"/>
-      <c r="M96" s="289"/>
-      <c r="N96" s="289"/>
-      <c r="O96" s="289"/>
-      <c r="P96" s="289"/>
-      <c r="Q96" s="290"/>
-      <c r="R96" s="288" t="s">
+      <c r="S96" s="284"/>
+      <c r="T96" s="284"/>
+      <c r="U96" s="284"/>
+      <c r="V96" s="284"/>
+      <c r="W96" s="284"/>
+      <c r="X96" s="284"/>
+      <c r="Y96" s="285"/>
+      <c r="Z96" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="S96" s="289"/>
-      <c r="T96" s="289"/>
-      <c r="U96" s="289"/>
-      <c r="V96" s="289"/>
-      <c r="W96" s="289"/>
-      <c r="X96" s="289"/>
-      <c r="Y96" s="290"/>
-      <c r="Z96" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA96" s="271"/>
-      <c r="AB96" s="271"/>
-      <c r="AC96" s="271"/>
-      <c r="AD96" s="272"/>
-      <c r="AE96" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF96" s="274"/>
-      <c r="AG96" s="274"/>
-      <c r="AH96" s="275"/>
+      <c r="AA96" s="266"/>
+      <c r="AB96" s="266"/>
+      <c r="AC96" s="266"/>
+      <c r="AD96" s="267"/>
+      <c r="AE96" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF96" s="269"/>
+      <c r="AG96" s="269"/>
+      <c r="AH96" s="270"/>
     </row>
     <row r="97" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="94"/>
       <c r="D97" s="137">
         <v>4</v>
       </c>
-      <c r="E97" s="270" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="271"/>
-      <c r="G97" s="271"/>
-      <c r="H97" s="271"/>
-      <c r="I97" s="271"/>
-      <c r="J97" s="272"/>
-      <c r="K97" s="288" t="s">
-        <v>303</v>
-      </c>
-      <c r="L97" s="289"/>
-      <c r="M97" s="289"/>
-      <c r="N97" s="289"/>
-      <c r="O97" s="289"/>
-      <c r="P97" s="289"/>
-      <c r="Q97" s="290"/>
-      <c r="R97" s="288" t="s">
+      <c r="E97" s="265" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" s="266"/>
+      <c r="G97" s="266"/>
+      <c r="H97" s="266"/>
+      <c r="I97" s="266"/>
+      <c r="J97" s="267"/>
+      <c r="K97" s="283" t="s">
+        <v>300</v>
+      </c>
+      <c r="L97" s="284"/>
+      <c r="M97" s="284"/>
+      <c r="N97" s="284"/>
+      <c r="O97" s="284"/>
+      <c r="P97" s="284"/>
+      <c r="Q97" s="285"/>
+      <c r="R97" s="283" t="s">
+        <v>153</v>
+      </c>
+      <c r="S97" s="284"/>
+      <c r="T97" s="284"/>
+      <c r="U97" s="284"/>
+      <c r="V97" s="284"/>
+      <c r="W97" s="284"/>
+      <c r="X97" s="284"/>
+      <c r="Y97" s="285"/>
+      <c r="Z97" s="265" t="s">
         <v>154</v>
       </c>
-      <c r="S97" s="289"/>
-      <c r="T97" s="289"/>
-      <c r="U97" s="289"/>
-      <c r="V97" s="289"/>
-      <c r="W97" s="289"/>
-      <c r="X97" s="289"/>
-      <c r="Y97" s="290"/>
-      <c r="Z97" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA97" s="271"/>
-      <c r="AB97" s="271"/>
-      <c r="AC97" s="271"/>
-      <c r="AD97" s="272"/>
-      <c r="AE97" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF97" s="274"/>
-      <c r="AG97" s="274"/>
-      <c r="AH97" s="275"/>
+      <c r="AA97" s="266"/>
+      <c r="AB97" s="266"/>
+      <c r="AC97" s="266"/>
+      <c r="AD97" s="267"/>
+      <c r="AE97" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF97" s="269"/>
+      <c r="AG97" s="269"/>
+      <c r="AH97" s="270"/>
     </row>
     <row r="98" spans="1:56" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="94"/>
       <c r="D98" s="137">
         <v>5</v>
       </c>
-      <c r="E98" s="270" t="s">
-        <v>157</v>
-      </c>
-      <c r="F98" s="271"/>
-      <c r="G98" s="271"/>
-      <c r="H98" s="271"/>
-      <c r="I98" s="271"/>
-      <c r="J98" s="272"/>
-      <c r="K98" s="270" t="s">
-        <v>304</v>
-      </c>
-      <c r="L98" s="271"/>
-      <c r="M98" s="271"/>
-      <c r="N98" s="271"/>
-      <c r="O98" s="271"/>
-      <c r="P98" s="271"/>
-      <c r="Q98" s="272"/>
-      <c r="R98" s="270" t="s">
+      <c r="E98" s="265" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="266"/>
+      <c r="G98" s="266"/>
+      <c r="H98" s="266"/>
+      <c r="I98" s="266"/>
+      <c r="J98" s="267"/>
+      <c r="K98" s="265" t="s">
+        <v>301</v>
+      </c>
+      <c r="L98" s="266"/>
+      <c r="M98" s="266"/>
+      <c r="N98" s="266"/>
+      <c r="O98" s="266"/>
+      <c r="P98" s="266"/>
+      <c r="Q98" s="267"/>
+      <c r="R98" s="265" t="s">
+        <v>158</v>
+      </c>
+      <c r="S98" s="266"/>
+      <c r="T98" s="266"/>
+      <c r="U98" s="266"/>
+      <c r="V98" s="266"/>
+      <c r="W98" s="266"/>
+      <c r="X98" s="266"/>
+      <c r="Y98" s="267"/>
+      <c r="Z98" s="265" t="s">
         <v>159</v>
       </c>
-      <c r="S98" s="271"/>
-      <c r="T98" s="271"/>
-      <c r="U98" s="271"/>
-      <c r="V98" s="271"/>
-      <c r="W98" s="271"/>
-      <c r="X98" s="271"/>
-      <c r="Y98" s="272"/>
-      <c r="Z98" s="270" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA98" s="271"/>
-      <c r="AB98" s="271"/>
-      <c r="AC98" s="271"/>
-      <c r="AD98" s="272"/>
-      <c r="AE98" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF98" s="274"/>
-      <c r="AG98" s="274"/>
-      <c r="AH98" s="275"/>
+      <c r="AA98" s="266"/>
+      <c r="AB98" s="266"/>
+      <c r="AC98" s="266"/>
+      <c r="AD98" s="267"/>
+      <c r="AE98" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF98" s="269"/>
+      <c r="AG98" s="269"/>
+      <c r="AH98" s="270"/>
     </row>
     <row r="99" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D99" s="66"/>
@@ -10555,7 +10545,7 @@
     </row>
     <row r="101" spans="1:56" ht="12" x14ac:dyDescent="0.2">
       <c r="C101" s="94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" s="109"/>
       <c r="E101" s="109"/>
@@ -10585,7 +10575,7 @@
     <row r="102" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="94"/>
       <c r="D102" s="109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E102" s="109"/>
       <c r="F102" s="94"/>
@@ -10638,7 +10628,7 @@
       <c r="C104" s="5"/>
       <c r="D104" s="54"/>
       <c r="E104" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F104" s="94"/>
       <c r="G104" s="94"/>
@@ -10662,7 +10652,7 @@
       <c r="D106" s="54"/>
       <c r="E106" s="109"/>
       <c r="F106" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G106" s="94"/>
       <c r="H106" s="94"/>
@@ -10715,7 +10705,7 @@
     </row>
     <row r="109" spans="1:56" ht="12" x14ac:dyDescent="0.2">
       <c r="E109" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F109" s="94"/>
       <c r="G109" s="94"/>
@@ -10723,87 +10713,87 @@
     <row r="110" spans="1:56" ht="12" x14ac:dyDescent="0.2">
       <c r="E110" s="94"/>
       <c r="F110" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" s="94"/>
+    </row>
+    <row r="112" spans="1:56" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="G112" s="322" t="s">
         <v>166</v>
       </c>
-      <c r="G110" s="94"/>
-    </row>
-    <row r="112" spans="1:56" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G112" s="323" t="s">
+      <c r="H112" s="323"/>
+      <c r="I112" s="323"/>
+      <c r="J112" s="323"/>
+      <c r="K112" s="323"/>
+      <c r="L112" s="323"/>
+      <c r="M112" s="323"/>
+      <c r="N112" s="323"/>
+      <c r="O112" s="323"/>
+      <c r="P112" s="324"/>
+      <c r="Q112" s="332" t="s">
         <v>167</v>
       </c>
-      <c r="H112" s="324"/>
-      <c r="I112" s="324"/>
-      <c r="J112" s="324"/>
-      <c r="K112" s="324"/>
-      <c r="L112" s="324"/>
-      <c r="M112" s="324"/>
-      <c r="N112" s="324"/>
-      <c r="O112" s="324"/>
-      <c r="P112" s="325"/>
-      <c r="Q112" s="333" t="s">
+      <c r="R112" s="333"/>
+      <c r="S112" s="333"/>
+      <c r="T112" s="333"/>
+      <c r="U112" s="333"/>
+      <c r="V112" s="333"/>
+      <c r="W112" s="333"/>
+      <c r="X112" s="333"/>
+      <c r="Y112" s="333"/>
+      <c r="Z112" s="334"/>
+    </row>
+    <row r="113" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G113" s="277" t="s">
         <v>168</v>
       </c>
-      <c r="R112" s="334"/>
-      <c r="S112" s="334"/>
-      <c r="T112" s="334"/>
-      <c r="U112" s="334"/>
-      <c r="V112" s="334"/>
-      <c r="W112" s="334"/>
-      <c r="X112" s="334"/>
-      <c r="Y112" s="334"/>
-      <c r="Z112" s="335"/>
-    </row>
-    <row r="113" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="282" t="s">
+      <c r="H113" s="278"/>
+      <c r="I113" s="278"/>
+      <c r="J113" s="278"/>
+      <c r="K113" s="278"/>
+      <c r="L113" s="278"/>
+      <c r="M113" s="278"/>
+      <c r="N113" s="278"/>
+      <c r="O113" s="278"/>
+      <c r="P113" s="279"/>
+      <c r="Q113" s="271" t="s">
         <v>169</v>
       </c>
-      <c r="H113" s="283"/>
-      <c r="I113" s="283"/>
-      <c r="J113" s="283"/>
-      <c r="K113" s="283"/>
-      <c r="L113" s="283"/>
-      <c r="M113" s="283"/>
-      <c r="N113" s="283"/>
-      <c r="O113" s="283"/>
-      <c r="P113" s="284"/>
-      <c r="Q113" s="276" t="s">
-        <v>170</v>
-      </c>
-      <c r="R113" s="277"/>
-      <c r="S113" s="277"/>
-      <c r="T113" s="277"/>
-      <c r="U113" s="277"/>
-      <c r="V113" s="277"/>
-      <c r="W113" s="277"/>
-      <c r="X113" s="277"/>
-      <c r="Y113" s="277"/>
-      <c r="Z113" s="278"/>
+      <c r="R113" s="272"/>
+      <c r="S113" s="272"/>
+      <c r="T113" s="272"/>
+      <c r="U113" s="272"/>
+      <c r="V113" s="272"/>
+      <c r="W113" s="272"/>
+      <c r="X113" s="272"/>
+      <c r="Y113" s="272"/>
+      <c r="Z113" s="273"/>
       <c r="AG113" s="57"/>
       <c r="AH113" s="57"/>
     </row>
     <row r="114" spans="5:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G114" s="285"/>
-      <c r="H114" s="286"/>
-      <c r="I114" s="286"/>
-      <c r="J114" s="286"/>
-      <c r="K114" s="286"/>
-      <c r="L114" s="286"/>
-      <c r="M114" s="286"/>
-      <c r="N114" s="286"/>
-      <c r="O114" s="286"/>
-      <c r="P114" s="287"/>
-      <c r="Q114" s="276" t="s">
-        <v>171</v>
-      </c>
-      <c r="R114" s="277"/>
-      <c r="S114" s="277"/>
-      <c r="T114" s="277"/>
-      <c r="U114" s="277"/>
-      <c r="V114" s="277"/>
-      <c r="W114" s="277"/>
-      <c r="X114" s="277"/>
-      <c r="Y114" s="277"/>
-      <c r="Z114" s="278"/>
+      <c r="G114" s="280"/>
+      <c r="H114" s="281"/>
+      <c r="I114" s="281"/>
+      <c r="J114" s="281"/>
+      <c r="K114" s="281"/>
+      <c r="L114" s="281"/>
+      <c r="M114" s="281"/>
+      <c r="N114" s="281"/>
+      <c r="O114" s="281"/>
+      <c r="P114" s="282"/>
+      <c r="Q114" s="271" t="s">
+        <v>170</v>
+      </c>
+      <c r="R114" s="272"/>
+      <c r="S114" s="272"/>
+      <c r="T114" s="272"/>
+      <c r="U114" s="272"/>
+      <c r="V114" s="272"/>
+      <c r="W114" s="272"/>
+      <c r="X114" s="272"/>
+      <c r="Y114" s="272"/>
+      <c r="Z114" s="273"/>
       <c r="AC114" s="58"/>
       <c r="AD114" s="58"/>
       <c r="AE114" s="58"/>
@@ -10822,28 +10812,28 @@
       <c r="AY114" s="58"/>
     </row>
     <row r="115" spans="5:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G115" s="233" t="s">
-        <v>172</v>
-      </c>
-      <c r="H115" s="234"/>
-      <c r="I115" s="234"/>
-      <c r="J115" s="234"/>
-      <c r="K115" s="234"/>
-      <c r="L115" s="234"/>
-      <c r="M115" s="234"/>
-      <c r="N115" s="234"/>
-      <c r="O115" s="234"/>
-      <c r="P115" s="234"/>
-      <c r="Q115" s="234"/>
-      <c r="R115" s="234"/>
-      <c r="S115" s="234"/>
-      <c r="T115" s="234"/>
-      <c r="U115" s="234"/>
-      <c r="V115" s="234"/>
-      <c r="W115" s="234"/>
-      <c r="X115" s="234"/>
-      <c r="Y115" s="234"/>
-      <c r="Z115" s="235"/>
+      <c r="G115" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="H115" s="236"/>
+      <c r="I115" s="236"/>
+      <c r="J115" s="236"/>
+      <c r="K115" s="236"/>
+      <c r="L115" s="236"/>
+      <c r="M115" s="236"/>
+      <c r="N115" s="236"/>
+      <c r="O115" s="236"/>
+      <c r="P115" s="236"/>
+      <c r="Q115" s="236"/>
+      <c r="R115" s="236"/>
+      <c r="S115" s="236"/>
+      <c r="T115" s="236"/>
+      <c r="U115" s="236"/>
+      <c r="V115" s="236"/>
+      <c r="W115" s="236"/>
+      <c r="X115" s="236"/>
+      <c r="Y115" s="236"/>
+      <c r="Z115" s="237"/>
       <c r="AJ115" s="58"/>
       <c r="AK115" s="58"/>
       <c r="AL115" s="58"/>
@@ -10916,7 +10906,7 @@
     <row r="117" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="G117" s="142"/>
       <c r="H117" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I117" s="143"/>
       <c r="J117" s="143"/>
@@ -10927,10 +10917,10 @@
       <c r="O117" s="94"/>
       <c r="P117" s="94"/>
       <c r="Q117" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="R117" s="143" t="s">
         <v>174</v>
-      </c>
-      <c r="R117" s="143" t="s">
-        <v>175</v>
       </c>
       <c r="S117" s="143"/>
       <c r="T117" s="143"/>
@@ -11081,7 +11071,7 @@
     </row>
     <row r="121" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E121" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F121" s="94"/>
       <c r="G121" s="153"/>
@@ -11156,7 +11146,7 @@
     <row r="123" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E123" s="154"/>
       <c r="F123" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G123" s="94"/>
       <c r="H123" s="94"/>
@@ -11195,7 +11185,7 @@
       <c r="E124" s="154"/>
       <c r="F124" s="152"/>
       <c r="G124" s="111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H124" s="94"/>
       <c r="I124" s="94"/>
@@ -11268,7 +11258,7 @@
     <row r="126" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E126" s="154"/>
       <c r="F126" s="154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G126" s="154"/>
       <c r="H126" s="94"/>
@@ -11360,7 +11350,7 @@
     <row r="129" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="53"/>
       <c r="D129" s="80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E129" s="54"/>
       <c r="AP129" s="53"/>
@@ -11403,7 +11393,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="54"/>
       <c r="E131" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F131" s="94"/>
       <c r="G131" s="94"/>
@@ -11421,7 +11411,7 @@
       <c r="D133" s="54"/>
       <c r="E133" s="109"/>
       <c r="F133" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G133" s="94"/>
       <c r="AP133" s="53"/>
@@ -11471,93 +11461,93 @@
     </row>
     <row r="136" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E136" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F136" s="94"/>
     </row>
     <row r="137" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E137" s="94"/>
       <c r="F137" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:58" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G139" s="323" t="s">
-        <v>204</v>
-      </c>
-      <c r="H139" s="324"/>
-      <c r="I139" s="324"/>
-      <c r="J139" s="324"/>
-      <c r="K139" s="324"/>
-      <c r="L139" s="324"/>
-      <c r="M139" s="324"/>
-      <c r="N139" s="324"/>
-      <c r="O139" s="324"/>
-      <c r="P139" s="325"/>
-      <c r="Q139" s="333" t="s">
-        <v>206</v>
-      </c>
-      <c r="R139" s="334"/>
-      <c r="S139" s="334"/>
-      <c r="T139" s="334"/>
-      <c r="U139" s="334"/>
-      <c r="V139" s="334"/>
-      <c r="W139" s="334"/>
-      <c r="X139" s="334"/>
-      <c r="Y139" s="334"/>
-      <c r="Z139" s="335"/>
+      <c r="G139" s="322" t="s">
+        <v>203</v>
+      </c>
+      <c r="H139" s="323"/>
+      <c r="I139" s="323"/>
+      <c r="J139" s="323"/>
+      <c r="K139" s="323"/>
+      <c r="L139" s="323"/>
+      <c r="M139" s="323"/>
+      <c r="N139" s="323"/>
+      <c r="O139" s="323"/>
+      <c r="P139" s="324"/>
+      <c r="Q139" s="332" t="s">
+        <v>205</v>
+      </c>
+      <c r="R139" s="333"/>
+      <c r="S139" s="333"/>
+      <c r="T139" s="333"/>
+      <c r="U139" s="333"/>
+      <c r="V139" s="333"/>
+      <c r="W139" s="333"/>
+      <c r="X139" s="333"/>
+      <c r="Y139" s="333"/>
+      <c r="Z139" s="334"/>
     </row>
     <row r="140" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="282" t="s">
+      <c r="G140" s="277" t="s">
+        <v>168</v>
+      </c>
+      <c r="H140" s="278"/>
+      <c r="I140" s="278"/>
+      <c r="J140" s="278"/>
+      <c r="K140" s="278"/>
+      <c r="L140" s="278"/>
+      <c r="M140" s="278"/>
+      <c r="N140" s="278"/>
+      <c r="O140" s="278"/>
+      <c r="P140" s="279"/>
+      <c r="Q140" s="271" t="s">
         <v>169</v>
       </c>
-      <c r="H140" s="283"/>
-      <c r="I140" s="283"/>
-      <c r="J140" s="283"/>
-      <c r="K140" s="283"/>
-      <c r="L140" s="283"/>
-      <c r="M140" s="283"/>
-      <c r="N140" s="283"/>
-      <c r="O140" s="283"/>
-      <c r="P140" s="284"/>
-      <c r="Q140" s="276" t="s">
-        <v>170</v>
-      </c>
-      <c r="R140" s="277"/>
-      <c r="S140" s="277"/>
-      <c r="T140" s="277"/>
-      <c r="U140" s="277"/>
-      <c r="V140" s="277"/>
-      <c r="W140" s="277"/>
-      <c r="X140" s="277"/>
-      <c r="Y140" s="277"/>
-      <c r="Z140" s="278"/>
+      <c r="R140" s="272"/>
+      <c r="S140" s="272"/>
+      <c r="T140" s="272"/>
+      <c r="U140" s="272"/>
+      <c r="V140" s="272"/>
+      <c r="W140" s="272"/>
+      <c r="X140" s="272"/>
+      <c r="Y140" s="272"/>
+      <c r="Z140" s="273"/>
       <c r="AG140" s="57"/>
       <c r="AH140" s="57"/>
     </row>
     <row r="141" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G141" s="285"/>
-      <c r="H141" s="286"/>
-      <c r="I141" s="286"/>
-      <c r="J141" s="286"/>
-      <c r="K141" s="286"/>
-      <c r="L141" s="286"/>
-      <c r="M141" s="286"/>
-      <c r="N141" s="286"/>
-      <c r="O141" s="286"/>
-      <c r="P141" s="287"/>
-      <c r="Q141" s="276" t="s">
-        <v>171</v>
-      </c>
-      <c r="R141" s="277"/>
-      <c r="S141" s="277"/>
-      <c r="T141" s="277"/>
-      <c r="U141" s="277"/>
-      <c r="V141" s="277"/>
-      <c r="W141" s="277"/>
-      <c r="X141" s="277"/>
-      <c r="Y141" s="277"/>
-      <c r="Z141" s="278"/>
+      <c r="G141" s="280"/>
+      <c r="H141" s="281"/>
+      <c r="I141" s="281"/>
+      <c r="J141" s="281"/>
+      <c r="K141" s="281"/>
+      <c r="L141" s="281"/>
+      <c r="M141" s="281"/>
+      <c r="N141" s="281"/>
+      <c r="O141" s="281"/>
+      <c r="P141" s="282"/>
+      <c r="Q141" s="271" t="s">
+        <v>170</v>
+      </c>
+      <c r="R141" s="272"/>
+      <c r="S141" s="272"/>
+      <c r="T141" s="272"/>
+      <c r="U141" s="272"/>
+      <c r="V141" s="272"/>
+      <c r="W141" s="272"/>
+      <c r="X141" s="272"/>
+      <c r="Y141" s="272"/>
+      <c r="Z141" s="273"/>
       <c r="AC141" s="58"/>
       <c r="AD141" s="58"/>
       <c r="AE141" s="58"/>
@@ -11576,28 +11566,28 @@
       <c r="AY141" s="58"/>
     </row>
     <row r="142" spans="1:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G142" s="233" t="s">
-        <v>172</v>
-      </c>
-      <c r="H142" s="234"/>
-      <c r="I142" s="234"/>
-      <c r="J142" s="234"/>
-      <c r="K142" s="234"/>
-      <c r="L142" s="234"/>
-      <c r="M142" s="234"/>
-      <c r="N142" s="234"/>
-      <c r="O142" s="234"/>
-      <c r="P142" s="234"/>
-      <c r="Q142" s="234"/>
-      <c r="R142" s="234"/>
-      <c r="S142" s="234"/>
-      <c r="T142" s="234"/>
-      <c r="U142" s="234"/>
-      <c r="V142" s="234"/>
-      <c r="W142" s="234"/>
-      <c r="X142" s="234"/>
-      <c r="Y142" s="234"/>
-      <c r="Z142" s="235"/>
+      <c r="G142" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="H142" s="236"/>
+      <c r="I142" s="236"/>
+      <c r="J142" s="236"/>
+      <c r="K142" s="236"/>
+      <c r="L142" s="236"/>
+      <c r="M142" s="236"/>
+      <c r="N142" s="236"/>
+      <c r="O142" s="236"/>
+      <c r="P142" s="236"/>
+      <c r="Q142" s="236"/>
+      <c r="R142" s="236"/>
+      <c r="S142" s="236"/>
+      <c r="T142" s="236"/>
+      <c r="U142" s="236"/>
+      <c r="V142" s="236"/>
+      <c r="W142" s="236"/>
+      <c r="X142" s="236"/>
+      <c r="Y142" s="236"/>
+      <c r="Z142" s="237"/>
       <c r="AJ142" s="58"/>
       <c r="AK142" s="58"/>
       <c r="AL142" s="58"/>
@@ -11670,7 +11660,7 @@
     <row r="144" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="G144" s="142"/>
       <c r="H144" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I144" s="143"/>
       <c r="J144" s="143"/>
@@ -11681,10 +11671,10 @@
       <c r="O144" s="94"/>
       <c r="P144" s="94"/>
       <c r="Q144" s="144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R144" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S144" s="143"/>
       <c r="T144" s="143"/>
@@ -11835,7 +11825,7 @@
     </row>
     <row r="148" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E148" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G148" s="55"/>
       <c r="AJ148" s="58"/>
@@ -11891,7 +11881,7 @@
     <row r="150" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E150" s="64"/>
       <c r="F150" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ150" s="58"/>
       <c r="AK150" s="58"/>
@@ -11921,7 +11911,7 @@
       <c r="E151" s="64"/>
       <c r="F151" s="65"/>
       <c r="G151" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ151" s="58"/>
       <c r="AK151" s="58"/>
@@ -12030,7 +12020,7 @@
     <row r="155" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="C155" s="53"/>
       <c r="D155" s="157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E155" s="157"/>
       <c r="F155" s="94"/>
@@ -12148,7 +12138,7 @@
     <row r="157" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="D157" s="158"/>
       <c r="E157" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F157" s="157"/>
       <c r="G157" s="94"/>
@@ -12268,43 +12258,43 @@
       <c r="F159" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G159" s="225" t="s">
+      <c r="G159" s="227" t="s">
+        <v>183</v>
+      </c>
+      <c r="H159" s="257"/>
+      <c r="I159" s="257"/>
+      <c r="J159" s="257"/>
+      <c r="K159" s="257"/>
+      <c r="L159" s="258"/>
+      <c r="M159" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="H159" s="262"/>
-      <c r="I159" s="262"/>
-      <c r="J159" s="262"/>
-      <c r="K159" s="262"/>
-      <c r="L159" s="263"/>
-      <c r="M159" s="225" t="s">
+      <c r="N159" s="257"/>
+      <c r="O159" s="257"/>
+      <c r="P159" s="257"/>
+      <c r="Q159" s="257"/>
+      <c r="R159" s="257"/>
+      <c r="S159" s="257"/>
+      <c r="T159" s="257"/>
+      <c r="U159" s="257"/>
+      <c r="V159" s="258"/>
+      <c r="W159" s="254" t="s">
         <v>185</v>
       </c>
-      <c r="N159" s="262"/>
-      <c r="O159" s="262"/>
-      <c r="P159" s="262"/>
-      <c r="Q159" s="262"/>
-      <c r="R159" s="262"/>
-      <c r="S159" s="262"/>
-      <c r="T159" s="262"/>
-      <c r="U159" s="262"/>
-      <c r="V159" s="263"/>
-      <c r="W159" s="259" t="s">
+      <c r="X159" s="255"/>
+      <c r="Y159" s="256"/>
+      <c r="Z159" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="X159" s="260"/>
-      <c r="Y159" s="261"/>
-      <c r="Z159" s="259" t="s">
+      <c r="AA159" s="255"/>
+      <c r="AB159" s="255"/>
+      <c r="AC159" s="256"/>
+      <c r="AD159" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="AA159" s="260"/>
-      <c r="AB159" s="260"/>
-      <c r="AC159" s="261"/>
-      <c r="AD159" s="279" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE159" s="280"/>
-      <c r="AF159" s="280"/>
-      <c r="AG159" s="281"/>
+      <c r="AE159" s="275"/>
+      <c r="AF159" s="275"/>
+      <c r="AG159" s="276"/>
       <c r="AH159" s="94"/>
       <c r="AI159" s="94"/>
       <c r="AJ159" s="63"/>
@@ -12336,43 +12326,43 @@
       <c r="F160" s="159">
         <v>1</v>
       </c>
-      <c r="G160" s="256" t="s">
-        <v>189</v>
-      </c>
-      <c r="H160" s="257"/>
-      <c r="I160" s="257"/>
-      <c r="J160" s="257"/>
-      <c r="K160" s="257"/>
-      <c r="L160" s="258"/>
-      <c r="M160" s="256" t="s">
+      <c r="G160" s="248" t="s">
+        <v>188</v>
+      </c>
+      <c r="H160" s="249"/>
+      <c r="I160" s="249"/>
+      <c r="J160" s="249"/>
+      <c r="K160" s="249"/>
+      <c r="L160" s="250"/>
+      <c r="M160" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="N160" s="249"/>
+      <c r="O160" s="249"/>
+      <c r="P160" s="249"/>
+      <c r="Q160" s="249"/>
+      <c r="R160" s="249"/>
+      <c r="S160" s="249"/>
+      <c r="T160" s="249"/>
+      <c r="U160" s="249"/>
+      <c r="V160" s="250"/>
+      <c r="W160" s="335" t="s">
+        <v>195</v>
+      </c>
+      <c r="X160" s="336"/>
+      <c r="Y160" s="337"/>
+      <c r="Z160" s="238" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA160" s="239"/>
+      <c r="AB160" s="239"/>
+      <c r="AC160" s="240"/>
+      <c r="AD160" s="248" t="s">
         <v>193</v>
       </c>
-      <c r="N160" s="257"/>
-      <c r="O160" s="257"/>
-      <c r="P160" s="257"/>
-      <c r="Q160" s="257"/>
-      <c r="R160" s="257"/>
-      <c r="S160" s="257"/>
-      <c r="T160" s="257"/>
-      <c r="U160" s="257"/>
-      <c r="V160" s="258"/>
-      <c r="W160" s="336" t="s">
-        <v>196</v>
-      </c>
-      <c r="X160" s="337"/>
-      <c r="Y160" s="338"/>
-      <c r="Z160" s="246" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA160" s="247"/>
-      <c r="AB160" s="247"/>
-      <c r="AC160" s="248"/>
-      <c r="AD160" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE160" s="257"/>
-      <c r="AF160" s="257"/>
-      <c r="AG160" s="258"/>
+      <c r="AE160" s="249"/>
+      <c r="AF160" s="249"/>
+      <c r="AG160" s="250"/>
       <c r="AH160" s="94"/>
       <c r="AI160" s="160"/>
       <c r="AJ160" s="63"/>
@@ -12404,43 +12394,43 @@
       <c r="F161" s="159">
         <v>2</v>
       </c>
-      <c r="G161" s="249" t="s">
-        <v>190</v>
-      </c>
-      <c r="H161" s="226"/>
-      <c r="I161" s="226"/>
-      <c r="J161" s="226"/>
-      <c r="K161" s="226"/>
-      <c r="L161" s="227"/>
-      <c r="M161" s="250" t="s">
-        <v>201</v>
-      </c>
-      <c r="N161" s="251"/>
-      <c r="O161" s="251"/>
-      <c r="P161" s="251"/>
-      <c r="Q161" s="251"/>
-      <c r="R161" s="251"/>
-      <c r="S161" s="251"/>
-      <c r="T161" s="251"/>
-      <c r="U161" s="251"/>
-      <c r="V161" s="252"/>
-      <c r="W161" s="253" t="s">
+      <c r="G161" s="241" t="s">
+        <v>189</v>
+      </c>
+      <c r="H161" s="228"/>
+      <c r="I161" s="228"/>
+      <c r="J161" s="228"/>
+      <c r="K161" s="228"/>
+      <c r="L161" s="229"/>
+      <c r="M161" s="242" t="s">
+        <v>200</v>
+      </c>
+      <c r="N161" s="243"/>
+      <c r="O161" s="243"/>
+      <c r="P161" s="243"/>
+      <c r="Q161" s="243"/>
+      <c r="R161" s="243"/>
+      <c r="S161" s="243"/>
+      <c r="T161" s="243"/>
+      <c r="U161" s="243"/>
+      <c r="V161" s="244"/>
+      <c r="W161" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="X161" s="254"/>
-      <c r="Y161" s="255"/>
-      <c r="Z161" s="246" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA161" s="247"/>
-      <c r="AB161" s="247"/>
-      <c r="AC161" s="248"/>
-      <c r="AD161" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE161" s="257"/>
-      <c r="AF161" s="257"/>
-      <c r="AG161" s="258"/>
+      <c r="X161" s="246"/>
+      <c r="Y161" s="247"/>
+      <c r="Z161" s="238" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA161" s="239"/>
+      <c r="AB161" s="239"/>
+      <c r="AC161" s="240"/>
+      <c r="AD161" s="248" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE161" s="249"/>
+      <c r="AF161" s="249"/>
+      <c r="AG161" s="250"/>
       <c r="AH161" s="94"/>
       <c r="AI161" s="94"/>
       <c r="AJ161" s="63"/>
@@ -12452,43 +12442,43 @@
       <c r="F162" s="159">
         <v>3</v>
       </c>
-      <c r="G162" s="249" t="s">
-        <v>191</v>
-      </c>
-      <c r="H162" s="226"/>
-      <c r="I162" s="226"/>
-      <c r="J162" s="226"/>
-      <c r="K162" s="226"/>
-      <c r="L162" s="227"/>
-      <c r="M162" s="250" t="s">
-        <v>203</v>
-      </c>
-      <c r="N162" s="251"/>
-      <c r="O162" s="251"/>
-      <c r="P162" s="251"/>
-      <c r="Q162" s="251"/>
-      <c r="R162" s="251"/>
-      <c r="S162" s="251"/>
-      <c r="T162" s="251"/>
-      <c r="U162" s="251"/>
-      <c r="V162" s="252"/>
-      <c r="W162" s="253" t="s">
+      <c r="G162" s="241" t="s">
+        <v>190</v>
+      </c>
+      <c r="H162" s="228"/>
+      <c r="I162" s="228"/>
+      <c r="J162" s="228"/>
+      <c r="K162" s="228"/>
+      <c r="L162" s="229"/>
+      <c r="M162" s="242" t="s">
+        <v>202</v>
+      </c>
+      <c r="N162" s="243"/>
+      <c r="O162" s="243"/>
+      <c r="P162" s="243"/>
+      <c r="Q162" s="243"/>
+      <c r="R162" s="243"/>
+      <c r="S162" s="243"/>
+      <c r="T162" s="243"/>
+      <c r="U162" s="243"/>
+      <c r="V162" s="244"/>
+      <c r="W162" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="X162" s="254"/>
-      <c r="Y162" s="255"/>
-      <c r="Z162" s="246" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA162" s="247"/>
-      <c r="AB162" s="247"/>
-      <c r="AC162" s="248"/>
-      <c r="AD162" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE162" s="257"/>
-      <c r="AF162" s="257"/>
-      <c r="AG162" s="258"/>
+      <c r="X162" s="246"/>
+      <c r="Y162" s="247"/>
+      <c r="Z162" s="238" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA162" s="239"/>
+      <c r="AB162" s="239"/>
+      <c r="AC162" s="240"/>
+      <c r="AD162" s="248" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE162" s="249"/>
+      <c r="AF162" s="249"/>
+      <c r="AG162" s="250"/>
       <c r="AH162" s="94"/>
       <c r="AI162" s="94"/>
       <c r="AJ162" s="63"/>
@@ -12500,43 +12490,43 @@
       <c r="F163" s="159">
         <v>4</v>
       </c>
-      <c r="G163" s="249" t="s">
-        <v>192</v>
-      </c>
-      <c r="H163" s="226"/>
-      <c r="I163" s="226"/>
-      <c r="J163" s="226"/>
-      <c r="K163" s="226"/>
-      <c r="L163" s="227"/>
-      <c r="M163" s="250" t="s">
-        <v>202</v>
-      </c>
-      <c r="N163" s="251"/>
-      <c r="O163" s="251"/>
-      <c r="P163" s="251"/>
-      <c r="Q163" s="251"/>
-      <c r="R163" s="251"/>
-      <c r="S163" s="251"/>
-      <c r="T163" s="251"/>
-      <c r="U163" s="251"/>
-      <c r="V163" s="252"/>
-      <c r="W163" s="253" t="s">
+      <c r="G163" s="241" t="s">
+        <v>191</v>
+      </c>
+      <c r="H163" s="228"/>
+      <c r="I163" s="228"/>
+      <c r="J163" s="228"/>
+      <c r="K163" s="228"/>
+      <c r="L163" s="229"/>
+      <c r="M163" s="242" t="s">
+        <v>201</v>
+      </c>
+      <c r="N163" s="243"/>
+      <c r="O163" s="243"/>
+      <c r="P163" s="243"/>
+      <c r="Q163" s="243"/>
+      <c r="R163" s="243"/>
+      <c r="S163" s="243"/>
+      <c r="T163" s="243"/>
+      <c r="U163" s="243"/>
+      <c r="V163" s="244"/>
+      <c r="W163" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="X163" s="254"/>
-      <c r="Y163" s="255"/>
-      <c r="Z163" s="246" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA163" s="247"/>
-      <c r="AB163" s="247"/>
-      <c r="AC163" s="248"/>
-      <c r="AD163" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE163" s="257"/>
-      <c r="AF163" s="257"/>
-      <c r="AG163" s="258"/>
+      <c r="X163" s="246"/>
+      <c r="Y163" s="247"/>
+      <c r="Z163" s="238" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA163" s="239"/>
+      <c r="AB163" s="239"/>
+      <c r="AC163" s="240"/>
+      <c r="AD163" s="248" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE163" s="249"/>
+      <c r="AF163" s="249"/>
+      <c r="AG163" s="250"/>
       <c r="AH163" s="94"/>
       <c r="AI163" s="94"/>
       <c r="AJ163" s="63"/>
@@ -12582,7 +12572,7 @@
       <c r="D165" s="162"/>
       <c r="E165" s="157"/>
       <c r="F165" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G165" s="161"/>
       <c r="H165" s="161"/>
@@ -12655,7 +12645,7 @@
     </row>
     <row r="168" spans="4:57" ht="12" x14ac:dyDescent="0.2">
       <c r="E168" s="94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F168" s="130"/>
       <c r="G168" s="130"/>
@@ -12692,7 +12682,7 @@
     <row r="169" spans="4:57" ht="12" x14ac:dyDescent="0.2">
       <c r="E169" s="94"/>
       <c r="F169" s="94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G169" s="94"/>
       <c r="H169" s="94"/>
@@ -12759,7 +12749,7 @@
       <c r="E171" s="161"/>
       <c r="F171" s="161"/>
       <c r="G171" s="164" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H171" s="165"/>
       <c r="I171" s="165"/>
@@ -12767,37 +12757,37 @@
       <c r="K171" s="165"/>
       <c r="L171" s="165"/>
       <c r="M171" s="165"/>
-      <c r="N171" s="243" t="s">
+      <c r="N171" s="251" t="s">
+        <v>206</v>
+      </c>
+      <c r="O171" s="252"/>
+      <c r="P171" s="252"/>
+      <c r="Q171" s="252"/>
+      <c r="R171" s="252"/>
+      <c r="S171" s="252"/>
+      <c r="T171" s="252"/>
+      <c r="U171" s="252"/>
+      <c r="V171" s="252"/>
+      <c r="W171" s="253"/>
+      <c r="X171" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="O171" s="244"/>
-      <c r="P171" s="244"/>
-      <c r="Q171" s="244"/>
-      <c r="R171" s="244"/>
-      <c r="S171" s="244"/>
-      <c r="T171" s="244"/>
-      <c r="U171" s="244"/>
-      <c r="V171" s="244"/>
-      <c r="W171" s="245"/>
-      <c r="X171" s="243" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y171" s="244"/>
-      <c r="Z171" s="244"/>
-      <c r="AA171" s="244"/>
-      <c r="AB171" s="244"/>
-      <c r="AC171" s="244"/>
-      <c r="AD171" s="244"/>
-      <c r="AE171" s="244"/>
-      <c r="AF171" s="244"/>
-      <c r="AG171" s="245"/>
+      <c r="Y171" s="252"/>
+      <c r="Z171" s="252"/>
+      <c r="AA171" s="252"/>
+      <c r="AB171" s="252"/>
+      <c r="AC171" s="252"/>
+      <c r="AD171" s="252"/>
+      <c r="AE171" s="252"/>
+      <c r="AF171" s="252"/>
+      <c r="AG171" s="253"/>
       <c r="AH171" s="161"/>
     </row>
     <row r="172" spans="4:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="94"/>
       <c r="F172" s="94"/>
       <c r="G172" s="96" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H172" s="97"/>
       <c r="I172" s="97"/>
@@ -12806,7 +12796,7 @@
       <c r="L172" s="97"/>
       <c r="M172" s="97"/>
       <c r="N172" s="209" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O172" s="210"/>
       <c r="P172" s="210"/>
@@ -12842,7 +12832,7 @@
       <c r="L173" s="100"/>
       <c r="M173" s="100"/>
       <c r="N173" s="209" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O173" s="210"/>
       <c r="P173" s="210"/>
@@ -12854,7 +12844,7 @@
       <c r="V173" s="210"/>
       <c r="W173" s="211"/>
       <c r="X173" s="209" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Y173" s="210"/>
       <c r="Z173" s="210"/>
@@ -12878,7 +12868,7 @@
       <c r="L174" s="100"/>
       <c r="M174" s="100"/>
       <c r="N174" s="209" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O174" s="210"/>
       <c r="P174" s="210"/>
@@ -12890,7 +12880,7 @@
       <c r="V174" s="210"/>
       <c r="W174" s="211"/>
       <c r="X174" s="209" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Y174" s="210"/>
       <c r="Z174" s="210"/>
@@ -12914,7 +12904,7 @@
       <c r="L175" s="100"/>
       <c r="M175" s="100"/>
       <c r="N175" s="209" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O175" s="210"/>
       <c r="P175" s="210"/>
@@ -12926,7 +12916,7 @@
       <c r="V175" s="210"/>
       <c r="W175" s="211"/>
       <c r="X175" s="209" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Y175" s="210"/>
       <c r="Z175" s="210"/>
@@ -12950,7 +12940,7 @@
       <c r="L176" s="100"/>
       <c r="M176" s="100"/>
       <c r="N176" s="209" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O176" s="210"/>
       <c r="P176" s="210"/>
@@ -12962,7 +12952,7 @@
       <c r="V176" s="210"/>
       <c r="W176" s="211"/>
       <c r="X176" s="209" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Y176" s="210"/>
       <c r="Z176" s="210"/>
@@ -12986,7 +12976,7 @@
       <c r="L177" s="100"/>
       <c r="M177" s="100"/>
       <c r="N177" s="209" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O177" s="210"/>
       <c r="P177" s="210"/>
@@ -12998,7 +12988,7 @@
       <c r="V177" s="210"/>
       <c r="W177" s="211"/>
       <c r="X177" s="209" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Y177" s="210"/>
       <c r="Z177" s="210"/>
@@ -13022,7 +13012,7 @@
       <c r="L178" s="100"/>
       <c r="M178" s="100"/>
       <c r="N178" s="209" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O178" s="210"/>
       <c r="P178" s="210"/>
@@ -13034,7 +13024,7 @@
       <c r="V178" s="210"/>
       <c r="W178" s="211"/>
       <c r="X178" s="209" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y178" s="210"/>
       <c r="Z178" s="210"/>
@@ -13058,7 +13048,7 @@
       <c r="L179" s="104"/>
       <c r="M179" s="104"/>
       <c r="N179" s="209" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O179" s="210"/>
       <c r="P179" s="210"/>
@@ -13070,7 +13060,7 @@
       <c r="V179" s="210"/>
       <c r="W179" s="211"/>
       <c r="X179" s="209" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Y179" s="210"/>
       <c r="Z179" s="210"/>
@@ -13087,7 +13077,7 @@
       <c r="E180" s="94"/>
       <c r="F180" s="94"/>
       <c r="G180" s="206" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H180" s="207"/>
       <c r="I180" s="207"/>
@@ -13096,7 +13086,7 @@
       <c r="L180" s="207"/>
       <c r="M180" s="208"/>
       <c r="N180" s="209" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O180" s="210"/>
       <c r="P180" s="210"/>
@@ -13108,7 +13098,7 @@
       <c r="V180" s="210"/>
       <c r="W180" s="211"/>
       <c r="X180" s="209" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y180" s="210"/>
       <c r="Z180" s="210"/>
@@ -13125,7 +13115,7 @@
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
       <c r="G181" s="206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H181" s="207"/>
       <c r="I181" s="207"/>
@@ -13134,7 +13124,7 @@
       <c r="L181" s="207"/>
       <c r="M181" s="208"/>
       <c r="N181" s="212" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O181" s="213"/>
       <c r="P181" s="213"/>
@@ -13146,7 +13136,7 @@
       <c r="V181" s="213"/>
       <c r="W181" s="214"/>
       <c r="X181" s="212" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Y181" s="213"/>
       <c r="Z181" s="213"/>
@@ -13172,35 +13162,35 @@
     <row r="182" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E182" s="94"/>
       <c r="F182" s="94"/>
-      <c r="G182" s="233" t="s">
-        <v>355</v>
-      </c>
-      <c r="H182" s="234"/>
-      <c r="I182" s="234"/>
-      <c r="J182" s="234"/>
-      <c r="K182" s="234"/>
-      <c r="L182" s="234"/>
-      <c r="M182" s="234"/>
-      <c r="N182" s="234"/>
-      <c r="O182" s="234"/>
-      <c r="P182" s="234"/>
-      <c r="Q182" s="234"/>
-      <c r="R182" s="234"/>
-      <c r="S182" s="234"/>
-      <c r="T182" s="234"/>
-      <c r="U182" s="234"/>
-      <c r="V182" s="234"/>
-      <c r="W182" s="234"/>
-      <c r="X182" s="234"/>
-      <c r="Y182" s="234"/>
-      <c r="Z182" s="234"/>
-      <c r="AA182" s="234"/>
-      <c r="AB182" s="234"/>
-      <c r="AC182" s="234"/>
-      <c r="AD182" s="234"/>
-      <c r="AE182" s="234"/>
-      <c r="AF182" s="234"/>
-      <c r="AG182" s="235"/>
+      <c r="G182" s="235" t="s">
+        <v>352</v>
+      </c>
+      <c r="H182" s="236"/>
+      <c r="I182" s="236"/>
+      <c r="J182" s="236"/>
+      <c r="K182" s="236"/>
+      <c r="L182" s="236"/>
+      <c r="M182" s="236"/>
+      <c r="N182" s="236"/>
+      <c r="O182" s="236"/>
+      <c r="P182" s="236"/>
+      <c r="Q182" s="236"/>
+      <c r="R182" s="236"/>
+      <c r="S182" s="236"/>
+      <c r="T182" s="236"/>
+      <c r="U182" s="236"/>
+      <c r="V182" s="236"/>
+      <c r="W182" s="236"/>
+      <c r="X182" s="236"/>
+      <c r="Y182" s="236"/>
+      <c r="Z182" s="236"/>
+      <c r="AA182" s="236"/>
+      <c r="AB182" s="236"/>
+      <c r="AC182" s="236"/>
+      <c r="AD182" s="236"/>
+      <c r="AE182" s="236"/>
+      <c r="AF182" s="236"/>
+      <c r="AG182" s="237"/>
       <c r="AH182" s="94"/>
       <c r="AJ182" s="58"/>
       <c r="AK182" s="58"/>
@@ -13286,7 +13276,7 @@
       <c r="F184" s="94"/>
       <c r="G184" s="169"/>
       <c r="H184" s="170" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I184" s="170"/>
       <c r="J184" s="170"/>
@@ -13399,13 +13389,13 @@
       <c r="G186" s="169"/>
       <c r="H186" s="170"/>
       <c r="I186" s="173" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J186" s="173"/>
       <c r="K186" s="170"/>
       <c r="L186" s="170"/>
       <c r="M186" s="170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N186" s="170"/>
       <c r="O186" s="170"/>
@@ -13458,10 +13448,10 @@
       <c r="G187" s="169"/>
       <c r="H187" s="170"/>
       <c r="I187" s="170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J187" s="170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K187" s="170"/>
       <c r="L187" s="173"/>
@@ -13470,10 +13460,10 @@
       <c r="O187" s="170"/>
       <c r="P187" s="170"/>
       <c r="Q187" s="170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R187" s="170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S187" s="170"/>
       <c r="T187" s="170"/>
@@ -13576,13 +13566,13 @@
       <c r="G189" s="169"/>
       <c r="H189" s="170"/>
       <c r="I189" s="173" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J189" s="173"/>
       <c r="K189" s="170"/>
       <c r="L189" s="170"/>
       <c r="M189" s="170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N189" s="170"/>
       <c r="O189" s="170"/>
@@ -13635,10 +13625,10 @@
       <c r="G190" s="169"/>
       <c r="H190" s="170"/>
       <c r="I190" s="170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J190" s="170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K190" s="170"/>
       <c r="L190" s="173"/>
@@ -13647,10 +13637,10 @@
       <c r="O190" s="94"/>
       <c r="P190" s="94"/>
       <c r="Q190" s="170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R190" s="170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S190" s="170"/>
       <c r="T190" s="170"/>
@@ -13750,35 +13740,35 @@
     <row r="192" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E192" s="94"/>
       <c r="F192" s="94"/>
-      <c r="G192" s="233" t="s">
-        <v>354</v>
-      </c>
-      <c r="H192" s="234"/>
-      <c r="I192" s="234"/>
-      <c r="J192" s="234"/>
-      <c r="K192" s="234"/>
-      <c r="L192" s="234"/>
-      <c r="M192" s="234"/>
-      <c r="N192" s="234"/>
-      <c r="O192" s="234"/>
-      <c r="P192" s="234"/>
-      <c r="Q192" s="234"/>
-      <c r="R192" s="234"/>
-      <c r="S192" s="234"/>
-      <c r="T192" s="234"/>
-      <c r="U192" s="234"/>
-      <c r="V192" s="234"/>
-      <c r="W192" s="234"/>
-      <c r="X192" s="234"/>
-      <c r="Y192" s="234"/>
-      <c r="Z192" s="234"/>
-      <c r="AA192" s="234"/>
-      <c r="AB192" s="234"/>
-      <c r="AC192" s="234"/>
-      <c r="AD192" s="234"/>
-      <c r="AE192" s="234"/>
-      <c r="AF192" s="234"/>
-      <c r="AG192" s="235"/>
+      <c r="G192" s="235" t="s">
+        <v>351</v>
+      </c>
+      <c r="H192" s="236"/>
+      <c r="I192" s="236"/>
+      <c r="J192" s="236"/>
+      <c r="K192" s="236"/>
+      <c r="L192" s="236"/>
+      <c r="M192" s="236"/>
+      <c r="N192" s="236"/>
+      <c r="O192" s="236"/>
+      <c r="P192" s="236"/>
+      <c r="Q192" s="236"/>
+      <c r="R192" s="236"/>
+      <c r="S192" s="236"/>
+      <c r="T192" s="236"/>
+      <c r="U192" s="236"/>
+      <c r="V192" s="236"/>
+      <c r="W192" s="236"/>
+      <c r="X192" s="236"/>
+      <c r="Y192" s="236"/>
+      <c r="Z192" s="236"/>
+      <c r="AA192" s="236"/>
+      <c r="AB192" s="236"/>
+      <c r="AC192" s="236"/>
+      <c r="AD192" s="236"/>
+      <c r="AE192" s="236"/>
+      <c r="AF192" s="236"/>
+      <c r="AG192" s="237"/>
       <c r="AH192" s="94"/>
       <c r="AJ192" s="58"/>
       <c r="AK192" s="58"/>
@@ -13866,7 +13856,7 @@
       <c r="H194" s="94"/>
       <c r="I194" s="94"/>
       <c r="J194" s="170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K194" s="170"/>
       <c r="L194" s="170"/>
@@ -13876,12 +13866,12 @@
       <c r="P194" s="94"/>
       <c r="Q194" s="94"/>
       <c r="R194" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S194" s="170"/>
       <c r="T194" s="170"/>
       <c r="U194" s="170" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V194" s="170"/>
       <c r="W194" s="170"/>
@@ -13889,7 +13879,7 @@
       <c r="Y194" s="170"/>
       <c r="Z194" s="172"/>
       <c r="AA194" s="180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB194" s="94"/>
       <c r="AC194" s="161"/>
@@ -13946,7 +13936,7 @@
       <c r="Y195" s="170"/>
       <c r="Z195" s="172"/>
       <c r="AA195" s="180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB195" s="94"/>
       <c r="AC195" s="161"/>
@@ -13984,11 +13974,11 @@
       <c r="F196" s="94"/>
       <c r="G196" s="169"/>
       <c r="H196" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I196" s="94"/>
       <c r="J196" s="170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K196" s="170"/>
       <c r="L196" s="170"/>
@@ -13998,12 +13988,12 @@
       <c r="P196" s="94"/>
       <c r="Q196" s="94"/>
       <c r="R196" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S196" s="170"/>
       <c r="T196" s="170"/>
       <c r="U196" s="170" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="V196" s="170"/>
       <c r="W196" s="170"/>
@@ -14102,11 +14092,11 @@
       <c r="F198" s="94"/>
       <c r="G198" s="169"/>
       <c r="H198" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I198" s="94"/>
       <c r="J198" s="170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K198" s="170"/>
       <c r="L198" s="170"/>
@@ -14116,12 +14106,12 @@
       <c r="P198" s="94"/>
       <c r="Q198" s="94"/>
       <c r="R198" s="173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S198" s="170"/>
       <c r="T198" s="170"/>
       <c r="U198" s="170" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="V198" s="170"/>
       <c r="W198" s="170"/>
@@ -14220,11 +14210,11 @@
       <c r="F200" s="94"/>
       <c r="G200" s="169"/>
       <c r="H200" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I200" s="94"/>
       <c r="J200" s="170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K200" s="170"/>
       <c r="L200" s="170"/>
@@ -14234,12 +14224,12 @@
       <c r="P200" s="94"/>
       <c r="Q200" s="94"/>
       <c r="R200" s="173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S200" s="170"/>
       <c r="T200" s="170"/>
       <c r="U200" s="170" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="V200" s="170"/>
       <c r="W200" s="170"/>
@@ -14338,11 +14328,11 @@
       <c r="F202" s="94"/>
       <c r="G202" s="169"/>
       <c r="H202" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I202" s="94"/>
       <c r="J202" s="170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K202" s="170"/>
       <c r="L202" s="170"/>
@@ -14351,13 +14341,13 @@
       <c r="O202" s="94"/>
       <c r="P202" s="94"/>
       <c r="Q202" s="94"/>
-      <c r="R202" s="360" t="s">
-        <v>336</v>
+      <c r="R202" s="215" t="s">
+        <v>333</v>
       </c>
       <c r="S202" s="170"/>
       <c r="T202" s="170"/>
       <c r="U202" s="170" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V202" s="170"/>
       <c r="W202" s="170"/>
@@ -14456,11 +14446,11 @@
       <c r="F204" s="94"/>
       <c r="G204" s="169"/>
       <c r="H204" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I204" s="94"/>
       <c r="J204" s="170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K204" s="170"/>
       <c r="L204" s="173"/>
@@ -14469,13 +14459,13 @@
       <c r="O204" s="170"/>
       <c r="P204" s="170"/>
       <c r="Q204" s="94"/>
-      <c r="R204" s="361" t="s">
-        <v>337</v>
+      <c r="R204" s="216" t="s">
+        <v>334</v>
       </c>
       <c r="S204" s="170"/>
       <c r="T204" s="170"/>
       <c r="U204" s="170" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V204" s="170"/>
       <c r="W204" s="170"/>
@@ -14574,11 +14564,11 @@
       <c r="F206" s="94"/>
       <c r="G206" s="169"/>
       <c r="H206" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I206" s="94"/>
       <c r="J206" s="170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K206" s="170"/>
       <c r="L206" s="170"/>
@@ -14587,13 +14577,13 @@
       <c r="O206" s="94"/>
       <c r="P206" s="94"/>
       <c r="Q206" s="94"/>
-      <c r="R206" s="360" t="s">
-        <v>336</v>
+      <c r="R206" s="215" t="s">
+        <v>333</v>
       </c>
       <c r="S206" s="170"/>
       <c r="T206" s="170"/>
       <c r="U206" s="170" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V206" s="170"/>
       <c r="W206" s="170"/>
@@ -14692,11 +14682,11 @@
       <c r="F208" s="94"/>
       <c r="G208" s="169"/>
       <c r="H208" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I208" s="94"/>
       <c r="J208" s="170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K208" s="170"/>
       <c r="L208" s="173"/>
@@ -14705,13 +14695,13 @@
       <c r="O208" s="170"/>
       <c r="P208" s="170"/>
       <c r="Q208" s="94"/>
-      <c r="R208" s="361" t="s">
-        <v>337</v>
+      <c r="R208" s="216" t="s">
+        <v>334</v>
       </c>
       <c r="S208" s="170"/>
       <c r="T208" s="170"/>
       <c r="U208" s="170" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V208" s="170"/>
       <c r="W208" s="170"/>
@@ -14810,11 +14800,11 @@
       <c r="F210" s="94"/>
       <c r="G210" s="169"/>
       <c r="H210" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I210" s="94"/>
       <c r="J210" s="170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K210" s="170"/>
       <c r="L210" s="170"/>
@@ -14823,13 +14813,13 @@
       <c r="O210" s="94"/>
       <c r="P210" s="94"/>
       <c r="Q210" s="94"/>
-      <c r="R210" s="360" t="s">
-        <v>336</v>
+      <c r="R210" s="215" t="s">
+        <v>333</v>
       </c>
       <c r="S210" s="170"/>
       <c r="T210" s="170"/>
       <c r="U210" s="170" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V210" s="170"/>
       <c r="W210" s="170"/>
@@ -14928,11 +14918,11 @@
       <c r="F212" s="94"/>
       <c r="G212" s="169"/>
       <c r="H212" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I212" s="94"/>
       <c r="J212" s="170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K212" s="170"/>
       <c r="L212" s="173"/>
@@ -14941,13 +14931,13 @@
       <c r="O212" s="170"/>
       <c r="P212" s="170"/>
       <c r="Q212" s="94"/>
-      <c r="R212" s="361" t="s">
-        <v>337</v>
+      <c r="R212" s="216" t="s">
+        <v>334</v>
       </c>
       <c r="S212" s="170"/>
       <c r="T212" s="170"/>
       <c r="U212" s="170" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="V212" s="170"/>
       <c r="W212" s="170"/>
@@ -15046,11 +15036,11 @@
       <c r="F214" s="94"/>
       <c r="G214" s="169"/>
       <c r="H214" s="94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I214" s="94"/>
       <c r="J214" s="170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K214" s="170"/>
       <c r="L214" s="170"/>
@@ -15060,12 +15050,12 @@
       <c r="P214" s="94"/>
       <c r="Q214" s="94"/>
       <c r="R214" s="173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="S214" s="170"/>
       <c r="T214" s="170"/>
       <c r="U214" s="170" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V214" s="170"/>
       <c r="W214" s="170"/>
@@ -15165,35 +15155,35 @@
       <c r="D216" s="94"/>
       <c r="E216" s="94"/>
       <c r="F216" s="94"/>
-      <c r="G216" s="233" t="s">
-        <v>222</v>
-      </c>
-      <c r="H216" s="234"/>
-      <c r="I216" s="234"/>
-      <c r="J216" s="234"/>
-      <c r="K216" s="234"/>
-      <c r="L216" s="234"/>
-      <c r="M216" s="234"/>
-      <c r="N216" s="234"/>
-      <c r="O216" s="234"/>
-      <c r="P216" s="234"/>
-      <c r="Q216" s="234"/>
-      <c r="R216" s="234"/>
-      <c r="S216" s="234"/>
-      <c r="T216" s="234"/>
-      <c r="U216" s="234"/>
-      <c r="V216" s="234"/>
-      <c r="W216" s="234"/>
-      <c r="X216" s="234"/>
-      <c r="Y216" s="234"/>
-      <c r="Z216" s="234"/>
-      <c r="AA216" s="234"/>
-      <c r="AB216" s="234"/>
-      <c r="AC216" s="234"/>
-      <c r="AD216" s="234"/>
-      <c r="AE216" s="234"/>
-      <c r="AF216" s="234"/>
-      <c r="AG216" s="235"/>
+      <c r="G216" s="235" t="s">
+        <v>221</v>
+      </c>
+      <c r="H216" s="236"/>
+      <c r="I216" s="236"/>
+      <c r="J216" s="236"/>
+      <c r="K216" s="236"/>
+      <c r="L216" s="236"/>
+      <c r="M216" s="236"/>
+      <c r="N216" s="236"/>
+      <c r="O216" s="236"/>
+      <c r="P216" s="236"/>
+      <c r="Q216" s="236"/>
+      <c r="R216" s="236"/>
+      <c r="S216" s="236"/>
+      <c r="T216" s="236"/>
+      <c r="U216" s="236"/>
+      <c r="V216" s="236"/>
+      <c r="W216" s="236"/>
+      <c r="X216" s="236"/>
+      <c r="Y216" s="236"/>
+      <c r="Z216" s="236"/>
+      <c r="AA216" s="236"/>
+      <c r="AB216" s="236"/>
+      <c r="AC216" s="236"/>
+      <c r="AD216" s="236"/>
+      <c r="AE216" s="236"/>
+      <c r="AF216" s="236"/>
+      <c r="AG216" s="237"/>
       <c r="AJ216" s="58"/>
       <c r="AK216" s="58"/>
       <c r="AL216" s="58"/>
@@ -15288,7 +15278,7 @@
       <c r="I218" s="170"/>
       <c r="J218" s="170"/>
       <c r="K218" s="170" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L218" s="173"/>
       <c r="M218" s="173"/>
@@ -15455,7 +15445,7 @@
       <c r="C221" s="94"/>
       <c r="D221" s="94"/>
       <c r="E221" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F221" s="130"/>
       <c r="G221" s="130"/>
@@ -15518,7 +15508,7 @@
       <c r="D222" s="94"/>
       <c r="E222" s="193"/>
       <c r="F222" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G222" s="130"/>
       <c r="H222" s="130"/>
@@ -15643,7 +15633,7 @@
       <c r="E224" s="94"/>
       <c r="F224" s="193"/>
       <c r="G224" s="154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H224" s="154"/>
       <c r="I224" s="130"/>
@@ -15706,7 +15696,7 @@
       <c r="E225" s="94"/>
       <c r="F225" s="193"/>
       <c r="G225" s="154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H225" s="130"/>
       <c r="I225" s="130"/>
@@ -15790,7 +15780,7 @@
       <c r="D227" s="94"/>
       <c r="E227" s="193"/>
       <c r="F227" s="154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G227" s="130"/>
       <c r="H227" s="130"/>
@@ -15873,7 +15863,7 @@
       <c r="E229" s="94"/>
       <c r="F229" s="193"/>
       <c r="G229" s="154" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H229" s="130"/>
       <c r="I229" s="130"/>
@@ -15915,7 +15905,7 @@
       <c r="E230" s="94"/>
       <c r="F230" s="193"/>
       <c r="G230" s="154" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H230" s="130"/>
       <c r="I230" s="130"/>
@@ -16032,7 +16022,7 @@
       <c r="B233" s="94"/>
       <c r="C233" s="94"/>
       <c r="D233" s="157" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E233" s="130"/>
       <c r="F233" s="130"/>
@@ -16115,7 +16105,7 @@
       <c r="C235" s="94"/>
       <c r="D235" s="193"/>
       <c r="E235" s="154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F235" s="154"/>
       <c r="G235" s="154"/>
@@ -16158,7 +16148,7 @@
       <c r="D236" s="193"/>
       <c r="E236" s="154"/>
       <c r="F236" s="154" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G236" s="154"/>
       <c r="H236" s="130"/>
@@ -16199,7 +16189,7 @@
       <c r="D237" s="193"/>
       <c r="E237" s="154"/>
       <c r="F237" s="154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G237" s="154"/>
       <c r="H237" s="130"/>
@@ -16239,7 +16229,7 @@
       <c r="D238" s="193"/>
       <c r="E238" s="130"/>
       <c r="F238" s="154" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G238" s="130"/>
       <c r="H238" s="130"/>
@@ -16279,7 +16269,7 @@
       <c r="D239" s="193"/>
       <c r="E239" s="130"/>
       <c r="F239" s="154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G239" s="130"/>
       <c r="H239" s="130"/>
@@ -16319,7 +16309,7 @@
       <c r="D240" s="193"/>
       <c r="E240" s="130"/>
       <c r="F240" s="154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G240" s="130"/>
       <c r="H240" s="130"/>
@@ -16395,7 +16385,7 @@
       <c r="B242" s="94"/>
       <c r="C242" s="94"/>
       <c r="D242" s="193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E242" s="130"/>
       <c r="F242" s="154"/>
@@ -16474,7 +16464,7 @@
       <c r="C244" s="94"/>
       <c r="D244" s="193"/>
       <c r="E244" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F244" s="161"/>
       <c r="G244" s="161"/>
@@ -16535,17 +16525,6 @@
     <mergeCell ref="M64:T64"/>
     <mergeCell ref="I66:L66"/>
     <mergeCell ref="I68:L68"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="K93:Q93"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="U64:Y64"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="E69:H69"/>
@@ -16559,13 +16538,21 @@
     <mergeCell ref="U76:Y76"/>
     <mergeCell ref="Z76:AB76"/>
     <mergeCell ref="AD76:AG76"/>
-    <mergeCell ref="Q112:Z112"/>
-    <mergeCell ref="G112:P112"/>
-    <mergeCell ref="G113:P114"/>
-    <mergeCell ref="K94:Q94"/>
-    <mergeCell ref="AD161:AG161"/>
-    <mergeCell ref="M161:V161"/>
-    <mergeCell ref="W159:Y159"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="R95:Y95"/>
+    <mergeCell ref="Z95:AD95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="M159:V159"/>
+    <mergeCell ref="Z160:AC160"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="K93:Q93"/>
     <mergeCell ref="W160:Y160"/>
     <mergeCell ref="G139:P139"/>
     <mergeCell ref="Q139:Z139"/>
@@ -16575,14 +16562,6 @@
     <mergeCell ref="E97:J97"/>
     <mergeCell ref="K97:Q97"/>
     <mergeCell ref="R97:Y97"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="K95:Q95"/>
-    <mergeCell ref="R95:Y95"/>
-    <mergeCell ref="Z95:AD95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="M159:V159"/>
-    <mergeCell ref="Z160:AC160"/>
     <mergeCell ref="E50:M50"/>
     <mergeCell ref="N50:P50"/>
     <mergeCell ref="Q50:U50"/>
@@ -16627,6 +16606,10 @@
     <mergeCell ref="Z62:AB62"/>
     <mergeCell ref="AD62:AG62"/>
     <mergeCell ref="I62:L62"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="U64:Y64"/>
     <mergeCell ref="AL65:AP65"/>
     <mergeCell ref="AL61:AP61"/>
     <mergeCell ref="AL60:AP60"/>
@@ -16706,6 +16689,9 @@
     <mergeCell ref="Z78:AB78"/>
     <mergeCell ref="AD78:AG78"/>
     <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="Q141:Z141"/>
+    <mergeCell ref="G115:Z115"/>
+    <mergeCell ref="G161:L161"/>
     <mergeCell ref="E79:H79"/>
     <mergeCell ref="I79:L79"/>
     <mergeCell ref="M79:T79"/>
@@ -16720,6 +16706,16 @@
     <mergeCell ref="K88:N88"/>
     <mergeCell ref="T88:U88"/>
     <mergeCell ref="V87:AH87"/>
+    <mergeCell ref="Q112:Z112"/>
+    <mergeCell ref="G112:P112"/>
+    <mergeCell ref="G113:P114"/>
+    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="AD161:AG161"/>
+    <mergeCell ref="M161:V161"/>
+    <mergeCell ref="W159:Y159"/>
+    <mergeCell ref="Z159:AC159"/>
+    <mergeCell ref="M160:V160"/>
+    <mergeCell ref="X171:AG171"/>
     <mergeCell ref="R93:Y93"/>
     <mergeCell ref="AE93:AH93"/>
     <mergeCell ref="Z93:AD93"/>
@@ -16741,9 +16737,9 @@
     <mergeCell ref="G142:Z142"/>
     <mergeCell ref="G140:P141"/>
     <mergeCell ref="Q140:Z140"/>
-    <mergeCell ref="Q141:Z141"/>
-    <mergeCell ref="G115:Z115"/>
-    <mergeCell ref="G161:L161"/>
+    <mergeCell ref="G216:AG216"/>
+    <mergeCell ref="G192:AG192"/>
+    <mergeCell ref="G182:AG182"/>
     <mergeCell ref="Z161:AC161"/>
     <mergeCell ref="G163:L163"/>
     <mergeCell ref="M163:V163"/>
@@ -16751,12 +16747,6 @@
     <mergeCell ref="Z163:AC163"/>
     <mergeCell ref="AD163:AG163"/>
     <mergeCell ref="N171:W171"/>
-    <mergeCell ref="Z159:AC159"/>
-    <mergeCell ref="M160:V160"/>
-    <mergeCell ref="X171:AG171"/>
-    <mergeCell ref="G216:AG216"/>
-    <mergeCell ref="G192:AG192"/>
-    <mergeCell ref="G182:AG182"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="5">
@@ -16863,7 +16853,7 @@
     <row r="2" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="94"/>
       <c r="B2" s="109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="94"/>
       <c r="D2" s="94"/>
@@ -16903,7 +16893,7 @@
       <c r="A3" s="94"/>
       <c r="B3" s="94"/>
       <c r="C3" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
@@ -18095,39 +18085,39 @@
       <c r="D35" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="326" t="s">
+      <c r="E35" s="325" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="326"/>
-      <c r="L35" s="326"/>
-      <c r="M35" s="326"/>
-      <c r="N35" s="326" t="s">
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="325"/>
+      <c r="J35" s="325"/>
+      <c r="K35" s="325"/>
+      <c r="L35" s="325"/>
+      <c r="M35" s="325"/>
+      <c r="N35" s="325" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="326"/>
-      <c r="P35" s="326"/>
-      <c r="Q35" s="355" t="s">
+      <c r="O35" s="325"/>
+      <c r="P35" s="325"/>
+      <c r="Q35" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="R35" s="356"/>
-      <c r="S35" s="356"/>
-      <c r="T35" s="356"/>
-      <c r="U35" s="357"/>
-      <c r="V35" s="326" t="s">
+      <c r="R35" s="355"/>
+      <c r="S35" s="355"/>
+      <c r="T35" s="355"/>
+      <c r="U35" s="356"/>
+      <c r="V35" s="325" t="s">
         <v>78</v>
       </c>
-      <c r="W35" s="326"/>
-      <c r="X35" s="326"/>
-      <c r="Y35" s="326"/>
-      <c r="Z35" s="326"/>
-      <c r="AA35" s="326"/>
-      <c r="AB35" s="326"/>
-      <c r="AC35" s="326"/>
+      <c r="W35" s="325"/>
+      <c r="X35" s="325"/>
+      <c r="Y35" s="325"/>
+      <c r="Z35" s="325"/>
+      <c r="AA35" s="325"/>
+      <c r="AB35" s="325"/>
+      <c r="AC35" s="325"/>
       <c r="AD35" s="197"/>
       <c r="AE35" s="197"/>
       <c r="AF35" s="197"/>
@@ -18142,41 +18132,41 @@
       <c r="D36" s="194">
         <v>1</v>
       </c>
-      <c r="E36" s="358" t="s">
+      <c r="E36" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="358"/>
-      <c r="G36" s="358"/>
-      <c r="H36" s="358"/>
-      <c r="I36" s="358"/>
-      <c r="J36" s="358"/>
-      <c r="K36" s="358"/>
-      <c r="L36" s="358"/>
-      <c r="M36" s="358"/>
-      <c r="N36" s="358" t="s">
+      <c r="F36" s="357"/>
+      <c r="G36" s="357"/>
+      <c r="H36" s="357"/>
+      <c r="I36" s="357"/>
+      <c r="J36" s="357"/>
+      <c r="K36" s="357"/>
+      <c r="L36" s="357"/>
+      <c r="M36" s="357"/>
+      <c r="N36" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="358"/>
-      <c r="P36" s="358"/>
-      <c r="Q36" s="359" t="s">
+      <c r="O36" s="357"/>
+      <c r="P36" s="357"/>
+      <c r="Q36" s="358" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="274"/>
-      <c r="S36" s="274"/>
-      <c r="T36" s="274"/>
-      <c r="U36" s="275"/>
-      <c r="V36" s="358" t="s">
+      <c r="R36" s="269"/>
+      <c r="S36" s="269"/>
+      <c r="T36" s="269"/>
+      <c r="U36" s="270"/>
+      <c r="V36" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="W36" s="358" t="s">
+      <c r="W36" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="X36" s="358"/>
-      <c r="Y36" s="358"/>
-      <c r="Z36" s="358"/>
-      <c r="AA36" s="358"/>
-      <c r="AB36" s="358"/>
-      <c r="AC36" s="358"/>
+      <c r="X36" s="357"/>
+      <c r="Y36" s="357"/>
+      <c r="Z36" s="357"/>
+      <c r="AA36" s="357"/>
+      <c r="AB36" s="357"/>
+      <c r="AC36" s="357"/>
       <c r="AD36" s="94"/>
       <c r="AE36" s="94"/>
       <c r="AF36" s="94"/>
@@ -18374,42 +18364,42 @@
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="321" t="s">
+      <c r="D41" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="267" t="s">
+      <c r="E41" s="262" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="268"/>
-      <c r="G41" s="268"/>
-      <c r="H41" s="268"/>
-      <c r="I41" s="268"/>
-      <c r="J41" s="268"/>
-      <c r="K41" s="268"/>
-      <c r="L41" s="268"/>
-      <c r="M41" s="268"/>
-      <c r="N41" s="268"/>
-      <c r="O41" s="268"/>
-      <c r="P41" s="268"/>
-      <c r="Q41" s="268"/>
-      <c r="R41" s="268"/>
-      <c r="S41" s="268"/>
-      <c r="T41" s="268"/>
-      <c r="U41" s="268"/>
-      <c r="V41" s="268"/>
-      <c r="W41" s="268"/>
-      <c r="X41" s="268"/>
-      <c r="Y41" s="268"/>
-      <c r="Z41" s="268"/>
-      <c r="AA41" s="268"/>
-      <c r="AB41" s="268"/>
-      <c r="AC41" s="269"/>
-      <c r="AD41" s="216" t="s">
+      <c r="F41" s="263"/>
+      <c r="G41" s="263"/>
+      <c r="H41" s="263"/>
+      <c r="I41" s="263"/>
+      <c r="J41" s="263"/>
+      <c r="K41" s="263"/>
+      <c r="L41" s="263"/>
+      <c r="M41" s="263"/>
+      <c r="N41" s="263"/>
+      <c r="O41" s="263"/>
+      <c r="P41" s="263"/>
+      <c r="Q41" s="263"/>
+      <c r="R41" s="263"/>
+      <c r="S41" s="263"/>
+      <c r="T41" s="263"/>
+      <c r="U41" s="263"/>
+      <c r="V41" s="263"/>
+      <c r="W41" s="263"/>
+      <c r="X41" s="263"/>
+      <c r="Y41" s="263"/>
+      <c r="Z41" s="263"/>
+      <c r="AA41" s="263"/>
+      <c r="AB41" s="263"/>
+      <c r="AC41" s="264"/>
+      <c r="AD41" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="AE41" s="217"/>
-      <c r="AF41" s="217"/>
-      <c r="AG41" s="218"/>
+      <c r="AE41" s="219"/>
+      <c r="AF41" s="219"/>
+      <c r="AG41" s="220"/>
       <c r="AH41" s="111"/>
       <c r="AI41" s="111"/>
       <c r="AJ41" s="71"/>
@@ -18424,48 +18414,48 @@
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="330"/>
-      <c r="E42" s="216" t="s">
+      <c r="D42" s="329"/>
+      <c r="E42" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="217"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="315" t="s">
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="316"/>
-      <c r="K42" s="316"/>
-      <c r="L42" s="317"/>
-      <c r="M42" s="315" t="s">
+      <c r="J42" s="315"/>
+      <c r="K42" s="315"/>
+      <c r="L42" s="316"/>
+      <c r="M42" s="314" t="s">
         <v>88</v>
       </c>
-      <c r="N42" s="316"/>
-      <c r="O42" s="316"/>
-      <c r="P42" s="316"/>
-      <c r="Q42" s="316"/>
-      <c r="R42" s="316"/>
-      <c r="S42" s="316"/>
-      <c r="T42" s="317"/>
-      <c r="U42" s="216" t="s">
+      <c r="N42" s="315"/>
+      <c r="O42" s="315"/>
+      <c r="P42" s="315"/>
+      <c r="Q42" s="315"/>
+      <c r="R42" s="315"/>
+      <c r="S42" s="315"/>
+      <c r="T42" s="316"/>
+      <c r="U42" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="V42" s="217"/>
-      <c r="W42" s="217"/>
-      <c r="X42" s="217"/>
-      <c r="Y42" s="218"/>
-      <c r="Z42" s="216" t="s">
+      <c r="V42" s="219"/>
+      <c r="W42" s="219"/>
+      <c r="X42" s="219"/>
+      <c r="Y42" s="220"/>
+      <c r="Z42" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="AA42" s="217"/>
-      <c r="AB42" s="218"/>
-      <c r="AC42" s="321" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD42" s="219"/>
-      <c r="AE42" s="220"/>
-      <c r="AF42" s="220"/>
-      <c r="AG42" s="221"/>
+      <c r="AA42" s="219"/>
+      <c r="AB42" s="220"/>
+      <c r="AC42" s="320" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD42" s="221"/>
+      <c r="AE42" s="222"/>
+      <c r="AF42" s="222"/>
+      <c r="AG42" s="223"/>
       <c r="AH42" s="111"/>
       <c r="AI42" s="111"/>
       <c r="AJ42" s="71"/>
@@ -18484,47 +18474,47 @@
       <c r="A43" s="95"/>
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="322"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="318"/>
-      <c r="J43" s="319"/>
-      <c r="K43" s="319"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="318"/>
-      <c r="N43" s="319"/>
-      <c r="O43" s="319"/>
-      <c r="P43" s="319"/>
-      <c r="Q43" s="319"/>
-      <c r="R43" s="319"/>
-      <c r="S43" s="319"/>
-      <c r="T43" s="320"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="223"/>
-      <c r="Y43" s="224"/>
-      <c r="Z43" s="222"/>
-      <c r="AA43" s="223"/>
-      <c r="AB43" s="224"/>
-      <c r="AC43" s="322"/>
-      <c r="AD43" s="222"/>
-      <c r="AE43" s="223"/>
-      <c r="AF43" s="223"/>
-      <c r="AG43" s="224"/>
+      <c r="D43" s="321"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="317"/>
+      <c r="J43" s="318"/>
+      <c r="K43" s="318"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="317"/>
+      <c r="N43" s="318"/>
+      <c r="O43" s="318"/>
+      <c r="P43" s="318"/>
+      <c r="Q43" s="318"/>
+      <c r="R43" s="318"/>
+      <c r="S43" s="318"/>
+      <c r="T43" s="319"/>
+      <c r="U43" s="224"/>
+      <c r="V43" s="225"/>
+      <c r="W43" s="225"/>
+      <c r="X43" s="225"/>
+      <c r="Y43" s="226"/>
+      <c r="Z43" s="224"/>
+      <c r="AA43" s="225"/>
+      <c r="AB43" s="226"/>
+      <c r="AC43" s="321"/>
+      <c r="AD43" s="224"/>
+      <c r="AE43" s="225"/>
+      <c r="AF43" s="225"/>
+      <c r="AG43" s="226"/>
       <c r="AH43" s="111"/>
       <c r="AI43" s="111"/>
       <c r="AJ43" s="71"/>
       <c r="AK43" s="71"/>
-      <c r="AL43" s="323" t="s">
+      <c r="AL43" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="AM43" s="324"/>
-      <c r="AN43" s="324"/>
-      <c r="AO43" s="324"/>
-      <c r="AP43" s="325"/>
+      <c r="AM43" s="323"/>
+      <c r="AN43" s="323"/>
+      <c r="AO43" s="323"/>
+      <c r="AP43" s="324"/>
       <c r="AQ43" s="71"/>
       <c r="AR43" s="71"/>
       <c r="AS43" s="71"/>
@@ -18534,38 +18524,38 @@
       <c r="A44" s="95"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
-      <c r="D44" s="312" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" s="313"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="313"/>
-      <c r="I44" s="313"/>
-      <c r="J44" s="313"/>
-      <c r="K44" s="313"/>
-      <c r="L44" s="313"/>
-      <c r="M44" s="313"/>
-      <c r="N44" s="313"/>
-      <c r="O44" s="313"/>
-      <c r="P44" s="313"/>
-      <c r="Q44" s="313"/>
-      <c r="R44" s="313"/>
-      <c r="S44" s="313"/>
-      <c r="T44" s="313"/>
-      <c r="U44" s="313"/>
-      <c r="V44" s="313"/>
-      <c r="W44" s="313"/>
-      <c r="X44" s="313"/>
-      <c r="Y44" s="313"/>
-      <c r="Z44" s="313"/>
-      <c r="AA44" s="313"/>
-      <c r="AB44" s="313"/>
-      <c r="AC44" s="313"/>
-      <c r="AD44" s="313"/>
-      <c r="AE44" s="313"/>
-      <c r="AF44" s="313"/>
-      <c r="AG44" s="314"/>
+      <c r="D44" s="311" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="312"/>
+      <c r="F44" s="312"/>
+      <c r="G44" s="312"/>
+      <c r="H44" s="312"/>
+      <c r="I44" s="312"/>
+      <c r="J44" s="312"/>
+      <c r="K44" s="312"/>
+      <c r="L44" s="312"/>
+      <c r="M44" s="312"/>
+      <c r="N44" s="312"/>
+      <c r="O44" s="312"/>
+      <c r="P44" s="312"/>
+      <c r="Q44" s="312"/>
+      <c r="R44" s="312"/>
+      <c r="S44" s="312"/>
+      <c r="T44" s="312"/>
+      <c r="U44" s="312"/>
+      <c r="V44" s="312"/>
+      <c r="W44" s="312"/>
+      <c r="X44" s="312"/>
+      <c r="Y44" s="312"/>
+      <c r="Z44" s="312"/>
+      <c r="AA44" s="312"/>
+      <c r="AB44" s="312"/>
+      <c r="AC44" s="312"/>
+      <c r="AD44" s="312"/>
+      <c r="AE44" s="312"/>
+      <c r="AF44" s="312"/>
+      <c r="AG44" s="313"/>
       <c r="AH44" s="111"/>
       <c r="AI44" s="111"/>
       <c r="AJ44" s="71"/>
@@ -18589,64 +18579,64 @@
       <c r="D45" s="122">
         <v>1</v>
       </c>
-      <c r="E45" s="228" t="s">
+      <c r="E45" s="230" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="229"/>
-      <c r="G45" s="229"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="291" t="s">
+      <c r="F45" s="231"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="304"/>
+      <c r="I45" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J45" s="292"/>
-      <c r="K45" s="292"/>
-      <c r="L45" s="293"/>
-      <c r="M45" s="256" t="s">
-        <v>300</v>
-      </c>
-      <c r="N45" s="257"/>
-      <c r="O45" s="257"/>
-      <c r="P45" s="257"/>
-      <c r="Q45" s="257"/>
-      <c r="R45" s="257"/>
-      <c r="S45" s="257"/>
-      <c r="T45" s="258"/>
-      <c r="U45" s="288" t="s">
+      <c r="J45" s="287"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="288"/>
+      <c r="M45" s="248" t="s">
+        <v>297</v>
+      </c>
+      <c r="N45" s="249"/>
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249"/>
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="250"/>
+      <c r="U45" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="289"/>
-      <c r="W45" s="289"/>
-      <c r="X45" s="289"/>
-      <c r="Y45" s="290"/>
-      <c r="Z45" s="288" t="s">
+      <c r="V45" s="284"/>
+      <c r="W45" s="284"/>
+      <c r="X45" s="284"/>
+      <c r="Y45" s="285"/>
+      <c r="Z45" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="AA45" s="289"/>
-      <c r="AB45" s="290"/>
+      <c r="AA45" s="284"/>
+      <c r="AB45" s="285"/>
       <c r="AC45" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD45" s="288" t="s">
+      <c r="AD45" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE45" s="289"/>
-      <c r="AF45" s="289"/>
-      <c r="AG45" s="290"/>
+      <c r="AE45" s="284"/>
+      <c r="AF45" s="284"/>
+      <c r="AG45" s="285"/>
       <c r="AH45" s="118"/>
       <c r="AI45" s="118"/>
-      <c r="AL45" s="352" t="s">
+      <c r="AL45" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM45" s="353" t="s">
+      <c r="AM45" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN45" s="353" t="s">
+      <c r="AN45" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO45" s="353" t="s">
+      <c r="AO45" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP45" s="354" t="s">
+      <c r="AP45" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU45" s="69"/>
@@ -18663,64 +18653,64 @@
         <f>D45+1</f>
         <v>2</v>
       </c>
-      <c r="E46" s="228" t="s">
+      <c r="E46" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="229"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="239"/>
-      <c r="I46" s="291" t="s">
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="304"/>
+      <c r="I46" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="292"/>
-      <c r="K46" s="292"/>
-      <c r="L46" s="293"/>
-      <c r="M46" s="256" t="s">
-        <v>300</v>
-      </c>
-      <c r="N46" s="257"/>
-      <c r="O46" s="257"/>
-      <c r="P46" s="257"/>
-      <c r="Q46" s="257"/>
-      <c r="R46" s="257"/>
-      <c r="S46" s="257"/>
-      <c r="T46" s="258"/>
-      <c r="U46" s="288" t="s">
+      <c r="J46" s="287"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="288"/>
+      <c r="M46" s="248" t="s">
+        <v>297</v>
+      </c>
+      <c r="N46" s="249"/>
+      <c r="O46" s="249"/>
+      <c r="P46" s="249"/>
+      <c r="Q46" s="249"/>
+      <c r="R46" s="249"/>
+      <c r="S46" s="249"/>
+      <c r="T46" s="250"/>
+      <c r="U46" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V46" s="289"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="289"/>
-      <c r="Y46" s="290"/>
-      <c r="Z46" s="288" t="s">
+      <c r="V46" s="284"/>
+      <c r="W46" s="284"/>
+      <c r="X46" s="284"/>
+      <c r="Y46" s="285"/>
+      <c r="Z46" s="283" t="s">
         <v>36</v>
       </c>
-      <c r="AA46" s="289"/>
-      <c r="AB46" s="290"/>
+      <c r="AA46" s="284"/>
+      <c r="AB46" s="285"/>
       <c r="AC46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD46" s="288" t="s">
+      <c r="AD46" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE46" s="289"/>
-      <c r="AF46" s="289"/>
-      <c r="AG46" s="290"/>
+      <c r="AE46" s="284"/>
+      <c r="AF46" s="284"/>
+      <c r="AG46" s="285"/>
       <c r="AH46" s="118"/>
       <c r="AI46" s="118"/>
-      <c r="AL46" s="352" t="s">
+      <c r="AL46" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM46" s="353" t="s">
+      <c r="AM46" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN46" s="353" t="s">
+      <c r="AN46" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO46" s="353" t="s">
+      <c r="AO46" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP46" s="354" t="s">
+      <c r="AP46" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU46" s="69"/>
@@ -18737,66 +18727,66 @@
         <f>D46+1</f>
         <v>3</v>
       </c>
-      <c r="E47" s="228" t="s">
-        <v>211</v>
-      </c>
-      <c r="F47" s="229"/>
-      <c r="G47" s="229"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="291" t="s">
+      <c r="E47" s="230" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="304"/>
+      <c r="I47" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="292"/>
-      <c r="K47" s="292"/>
-      <c r="L47" s="293"/>
-      <c r="M47" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="N47" s="257"/>
-      <c r="O47" s="257"/>
-      <c r="P47" s="257"/>
-      <c r="Q47" s="257"/>
-      <c r="R47" s="257"/>
-      <c r="S47" s="257"/>
-      <c r="T47" s="258"/>
-      <c r="U47" s="310" t="s">
+      <c r="J47" s="287"/>
+      <c r="K47" s="287"/>
+      <c r="L47" s="288"/>
+      <c r="M47" s="248" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" s="249"/>
+      <c r="O47" s="249"/>
+      <c r="P47" s="249"/>
+      <c r="Q47" s="249"/>
+      <c r="R47" s="249"/>
+      <c r="S47" s="249"/>
+      <c r="T47" s="250"/>
+      <c r="U47" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="310"/>
-      <c r="W47" s="310"/>
-      <c r="X47" s="310"/>
-      <c r="Y47" s="310"/>
-      <c r="Z47" s="310" t="s">
+      <c r="V47" s="309"/>
+      <c r="W47" s="309"/>
+      <c r="X47" s="309"/>
+      <c r="Y47" s="309"/>
+      <c r="Z47" s="309" t="s">
         <v>36</v>
       </c>
-      <c r="AA47" s="310"/>
-      <c r="AB47" s="310"/>
+      <c r="AA47" s="309"/>
+      <c r="AB47" s="309"/>
       <c r="AC47" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD47" s="288" t="s">
+      <c r="AD47" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE47" s="289"/>
-      <c r="AF47" s="289"/>
-      <c r="AG47" s="290"/>
+      <c r="AE47" s="284"/>
+      <c r="AF47" s="284"/>
+      <c r="AG47" s="285"/>
       <c r="AH47" s="111"/>
       <c r="AI47" s="111"/>
       <c r="AJ47" s="71"/>
       <c r="AK47" s="71"/>
-      <c r="AL47" s="352" t="s">
+      <c r="AL47" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM47" s="353" t="s">
+      <c r="AM47" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN47" s="353" t="s">
+      <c r="AN47" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO47" s="353" t="s">
+      <c r="AO47" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP47" s="354" t="s">
+      <c r="AP47" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AQ47" s="71"/>
@@ -18812,66 +18802,66 @@
         <f>D47+1</f>
         <v>4</v>
       </c>
-      <c r="E48" s="228" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="229"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="291" t="s">
+      <c r="E48" s="230" t="s">
+        <v>361</v>
+      </c>
+      <c r="F48" s="231"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="304"/>
+      <c r="I48" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J48" s="292"/>
-      <c r="K48" s="292"/>
-      <c r="L48" s="293"/>
-      <c r="M48" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="N48" s="257"/>
-      <c r="O48" s="257"/>
-      <c r="P48" s="257"/>
-      <c r="Q48" s="257"/>
-      <c r="R48" s="257"/>
-      <c r="S48" s="257"/>
-      <c r="T48" s="258"/>
-      <c r="U48" s="288" t="s">
-        <v>127</v>
-      </c>
-      <c r="V48" s="289"/>
-      <c r="W48" s="289"/>
-      <c r="X48" s="289"/>
-      <c r="Y48" s="290"/>
-      <c r="Z48" s="310" t="s">
+      <c r="J48" s="287"/>
+      <c r="K48" s="287"/>
+      <c r="L48" s="288"/>
+      <c r="M48" s="248" t="s">
+        <v>217</v>
+      </c>
+      <c r="N48" s="249"/>
+      <c r="O48" s="249"/>
+      <c r="P48" s="249"/>
+      <c r="Q48" s="249"/>
+      <c r="R48" s="249"/>
+      <c r="S48" s="249"/>
+      <c r="T48" s="250"/>
+      <c r="U48" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="V48" s="284"/>
+      <c r="W48" s="284"/>
+      <c r="X48" s="284"/>
+      <c r="Y48" s="285"/>
+      <c r="Z48" s="309" t="s">
         <v>37</v>
       </c>
-      <c r="AA48" s="310"/>
-      <c r="AB48" s="310"/>
+      <c r="AA48" s="309"/>
+      <c r="AB48" s="309"/>
       <c r="AC48" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD48" s="288" t="s">
+      <c r="AD48" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE48" s="289"/>
-      <c r="AF48" s="289"/>
-      <c r="AG48" s="290"/>
+      <c r="AE48" s="284"/>
+      <c r="AF48" s="284"/>
+      <c r="AG48" s="285"/>
       <c r="AH48" s="111"/>
       <c r="AI48" s="111"/>
       <c r="AJ48" s="71"/>
       <c r="AK48" s="71"/>
-      <c r="AL48" s="352" t="s">
+      <c r="AL48" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM48" s="353" t="s">
+      <c r="AM48" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN48" s="353" t="s">
+      <c r="AN48" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO48" s="353" t="s">
+      <c r="AO48" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP48" s="354" t="s">
+      <c r="AP48" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AQ48" s="71"/>
@@ -18887,66 +18877,66 @@
         <f>D48+1</f>
         <v>5</v>
       </c>
-      <c r="E49" s="228" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="229"/>
-      <c r="G49" s="229"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="291" t="s">
+      <c r="E49" s="230" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="292"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="293"/>
-      <c r="M49" s="256" t="s">
-        <v>217</v>
-      </c>
-      <c r="N49" s="257"/>
-      <c r="O49" s="257"/>
-      <c r="P49" s="257"/>
-      <c r="Q49" s="257"/>
-      <c r="R49" s="257"/>
-      <c r="S49" s="257"/>
-      <c r="T49" s="258"/>
-      <c r="U49" s="288" t="s">
-        <v>128</v>
-      </c>
-      <c r="V49" s="289"/>
-      <c r="W49" s="289"/>
-      <c r="X49" s="289"/>
-      <c r="Y49" s="290"/>
-      <c r="Z49" s="310" t="s">
+      <c r="J49" s="287"/>
+      <c r="K49" s="287"/>
+      <c r="L49" s="288"/>
+      <c r="M49" s="248" t="s">
+        <v>216</v>
+      </c>
+      <c r="N49" s="249"/>
+      <c r="O49" s="249"/>
+      <c r="P49" s="249"/>
+      <c r="Q49" s="249"/>
+      <c r="R49" s="249"/>
+      <c r="S49" s="249"/>
+      <c r="T49" s="250"/>
+      <c r="U49" s="283" t="s">
+        <v>127</v>
+      </c>
+      <c r="V49" s="284"/>
+      <c r="W49" s="284"/>
+      <c r="X49" s="284"/>
+      <c r="Y49" s="285"/>
+      <c r="Z49" s="309" t="s">
         <v>37</v>
       </c>
-      <c r="AA49" s="310"/>
-      <c r="AB49" s="310"/>
+      <c r="AA49" s="309"/>
+      <c r="AB49" s="309"/>
       <c r="AC49" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="288" t="s">
+      <c r="AD49" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE49" s="289"/>
-      <c r="AF49" s="289"/>
-      <c r="AG49" s="290"/>
+      <c r="AE49" s="284"/>
+      <c r="AF49" s="284"/>
+      <c r="AG49" s="285"/>
       <c r="AH49" s="111"/>
       <c r="AI49" s="111"/>
       <c r="AJ49" s="71"/>
       <c r="AK49" s="71"/>
-      <c r="AL49" s="352" t="s">
+      <c r="AL49" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="353" t="s">
+      <c r="AM49" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN49" s="353" t="s">
+      <c r="AN49" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO49" s="353" t="s">
+      <c r="AO49" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP49" s="354" t="s">
+      <c r="AP49" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AQ49" s="71"/>
@@ -18962,64 +18952,64 @@
         <f t="shared" ref="D50:D56" si="0">D49+1</f>
         <v>6</v>
       </c>
-      <c r="E50" s="228" t="s">
+      <c r="E50" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="229"/>
-      <c r="G50" s="229"/>
-      <c r="H50" s="239"/>
-      <c r="I50" s="306" t="s">
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="304"/>
+      <c r="I50" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="307"/>
-      <c r="K50" s="307"/>
-      <c r="L50" s="308"/>
-      <c r="M50" s="256" t="s">
-        <v>266</v>
-      </c>
-      <c r="N50" s="257"/>
-      <c r="O50" s="257"/>
-      <c r="P50" s="257"/>
-      <c r="Q50" s="257"/>
-      <c r="R50" s="257"/>
-      <c r="S50" s="257"/>
-      <c r="T50" s="258"/>
-      <c r="U50" s="288" t="s">
-        <v>301</v>
-      </c>
-      <c r="V50" s="289"/>
-      <c r="W50" s="289"/>
-      <c r="X50" s="289"/>
-      <c r="Y50" s="290"/>
-      <c r="Z50" s="288" t="s">
+      <c r="J50" s="306"/>
+      <c r="K50" s="306"/>
+      <c r="L50" s="307"/>
+      <c r="M50" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="N50" s="249"/>
+      <c r="O50" s="249"/>
+      <c r="P50" s="249"/>
+      <c r="Q50" s="249"/>
+      <c r="R50" s="249"/>
+      <c r="S50" s="249"/>
+      <c r="T50" s="250"/>
+      <c r="U50" s="283" t="s">
+        <v>298</v>
+      </c>
+      <c r="V50" s="284"/>
+      <c r="W50" s="284"/>
+      <c r="X50" s="284"/>
+      <c r="Y50" s="285"/>
+      <c r="Z50" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="289"/>
-      <c r="AB50" s="290"/>
+      <c r="AA50" s="284"/>
+      <c r="AB50" s="285"/>
       <c r="AC50" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD50" s="288" t="s">
+      <c r="AD50" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE50" s="289"/>
-      <c r="AF50" s="289"/>
-      <c r="AG50" s="290"/>
+      <c r="AE50" s="284"/>
+      <c r="AF50" s="284"/>
+      <c r="AG50" s="285"/>
       <c r="AH50" s="94"/>
       <c r="AI50" s="94"/>
-      <c r="AL50" s="352" t="s">
+      <c r="AL50" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM50" s="353" t="s">
+      <c r="AM50" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN50" s="353" t="s">
+      <c r="AN50" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO50" s="353" t="s">
+      <c r="AO50" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP50" s="354" t="s">
+      <c r="AP50" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AY50" s="56"/>
@@ -19032,64 +19022,64 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E51" s="228" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" s="229"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="239"/>
-      <c r="I51" s="306" t="s">
+      <c r="E51" s="230" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="231"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="304"/>
+      <c r="I51" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="307"/>
-      <c r="K51" s="307"/>
-      <c r="L51" s="308"/>
-      <c r="M51" s="256" t="s">
-        <v>284</v>
-      </c>
-      <c r="N51" s="257"/>
-      <c r="O51" s="257"/>
-      <c r="P51" s="257"/>
-      <c r="Q51" s="257"/>
-      <c r="R51" s="257"/>
-      <c r="S51" s="257"/>
-      <c r="T51" s="258"/>
-      <c r="U51" s="288" t="s">
+      <c r="J51" s="306"/>
+      <c r="K51" s="306"/>
+      <c r="L51" s="307"/>
+      <c r="M51" s="248" t="s">
+        <v>281</v>
+      </c>
+      <c r="N51" s="249"/>
+      <c r="O51" s="249"/>
+      <c r="P51" s="249"/>
+      <c r="Q51" s="249"/>
+      <c r="R51" s="249"/>
+      <c r="S51" s="249"/>
+      <c r="T51" s="250"/>
+      <c r="U51" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V51" s="289"/>
-      <c r="W51" s="289"/>
-      <c r="X51" s="289"/>
-      <c r="Y51" s="290"/>
-      <c r="Z51" s="288" t="s">
+      <c r="V51" s="284"/>
+      <c r="W51" s="284"/>
+      <c r="X51" s="284"/>
+      <c r="Y51" s="285"/>
+      <c r="Z51" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="289"/>
-      <c r="AB51" s="290"/>
+      <c r="AA51" s="284"/>
+      <c r="AB51" s="285"/>
       <c r="AC51" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="288" t="s">
+      <c r="AD51" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE51" s="289"/>
-      <c r="AF51" s="289"/>
-      <c r="AG51" s="290"/>
+      <c r="AE51" s="284"/>
+      <c r="AF51" s="284"/>
+      <c r="AG51" s="285"/>
       <c r="AH51" s="94"/>
       <c r="AI51" s="94"/>
-      <c r="AL51" s="352" t="s">
+      <c r="AL51" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM51" s="353" t="s">
+      <c r="AM51" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN51" s="353" t="s">
+      <c r="AN51" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO51" s="353" t="s">
+      <c r="AO51" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP51" s="354" t="s">
+      <c r="AP51" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AY51" s="56"/>
@@ -19102,64 +19092,64 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E52" s="228" t="s">
+      <c r="E52" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="229"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="239"/>
-      <c r="I52" s="291" t="s">
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="292"/>
-      <c r="K52" s="292"/>
-      <c r="L52" s="293"/>
-      <c r="M52" s="256" t="s">
-        <v>267</v>
-      </c>
-      <c r="N52" s="257"/>
-      <c r="O52" s="257"/>
-      <c r="P52" s="257"/>
-      <c r="Q52" s="257"/>
-      <c r="R52" s="257"/>
-      <c r="S52" s="257"/>
-      <c r="T52" s="258"/>
-      <c r="U52" s="288" t="s">
+      <c r="J52" s="287"/>
+      <c r="K52" s="287"/>
+      <c r="L52" s="288"/>
+      <c r="M52" s="248" t="s">
+        <v>266</v>
+      </c>
+      <c r="N52" s="249"/>
+      <c r="O52" s="249"/>
+      <c r="P52" s="249"/>
+      <c r="Q52" s="249"/>
+      <c r="R52" s="249"/>
+      <c r="S52" s="249"/>
+      <c r="T52" s="250"/>
+      <c r="U52" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="289"/>
-      <c r="W52" s="289"/>
-      <c r="X52" s="289"/>
-      <c r="Y52" s="290"/>
-      <c r="Z52" s="288" t="s">
+      <c r="V52" s="284"/>
+      <c r="W52" s="284"/>
+      <c r="X52" s="284"/>
+      <c r="Y52" s="285"/>
+      <c r="Z52" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA52" s="289"/>
-      <c r="AB52" s="290"/>
+      <c r="AA52" s="284"/>
+      <c r="AB52" s="285"/>
       <c r="AC52" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD52" s="288" t="s">
+      <c r="AD52" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE52" s="289"/>
-      <c r="AF52" s="289"/>
-      <c r="AG52" s="290"/>
+      <c r="AE52" s="284"/>
+      <c r="AF52" s="284"/>
+      <c r="AG52" s="285"/>
       <c r="AH52" s="118"/>
       <c r="AI52" s="118"/>
-      <c r="AL52" s="352" t="s">
+      <c r="AL52" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM52" s="353" t="s">
+      <c r="AM52" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="353" t="s">
+      <c r="AN52" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO52" s="353" t="s">
+      <c r="AO52" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP52" s="354" t="s">
+      <c r="AP52" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU52" s="69"/>
@@ -19176,64 +19166,64 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E53" s="228" t="s">
+      <c r="E53" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="229"/>
-      <c r="G53" s="229"/>
-      <c r="H53" s="239"/>
-      <c r="I53" s="291" t="s">
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="304"/>
+      <c r="I53" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J53" s="292"/>
-      <c r="K53" s="292"/>
-      <c r="L53" s="293"/>
-      <c r="M53" s="256" t="s">
-        <v>271</v>
-      </c>
-      <c r="N53" s="257"/>
-      <c r="O53" s="257"/>
-      <c r="P53" s="257"/>
-      <c r="Q53" s="257"/>
-      <c r="R53" s="257"/>
-      <c r="S53" s="257"/>
-      <c r="T53" s="258"/>
-      <c r="U53" s="288" t="s">
+      <c r="J53" s="287"/>
+      <c r="K53" s="287"/>
+      <c r="L53" s="288"/>
+      <c r="M53" s="248" t="s">
+        <v>270</v>
+      </c>
+      <c r="N53" s="249"/>
+      <c r="O53" s="249"/>
+      <c r="P53" s="249"/>
+      <c r="Q53" s="249"/>
+      <c r="R53" s="249"/>
+      <c r="S53" s="249"/>
+      <c r="T53" s="250"/>
+      <c r="U53" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V53" s="289"/>
-      <c r="W53" s="289"/>
-      <c r="X53" s="289"/>
-      <c r="Y53" s="290"/>
-      <c r="Z53" s="288" t="s">
+      <c r="V53" s="284"/>
+      <c r="W53" s="284"/>
+      <c r="X53" s="284"/>
+      <c r="Y53" s="285"/>
+      <c r="Z53" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA53" s="289"/>
-      <c r="AB53" s="290"/>
+      <c r="AA53" s="284"/>
+      <c r="AB53" s="285"/>
       <c r="AC53" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD53" s="288" t="s">
+      <c r="AD53" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE53" s="289"/>
-      <c r="AF53" s="289"/>
-      <c r="AG53" s="290"/>
+      <c r="AE53" s="284"/>
+      <c r="AF53" s="284"/>
+      <c r="AG53" s="285"/>
       <c r="AH53" s="118"/>
       <c r="AI53" s="118"/>
-      <c r="AL53" s="352" t="s">
+      <c r="AL53" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM53" s="353" t="s">
+      <c r="AM53" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN53" s="353" t="s">
+      <c r="AN53" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO53" s="353" t="s">
+      <c r="AO53" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP53" s="354" t="s">
+      <c r="AP53" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU53" s="69"/>
@@ -19250,66 +19240,66 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E54" s="288" t="s">
+      <c r="E54" s="283" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="289"/>
-      <c r="G54" s="289"/>
-      <c r="H54" s="290"/>
-      <c r="I54" s="291" t="s">
+      <c r="F54" s="284"/>
+      <c r="G54" s="284"/>
+      <c r="H54" s="285"/>
+      <c r="I54" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="292"/>
-      <c r="K54" s="292"/>
-      <c r="L54" s="293"/>
-      <c r="M54" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="N54" s="257"/>
-      <c r="O54" s="257"/>
-      <c r="P54" s="257"/>
-      <c r="Q54" s="257"/>
-      <c r="R54" s="257"/>
-      <c r="S54" s="257"/>
-      <c r="T54" s="258"/>
-      <c r="U54" s="288" t="s">
+      <c r="J54" s="287"/>
+      <c r="K54" s="287"/>
+      <c r="L54" s="288"/>
+      <c r="M54" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="N54" s="249"/>
+      <c r="O54" s="249"/>
+      <c r="P54" s="249"/>
+      <c r="Q54" s="249"/>
+      <c r="R54" s="249"/>
+      <c r="S54" s="249"/>
+      <c r="T54" s="250"/>
+      <c r="U54" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V54" s="289"/>
-      <c r="W54" s="289"/>
-      <c r="X54" s="289"/>
-      <c r="Y54" s="290"/>
-      <c r="Z54" s="288" t="s">
+      <c r="V54" s="284"/>
+      <c r="W54" s="284"/>
+      <c r="X54" s="284"/>
+      <c r="Y54" s="285"/>
+      <c r="Z54" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA54" s="289"/>
-      <c r="AB54" s="290"/>
+      <c r="AA54" s="284"/>
+      <c r="AB54" s="285"/>
       <c r="AC54" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD54" s="288" t="s">
+      <c r="AD54" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE54" s="289"/>
-      <c r="AF54" s="289"/>
-      <c r="AG54" s="290"/>
+      <c r="AE54" s="284"/>
+      <c r="AF54" s="284"/>
+      <c r="AG54" s="285"/>
       <c r="AH54" s="124"/>
       <c r="AI54" s="124"/>
       <c r="AJ54" s="76"/>
       <c r="AK54" s="71"/>
-      <c r="AL54" s="352" t="s">
+      <c r="AL54" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM54" s="353" t="s">
+      <c r="AM54" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN54" s="353" t="s">
+      <c r="AN54" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO54" s="353" t="s">
+      <c r="AO54" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP54" s="354" t="s">
+      <c r="AP54" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AQ54" s="71"/>
@@ -19323,64 +19313,64 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E55" s="288" t="s">
-        <v>264</v>
-      </c>
-      <c r="F55" s="289"/>
-      <c r="G55" s="289"/>
-      <c r="H55" s="290"/>
-      <c r="I55" s="291" t="s">
+      <c r="E55" s="283" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" s="284"/>
+      <c r="G55" s="284"/>
+      <c r="H55" s="285"/>
+      <c r="I55" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
-      <c r="M55" s="256" t="s">
-        <v>269</v>
-      </c>
-      <c r="N55" s="257"/>
-      <c r="O55" s="257"/>
-      <c r="P55" s="257"/>
-      <c r="Q55" s="257"/>
-      <c r="R55" s="257"/>
-      <c r="S55" s="257"/>
-      <c r="T55" s="258"/>
-      <c r="U55" s="288" t="s">
+      <c r="J55" s="287"/>
+      <c r="K55" s="287"/>
+      <c r="L55" s="288"/>
+      <c r="M55" s="248" t="s">
+        <v>268</v>
+      </c>
+      <c r="N55" s="249"/>
+      <c r="O55" s="249"/>
+      <c r="P55" s="249"/>
+      <c r="Q55" s="249"/>
+      <c r="R55" s="249"/>
+      <c r="S55" s="249"/>
+      <c r="T55" s="250"/>
+      <c r="U55" s="283" t="s">
         <v>112</v>
       </c>
-      <c r="V55" s="289"/>
-      <c r="W55" s="289"/>
-      <c r="X55" s="289"/>
-      <c r="Y55" s="290"/>
-      <c r="Z55" s="288" t="s">
+      <c r="V55" s="284"/>
+      <c r="W55" s="284"/>
+      <c r="X55" s="284"/>
+      <c r="Y55" s="285"/>
+      <c r="Z55" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA55" s="289"/>
-      <c r="AB55" s="290"/>
+      <c r="AA55" s="284"/>
+      <c r="AB55" s="285"/>
       <c r="AC55" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD55" s="288" t="s">
+      <c r="AD55" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="289"/>
-      <c r="AF55" s="289"/>
-      <c r="AG55" s="290"/>
+      <c r="AE55" s="284"/>
+      <c r="AF55" s="284"/>
+      <c r="AG55" s="285"/>
       <c r="AH55" s="118"/>
       <c r="AI55" s="118"/>
-      <c r="AL55" s="352" t="s">
+      <c r="AL55" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM55" s="353" t="s">
+      <c r="AM55" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN55" s="353" t="s">
+      <c r="AN55" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO55" s="353" t="s">
+      <c r="AO55" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP55" s="354" t="s">
+      <c r="AP55" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU55" s="69"/>
@@ -19397,64 +19387,64 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E56" s="228" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" s="229"/>
-      <c r="G56" s="229"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="291" t="s">
+      <c r="E56" s="230" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="304"/>
+      <c r="I56" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="292"/>
-      <c r="K56" s="292"/>
-      <c r="L56" s="293"/>
-      <c r="M56" s="256" t="s">
-        <v>272</v>
-      </c>
-      <c r="N56" s="257"/>
-      <c r="O56" s="257"/>
-      <c r="P56" s="257"/>
-      <c r="Q56" s="257"/>
-      <c r="R56" s="257"/>
-      <c r="S56" s="257"/>
-      <c r="T56" s="258"/>
-      <c r="U56" s="288" t="s">
+      <c r="J56" s="287"/>
+      <c r="K56" s="287"/>
+      <c r="L56" s="288"/>
+      <c r="M56" s="248" t="s">
+        <v>271</v>
+      </c>
+      <c r="N56" s="249"/>
+      <c r="O56" s="249"/>
+      <c r="P56" s="249"/>
+      <c r="Q56" s="249"/>
+      <c r="R56" s="249"/>
+      <c r="S56" s="249"/>
+      <c r="T56" s="250"/>
+      <c r="U56" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="V56" s="289"/>
-      <c r="W56" s="289"/>
-      <c r="X56" s="289"/>
-      <c r="Y56" s="290"/>
-      <c r="Z56" s="288" t="s">
+      <c r="V56" s="284"/>
+      <c r="W56" s="284"/>
+      <c r="X56" s="284"/>
+      <c r="Y56" s="285"/>
+      <c r="Z56" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="AA56" s="289"/>
-      <c r="AB56" s="290"/>
+      <c r="AA56" s="284"/>
+      <c r="AB56" s="285"/>
       <c r="AC56" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD56" s="288" t="s">
+      <c r="AD56" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="AE56" s="289"/>
-      <c r="AF56" s="289"/>
-      <c r="AG56" s="290"/>
+      <c r="AE56" s="284"/>
+      <c r="AF56" s="284"/>
+      <c r="AG56" s="285"/>
       <c r="AH56" s="118"/>
       <c r="AI56" s="118"/>
-      <c r="AL56" s="352" t="s">
+      <c r="AL56" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="AM56" s="353" t="s">
+      <c r="AM56" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AN56" s="353" t="s">
+      <c r="AN56" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AO56" s="353" t="s">
+      <c r="AO56" s="352" t="s">
         <v>12</v>
       </c>
-      <c r="AP56" s="354" t="s">
+      <c r="AP56" s="353" t="s">
         <v>12</v>
       </c>
       <c r="AU56" s="69"/>
@@ -19648,49 +19638,49 @@
       <c r="A61" s="94"/>
       <c r="B61" s="94"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="348" t="s">
+      <c r="D61" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="296" t="s">
+      <c r="E61" s="291" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="292"/>
+      <c r="G61" s="292"/>
+      <c r="H61" s="292"/>
+      <c r="I61" s="292"/>
+      <c r="J61" s="293"/>
+      <c r="K61" s="291" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="297"/>
-      <c r="G61" s="297"/>
-      <c r="H61" s="297"/>
-      <c r="I61" s="297"/>
-      <c r="J61" s="298"/>
-      <c r="K61" s="296" t="s">
+      <c r="L61" s="292"/>
+      <c r="M61" s="292"/>
+      <c r="N61" s="293"/>
+      <c r="O61" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="L61" s="297"/>
-      <c r="M61" s="297"/>
-      <c r="N61" s="298"/>
-      <c r="O61" s="294" t="s">
+      <c r="P61" s="127" t="s">
         <v>131</v>
-      </c>
-      <c r="P61" s="127" t="s">
-        <v>132</v>
       </c>
       <c r="Q61" s="128"/>
       <c r="R61" s="128"/>
       <c r="S61" s="128"/>
       <c r="T61" s="128"/>
       <c r="U61" s="128"/>
-      <c r="V61" s="296" t="s">
+      <c r="V61" s="291" t="s">
         <v>78</v>
       </c>
-      <c r="W61" s="297"/>
-      <c r="X61" s="297"/>
-      <c r="Y61" s="297"/>
-      <c r="Z61" s="297"/>
-      <c r="AA61" s="297"/>
-      <c r="AB61" s="297"/>
-      <c r="AC61" s="297"/>
-      <c r="AD61" s="297"/>
-      <c r="AE61" s="297"/>
-      <c r="AF61" s="297"/>
-      <c r="AG61" s="297"/>
-      <c r="AH61" s="298"/>
+      <c r="W61" s="292"/>
+      <c r="X61" s="292"/>
+      <c r="Y61" s="292"/>
+      <c r="Z61" s="292"/>
+      <c r="AA61" s="292"/>
+      <c r="AB61" s="292"/>
+      <c r="AC61" s="292"/>
+      <c r="AD61" s="292"/>
+      <c r="AE61" s="292"/>
+      <c r="AF61" s="292"/>
+      <c r="AG61" s="292"/>
+      <c r="AH61" s="293"/>
       <c r="AI61" s="94"/>
       <c r="AK61" s="53"/>
       <c r="AL61" s="53"/>
@@ -19710,47 +19700,47 @@
       <c r="A62" s="94"/>
       <c r="B62" s="94"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="349"/>
-      <c r="E62" s="299"/>
-      <c r="F62" s="300"/>
-      <c r="G62" s="300"/>
-      <c r="H62" s="300"/>
-      <c r="I62" s="300"/>
-      <c r="J62" s="301"/>
-      <c r="K62" s="299"/>
-      <c r="L62" s="300"/>
-      <c r="M62" s="300"/>
-      <c r="N62" s="301"/>
-      <c r="O62" s="295"/>
+      <c r="D62" s="348"/>
+      <c r="E62" s="294"/>
+      <c r="F62" s="295"/>
+      <c r="G62" s="295"/>
+      <c r="H62" s="295"/>
+      <c r="I62" s="295"/>
+      <c r="J62" s="296"/>
+      <c r="K62" s="294"/>
+      <c r="L62" s="295"/>
+      <c r="M62" s="295"/>
+      <c r="N62" s="296"/>
+      <c r="O62" s="290"/>
       <c r="P62" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q62" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="Q62" s="129" t="s">
+      <c r="R62" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="R62" s="129" t="s">
+      <c r="S62" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="S62" s="129" t="s">
+      <c r="T62" s="297" t="s">
         <v>136</v>
       </c>
-      <c r="T62" s="302" t="s">
-        <v>137</v>
-      </c>
-      <c r="U62" s="303"/>
-      <c r="V62" s="299"/>
-      <c r="W62" s="300"/>
-      <c r="X62" s="300"/>
-      <c r="Y62" s="300"/>
-      <c r="Z62" s="300"/>
-      <c r="AA62" s="300"/>
-      <c r="AB62" s="300"/>
-      <c r="AC62" s="300"/>
-      <c r="AD62" s="300"/>
-      <c r="AE62" s="300"/>
-      <c r="AF62" s="300"/>
-      <c r="AG62" s="300"/>
-      <c r="AH62" s="301"/>
+      <c r="U62" s="298"/>
+      <c r="V62" s="294"/>
+      <c r="W62" s="295"/>
+      <c r="X62" s="295"/>
+      <c r="Y62" s="295"/>
+      <c r="Z62" s="295"/>
+      <c r="AA62" s="295"/>
+      <c r="AB62" s="295"/>
+      <c r="AC62" s="295"/>
+      <c r="AD62" s="295"/>
+      <c r="AE62" s="295"/>
+      <c r="AF62" s="295"/>
+      <c r="AG62" s="295"/>
+      <c r="AH62" s="296"/>
       <c r="AI62" s="94"/>
       <c r="AK62" s="53"/>
       <c r="AL62" s="53"/>
@@ -19773,20 +19763,20 @@
       <c r="D63" s="132">
         <v>1</v>
       </c>
-      <c r="E63" s="236" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="237"/>
-      <c r="G63" s="237"/>
-      <c r="H63" s="237"/>
-      <c r="I63" s="237"/>
-      <c r="J63" s="238"/>
-      <c r="K63" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="L63" s="289"/>
-      <c r="M63" s="289"/>
-      <c r="N63" s="290"/>
+      <c r="E63" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="300"/>
+      <c r="G63" s="300"/>
+      <c r="H63" s="300"/>
+      <c r="I63" s="300"/>
+      <c r="J63" s="301"/>
+      <c r="K63" s="283" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" s="284"/>
+      <c r="M63" s="284"/>
+      <c r="N63" s="285"/>
       <c r="O63" s="133" t="s">
         <v>7</v>
       </c>
@@ -19794,7 +19784,7 @@
         <v>5</v>
       </c>
       <c r="Q63" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R63" s="134" t="s">
         <v>5</v>
@@ -19802,25 +19792,25 @@
       <c r="S63" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T63" s="304" t="s">
+      <c r="T63" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="U63" s="305"/>
-      <c r="V63" s="288" t="s">
+      <c r="U63" s="303"/>
+      <c r="V63" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="W63" s="289"/>
-      <c r="X63" s="289"/>
-      <c r="Y63" s="289"/>
-      <c r="Z63" s="289"/>
-      <c r="AA63" s="289"/>
-      <c r="AB63" s="289"/>
-      <c r="AC63" s="289"/>
-      <c r="AD63" s="289"/>
-      <c r="AE63" s="289"/>
-      <c r="AF63" s="289"/>
-      <c r="AG63" s="289"/>
-      <c r="AH63" s="290"/>
+      <c r="W63" s="284"/>
+      <c r="X63" s="284"/>
+      <c r="Y63" s="284"/>
+      <c r="Z63" s="284"/>
+      <c r="AA63" s="284"/>
+      <c r="AB63" s="284"/>
+      <c r="AC63" s="284"/>
+      <c r="AD63" s="284"/>
+      <c r="AE63" s="284"/>
+      <c r="AF63" s="284"/>
+      <c r="AG63" s="284"/>
+      <c r="AH63" s="285"/>
       <c r="AI63" s="94"/>
       <c r="AK63" s="53"/>
       <c r="AL63" s="53"/>
@@ -19843,20 +19833,20 @@
       <c r="D64" s="132">
         <v>2</v>
       </c>
-      <c r="E64" s="236" t="s">
+      <c r="E64" s="299" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="300"/>
+      <c r="G64" s="300"/>
+      <c r="H64" s="300"/>
+      <c r="I64" s="300"/>
+      <c r="J64" s="301"/>
+      <c r="K64" s="283" t="s">
         <v>139</v>
       </c>
-      <c r="F64" s="237"/>
-      <c r="G64" s="237"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="237"/>
-      <c r="J64" s="238"/>
-      <c r="K64" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="L64" s="289"/>
-      <c r="M64" s="289"/>
-      <c r="N64" s="290"/>
+      <c r="L64" s="284"/>
+      <c r="M64" s="284"/>
+      <c r="N64" s="285"/>
       <c r="O64" s="133" t="s">
         <v>7</v>
       </c>
@@ -19864,7 +19854,7 @@
         <v>5</v>
       </c>
       <c r="Q64" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R64" s="134" t="s">
         <v>5</v>
@@ -19872,25 +19862,25 @@
       <c r="S64" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T64" s="304" t="s">
+      <c r="T64" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="U64" s="305"/>
-      <c r="V64" s="288" t="s">
+      <c r="U64" s="303"/>
+      <c r="V64" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="W64" s="289"/>
-      <c r="X64" s="289"/>
-      <c r="Y64" s="289"/>
-      <c r="Z64" s="289"/>
-      <c r="AA64" s="289"/>
-      <c r="AB64" s="289"/>
-      <c r="AC64" s="289"/>
-      <c r="AD64" s="289"/>
-      <c r="AE64" s="289"/>
-      <c r="AF64" s="289"/>
-      <c r="AG64" s="289"/>
-      <c r="AH64" s="290"/>
+      <c r="W64" s="284"/>
+      <c r="X64" s="284"/>
+      <c r="Y64" s="284"/>
+      <c r="Z64" s="284"/>
+      <c r="AA64" s="284"/>
+      <c r="AB64" s="284"/>
+      <c r="AC64" s="284"/>
+      <c r="AD64" s="284"/>
+      <c r="AE64" s="284"/>
+      <c r="AF64" s="284"/>
+      <c r="AG64" s="284"/>
+      <c r="AH64" s="285"/>
       <c r="AI64" s="94"/>
       <c r="AK64" s="53"/>
       <c r="AL64" s="53"/>
@@ -20099,46 +20089,46 @@
       <c r="D69" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="345" t="s">
+      <c r="E69" s="344" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="257"/>
+      <c r="G69" s="257"/>
+      <c r="H69" s="257"/>
+      <c r="I69" s="257"/>
+      <c r="J69" s="345"/>
+      <c r="K69" s="344" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="262"/>
-      <c r="G69" s="262"/>
-      <c r="H69" s="262"/>
-      <c r="I69" s="262"/>
-      <c r="J69" s="346"/>
-      <c r="K69" s="345" t="s">
+      <c r="L69" s="257"/>
+      <c r="M69" s="257"/>
+      <c r="N69" s="257"/>
+      <c r="O69" s="257"/>
+      <c r="P69" s="257"/>
+      <c r="Q69" s="258"/>
+      <c r="R69" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="L69" s="262"/>
-      <c r="M69" s="262"/>
-      <c r="N69" s="262"/>
-      <c r="O69" s="262"/>
-      <c r="P69" s="262"/>
-      <c r="Q69" s="263"/>
-      <c r="R69" s="225" t="s">
+      <c r="S69" s="257"/>
+      <c r="T69" s="257"/>
+      <c r="U69" s="257"/>
+      <c r="V69" s="257"/>
+      <c r="W69" s="257"/>
+      <c r="X69" s="257"/>
+      <c r="Y69" s="258"/>
+      <c r="Z69" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="S69" s="262"/>
-      <c r="T69" s="262"/>
-      <c r="U69" s="262"/>
-      <c r="V69" s="262"/>
-      <c r="W69" s="262"/>
-      <c r="X69" s="262"/>
-      <c r="Y69" s="263"/>
-      <c r="Z69" s="267" t="s">
+      <c r="AA69" s="263"/>
+      <c r="AB69" s="263"/>
+      <c r="AC69" s="263"/>
+      <c r="AD69" s="264"/>
+      <c r="AE69" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="AA69" s="268"/>
-      <c r="AB69" s="268"/>
-      <c r="AC69" s="268"/>
-      <c r="AD69" s="269"/>
-      <c r="AE69" s="264" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF69" s="265"/>
-      <c r="AG69" s="265"/>
-      <c r="AH69" s="266"/>
+      <c r="AF69" s="260"/>
+      <c r="AG69" s="260"/>
+      <c r="AH69" s="261"/>
       <c r="AI69" s="94"/>
     </row>
     <row r="70" spans="1:57" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20148,46 +20138,46 @@
       <c r="D70" s="137">
         <v>1</v>
       </c>
-      <c r="E70" s="270" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="271"/>
-      <c r="G70" s="271"/>
-      <c r="H70" s="271"/>
-      <c r="I70" s="271"/>
-      <c r="J70" s="272"/>
-      <c r="K70" s="310" t="s">
-        <v>287</v>
-      </c>
-      <c r="L70" s="310"/>
-      <c r="M70" s="310"/>
-      <c r="N70" s="310"/>
-      <c r="O70" s="310"/>
-      <c r="P70" s="310"/>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="310" t="s">
-        <v>276</v>
-      </c>
-      <c r="S70" s="310"/>
-      <c r="T70" s="310"/>
-      <c r="U70" s="310"/>
-      <c r="V70" s="310"/>
-      <c r="W70" s="310"/>
-      <c r="X70" s="310"/>
-      <c r="Y70" s="310"/>
-      <c r="Z70" s="310" t="s">
+      <c r="E70" s="265" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="266"/>
+      <c r="G70" s="266"/>
+      <c r="H70" s="266"/>
+      <c r="I70" s="266"/>
+      <c r="J70" s="267"/>
+      <c r="K70" s="309" t="s">
+        <v>284</v>
+      </c>
+      <c r="L70" s="309"/>
+      <c r="M70" s="309"/>
+      <c r="N70" s="309"/>
+      <c r="O70" s="309"/>
+      <c r="P70" s="309"/>
+      <c r="Q70" s="309"/>
+      <c r="R70" s="309" t="s">
+        <v>275</v>
+      </c>
+      <c r="S70" s="309"/>
+      <c r="T70" s="309"/>
+      <c r="U70" s="309"/>
+      <c r="V70" s="309"/>
+      <c r="W70" s="309"/>
+      <c r="X70" s="309"/>
+      <c r="Y70" s="309"/>
+      <c r="Z70" s="309" t="s">
         <v>8</v>
       </c>
-      <c r="AA70" s="310"/>
-      <c r="AB70" s="310"/>
-      <c r="AC70" s="310"/>
-      <c r="AD70" s="310"/>
-      <c r="AE70" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF70" s="274"/>
-      <c r="AG70" s="274"/>
-      <c r="AH70" s="275"/>
+      <c r="AA70" s="309"/>
+      <c r="AB70" s="309"/>
+      <c r="AC70" s="309"/>
+      <c r="AD70" s="309"/>
+      <c r="AE70" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF70" s="269"/>
+      <c r="AG70" s="269"/>
+      <c r="AH70" s="270"/>
       <c r="AI70" s="94"/>
     </row>
     <row r="71" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -20197,46 +20187,46 @@
       <c r="D71" s="195">
         <v>2</v>
       </c>
-      <c r="E71" s="351" t="s">
-        <v>277</v>
-      </c>
-      <c r="F71" s="351"/>
-      <c r="G71" s="351"/>
-      <c r="H71" s="351"/>
-      <c r="I71" s="351"/>
-      <c r="J71" s="351"/>
-      <c r="K71" s="310" t="s">
-        <v>305</v>
-      </c>
-      <c r="L71" s="310"/>
-      <c r="M71" s="310"/>
-      <c r="N71" s="310"/>
-      <c r="O71" s="310"/>
-      <c r="P71" s="310"/>
-      <c r="Q71" s="310"/>
-      <c r="R71" s="310" t="s">
-        <v>150</v>
-      </c>
-      <c r="S71" s="310"/>
-      <c r="T71" s="310"/>
-      <c r="U71" s="310"/>
-      <c r="V71" s="310"/>
-      <c r="W71" s="310"/>
-      <c r="X71" s="310"/>
-      <c r="Y71" s="310"/>
-      <c r="Z71" s="351" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA71" s="351"/>
-      <c r="AB71" s="351"/>
-      <c r="AC71" s="351"/>
-      <c r="AD71" s="351"/>
-      <c r="AE71" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF71" s="274"/>
-      <c r="AG71" s="274"/>
-      <c r="AH71" s="275"/>
+      <c r="E71" s="350" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" s="350"/>
+      <c r="G71" s="350"/>
+      <c r="H71" s="350"/>
+      <c r="I71" s="350"/>
+      <c r="J71" s="350"/>
+      <c r="K71" s="309" t="s">
+        <v>302</v>
+      </c>
+      <c r="L71" s="309"/>
+      <c r="M71" s="309"/>
+      <c r="N71" s="309"/>
+      <c r="O71" s="309"/>
+      <c r="P71" s="309"/>
+      <c r="Q71" s="309"/>
+      <c r="R71" s="309" t="s">
+        <v>149</v>
+      </c>
+      <c r="S71" s="309"/>
+      <c r="T71" s="309"/>
+      <c r="U71" s="309"/>
+      <c r="V71" s="309"/>
+      <c r="W71" s="309"/>
+      <c r="X71" s="309"/>
+      <c r="Y71" s="309"/>
+      <c r="Z71" s="350" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA71" s="350"/>
+      <c r="AB71" s="350"/>
+      <c r="AC71" s="350"/>
+      <c r="AD71" s="350"/>
+      <c r="AE71" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF71" s="269"/>
+      <c r="AG71" s="269"/>
+      <c r="AH71" s="270"/>
       <c r="AI71" s="94"/>
     </row>
     <row r="72" spans="1:57" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20246,46 +20236,46 @@
       <c r="D72" s="137">
         <v>3</v>
       </c>
-      <c r="E72" s="350" t="s">
-        <v>278</v>
-      </c>
-      <c r="F72" s="350"/>
-      <c r="G72" s="350"/>
-      <c r="H72" s="350"/>
-      <c r="I72" s="350"/>
-      <c r="J72" s="350"/>
-      <c r="K72" s="309" t="s">
-        <v>306</v>
-      </c>
-      <c r="L72" s="309"/>
-      <c r="M72" s="309"/>
-      <c r="N72" s="309"/>
-      <c r="O72" s="309"/>
-      <c r="P72" s="309"/>
-      <c r="Q72" s="309"/>
-      <c r="R72" s="309" t="s">
-        <v>275</v>
-      </c>
-      <c r="S72" s="309"/>
-      <c r="T72" s="309"/>
-      <c r="U72" s="309"/>
-      <c r="V72" s="309"/>
-      <c r="W72" s="309"/>
-      <c r="X72" s="309"/>
-      <c r="Y72" s="309"/>
-      <c r="Z72" s="309" t="s">
+      <c r="E72" s="349" t="s">
+        <v>277</v>
+      </c>
+      <c r="F72" s="349"/>
+      <c r="G72" s="349"/>
+      <c r="H72" s="349"/>
+      <c r="I72" s="349"/>
+      <c r="J72" s="349"/>
+      <c r="K72" s="308" t="s">
+        <v>303</v>
+      </c>
+      <c r="L72" s="308"/>
+      <c r="M72" s="308"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="308"/>
+      <c r="Q72" s="308"/>
+      <c r="R72" s="308" t="s">
         <v>274</v>
       </c>
-      <c r="AA72" s="309"/>
-      <c r="AB72" s="309"/>
-      <c r="AC72" s="309"/>
-      <c r="AD72" s="309"/>
-      <c r="AE72" s="273" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF72" s="274"/>
-      <c r="AG72" s="274"/>
-      <c r="AH72" s="275"/>
+      <c r="S72" s="308"/>
+      <c r="T72" s="308"/>
+      <c r="U72" s="308"/>
+      <c r="V72" s="308"/>
+      <c r="W72" s="308"/>
+      <c r="X72" s="308"/>
+      <c r="Y72" s="308"/>
+      <c r="Z72" s="308" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA72" s="308"/>
+      <c r="AB72" s="308"/>
+      <c r="AC72" s="308"/>
+      <c r="AD72" s="308"/>
+      <c r="AE72" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF72" s="269"/>
+      <c r="AG72" s="269"/>
+      <c r="AH72" s="270"/>
       <c r="AI72" s="161"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
@@ -20402,7 +20392,7 @@
       <c r="B75" s="94"/>
       <c r="C75" s="158"/>
       <c r="D75" s="94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E75" s="157"/>
       <c r="F75" s="94"/>
@@ -20509,7 +20499,7 @@
       <c r="C77" s="162"/>
       <c r="D77" s="157"/>
       <c r="E77" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F77" s="161"/>
       <c r="G77" s="161"/>
@@ -20550,7 +20540,7 @@
       <c r="D78" s="157"/>
       <c r="E78" s="157"/>
       <c r="F78" s="161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G78" s="161"/>
       <c r="H78" s="161"/>
@@ -20630,43 +20620,43 @@
       <c r="F80" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="225" t="s">
+      <c r="G80" s="227" t="s">
+        <v>183</v>
+      </c>
+      <c r="H80" s="257"/>
+      <c r="I80" s="257"/>
+      <c r="J80" s="257"/>
+      <c r="K80" s="257"/>
+      <c r="L80" s="258"/>
+      <c r="M80" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="H80" s="262"/>
-      <c r="I80" s="262"/>
-      <c r="J80" s="262"/>
-      <c r="K80" s="262"/>
-      <c r="L80" s="263"/>
-      <c r="M80" s="225" t="s">
+      <c r="N80" s="257"/>
+      <c r="O80" s="257"/>
+      <c r="P80" s="257"/>
+      <c r="Q80" s="257"/>
+      <c r="R80" s="257"/>
+      <c r="S80" s="257"/>
+      <c r="T80" s="257"/>
+      <c r="U80" s="257"/>
+      <c r="V80" s="258"/>
+      <c r="W80" s="254" t="s">
         <v>185</v>
       </c>
-      <c r="N80" s="262"/>
-      <c r="O80" s="262"/>
-      <c r="P80" s="262"/>
-      <c r="Q80" s="262"/>
-      <c r="R80" s="262"/>
-      <c r="S80" s="262"/>
-      <c r="T80" s="262"/>
-      <c r="U80" s="262"/>
-      <c r="V80" s="263"/>
-      <c r="W80" s="259" t="s">
+      <c r="X80" s="255"/>
+      <c r="Y80" s="256"/>
+      <c r="Z80" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="X80" s="260"/>
-      <c r="Y80" s="261"/>
-      <c r="Z80" s="259" t="s">
+      <c r="AA80" s="255"/>
+      <c r="AB80" s="255"/>
+      <c r="AC80" s="256"/>
+      <c r="AD80" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="AA80" s="260"/>
-      <c r="AB80" s="260"/>
-      <c r="AC80" s="261"/>
-      <c r="AD80" s="279" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE80" s="280"/>
-      <c r="AF80" s="280"/>
-      <c r="AG80" s="281"/>
+      <c r="AE80" s="275"/>
+      <c r="AF80" s="275"/>
+      <c r="AG80" s="276"/>
       <c r="AH80" s="94"/>
       <c r="AI80" s="94"/>
       <c r="AJ80" s="63"/>
@@ -20701,43 +20691,43 @@
       <c r="F81" s="159">
         <v>1</v>
       </c>
-      <c r="G81" s="256" t="s">
-        <v>189</v>
-      </c>
-      <c r="H81" s="257"/>
-      <c r="I81" s="257"/>
-      <c r="J81" s="257"/>
-      <c r="K81" s="257"/>
-      <c r="L81" s="258"/>
-      <c r="M81" s="256" t="s">
+      <c r="G81" s="248" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="249"/>
+      <c r="I81" s="249"/>
+      <c r="J81" s="249"/>
+      <c r="K81" s="249"/>
+      <c r="L81" s="250"/>
+      <c r="M81" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="N81" s="249"/>
+      <c r="O81" s="249"/>
+      <c r="P81" s="249"/>
+      <c r="Q81" s="249"/>
+      <c r="R81" s="249"/>
+      <c r="S81" s="249"/>
+      <c r="T81" s="249"/>
+      <c r="U81" s="249"/>
+      <c r="V81" s="250"/>
+      <c r="W81" s="335" t="s">
+        <v>285</v>
+      </c>
+      <c r="X81" s="336"/>
+      <c r="Y81" s="337"/>
+      <c r="Z81" s="238" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA81" s="239"/>
+      <c r="AB81" s="239"/>
+      <c r="AC81" s="240"/>
+      <c r="AD81" s="248" t="s">
         <v>193</v>
       </c>
-      <c r="N81" s="257"/>
-      <c r="O81" s="257"/>
-      <c r="P81" s="257"/>
-      <c r="Q81" s="257"/>
-      <c r="R81" s="257"/>
-      <c r="S81" s="257"/>
-      <c r="T81" s="257"/>
-      <c r="U81" s="257"/>
-      <c r="V81" s="258"/>
-      <c r="W81" s="336" t="s">
-        <v>288</v>
-      </c>
-      <c r="X81" s="337"/>
-      <c r="Y81" s="338"/>
-      <c r="Z81" s="246" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA81" s="247"/>
-      <c r="AB81" s="247"/>
-      <c r="AC81" s="248"/>
-      <c r="AD81" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE81" s="257"/>
-      <c r="AF81" s="257"/>
-      <c r="AG81" s="258"/>
+      <c r="AE81" s="249"/>
+      <c r="AF81" s="249"/>
+      <c r="AG81" s="250"/>
       <c r="AH81" s="94"/>
       <c r="AI81" s="160"/>
       <c r="AJ81" s="63"/>
@@ -20829,7 +20819,7 @@
       <c r="D83" s="162"/>
       <c r="E83" s="162"/>
       <c r="F83" s="161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G83" s="200"/>
       <c r="H83" s="200"/>
@@ -20869,7 +20859,7 @@
       <c r="D84" s="162"/>
       <c r="E84" s="162"/>
       <c r="F84" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G84" s="200"/>
       <c r="H84" s="200"/>
@@ -20946,7 +20936,7 @@
       <c r="C86" s="94"/>
       <c r="D86" s="94"/>
       <c r="E86" s="94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F86" s="130"/>
       <c r="G86" s="94"/>
@@ -20986,7 +20976,7 @@
       <c r="D87" s="94"/>
       <c r="E87" s="94"/>
       <c r="F87" s="94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G87" s="94"/>
       <c r="H87" s="94"/>
@@ -21063,7 +21053,7 @@
       <c r="E89" s="161"/>
       <c r="F89" s="161"/>
       <c r="G89" s="164" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H89" s="165"/>
       <c r="I89" s="165"/>
@@ -21071,30 +21061,30 @@
       <c r="K89" s="165"/>
       <c r="L89" s="165"/>
       <c r="M89" s="165"/>
-      <c r="N89" s="243" t="s">
+      <c r="N89" s="251" t="s">
+        <v>206</v>
+      </c>
+      <c r="O89" s="252"/>
+      <c r="P89" s="252"/>
+      <c r="Q89" s="252"/>
+      <c r="R89" s="252"/>
+      <c r="S89" s="252"/>
+      <c r="T89" s="252"/>
+      <c r="U89" s="252"/>
+      <c r="V89" s="252"/>
+      <c r="W89" s="253"/>
+      <c r="X89" s="251" t="s">
         <v>207</v>
       </c>
-      <c r="O89" s="244"/>
-      <c r="P89" s="244"/>
-      <c r="Q89" s="244"/>
-      <c r="R89" s="244"/>
-      <c r="S89" s="244"/>
-      <c r="T89" s="244"/>
-      <c r="U89" s="244"/>
-      <c r="V89" s="244"/>
-      <c r="W89" s="245"/>
-      <c r="X89" s="243" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y89" s="244"/>
-      <c r="Z89" s="244"/>
-      <c r="AA89" s="244"/>
-      <c r="AB89" s="244"/>
-      <c r="AC89" s="244"/>
-      <c r="AD89" s="244"/>
-      <c r="AE89" s="244"/>
-      <c r="AF89" s="244"/>
-      <c r="AG89" s="245"/>
+      <c r="Y89" s="252"/>
+      <c r="Z89" s="252"/>
+      <c r="AA89" s="252"/>
+      <c r="AB89" s="252"/>
+      <c r="AC89" s="252"/>
+      <c r="AD89" s="252"/>
+      <c r="AE89" s="252"/>
+      <c r="AF89" s="252"/>
+      <c r="AG89" s="253"/>
       <c r="AH89" s="161"/>
       <c r="AI89" s="161"/>
     </row>
@@ -21106,7 +21096,7 @@
       <c r="E90" s="94"/>
       <c r="F90" s="94"/>
       <c r="G90" s="96" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H90" s="97"/>
       <c r="I90" s="97"/>
@@ -21115,7 +21105,7 @@
       <c r="L90" s="97"/>
       <c r="M90" s="97"/>
       <c r="N90" s="209" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O90" s="210"/>
       <c r="P90" s="210"/>
@@ -21126,18 +21116,18 @@
       <c r="U90" s="210"/>
       <c r="V90" s="210"/>
       <c r="W90" s="211"/>
-      <c r="X90" s="236" t="s">
+      <c r="X90" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="Y90" s="237"/>
-      <c r="Z90" s="237"/>
-      <c r="AA90" s="237"/>
-      <c r="AB90" s="237"/>
-      <c r="AC90" s="237"/>
-      <c r="AD90" s="237"/>
-      <c r="AE90" s="237"/>
-      <c r="AF90" s="237"/>
-      <c r="AG90" s="238"/>
+      <c r="Y90" s="300"/>
+      <c r="Z90" s="300"/>
+      <c r="AA90" s="300"/>
+      <c r="AB90" s="300"/>
+      <c r="AC90" s="300"/>
+      <c r="AD90" s="300"/>
+      <c r="AE90" s="300"/>
+      <c r="AF90" s="300"/>
+      <c r="AG90" s="301"/>
       <c r="AH90" s="94"/>
       <c r="AI90" s="94"/>
     </row>
@@ -21156,7 +21146,7 @@
       <c r="L91" s="100"/>
       <c r="M91" s="100"/>
       <c r="N91" s="209" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O91" s="210"/>
       <c r="P91" s="210"/>
@@ -21167,18 +21157,18 @@
       <c r="U91" s="210"/>
       <c r="V91" s="210"/>
       <c r="W91" s="211"/>
-      <c r="X91" s="236" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y91" s="237"/>
-      <c r="Z91" s="237"/>
-      <c r="AA91" s="237"/>
-      <c r="AB91" s="237"/>
-      <c r="AC91" s="237"/>
-      <c r="AD91" s="237"/>
-      <c r="AE91" s="237"/>
-      <c r="AF91" s="237"/>
-      <c r="AG91" s="238"/>
+      <c r="X91" s="299" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y91" s="300"/>
+      <c r="Z91" s="300"/>
+      <c r="AA91" s="300"/>
+      <c r="AB91" s="300"/>
+      <c r="AC91" s="300"/>
+      <c r="AD91" s="300"/>
+      <c r="AE91" s="300"/>
+      <c r="AF91" s="300"/>
+      <c r="AG91" s="301"/>
       <c r="AH91" s="94"/>
       <c r="AI91" s="94"/>
     </row>
@@ -21197,7 +21187,7 @@
       <c r="L92" s="100"/>
       <c r="M92" s="100"/>
       <c r="N92" s="209" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O92" s="210"/>
       <c r="P92" s="210"/>
@@ -21208,18 +21198,18 @@
       <c r="U92" s="210"/>
       <c r="V92" s="210"/>
       <c r="W92" s="211"/>
-      <c r="X92" s="236" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y92" s="237"/>
-      <c r="Z92" s="237"/>
-      <c r="AA92" s="237"/>
-      <c r="AB92" s="237"/>
-      <c r="AC92" s="237"/>
-      <c r="AD92" s="237"/>
-      <c r="AE92" s="237"/>
-      <c r="AF92" s="237"/>
-      <c r="AG92" s="238"/>
+      <c r="X92" s="299" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y92" s="300"/>
+      <c r="Z92" s="300"/>
+      <c r="AA92" s="300"/>
+      <c r="AB92" s="300"/>
+      <c r="AC92" s="300"/>
+      <c r="AD92" s="300"/>
+      <c r="AE92" s="300"/>
+      <c r="AF92" s="300"/>
+      <c r="AG92" s="301"/>
       <c r="AH92" s="94"/>
       <c r="AI92" s="94"/>
     </row>
@@ -21238,7 +21228,7 @@
       <c r="L93" s="100"/>
       <c r="M93" s="100"/>
       <c r="N93" s="209" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O93" s="210"/>
       <c r="P93" s="210"/>
@@ -21249,18 +21239,18 @@
       <c r="U93" s="210"/>
       <c r="V93" s="210"/>
       <c r="W93" s="211"/>
-      <c r="X93" s="236" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y93" s="237"/>
-      <c r="Z93" s="237"/>
-      <c r="AA93" s="237"/>
-      <c r="AB93" s="237"/>
-      <c r="AC93" s="237"/>
-      <c r="AD93" s="237"/>
-      <c r="AE93" s="237"/>
-      <c r="AF93" s="237"/>
-      <c r="AG93" s="238"/>
+      <c r="X93" s="299" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y93" s="300"/>
+      <c r="Z93" s="300"/>
+      <c r="AA93" s="300"/>
+      <c r="AB93" s="300"/>
+      <c r="AC93" s="300"/>
+      <c r="AD93" s="300"/>
+      <c r="AE93" s="300"/>
+      <c r="AF93" s="300"/>
+      <c r="AG93" s="301"/>
       <c r="AH93" s="94"/>
       <c r="AI93" s="94"/>
     </row>
@@ -21279,7 +21269,7 @@
       <c r="L94" s="100"/>
       <c r="M94" s="100"/>
       <c r="N94" s="209" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O94" s="210"/>
       <c r="P94" s="210"/>
@@ -21293,15 +21283,15 @@
       <c r="X94" s="362" t="s">
         <v>104</v>
       </c>
-      <c r="Y94" s="237"/>
-      <c r="Z94" s="237"/>
-      <c r="AA94" s="237"/>
-      <c r="AB94" s="237"/>
-      <c r="AC94" s="237"/>
-      <c r="AD94" s="237"/>
-      <c r="AE94" s="237"/>
-      <c r="AF94" s="237"/>
-      <c r="AG94" s="238"/>
+      <c r="Y94" s="300"/>
+      <c r="Z94" s="300"/>
+      <c r="AA94" s="300"/>
+      <c r="AB94" s="300"/>
+      <c r="AC94" s="300"/>
+      <c r="AD94" s="300"/>
+      <c r="AE94" s="300"/>
+      <c r="AF94" s="300"/>
+      <c r="AG94" s="301"/>
       <c r="AH94" s="94"/>
       <c r="AI94" s="94"/>
     </row>
@@ -21320,7 +21310,7 @@
       <c r="L95" s="100"/>
       <c r="M95" s="100"/>
       <c r="N95" s="209" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O95" s="210"/>
       <c r="P95" s="210"/>
@@ -21331,18 +21321,18 @@
       <c r="U95" s="210"/>
       <c r="V95" s="210"/>
       <c r="W95" s="211"/>
-      <c r="X95" s="236" t="s">
+      <c r="X95" s="299" t="s">
         <v>46</v>
       </c>
-      <c r="Y95" s="237"/>
-      <c r="Z95" s="237"/>
-      <c r="AA95" s="237"/>
-      <c r="AB95" s="237"/>
-      <c r="AC95" s="237"/>
-      <c r="AD95" s="237"/>
-      <c r="AE95" s="237"/>
-      <c r="AF95" s="237"/>
-      <c r="AG95" s="238"/>
+      <c r="Y95" s="300"/>
+      <c r="Z95" s="300"/>
+      <c r="AA95" s="300"/>
+      <c r="AB95" s="300"/>
+      <c r="AC95" s="300"/>
+      <c r="AD95" s="300"/>
+      <c r="AE95" s="300"/>
+      <c r="AF95" s="300"/>
+      <c r="AG95" s="301"/>
       <c r="AH95" s="94"/>
       <c r="AI95" s="94"/>
     </row>
@@ -21361,7 +21351,7 @@
       <c r="L96" s="100"/>
       <c r="M96" s="100"/>
       <c r="N96" s="209" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O96" s="210"/>
       <c r="P96" s="210"/>
@@ -21372,18 +21362,18 @@
       <c r="U96" s="210"/>
       <c r="V96" s="210"/>
       <c r="W96" s="211"/>
-      <c r="X96" s="236" t="s">
+      <c r="X96" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="Y96" s="237"/>
-      <c r="Z96" s="237"/>
-      <c r="AA96" s="237"/>
-      <c r="AB96" s="237"/>
-      <c r="AC96" s="237"/>
-      <c r="AD96" s="237"/>
-      <c r="AE96" s="237"/>
-      <c r="AF96" s="237"/>
-      <c r="AG96" s="238"/>
+      <c r="Y96" s="300"/>
+      <c r="Z96" s="300"/>
+      <c r="AA96" s="300"/>
+      <c r="AB96" s="300"/>
+      <c r="AC96" s="300"/>
+      <c r="AD96" s="300"/>
+      <c r="AE96" s="300"/>
+      <c r="AF96" s="300"/>
+      <c r="AG96" s="301"/>
       <c r="AH96" s="94"/>
       <c r="AI96" s="94"/>
     </row>
@@ -21402,7 +21392,7 @@
       <c r="L97" s="100"/>
       <c r="M97" s="100"/>
       <c r="N97" s="209" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O97" s="210"/>
       <c r="P97" s="210"/>
@@ -21413,18 +21403,18 @@
       <c r="U97" s="210"/>
       <c r="V97" s="210"/>
       <c r="W97" s="211"/>
-      <c r="X97" s="236" t="s">
+      <c r="X97" s="299" t="s">
         <v>45</v>
       </c>
-      <c r="Y97" s="237"/>
-      <c r="Z97" s="237"/>
-      <c r="AA97" s="237"/>
-      <c r="AB97" s="237"/>
-      <c r="AC97" s="237"/>
-      <c r="AD97" s="237"/>
-      <c r="AE97" s="237"/>
-      <c r="AF97" s="237"/>
-      <c r="AG97" s="238"/>
+      <c r="Y97" s="300"/>
+      <c r="Z97" s="300"/>
+      <c r="AA97" s="300"/>
+      <c r="AB97" s="300"/>
+      <c r="AC97" s="300"/>
+      <c r="AD97" s="300"/>
+      <c r="AE97" s="300"/>
+      <c r="AF97" s="300"/>
+      <c r="AG97" s="301"/>
       <c r="AH97" s="94"/>
       <c r="AI97" s="94"/>
     </row>
@@ -21443,7 +21433,7 @@
       <c r="L98" s="100"/>
       <c r="M98" s="100"/>
       <c r="N98" s="209" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O98" s="210"/>
       <c r="P98" s="210"/>
@@ -21454,18 +21444,18 @@
       <c r="U98" s="210"/>
       <c r="V98" s="210"/>
       <c r="W98" s="211"/>
-      <c r="X98" s="236" t="s">
+      <c r="X98" s="299" t="s">
         <v>117</v>
       </c>
-      <c r="Y98" s="237"/>
-      <c r="Z98" s="237"/>
-      <c r="AA98" s="237"/>
-      <c r="AB98" s="237"/>
-      <c r="AC98" s="237"/>
-      <c r="AD98" s="237"/>
-      <c r="AE98" s="237"/>
-      <c r="AF98" s="237"/>
-      <c r="AG98" s="238"/>
+      <c r="Y98" s="300"/>
+      <c r="Z98" s="300"/>
+      <c r="AA98" s="300"/>
+      <c r="AB98" s="300"/>
+      <c r="AC98" s="300"/>
+      <c r="AD98" s="300"/>
+      <c r="AE98" s="300"/>
+      <c r="AF98" s="300"/>
+      <c r="AG98" s="301"/>
       <c r="AH98" s="94"/>
       <c r="AI98" s="94"/>
     </row>
@@ -21484,7 +21474,7 @@
       <c r="L99" s="100"/>
       <c r="M99" s="100"/>
       <c r="N99" s="209" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O99" s="210"/>
       <c r="P99" s="210"/>
@@ -21495,18 +21485,18 @@
       <c r="U99" s="210"/>
       <c r="V99" s="210"/>
       <c r="W99" s="211"/>
-      <c r="X99" s="236" t="s">
+      <c r="X99" s="299" t="s">
         <v>118</v>
       </c>
-      <c r="Y99" s="237"/>
-      <c r="Z99" s="237"/>
-      <c r="AA99" s="237"/>
-      <c r="AB99" s="237"/>
-      <c r="AC99" s="237"/>
-      <c r="AD99" s="237"/>
-      <c r="AE99" s="237"/>
-      <c r="AF99" s="237"/>
-      <c r="AG99" s="238"/>
+      <c r="Y99" s="300"/>
+      <c r="Z99" s="300"/>
+      <c r="AA99" s="300"/>
+      <c r="AB99" s="300"/>
+      <c r="AC99" s="300"/>
+      <c r="AD99" s="300"/>
+      <c r="AE99" s="300"/>
+      <c r="AF99" s="300"/>
+      <c r="AG99" s="301"/>
       <c r="AH99" s="94"/>
       <c r="AI99" s="94"/>
     </row>
@@ -21525,7 +21515,7 @@
       <c r="L100" s="104"/>
       <c r="M100" s="104"/>
       <c r="N100" s="209" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O100" s="210"/>
       <c r="P100" s="210"/>
@@ -21536,18 +21526,18 @@
       <c r="U100" s="210"/>
       <c r="V100" s="210"/>
       <c r="W100" s="211"/>
-      <c r="X100" s="236" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y100" s="237"/>
-      <c r="Z100" s="237"/>
-      <c r="AA100" s="237"/>
-      <c r="AB100" s="237"/>
-      <c r="AC100" s="237"/>
-      <c r="AD100" s="237"/>
-      <c r="AE100" s="237"/>
-      <c r="AF100" s="237"/>
-      <c r="AG100" s="238"/>
+      <c r="X100" s="299" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y100" s="300"/>
+      <c r="Z100" s="300"/>
+      <c r="AA100" s="300"/>
+      <c r="AB100" s="300"/>
+      <c r="AC100" s="300"/>
+      <c r="AD100" s="300"/>
+      <c r="AE100" s="300"/>
+      <c r="AF100" s="300"/>
+      <c r="AG100" s="301"/>
       <c r="AH100" s="94"/>
       <c r="AI100" s="94"/>
     </row>
@@ -21559,7 +21549,7 @@
       <c r="E101" s="94"/>
       <c r="F101" s="94"/>
       <c r="G101" s="206" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H101" s="207"/>
       <c r="I101" s="207"/>
@@ -21568,7 +21558,7 @@
       <c r="L101" s="207"/>
       <c r="M101" s="208"/>
       <c r="N101" s="209" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O101" s="210"/>
       <c r="P101" s="210"/>
@@ -21579,18 +21569,18 @@
       <c r="U101" s="210"/>
       <c r="V101" s="210"/>
       <c r="W101" s="211"/>
-      <c r="X101" s="236" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y101" s="237"/>
-      <c r="Z101" s="237"/>
-      <c r="AA101" s="237"/>
-      <c r="AB101" s="237"/>
-      <c r="AC101" s="237"/>
-      <c r="AD101" s="237"/>
-      <c r="AE101" s="237"/>
-      <c r="AF101" s="237"/>
-      <c r="AG101" s="238"/>
+      <c r="X101" s="299" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y101" s="300"/>
+      <c r="Z101" s="300"/>
+      <c r="AA101" s="300"/>
+      <c r="AB101" s="300"/>
+      <c r="AC101" s="300"/>
+      <c r="AD101" s="300"/>
+      <c r="AE101" s="300"/>
+      <c r="AF101" s="300"/>
+      <c r="AG101" s="301"/>
       <c r="AH101" s="94"/>
       <c r="AI101" s="94"/>
     </row>
@@ -21602,7 +21592,7 @@
       <c r="E102" s="94"/>
       <c r="F102" s="94"/>
       <c r="G102" s="206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H102" s="207"/>
       <c r="I102" s="207"/>
@@ -21611,7 +21601,7 @@
       <c r="L102" s="207"/>
       <c r="M102" s="208"/>
       <c r="N102" s="212" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O102" s="213"/>
       <c r="P102" s="213"/>
@@ -21622,18 +21612,18 @@
       <c r="U102" s="213"/>
       <c r="V102" s="213"/>
       <c r="W102" s="214"/>
-      <c r="X102" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y102" s="241"/>
-      <c r="Z102" s="241"/>
-      <c r="AA102" s="241"/>
-      <c r="AB102" s="241"/>
-      <c r="AC102" s="241"/>
-      <c r="AD102" s="241"/>
-      <c r="AE102" s="241"/>
-      <c r="AF102" s="241"/>
-      <c r="AG102" s="242"/>
+      <c r="X102" s="359" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y102" s="360"/>
+      <c r="Z102" s="360"/>
+      <c r="AA102" s="360"/>
+      <c r="AB102" s="360"/>
+      <c r="AC102" s="360"/>
+      <c r="AD102" s="360"/>
+      <c r="AE102" s="360"/>
+      <c r="AF102" s="360"/>
+      <c r="AG102" s="361"/>
       <c r="AH102" s="94"/>
       <c r="AI102" s="94"/>
       <c r="AP102" s="58"/>
@@ -21654,35 +21644,35 @@
       <c r="D103" s="94"/>
       <c r="E103" s="94"/>
       <c r="F103" s="94"/>
-      <c r="G103" s="233" t="s">
-        <v>355</v>
-      </c>
-      <c r="H103" s="234"/>
-      <c r="I103" s="234"/>
-      <c r="J103" s="234"/>
-      <c r="K103" s="234"/>
-      <c r="L103" s="234"/>
-      <c r="M103" s="234"/>
-      <c r="N103" s="234"/>
-      <c r="O103" s="234"/>
-      <c r="P103" s="234"/>
-      <c r="Q103" s="234"/>
-      <c r="R103" s="234"/>
-      <c r="S103" s="234"/>
-      <c r="T103" s="234"/>
-      <c r="U103" s="234"/>
-      <c r="V103" s="234"/>
-      <c r="W103" s="234"/>
-      <c r="X103" s="234"/>
-      <c r="Y103" s="234"/>
-      <c r="Z103" s="234"/>
-      <c r="AA103" s="234"/>
-      <c r="AB103" s="234"/>
-      <c r="AC103" s="234"/>
-      <c r="AD103" s="234"/>
-      <c r="AE103" s="234"/>
-      <c r="AF103" s="234"/>
-      <c r="AG103" s="235"/>
+      <c r="G103" s="235" t="s">
+        <v>352</v>
+      </c>
+      <c r="H103" s="236"/>
+      <c r="I103" s="236"/>
+      <c r="J103" s="236"/>
+      <c r="K103" s="236"/>
+      <c r="L103" s="236"/>
+      <c r="M103" s="236"/>
+      <c r="N103" s="236"/>
+      <c r="O103" s="236"/>
+      <c r="P103" s="236"/>
+      <c r="Q103" s="236"/>
+      <c r="R103" s="236"/>
+      <c r="S103" s="236"/>
+      <c r="T103" s="236"/>
+      <c r="U103" s="236"/>
+      <c r="V103" s="236"/>
+      <c r="W103" s="236"/>
+      <c r="X103" s="236"/>
+      <c r="Y103" s="236"/>
+      <c r="Z103" s="236"/>
+      <c r="AA103" s="236"/>
+      <c r="AB103" s="236"/>
+      <c r="AC103" s="236"/>
+      <c r="AD103" s="236"/>
+      <c r="AE103" s="236"/>
+      <c r="AF103" s="236"/>
+      <c r="AG103" s="237"/>
       <c r="AH103" s="94"/>
       <c r="AI103" s="94"/>
       <c r="AJ103" s="58"/>
@@ -21778,7 +21768,7 @@
       <c r="F105" s="94"/>
       <c r="G105" s="169"/>
       <c r="H105" s="170" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I105" s="170"/>
       <c r="J105" s="170"/>
@@ -21901,13 +21891,13 @@
       <c r="G107" s="169"/>
       <c r="H107" s="170"/>
       <c r="I107" s="173" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J107" s="173"/>
       <c r="K107" s="170"/>
       <c r="L107" s="170"/>
       <c r="M107" s="170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N107" s="170"/>
       <c r="O107" s="170"/>
@@ -21965,10 +21955,10 @@
       <c r="G108" s="169"/>
       <c r="H108" s="170"/>
       <c r="I108" s="170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J108" s="170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K108" s="170"/>
       <c r="L108" s="173"/>
@@ -21977,10 +21967,10 @@
       <c r="O108" s="170"/>
       <c r="P108" s="170"/>
       <c r="Q108" s="170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R108" s="170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S108" s="170"/>
       <c r="T108" s="170"/>
@@ -22093,13 +22083,13 @@
       <c r="G110" s="169"/>
       <c r="H110" s="170"/>
       <c r="I110" s="173" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J110" s="173"/>
       <c r="K110" s="170"/>
       <c r="L110" s="170"/>
       <c r="M110" s="170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="N110" s="170"/>
       <c r="O110" s="170"/>
@@ -22157,10 +22147,10 @@
       <c r="G111" s="169"/>
       <c r="H111" s="170"/>
       <c r="I111" s="170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J111" s="170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K111" s="170"/>
       <c r="L111" s="173"/>
@@ -22169,10 +22159,10 @@
       <c r="O111" s="94"/>
       <c r="P111" s="94"/>
       <c r="Q111" s="170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R111" s="170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S111" s="170"/>
       <c r="T111" s="170"/>
@@ -22282,35 +22272,35 @@
       <c r="D113" s="94"/>
       <c r="E113" s="94"/>
       <c r="F113" s="94"/>
-      <c r="G113" s="233" t="s">
-        <v>354</v>
-      </c>
-      <c r="H113" s="234"/>
-      <c r="I113" s="234"/>
-      <c r="J113" s="234"/>
-      <c r="K113" s="234"/>
-      <c r="L113" s="234"/>
-      <c r="M113" s="234"/>
-      <c r="N113" s="234"/>
-      <c r="O113" s="234"/>
-      <c r="P113" s="234"/>
-      <c r="Q113" s="234"/>
-      <c r="R113" s="234"/>
-      <c r="S113" s="234"/>
-      <c r="T113" s="234"/>
-      <c r="U113" s="234"/>
-      <c r="V113" s="234"/>
-      <c r="W113" s="234"/>
-      <c r="X113" s="234"/>
-      <c r="Y113" s="234"/>
-      <c r="Z113" s="234"/>
-      <c r="AA113" s="234"/>
-      <c r="AB113" s="234"/>
-      <c r="AC113" s="234"/>
-      <c r="AD113" s="234"/>
-      <c r="AE113" s="234"/>
-      <c r="AF113" s="234"/>
-      <c r="AG113" s="235"/>
+      <c r="G113" s="235" t="s">
+        <v>351</v>
+      </c>
+      <c r="H113" s="236"/>
+      <c r="I113" s="236"/>
+      <c r="J113" s="236"/>
+      <c r="K113" s="236"/>
+      <c r="L113" s="236"/>
+      <c r="M113" s="236"/>
+      <c r="N113" s="236"/>
+      <c r="O113" s="236"/>
+      <c r="P113" s="236"/>
+      <c r="Q113" s="236"/>
+      <c r="R113" s="236"/>
+      <c r="S113" s="236"/>
+      <c r="T113" s="236"/>
+      <c r="U113" s="236"/>
+      <c r="V113" s="236"/>
+      <c r="W113" s="236"/>
+      <c r="X113" s="236"/>
+      <c r="Y113" s="236"/>
+      <c r="Z113" s="236"/>
+      <c r="AA113" s="236"/>
+      <c r="AB113" s="236"/>
+      <c r="AC113" s="236"/>
+      <c r="AD113" s="236"/>
+      <c r="AE113" s="236"/>
+      <c r="AF113" s="236"/>
+      <c r="AG113" s="237"/>
       <c r="AH113" s="94"/>
       <c r="AI113" s="94"/>
       <c r="AJ113" s="58"/>
@@ -22408,7 +22398,7 @@
       <c r="H115" s="94"/>
       <c r="I115" s="94"/>
       <c r="J115" s="170" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K115" s="170"/>
       <c r="L115" s="170"/>
@@ -22418,12 +22408,12 @@
       <c r="P115" s="94"/>
       <c r="Q115" s="94"/>
       <c r="R115" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S115" s="170"/>
       <c r="T115" s="170"/>
       <c r="U115" s="170" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="V115" s="170"/>
       <c r="W115" s="170"/>
@@ -22590,7 +22580,7 @@
       <c r="D118" s="94"/>
       <c r="E118" s="94"/>
       <c r="F118" s="94" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G118" s="170"/>
       <c r="H118" s="170"/>
@@ -22652,7 +22642,7 @@
       <c r="D119" s="94"/>
       <c r="E119" s="94"/>
       <c r="F119" s="94" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G119" s="170"/>
       <c r="H119" s="170"/>
@@ -22772,7 +22762,7 @@
       <c r="C121" s="94"/>
       <c r="D121" s="94"/>
       <c r="E121" s="94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F121" s="130"/>
       <c r="G121" s="130"/>
@@ -22835,7 +22825,7 @@
       <c r="D122" s="94"/>
       <c r="E122" s="193"/>
       <c r="F122" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G122" s="130"/>
       <c r="H122" s="130"/>
@@ -22958,7 +22948,7 @@
       <c r="E124" s="94"/>
       <c r="F124" s="193"/>
       <c r="G124" s="154" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H124" s="154"/>
       <c r="I124" s="130"/>
@@ -23079,7 +23069,7 @@
       <c r="D126" s="94"/>
       <c r="E126" s="193"/>
       <c r="F126" s="154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G126" s="130"/>
       <c r="H126" s="130"/>
@@ -23202,7 +23192,7 @@
       <c r="E128" s="94"/>
       <c r="F128" s="193"/>
       <c r="G128" s="154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H128" s="130"/>
       <c r="I128" s="130"/>
@@ -23321,7 +23311,7 @@
       <c r="B130" s="94"/>
       <c r="C130" s="158"/>
       <c r="D130" s="157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E130" s="157"/>
       <c r="F130" s="94"/>
@@ -23435,7 +23425,7 @@
       <c r="C132" s="94"/>
       <c r="D132" s="94"/>
       <c r="E132" s="154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F132" s="94"/>
       <c r="G132" s="153"/>
@@ -23497,7 +23487,7 @@
       <c r="C133" s="94"/>
       <c r="D133" s="94"/>
       <c r="E133" s="154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F133" s="155"/>
       <c r="G133" s="154"/>
@@ -23632,7 +23622,7 @@
       <c r="B136" s="94"/>
       <c r="C136" s="94"/>
       <c r="D136" s="94" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E136" s="94"/>
       <c r="F136" s="94"/>
@@ -23672,7 +23662,7 @@
       <c r="C137" s="94"/>
       <c r="D137" s="94"/>
       <c r="E137" s="94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F137" s="94"/>
       <c r="G137" s="94"/>
@@ -23711,7 +23701,7 @@
       <c r="C138" s="94"/>
       <c r="D138" s="94"/>
       <c r="E138" s="94" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F138" s="94"/>
       <c r="G138" s="94"/>
@@ -23818,6 +23808,16 @@
     <mergeCell ref="N36:P36"/>
     <mergeCell ref="Q36:U36"/>
     <mergeCell ref="V36:AC36"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="D44:AG44"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:J62"/>
     <mergeCell ref="AL43:AP43"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:AC41"/>
@@ -23828,16 +23828,6 @@
     <mergeCell ref="U42:Y43"/>
     <mergeCell ref="Z42:AB43"/>
     <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AL53:AP53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AG52"/>
     <mergeCell ref="AL52:AP52"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="I45:L45"/>
@@ -23846,7 +23836,6 @@
     <mergeCell ref="Z45:AB45"/>
     <mergeCell ref="AD45:AG45"/>
     <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="D44:AG44"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="M47:T47"/>
@@ -23856,10 +23845,8 @@
     <mergeCell ref="AL46:AP46"/>
     <mergeCell ref="E49:H49"/>
     <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:T53"/>
     <mergeCell ref="AL49:AP49"/>
     <mergeCell ref="E46:H46"/>
     <mergeCell ref="I46:L46"/>
@@ -23875,6 +23862,15 @@
     <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="AD48:AG48"/>
     <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AL53:AP53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AG56"/>
     <mergeCell ref="AL50:AP50"/>
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="I54:L54"/>
@@ -23897,10 +23893,16 @@
     <mergeCell ref="AD51:AG51"/>
     <mergeCell ref="AL51:AP51"/>
     <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:AH63"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:AH64"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AL56:AP56"/>
     <mergeCell ref="K61:N62"/>
     <mergeCell ref="O61:O62"/>
     <mergeCell ref="V61:AH62"/>
@@ -23915,18 +23917,6 @@
     <mergeCell ref="I56:L56"/>
     <mergeCell ref="M56:T56"/>
     <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:AH63"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:AH64"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AL56:AP56"/>
     <mergeCell ref="E69:J69"/>
     <mergeCell ref="K69:Q69"/>
     <mergeCell ref="R69:Y69"/>
@@ -24003,16 +23993,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="188" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="C1" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="190" t="s">
-        <v>242</v>
-      </c>
       <c r="D1" s="190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -24020,13 +24010,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="191" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="192" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -24034,13 +24024,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="191" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="133" t="s">
-        <v>245</v>
-      </c>
       <c r="D3" s="133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" x14ac:dyDescent="0.2">
@@ -24048,44 +24038,44 @@
         <v>4</v>
       </c>
       <c r="B4" s="133" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="D4" s="133" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="C5" s="133" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="133" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="94"/>
       <c r="C6" s="133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="94"/>
       <c r="C7" s="133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="94"/>
     </row>
@@ -24107,7 +24097,7 @@
     </row>
     <row r="10" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
@@ -24115,7 +24105,7 @@
     </row>
     <row r="11" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
@@ -24123,7 +24113,7 @@
     </row>
     <row r="12" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="94"/>
       <c r="C12" s="94"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9E59C-A550-4EDA-BE5B-72E4BFEE90DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E6DBF-AA32-4847-BB70-61CAA920B569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21270" windowHeight="10575" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="30" r:id="rId1"/>
@@ -30,12 +30,14 @@
     <definedName name="画面項目種類">data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1930,9 +1932,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Client</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2685,6 +2684,9 @@
   <si>
     <t>PJ type</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -3262,7 +3264,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3840,14 +3842,101 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3858,62 +3947,95 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3923,102 +4045,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4029,8 +4055,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4041,157 +4067,148 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7542,39 +7559,39 @@
       <c r="D50" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="325" t="s">
+      <c r="E50" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="325"/>
-      <c r="G50" s="325"/>
-      <c r="H50" s="325"/>
-      <c r="I50" s="325"/>
-      <c r="J50" s="325"/>
-      <c r="K50" s="325"/>
-      <c r="L50" s="325"/>
-      <c r="M50" s="325"/>
-      <c r="N50" s="325" t="s">
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="284"/>
+      <c r="J50" s="284"/>
+      <c r="K50" s="284"/>
+      <c r="L50" s="284"/>
+      <c r="M50" s="284"/>
+      <c r="N50" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="325"/>
-      <c r="P50" s="325"/>
-      <c r="Q50" s="325" t="s">
+      <c r="O50" s="284"/>
+      <c r="P50" s="284"/>
+      <c r="Q50" s="284" t="s">
         <v>77</v>
       </c>
-      <c r="R50" s="325"/>
-      <c r="S50" s="325"/>
-      <c r="T50" s="325"/>
-      <c r="U50" s="325"/>
-      <c r="V50" s="325" t="s">
+      <c r="R50" s="284"/>
+      <c r="S50" s="284"/>
+      <c r="T50" s="284"/>
+      <c r="U50" s="284"/>
+      <c r="V50" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="W50" s="325"/>
-      <c r="X50" s="325"/>
-      <c r="Y50" s="325"/>
-      <c r="Z50" s="325"/>
-      <c r="AA50" s="325"/>
-      <c r="AB50" s="325"/>
-      <c r="AC50" s="325"/>
+      <c r="W50" s="284"/>
+      <c r="X50" s="284"/>
+      <c r="Y50" s="284"/>
+      <c r="Z50" s="284"/>
+      <c r="AA50" s="284"/>
+      <c r="AB50" s="284"/>
+      <c r="AC50" s="284"/>
       <c r="AD50" s="73"/>
       <c r="AE50" s="73"/>
       <c r="AF50" s="73"/>
@@ -7585,39 +7602,39 @@
       <c r="D51" s="81">
         <v>1</v>
       </c>
-      <c r="E51" s="326" t="s">
+      <c r="E51" s="285" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="327"/>
-      <c r="G51" s="327"/>
-      <c r="H51" s="327"/>
-      <c r="I51" s="327"/>
-      <c r="J51" s="327"/>
-      <c r="K51" s="327"/>
-      <c r="L51" s="327"/>
-      <c r="M51" s="327"/>
-      <c r="N51" s="328" t="s">
+      <c r="F51" s="286"/>
+      <c r="G51" s="286"/>
+      <c r="H51" s="286"/>
+      <c r="I51" s="286"/>
+      <c r="J51" s="286"/>
+      <c r="K51" s="286"/>
+      <c r="L51" s="286"/>
+      <c r="M51" s="286"/>
+      <c r="N51" s="287" t="s">
         <v>79</v>
       </c>
-      <c r="O51" s="328"/>
-      <c r="P51" s="328"/>
-      <c r="Q51" s="330" t="s">
+      <c r="O51" s="287"/>
+      <c r="P51" s="287"/>
+      <c r="Q51" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="R51" s="331"/>
-      <c r="S51" s="331"/>
-      <c r="T51" s="331"/>
-      <c r="U51" s="331"/>
-      <c r="V51" s="330" t="s">
+      <c r="R51" s="295"/>
+      <c r="S51" s="295"/>
+      <c r="T51" s="295"/>
+      <c r="U51" s="295"/>
+      <c r="V51" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="W51" s="331"/>
-      <c r="X51" s="331"/>
-      <c r="Y51" s="331"/>
-      <c r="Z51" s="331"/>
-      <c r="AA51" s="331"/>
-      <c r="AB51" s="331"/>
-      <c r="AC51" s="331"/>
+      <c r="W51" s="295"/>
+      <c r="X51" s="295"/>
+      <c r="Y51" s="295"/>
+      <c r="Z51" s="295"/>
+      <c r="AA51" s="295"/>
+      <c r="AB51" s="295"/>
+      <c r="AC51" s="295"/>
       <c r="AM51" s="9"/>
     </row>
     <row r="52" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7761,36 +7778,36 @@
     </row>
     <row r="56" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="95"/>
-      <c r="D56" s="320" t="s">
+      <c r="D56" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="262" t="s">
+      <c r="E56" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="263"/>
-      <c r="G56" s="263"/>
-      <c r="H56" s="263"/>
-      <c r="I56" s="263"/>
-      <c r="J56" s="263"/>
-      <c r="K56" s="263"/>
-      <c r="L56" s="263"/>
-      <c r="M56" s="263"/>
-      <c r="N56" s="263"/>
-      <c r="O56" s="263"/>
-      <c r="P56" s="263"/>
-      <c r="Q56" s="263"/>
-      <c r="R56" s="263"/>
-      <c r="S56" s="263"/>
-      <c r="T56" s="263"/>
-      <c r="U56" s="263"/>
-      <c r="V56" s="263"/>
-      <c r="W56" s="263"/>
-      <c r="X56" s="263"/>
-      <c r="Y56" s="263"/>
-      <c r="Z56" s="263"/>
-      <c r="AA56" s="263"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="264"/>
+      <c r="F56" s="303"/>
+      <c r="G56" s="303"/>
+      <c r="H56" s="303"/>
+      <c r="I56" s="303"/>
+      <c r="J56" s="303"/>
+      <c r="K56" s="303"/>
+      <c r="L56" s="303"/>
+      <c r="M56" s="303"/>
+      <c r="N56" s="303"/>
+      <c r="O56" s="303"/>
+      <c r="P56" s="303"/>
+      <c r="Q56" s="303"/>
+      <c r="R56" s="303"/>
+      <c r="S56" s="303"/>
+      <c r="T56" s="303"/>
+      <c r="U56" s="303"/>
+      <c r="V56" s="303"/>
+      <c r="W56" s="303"/>
+      <c r="X56" s="303"/>
+      <c r="Y56" s="303"/>
+      <c r="Z56" s="303"/>
+      <c r="AA56" s="303"/>
+      <c r="AB56" s="303"/>
+      <c r="AC56" s="304"/>
       <c r="AD56" s="218" t="s">
         <v>85</v>
       </c>
@@ -7818,29 +7835,29 @@
     </row>
     <row r="57" spans="3:53" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="95"/>
-      <c r="D57" s="329"/>
+      <c r="D57" s="292"/>
       <c r="E57" s="218" t="s">
         <v>86</v>
       </c>
       <c r="F57" s="219"/>
       <c r="G57" s="219"/>
       <c r="H57" s="220"/>
-      <c r="I57" s="314" t="s">
+      <c r="I57" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="J57" s="315"/>
-      <c r="K57" s="315"/>
-      <c r="L57" s="316"/>
-      <c r="M57" s="314" t="s">
+      <c r="J57" s="297"/>
+      <c r="K57" s="297"/>
+      <c r="L57" s="298"/>
+      <c r="M57" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="N57" s="315"/>
-      <c r="O57" s="315"/>
-      <c r="P57" s="315"/>
-      <c r="Q57" s="315"/>
-      <c r="R57" s="315"/>
-      <c r="S57" s="315"/>
-      <c r="T57" s="316"/>
+      <c r="N57" s="297"/>
+      <c r="O57" s="297"/>
+      <c r="P57" s="297"/>
+      <c r="Q57" s="297"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="297"/>
+      <c r="T57" s="298"/>
       <c r="U57" s="218" t="s">
         <v>89</v>
       </c>
@@ -7853,7 +7870,7 @@
       </c>
       <c r="AA57" s="219"/>
       <c r="AB57" s="220"/>
-      <c r="AC57" s="320" t="s">
+      <c r="AC57" s="363" t="s">
         <v>91</v>
       </c>
       <c r="AD57" s="221"/>
@@ -7879,23 +7896,23 @@
     </row>
     <row r="58" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="95"/>
-      <c r="D58" s="321"/>
+      <c r="D58" s="293"/>
       <c r="E58" s="224"/>
       <c r="F58" s="225"/>
       <c r="G58" s="225"/>
       <c r="H58" s="226"/>
-      <c r="I58" s="317"/>
-      <c r="J58" s="318"/>
-      <c r="K58" s="318"/>
-      <c r="L58" s="319"/>
-      <c r="M58" s="317"/>
-      <c r="N58" s="318"/>
-      <c r="O58" s="318"/>
-      <c r="P58" s="318"/>
-      <c r="Q58" s="318"/>
-      <c r="R58" s="318"/>
-      <c r="S58" s="318"/>
-      <c r="T58" s="319"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="300"/>
+      <c r="K58" s="300"/>
+      <c r="L58" s="301"/>
+      <c r="M58" s="299"/>
+      <c r="N58" s="300"/>
+      <c r="O58" s="300"/>
+      <c r="P58" s="300"/>
+      <c r="Q58" s="300"/>
+      <c r="R58" s="300"/>
+      <c r="S58" s="300"/>
+      <c r="T58" s="301"/>
       <c r="U58" s="224"/>
       <c r="V58" s="225"/>
       <c r="W58" s="225"/>
@@ -7904,7 +7921,7 @@
       <c r="Z58" s="224"/>
       <c r="AA58" s="225"/>
       <c r="AB58" s="226"/>
-      <c r="AC58" s="321"/>
+      <c r="AC58" s="364"/>
       <c r="AD58" s="224"/>
       <c r="AE58" s="225"/>
       <c r="AF58" s="225"/>
@@ -7913,13 +7930,13 @@
       <c r="AI58" s="111"/>
       <c r="AJ58" s="111"/>
       <c r="AK58" s="111"/>
-      <c r="AL58" s="322" t="s">
+      <c r="AL58" s="278" t="s">
         <v>83</v>
       </c>
-      <c r="AM58" s="323"/>
-      <c r="AN58" s="323"/>
-      <c r="AO58" s="323"/>
-      <c r="AP58" s="324"/>
+      <c r="AM58" s="279"/>
+      <c r="AN58" s="279"/>
+      <c r="AO58" s="279"/>
+      <c r="AP58" s="280"/>
       <c r="AQ58" s="111"/>
       <c r="AR58" s="111"/>
       <c r="AS58" s="111"/>
@@ -7930,38 +7947,38 @@
     </row>
     <row r="59" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="95"/>
-      <c r="D59" s="311" t="s">
+      <c r="D59" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="312"/>
-      <c r="F59" s="312"/>
-      <c r="G59" s="312"/>
-      <c r="H59" s="312"/>
-      <c r="I59" s="312"/>
-      <c r="J59" s="312"/>
-      <c r="K59" s="312"/>
-      <c r="L59" s="312"/>
-      <c r="M59" s="312"/>
-      <c r="N59" s="312"/>
-      <c r="O59" s="312"/>
-      <c r="P59" s="312"/>
-      <c r="Q59" s="312"/>
-      <c r="R59" s="312"/>
-      <c r="S59" s="312"/>
-      <c r="T59" s="312"/>
-      <c r="U59" s="312"/>
-      <c r="V59" s="312"/>
-      <c r="W59" s="312"/>
-      <c r="X59" s="312"/>
-      <c r="Y59" s="312"/>
-      <c r="Z59" s="312"/>
-      <c r="AA59" s="312"/>
-      <c r="AB59" s="312"/>
-      <c r="AC59" s="312"/>
-      <c r="AD59" s="312"/>
-      <c r="AE59" s="312"/>
-      <c r="AF59" s="312"/>
-      <c r="AG59" s="313"/>
+      <c r="E59" s="289"/>
+      <c r="F59" s="289"/>
+      <c r="G59" s="289"/>
+      <c r="H59" s="289"/>
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="289"/>
+      <c r="M59" s="289"/>
+      <c r="N59" s="289"/>
+      <c r="O59" s="289"/>
+      <c r="P59" s="289"/>
+      <c r="Q59" s="289"/>
+      <c r="R59" s="289"/>
+      <c r="S59" s="289"/>
+      <c r="T59" s="289"/>
+      <c r="U59" s="289"/>
+      <c r="V59" s="289"/>
+      <c r="W59" s="289"/>
+      <c r="X59" s="289"/>
+      <c r="Y59" s="289"/>
+      <c r="Z59" s="289"/>
+      <c r="AA59" s="289"/>
+      <c r="AB59" s="289"/>
+      <c r="AC59" s="289"/>
+      <c r="AD59" s="289"/>
+      <c r="AE59" s="289"/>
+      <c r="AF59" s="289"/>
+      <c r="AG59" s="290"/>
       <c r="AH59" s="111"/>
       <c r="AI59" s="111"/>
       <c r="AJ59" s="111"/>
@@ -7991,44 +8008,44 @@
       </c>
       <c r="F60" s="231"/>
       <c r="G60" s="231"/>
-      <c r="H60" s="304"/>
-      <c r="I60" s="310" t="s">
+      <c r="H60" s="251"/>
+      <c r="I60" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="310"/>
-      <c r="K60" s="310"/>
-      <c r="L60" s="310"/>
-      <c r="M60" s="248" t="s">
+      <c r="J60" s="253"/>
+      <c r="K60" s="253"/>
+      <c r="L60" s="253"/>
+      <c r="M60" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="249"/>
-      <c r="O60" s="249"/>
-      <c r="P60" s="249"/>
-      <c r="Q60" s="249"/>
-      <c r="R60" s="249"/>
-      <c r="S60" s="249"/>
-      <c r="T60" s="250"/>
-      <c r="U60" s="283" t="s">
+      <c r="N60" s="246"/>
+      <c r="O60" s="246"/>
+      <c r="P60" s="246"/>
+      <c r="Q60" s="246"/>
+      <c r="R60" s="246"/>
+      <c r="S60" s="246"/>
+      <c r="T60" s="247"/>
+      <c r="U60" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="284"/>
-      <c r="W60" s="284"/>
-      <c r="X60" s="284"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="283" t="s">
+      <c r="V60" s="249"/>
+      <c r="W60" s="249"/>
+      <c r="X60" s="249"/>
+      <c r="Y60" s="250"/>
+      <c r="Z60" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="AA60" s="284"/>
-      <c r="AB60" s="285"/>
+      <c r="AA60" s="249"/>
+      <c r="AB60" s="250"/>
       <c r="AC60" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="AD60" s="283" t="s">
+      <c r="AD60" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="AE60" s="284"/>
-      <c r="AF60" s="284"/>
-      <c r="AG60" s="285"/>
+      <c r="AE60" s="249"/>
+      <c r="AF60" s="249"/>
+      <c r="AG60" s="250"/>
       <c r="AH60" s="118"/>
       <c r="AI60" s="118"/>
       <c r="AJ60" s="118"/>
@@ -8045,7 +8062,7 @@
       <c r="AO60" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP60" s="304" t="s">
+      <c r="AP60" s="251" t="s">
         <v>17</v>
       </c>
       <c r="AQ60" s="118"/>
@@ -8069,44 +8086,44 @@
       </c>
       <c r="F61" s="231"/>
       <c r="G61" s="231"/>
-      <c r="H61" s="304"/>
-      <c r="I61" s="310" t="s">
+      <c r="H61" s="251"/>
+      <c r="I61" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="310"/>
-      <c r="K61" s="310"/>
-      <c r="L61" s="310"/>
-      <c r="M61" s="248" t="s">
+      <c r="J61" s="253"/>
+      <c r="K61" s="253"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="249"/>
-      <c r="O61" s="249"/>
-      <c r="P61" s="249"/>
-      <c r="Q61" s="249"/>
-      <c r="R61" s="249"/>
-      <c r="S61" s="249"/>
-      <c r="T61" s="250"/>
-      <c r="U61" s="283" t="s">
+      <c r="N61" s="246"/>
+      <c r="O61" s="246"/>
+      <c r="P61" s="246"/>
+      <c r="Q61" s="246"/>
+      <c r="R61" s="246"/>
+      <c r="S61" s="246"/>
+      <c r="T61" s="247"/>
+      <c r="U61" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V61" s="284"/>
-      <c r="W61" s="284"/>
-      <c r="X61" s="284"/>
-      <c r="Y61" s="285"/>
-      <c r="Z61" s="283" t="s">
+      <c r="V61" s="249"/>
+      <c r="W61" s="249"/>
+      <c r="X61" s="249"/>
+      <c r="Y61" s="250"/>
+      <c r="Z61" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="AA61" s="284"/>
-      <c r="AB61" s="285"/>
+      <c r="AA61" s="249"/>
+      <c r="AB61" s="250"/>
       <c r="AC61" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="AD61" s="283" t="s">
+      <c r="AD61" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="AE61" s="284"/>
-      <c r="AF61" s="284"/>
-      <c r="AG61" s="285"/>
+      <c r="AE61" s="249"/>
+      <c r="AF61" s="249"/>
+      <c r="AG61" s="250"/>
       <c r="AH61" s="118"/>
       <c r="AI61" s="118"/>
       <c r="AJ61" s="118"/>
@@ -8123,7 +8140,7 @@
       <c r="AO61" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP61" s="304" t="s">
+      <c r="AP61" s="251" t="s">
         <v>17</v>
       </c>
       <c r="AQ61" s="118"/>
@@ -8147,44 +8164,44 @@
       </c>
       <c r="F62" s="231"/>
       <c r="G62" s="231"/>
-      <c r="H62" s="304"/>
-      <c r="I62" s="310" t="s">
+      <c r="H62" s="251"/>
+      <c r="I62" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J62" s="310"/>
-      <c r="K62" s="310"/>
-      <c r="L62" s="310"/>
-      <c r="M62" s="248" t="s">
+      <c r="J62" s="253"/>
+      <c r="K62" s="253"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="N62" s="249"/>
-      <c r="O62" s="249"/>
-      <c r="P62" s="249"/>
-      <c r="Q62" s="249"/>
-      <c r="R62" s="249"/>
-      <c r="S62" s="249"/>
-      <c r="T62" s="250"/>
-      <c r="U62" s="283" t="s">
-        <v>358</v>
-      </c>
-      <c r="V62" s="284"/>
-      <c r="W62" s="284"/>
-      <c r="X62" s="284"/>
-      <c r="Y62" s="285"/>
-      <c r="Z62" s="283" t="s">
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="247"/>
+      <c r="U62" s="248" t="s">
+        <v>357</v>
+      </c>
+      <c r="V62" s="249"/>
+      <c r="W62" s="249"/>
+      <c r="X62" s="249"/>
+      <c r="Y62" s="250"/>
+      <c r="Z62" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA62" s="284"/>
-      <c r="AB62" s="285"/>
+      <c r="AA62" s="249"/>
+      <c r="AB62" s="250"/>
       <c r="AC62" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD62" s="283" t="s">
+      <c r="AD62" s="248" t="s">
         <v>101</v>
       </c>
-      <c r="AE62" s="284"/>
-      <c r="AF62" s="284"/>
-      <c r="AG62" s="285"/>
+      <c r="AE62" s="249"/>
+      <c r="AF62" s="249"/>
+      <c r="AG62" s="250"/>
       <c r="AH62" s="111"/>
       <c r="AI62" s="111"/>
       <c r="AJ62" s="111"/>
@@ -8201,7 +8218,7 @@
       <c r="AO62" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AP62" s="304" t="s">
+      <c r="AP62" s="251" t="s">
         <v>13</v>
       </c>
       <c r="AQ62" s="111"/>
@@ -8219,48 +8236,48 @@
         <v>4</v>
       </c>
       <c r="E63" s="230" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F63" s="231"/>
       <c r="G63" s="231"/>
-      <c r="H63" s="304"/>
-      <c r="I63" s="310" t="s">
+      <c r="H63" s="251"/>
+      <c r="I63" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="310"/>
-      <c r="K63" s="310"/>
-      <c r="L63" s="310"/>
-      <c r="M63" s="248" t="s">
+      <c r="J63" s="253"/>
+      <c r="K63" s="253"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="N63" s="249"/>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249"/>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="250"/>
-      <c r="U63" s="283" t="s">
+      <c r="N63" s="246"/>
+      <c r="O63" s="246"/>
+      <c r="P63" s="246"/>
+      <c r="Q63" s="246"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="246"/>
+      <c r="T63" s="247"/>
+      <c r="U63" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="V63" s="284"/>
-      <c r="W63" s="284"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="285"/>
-      <c r="Z63" s="283" t="s">
+      <c r="V63" s="249"/>
+      <c r="W63" s="249"/>
+      <c r="X63" s="249"/>
+      <c r="Y63" s="250"/>
+      <c r="Z63" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA63" s="284"/>
-      <c r="AB63" s="285"/>
+      <c r="AA63" s="249"/>
+      <c r="AB63" s="250"/>
       <c r="AC63" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD63" s="283" t="s">
+      <c r="AD63" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="AE63" s="284"/>
-      <c r="AF63" s="284"/>
-      <c r="AG63" s="285"/>
+      <c r="AE63" s="249"/>
+      <c r="AF63" s="249"/>
+      <c r="AG63" s="250"/>
       <c r="AH63" s="111"/>
       <c r="AI63" s="111"/>
       <c r="AJ63" s="111"/>
@@ -8277,7 +8294,7 @@
       <c r="AO63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AP63" s="304" t="s">
+      <c r="AP63" s="251" t="s">
         <v>14</v>
       </c>
       <c r="AQ63" s="111"/>
@@ -8299,44 +8316,44 @@
       </c>
       <c r="F64" s="231"/>
       <c r="G64" s="231"/>
-      <c r="H64" s="304"/>
-      <c r="I64" s="346" t="s">
+      <c r="H64" s="251"/>
+      <c r="I64" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="J64" s="346"/>
-      <c r="K64" s="346"/>
-      <c r="L64" s="346"/>
-      <c r="M64" s="248" t="s">
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N64" s="249"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="249"/>
-      <c r="Q64" s="249"/>
-      <c r="R64" s="249"/>
-      <c r="S64" s="249"/>
-      <c r="T64" s="250"/>
-      <c r="U64" s="283" t="s">
+      <c r="N64" s="246"/>
+      <c r="O64" s="246"/>
+      <c r="P64" s="246"/>
+      <c r="Q64" s="246"/>
+      <c r="R64" s="246"/>
+      <c r="S64" s="246"/>
+      <c r="T64" s="247"/>
+      <c r="U64" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="V64" s="284"/>
-      <c r="W64" s="284"/>
-      <c r="X64" s="284"/>
-      <c r="Y64" s="285"/>
-      <c r="Z64" s="283" t="s">
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="250"/>
+      <c r="Z64" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA64" s="284"/>
-      <c r="AB64" s="285"/>
+      <c r="AA64" s="249"/>
+      <c r="AB64" s="250"/>
       <c r="AC64" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD64" s="283" t="s">
+      <c r="AD64" s="248" t="s">
         <v>104</v>
       </c>
-      <c r="AE64" s="284"/>
-      <c r="AF64" s="284"/>
-      <c r="AG64" s="285"/>
+      <c r="AE64" s="249"/>
+      <c r="AF64" s="249"/>
+      <c r="AG64" s="250"/>
       <c r="AH64" s="94"/>
       <c r="AI64" s="94"/>
       <c r="AJ64" s="94"/>
@@ -8353,7 +8370,7 @@
       <c r="AO64" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP64" s="304" t="s">
+      <c r="AP64" s="251" t="s">
         <v>18</v>
       </c>
       <c r="AQ64" s="94"/>
@@ -8376,44 +8393,44 @@
       </c>
       <c r="F65" s="231"/>
       <c r="G65" s="231"/>
-      <c r="H65" s="304"/>
-      <c r="I65" s="346" t="s">
+      <c r="H65" s="251"/>
+      <c r="I65" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="346"/>
-      <c r="K65" s="346"/>
-      <c r="L65" s="346"/>
-      <c r="M65" s="248" t="s">
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N65" s="249"/>
-      <c r="O65" s="249"/>
-      <c r="P65" s="249"/>
-      <c r="Q65" s="249"/>
-      <c r="R65" s="249"/>
-      <c r="S65" s="249"/>
-      <c r="T65" s="250"/>
-      <c r="U65" s="283" t="s">
+      <c r="N65" s="246"/>
+      <c r="O65" s="246"/>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="246"/>
+      <c r="R65" s="246"/>
+      <c r="S65" s="246"/>
+      <c r="T65" s="247"/>
+      <c r="U65" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="V65" s="284"/>
-      <c r="W65" s="284"/>
-      <c r="X65" s="284"/>
-      <c r="Y65" s="285"/>
-      <c r="Z65" s="283" t="s">
+      <c r="V65" s="249"/>
+      <c r="W65" s="249"/>
+      <c r="X65" s="249"/>
+      <c r="Y65" s="250"/>
+      <c r="Z65" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA65" s="284"/>
-      <c r="AB65" s="285"/>
+      <c r="AA65" s="249"/>
+      <c r="AB65" s="250"/>
       <c r="AC65" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD65" s="283" t="s">
+      <c r="AD65" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="AE65" s="284"/>
-      <c r="AF65" s="284"/>
-      <c r="AG65" s="285"/>
+      <c r="AE65" s="249"/>
+      <c r="AF65" s="249"/>
+      <c r="AG65" s="250"/>
       <c r="AH65" s="94"/>
       <c r="AI65" s="94"/>
       <c r="AJ65" s="94"/>
@@ -8430,7 +8447,7 @@
       <c r="AO65" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP65" s="304" t="s">
+      <c r="AP65" s="251" t="s">
         <v>18</v>
       </c>
       <c r="AQ65" s="94"/>
@@ -8448,49 +8465,49 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E66" s="283" t="s">
+      <c r="E66" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="F66" s="284"/>
-      <c r="G66" s="284"/>
-      <c r="H66" s="285"/>
-      <c r="I66" s="310" t="s">
+      <c r="F66" s="249"/>
+      <c r="G66" s="249"/>
+      <c r="H66" s="250"/>
+      <c r="I66" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="310"/>
-      <c r="K66" s="310"/>
-      <c r="L66" s="310"/>
-      <c r="M66" s="248" t="s">
+      <c r="J66" s="253"/>
+      <c r="K66" s="253"/>
+      <c r="L66" s="253"/>
+      <c r="M66" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="249"/>
-      <c r="O66" s="249"/>
-      <c r="P66" s="249"/>
-      <c r="Q66" s="249"/>
-      <c r="R66" s="249"/>
-      <c r="S66" s="249"/>
-      <c r="T66" s="250"/>
-      <c r="U66" s="283" t="s">
+      <c r="N66" s="246"/>
+      <c r="O66" s="246"/>
+      <c r="P66" s="246"/>
+      <c r="Q66" s="246"/>
+      <c r="R66" s="246"/>
+      <c r="S66" s="246"/>
+      <c r="T66" s="247"/>
+      <c r="U66" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V66" s="284"/>
-      <c r="W66" s="284"/>
-      <c r="X66" s="284"/>
-      <c r="Y66" s="285"/>
-      <c r="Z66" s="283" t="s">
+      <c r="V66" s="249"/>
+      <c r="W66" s="249"/>
+      <c r="X66" s="249"/>
+      <c r="Y66" s="250"/>
+      <c r="Z66" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA66" s="284"/>
-      <c r="AB66" s="285"/>
+      <c r="AA66" s="249"/>
+      <c r="AB66" s="250"/>
       <c r="AC66" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD66" s="283" t="s">
+      <c r="AD66" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="AE66" s="284"/>
-      <c r="AF66" s="284"/>
-      <c r="AG66" s="285"/>
+      <c r="AE66" s="249"/>
+      <c r="AF66" s="249"/>
+      <c r="AG66" s="250"/>
       <c r="AH66" s="124"/>
       <c r="AI66" s="124"/>
       <c r="AJ66" s="124"/>
@@ -8507,7 +8524,7 @@
       <c r="AO66" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP66" s="304" t="s">
+      <c r="AP66" s="251" t="s">
         <v>15</v>
       </c>
       <c r="AQ66" s="111"/>
@@ -8524,49 +8541,49 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E67" s="283" t="s">
+      <c r="E67" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="284"/>
-      <c r="G67" s="284"/>
-      <c r="H67" s="285"/>
-      <c r="I67" s="310" t="s">
+      <c r="F67" s="249"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="250"/>
+      <c r="I67" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="310"/>
-      <c r="K67" s="310"/>
-      <c r="L67" s="310"/>
-      <c r="M67" s="248" t="s">
+      <c r="J67" s="253"/>
+      <c r="K67" s="253"/>
+      <c r="L67" s="253"/>
+      <c r="M67" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="249"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
-      <c r="Q67" s="249"/>
-      <c r="R67" s="249"/>
-      <c r="S67" s="249"/>
-      <c r="T67" s="250"/>
-      <c r="U67" s="283" t="s">
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="247"/>
+      <c r="U67" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V67" s="284"/>
-      <c r="W67" s="284"/>
-      <c r="X67" s="284"/>
-      <c r="Y67" s="285"/>
-      <c r="Z67" s="283" t="s">
+      <c r="V67" s="249"/>
+      <c r="W67" s="249"/>
+      <c r="X67" s="249"/>
+      <c r="Y67" s="250"/>
+      <c r="Z67" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA67" s="284"/>
-      <c r="AB67" s="285"/>
+      <c r="AA67" s="249"/>
+      <c r="AB67" s="250"/>
       <c r="AC67" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD67" s="283" t="s">
+      <c r="AD67" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="AE67" s="284"/>
-      <c r="AF67" s="284"/>
-      <c r="AG67" s="285"/>
+      <c r="AE67" s="249"/>
+      <c r="AF67" s="249"/>
+      <c r="AG67" s="250"/>
       <c r="AH67" s="124"/>
       <c r="AI67" s="124"/>
       <c r="AJ67" s="124"/>
@@ -8583,7 +8600,7 @@
       <c r="AO67" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP67" s="304" t="s">
+      <c r="AP67" s="251" t="s">
         <v>15</v>
       </c>
       <c r="AQ67" s="111"/>
@@ -8600,49 +8617,49 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E68" s="283" t="s">
+      <c r="E68" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="284"/>
-      <c r="G68" s="284"/>
-      <c r="H68" s="285"/>
-      <c r="I68" s="310" t="s">
+      <c r="F68" s="249"/>
+      <c r="G68" s="249"/>
+      <c r="H68" s="250"/>
+      <c r="I68" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="310"/>
-      <c r="K68" s="310"/>
-      <c r="L68" s="310"/>
-      <c r="M68" s="248" t="s">
+      <c r="J68" s="253"/>
+      <c r="K68" s="253"/>
+      <c r="L68" s="253"/>
+      <c r="M68" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N68" s="249"/>
-      <c r="O68" s="249"/>
-      <c r="P68" s="249"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="249"/>
-      <c r="S68" s="249"/>
-      <c r="T68" s="250"/>
-      <c r="U68" s="283" t="s">
+      <c r="N68" s="246"/>
+      <c r="O68" s="246"/>
+      <c r="P68" s="246"/>
+      <c r="Q68" s="246"/>
+      <c r="R68" s="246"/>
+      <c r="S68" s="246"/>
+      <c r="T68" s="247"/>
+      <c r="U68" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V68" s="284"/>
-      <c r="W68" s="284"/>
-      <c r="X68" s="284"/>
-      <c r="Y68" s="285"/>
-      <c r="Z68" s="283" t="s">
+      <c r="V68" s="249"/>
+      <c r="W68" s="249"/>
+      <c r="X68" s="249"/>
+      <c r="Y68" s="250"/>
+      <c r="Z68" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA68" s="284"/>
-      <c r="AB68" s="285"/>
+      <c r="AA68" s="249"/>
+      <c r="AB68" s="250"/>
       <c r="AC68" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="283" t="s">
+      <c r="AD68" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="AE68" s="284"/>
-      <c r="AF68" s="284"/>
-      <c r="AG68" s="285"/>
+      <c r="AE68" s="249"/>
+      <c r="AF68" s="249"/>
+      <c r="AG68" s="250"/>
       <c r="AH68" s="118"/>
       <c r="AI68" s="118"/>
       <c r="AJ68" s="118"/>
@@ -8659,7 +8676,7 @@
       <c r="AO68" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP68" s="304" t="s">
+      <c r="AP68" s="251" t="s">
         <v>16</v>
       </c>
       <c r="AQ68" s="118"/>
@@ -8678,49 +8695,49 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E69" s="283" t="s">
+      <c r="E69" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="285"/>
-      <c r="I69" s="310" t="s">
+      <c r="F69" s="249"/>
+      <c r="G69" s="249"/>
+      <c r="H69" s="250"/>
+      <c r="I69" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J69" s="310"/>
-      <c r="K69" s="310"/>
-      <c r="L69" s="310"/>
-      <c r="M69" s="248" t="s">
+      <c r="J69" s="253"/>
+      <c r="K69" s="253"/>
+      <c r="L69" s="253"/>
+      <c r="M69" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N69" s="249"/>
-      <c r="O69" s="249"/>
-      <c r="P69" s="249"/>
-      <c r="Q69" s="249"/>
-      <c r="R69" s="249"/>
-      <c r="S69" s="249"/>
-      <c r="T69" s="250"/>
-      <c r="U69" s="283" t="s">
+      <c r="N69" s="246"/>
+      <c r="O69" s="246"/>
+      <c r="P69" s="246"/>
+      <c r="Q69" s="246"/>
+      <c r="R69" s="246"/>
+      <c r="S69" s="246"/>
+      <c r="T69" s="247"/>
+      <c r="U69" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V69" s="284"/>
-      <c r="W69" s="284"/>
-      <c r="X69" s="284"/>
-      <c r="Y69" s="285"/>
-      <c r="Z69" s="283" t="s">
+      <c r="V69" s="249"/>
+      <c r="W69" s="249"/>
+      <c r="X69" s="249"/>
+      <c r="Y69" s="250"/>
+      <c r="Z69" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA69" s="284"/>
-      <c r="AB69" s="285"/>
+      <c r="AA69" s="249"/>
+      <c r="AB69" s="250"/>
       <c r="AC69" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD69" s="283" t="s">
+      <c r="AD69" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="AE69" s="284"/>
-      <c r="AF69" s="284"/>
-      <c r="AG69" s="285"/>
+      <c r="AE69" s="249"/>
+      <c r="AF69" s="249"/>
+      <c r="AG69" s="250"/>
       <c r="AH69" s="118"/>
       <c r="AI69" s="118"/>
       <c r="AJ69" s="118"/>
@@ -8737,7 +8754,7 @@
       <c r="AO69" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP69" s="304" t="s">
+      <c r="AP69" s="251" t="s">
         <v>16</v>
       </c>
       <c r="AQ69" s="118"/>
@@ -8756,49 +8773,49 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E70" s="283" t="s">
+      <c r="E70" s="248" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="284"/>
-      <c r="G70" s="284"/>
-      <c r="H70" s="285"/>
-      <c r="I70" s="310" t="s">
+      <c r="F70" s="249"/>
+      <c r="G70" s="249"/>
+      <c r="H70" s="250"/>
+      <c r="I70" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="310"/>
-      <c r="K70" s="310"/>
-      <c r="L70" s="310"/>
-      <c r="M70" s="308" t="s">
+      <c r="J70" s="253"/>
+      <c r="K70" s="253"/>
+      <c r="L70" s="253"/>
+      <c r="M70" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="N70" s="308"/>
-      <c r="O70" s="308"/>
-      <c r="P70" s="308"/>
-      <c r="Q70" s="308"/>
-      <c r="R70" s="308"/>
-      <c r="S70" s="308"/>
-      <c r="T70" s="308"/>
-      <c r="U70" s="309" t="s">
+      <c r="N70" s="310"/>
+      <c r="O70" s="310"/>
+      <c r="P70" s="310"/>
+      <c r="Q70" s="310"/>
+      <c r="R70" s="310"/>
+      <c r="S70" s="310"/>
+      <c r="T70" s="310"/>
+      <c r="U70" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="V70" s="309"/>
-      <c r="W70" s="309"/>
-      <c r="X70" s="309"/>
-      <c r="Y70" s="309"/>
-      <c r="Z70" s="309" t="s">
+      <c r="V70" s="260"/>
+      <c r="W70" s="260"/>
+      <c r="X70" s="260"/>
+      <c r="Y70" s="260"/>
+      <c r="Z70" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="AA70" s="309"/>
-      <c r="AB70" s="309"/>
+      <c r="AA70" s="260"/>
+      <c r="AB70" s="260"/>
       <c r="AC70" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD70" s="283" t="s">
+      <c r="AD70" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="AE70" s="284"/>
-      <c r="AF70" s="284"/>
-      <c r="AG70" s="285"/>
+      <c r="AE70" s="249"/>
+      <c r="AF70" s="249"/>
+      <c r="AG70" s="250"/>
       <c r="AH70" s="111"/>
       <c r="AI70" s="111"/>
       <c r="AJ70" s="111"/>
@@ -8815,7 +8832,7 @@
       <c r="AO70" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP70" s="304" t="s">
+      <c r="AP70" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ70" s="111"/>
@@ -8828,38 +8845,38 @@
     </row>
     <row r="71" spans="3:51" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="95"/>
-      <c r="D71" s="311" t="s">
+      <c r="D71" s="288" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="312"/>
-      <c r="F71" s="312"/>
-      <c r="G71" s="312"/>
-      <c r="H71" s="312"/>
-      <c r="I71" s="312"/>
-      <c r="J71" s="312"/>
-      <c r="K71" s="312"/>
-      <c r="L71" s="312"/>
-      <c r="M71" s="312"/>
-      <c r="N71" s="312"/>
-      <c r="O71" s="312"/>
-      <c r="P71" s="312"/>
-      <c r="Q71" s="312"/>
-      <c r="R71" s="312"/>
-      <c r="S71" s="312"/>
-      <c r="T71" s="312"/>
-      <c r="U71" s="312"/>
-      <c r="V71" s="312"/>
-      <c r="W71" s="312"/>
-      <c r="X71" s="312"/>
-      <c r="Y71" s="312"/>
-      <c r="Z71" s="312"/>
-      <c r="AA71" s="312"/>
-      <c r="AB71" s="312"/>
-      <c r="AC71" s="312"/>
-      <c r="AD71" s="312"/>
-      <c r="AE71" s="312"/>
-      <c r="AF71" s="312"/>
-      <c r="AG71" s="313"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="289"/>
+      <c r="G71" s="289"/>
+      <c r="H71" s="289"/>
+      <c r="I71" s="289"/>
+      <c r="J71" s="289"/>
+      <c r="K71" s="289"/>
+      <c r="L71" s="289"/>
+      <c r="M71" s="289"/>
+      <c r="N71" s="289"/>
+      <c r="O71" s="289"/>
+      <c r="P71" s="289"/>
+      <c r="Q71" s="289"/>
+      <c r="R71" s="289"/>
+      <c r="S71" s="289"/>
+      <c r="T71" s="289"/>
+      <c r="U71" s="289"/>
+      <c r="V71" s="289"/>
+      <c r="W71" s="289"/>
+      <c r="X71" s="289"/>
+      <c r="Y71" s="289"/>
+      <c r="Z71" s="289"/>
+      <c r="AA71" s="289"/>
+      <c r="AB71" s="289"/>
+      <c r="AC71" s="289"/>
+      <c r="AD71" s="289"/>
+      <c r="AE71" s="289"/>
+      <c r="AF71" s="289"/>
+      <c r="AG71" s="290"/>
       <c r="AH71" s="111"/>
       <c r="AI71" s="111"/>
       <c r="AJ71" s="111"/>
@@ -8890,44 +8907,44 @@
       </c>
       <c r="F72" s="231"/>
       <c r="G72" s="231"/>
-      <c r="H72" s="304"/>
-      <c r="I72" s="286" t="s">
+      <c r="H72" s="251"/>
+      <c r="I72" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="287"/>
-      <c r="K72" s="287"/>
-      <c r="L72" s="288"/>
-      <c r="M72" s="308" t="s">
+      <c r="J72" s="255"/>
+      <c r="K72" s="255"/>
+      <c r="L72" s="256"/>
+      <c r="M72" s="310" t="s">
         <v>119</v>
       </c>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="308"/>
-      <c r="Q72" s="308"/>
-      <c r="R72" s="308"/>
-      <c r="S72" s="308"/>
-      <c r="T72" s="308"/>
-      <c r="U72" s="309" t="s">
+      <c r="N72" s="310"/>
+      <c r="O72" s="310"/>
+      <c r="P72" s="310"/>
+      <c r="Q72" s="310"/>
+      <c r="R72" s="310"/>
+      <c r="S72" s="310"/>
+      <c r="T72" s="310"/>
+      <c r="U72" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="V72" s="309"/>
-      <c r="W72" s="309"/>
-      <c r="X72" s="309"/>
-      <c r="Y72" s="309"/>
-      <c r="Z72" s="309" t="s">
+      <c r="V72" s="260"/>
+      <c r="W72" s="260"/>
+      <c r="X72" s="260"/>
+      <c r="Y72" s="260"/>
+      <c r="Z72" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="AA72" s="309"/>
-      <c r="AB72" s="309"/>
+      <c r="AA72" s="260"/>
+      <c r="AB72" s="260"/>
       <c r="AC72" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD72" s="283" t="s">
+      <c r="AD72" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE72" s="284"/>
-      <c r="AF72" s="284"/>
-      <c r="AG72" s="285"/>
+      <c r="AE72" s="249"/>
+      <c r="AF72" s="249"/>
+      <c r="AG72" s="250"/>
       <c r="AH72" s="111"/>
       <c r="AI72" s="111"/>
       <c r="AJ72" s="111"/>
@@ -8944,7 +8961,7 @@
       <c r="AO72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP72" s="304" t="s">
+      <c r="AP72" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ72" s="111"/>
@@ -8966,44 +8983,44 @@
       </c>
       <c r="F73" s="231"/>
       <c r="G73" s="231"/>
-      <c r="H73" s="304"/>
-      <c r="I73" s="286" t="s">
+      <c r="H73" s="251"/>
+      <c r="I73" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J73" s="287"/>
-      <c r="K73" s="287"/>
-      <c r="L73" s="288"/>
-      <c r="M73" s="248" t="s">
-        <v>269</v>
-      </c>
-      <c r="N73" s="249"/>
-      <c r="O73" s="249"/>
-      <c r="P73" s="249"/>
-      <c r="Q73" s="249"/>
-      <c r="R73" s="249"/>
-      <c r="S73" s="249"/>
-      <c r="T73" s="250"/>
-      <c r="U73" s="283" t="s">
+      <c r="J73" s="255"/>
+      <c r="K73" s="255"/>
+      <c r="L73" s="256"/>
+      <c r="M73" s="245" t="s">
+        <v>268</v>
+      </c>
+      <c r="N73" s="246"/>
+      <c r="O73" s="246"/>
+      <c r="P73" s="246"/>
+      <c r="Q73" s="246"/>
+      <c r="R73" s="246"/>
+      <c r="S73" s="246"/>
+      <c r="T73" s="247"/>
+      <c r="U73" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V73" s="284"/>
-      <c r="W73" s="284"/>
-      <c r="X73" s="284"/>
-      <c r="Y73" s="285"/>
-      <c r="Z73" s="283" t="s">
+      <c r="V73" s="249"/>
+      <c r="W73" s="249"/>
+      <c r="X73" s="249"/>
+      <c r="Y73" s="250"/>
+      <c r="Z73" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="AA73" s="284"/>
-      <c r="AB73" s="285"/>
+      <c r="AA73" s="249"/>
+      <c r="AB73" s="250"/>
       <c r="AC73" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD73" s="283" t="s">
+      <c r="AD73" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE73" s="284"/>
-      <c r="AF73" s="284"/>
-      <c r="AG73" s="285"/>
+      <c r="AE73" s="249"/>
+      <c r="AF73" s="249"/>
+      <c r="AG73" s="250"/>
       <c r="AH73" s="118"/>
       <c r="AI73" s="118"/>
       <c r="AJ73" s="118"/>
@@ -9020,7 +9037,7 @@
       <c r="AO73" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP73" s="304" t="s">
+      <c r="AP73" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ73" s="118"/>
@@ -9044,44 +9061,44 @@
       </c>
       <c r="F74" s="231"/>
       <c r="G74" s="231"/>
-      <c r="H74" s="304"/>
-      <c r="I74" s="286" t="s">
+      <c r="H74" s="251"/>
+      <c r="I74" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="287"/>
-      <c r="K74" s="287"/>
-      <c r="L74" s="288"/>
-      <c r="M74" s="248" t="s">
-        <v>269</v>
-      </c>
-      <c r="N74" s="249"/>
-      <c r="O74" s="249"/>
-      <c r="P74" s="249"/>
-      <c r="Q74" s="249"/>
-      <c r="R74" s="249"/>
-      <c r="S74" s="249"/>
-      <c r="T74" s="250"/>
-      <c r="U74" s="283" t="s">
+      <c r="J74" s="255"/>
+      <c r="K74" s="255"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="245" t="s">
+        <v>268</v>
+      </c>
+      <c r="N74" s="246"/>
+      <c r="O74" s="246"/>
+      <c r="P74" s="246"/>
+      <c r="Q74" s="246"/>
+      <c r="R74" s="246"/>
+      <c r="S74" s="246"/>
+      <c r="T74" s="247"/>
+      <c r="U74" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V74" s="284"/>
-      <c r="W74" s="284"/>
-      <c r="X74" s="284"/>
-      <c r="Y74" s="285"/>
-      <c r="Z74" s="283" t="s">
+      <c r="V74" s="249"/>
+      <c r="W74" s="249"/>
+      <c r="X74" s="249"/>
+      <c r="Y74" s="250"/>
+      <c r="Z74" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="AA74" s="284"/>
-      <c r="AB74" s="285"/>
+      <c r="AA74" s="249"/>
+      <c r="AB74" s="250"/>
       <c r="AC74" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD74" s="283" t="s">
+      <c r="AD74" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE74" s="284"/>
-      <c r="AF74" s="284"/>
-      <c r="AG74" s="285"/>
+      <c r="AE74" s="249"/>
+      <c r="AF74" s="249"/>
+      <c r="AG74" s="250"/>
       <c r="AH74" s="118"/>
       <c r="AI74" s="118"/>
       <c r="AJ74" s="118"/>
@@ -9098,7 +9115,7 @@
       <c r="AO74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP74" s="304" t="s">
+      <c r="AP74" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ74" s="118"/>
@@ -9122,44 +9139,44 @@
       </c>
       <c r="F75" s="231"/>
       <c r="G75" s="231"/>
-      <c r="H75" s="304"/>
-      <c r="I75" s="286" t="s">
+      <c r="H75" s="251"/>
+      <c r="I75" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J75" s="287"/>
-      <c r="K75" s="287"/>
-      <c r="L75" s="288"/>
-      <c r="M75" s="248" t="s">
+      <c r="J75" s="255"/>
+      <c r="K75" s="255"/>
+      <c r="L75" s="256"/>
+      <c r="M75" s="245" t="s">
         <v>217</v>
       </c>
-      <c r="N75" s="249"/>
-      <c r="O75" s="249"/>
-      <c r="P75" s="249"/>
-      <c r="Q75" s="249"/>
-      <c r="R75" s="249"/>
-      <c r="S75" s="249"/>
-      <c r="T75" s="250"/>
-      <c r="U75" s="283" t="s">
-        <v>359</v>
-      </c>
-      <c r="V75" s="284"/>
-      <c r="W75" s="284"/>
-      <c r="X75" s="284"/>
-      <c r="Y75" s="285"/>
-      <c r="Z75" s="309" t="s">
+      <c r="N75" s="246"/>
+      <c r="O75" s="246"/>
+      <c r="P75" s="246"/>
+      <c r="Q75" s="246"/>
+      <c r="R75" s="246"/>
+      <c r="S75" s="246"/>
+      <c r="T75" s="247"/>
+      <c r="U75" s="248" t="s">
+        <v>358</v>
+      </c>
+      <c r="V75" s="249"/>
+      <c r="W75" s="249"/>
+      <c r="X75" s="249"/>
+      <c r="Y75" s="250"/>
+      <c r="Z75" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA75" s="309"/>
-      <c r="AB75" s="309"/>
+      <c r="AA75" s="260"/>
+      <c r="AB75" s="260"/>
       <c r="AC75" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD75" s="283" t="s">
+      <c r="AD75" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE75" s="284"/>
-      <c r="AF75" s="284"/>
-      <c r="AG75" s="285"/>
+      <c r="AE75" s="249"/>
+      <c r="AF75" s="249"/>
+      <c r="AG75" s="250"/>
       <c r="AH75" s="111"/>
       <c r="AI75" s="111"/>
       <c r="AJ75" s="111"/>
@@ -9176,7 +9193,7 @@
       <c r="AO75" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP75" s="304" t="s">
+      <c r="AP75" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ75" s="111"/>
@@ -9198,44 +9215,44 @@
       </c>
       <c r="F76" s="231"/>
       <c r="G76" s="231"/>
-      <c r="H76" s="304"/>
-      <c r="I76" s="286" t="s">
+      <c r="H76" s="251"/>
+      <c r="I76" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J76" s="287"/>
-      <c r="K76" s="287"/>
-      <c r="L76" s="288"/>
-      <c r="M76" s="248" t="s">
+      <c r="J76" s="255"/>
+      <c r="K76" s="255"/>
+      <c r="L76" s="256"/>
+      <c r="M76" s="245" t="s">
         <v>216</v>
       </c>
-      <c r="N76" s="249"/>
-      <c r="O76" s="249"/>
-      <c r="P76" s="249"/>
-      <c r="Q76" s="249"/>
-      <c r="R76" s="249"/>
-      <c r="S76" s="249"/>
-      <c r="T76" s="250"/>
-      <c r="U76" s="283" t="s">
+      <c r="N76" s="246"/>
+      <c r="O76" s="246"/>
+      <c r="P76" s="246"/>
+      <c r="Q76" s="246"/>
+      <c r="R76" s="246"/>
+      <c r="S76" s="246"/>
+      <c r="T76" s="247"/>
+      <c r="U76" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="V76" s="284"/>
-      <c r="W76" s="284"/>
-      <c r="X76" s="284"/>
-      <c r="Y76" s="285"/>
-      <c r="Z76" s="309" t="s">
+      <c r="V76" s="249"/>
+      <c r="W76" s="249"/>
+      <c r="X76" s="249"/>
+      <c r="Y76" s="250"/>
+      <c r="Z76" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA76" s="309"/>
-      <c r="AB76" s="309"/>
+      <c r="AA76" s="260"/>
+      <c r="AB76" s="260"/>
       <c r="AC76" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD76" s="283" t="s">
+      <c r="AD76" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE76" s="284"/>
-      <c r="AF76" s="284"/>
-      <c r="AG76" s="285"/>
+      <c r="AE76" s="249"/>
+      <c r="AF76" s="249"/>
+      <c r="AG76" s="250"/>
       <c r="AH76" s="111"/>
       <c r="AI76" s="111"/>
       <c r="AJ76" s="111"/>
@@ -9252,7 +9269,7 @@
       <c r="AO76" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP76" s="304" t="s">
+      <c r="AP76" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ76" s="111"/>
@@ -9274,44 +9291,44 @@
       </c>
       <c r="F77" s="231"/>
       <c r="G77" s="231"/>
-      <c r="H77" s="304"/>
-      <c r="I77" s="286" t="s">
+      <c r="H77" s="251"/>
+      <c r="I77" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J77" s="287"/>
-      <c r="K77" s="287"/>
-      <c r="L77" s="288"/>
-      <c r="M77" s="248" t="s">
-        <v>266</v>
-      </c>
-      <c r="N77" s="249"/>
-      <c r="O77" s="249"/>
-      <c r="P77" s="249"/>
-      <c r="Q77" s="249"/>
-      <c r="R77" s="249"/>
-      <c r="S77" s="249"/>
-      <c r="T77" s="250"/>
-      <c r="U77" s="283" t="s">
+      <c r="J77" s="255"/>
+      <c r="K77" s="255"/>
+      <c r="L77" s="256"/>
+      <c r="M77" s="245" t="s">
+        <v>265</v>
+      </c>
+      <c r="N77" s="246"/>
+      <c r="O77" s="246"/>
+      <c r="P77" s="246"/>
+      <c r="Q77" s="246"/>
+      <c r="R77" s="246"/>
+      <c r="S77" s="246"/>
+      <c r="T77" s="247"/>
+      <c r="U77" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="284"/>
-      <c r="W77" s="284"/>
-      <c r="X77" s="284"/>
-      <c r="Y77" s="285"/>
-      <c r="Z77" s="283" t="s">
+      <c r="V77" s="249"/>
+      <c r="W77" s="249"/>
+      <c r="X77" s="249"/>
+      <c r="Y77" s="250"/>
+      <c r="Z77" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA77" s="284"/>
-      <c r="AB77" s="285"/>
+      <c r="AA77" s="249"/>
+      <c r="AB77" s="250"/>
       <c r="AC77" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD77" s="283" t="s">
+      <c r="AD77" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE77" s="284"/>
-      <c r="AF77" s="284"/>
-      <c r="AG77" s="285"/>
+      <c r="AE77" s="249"/>
+      <c r="AF77" s="249"/>
+      <c r="AG77" s="250"/>
       <c r="AH77" s="118"/>
       <c r="AI77" s="118"/>
       <c r="AJ77" s="118"/>
@@ -9328,7 +9345,7 @@
       <c r="AO77" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP77" s="304" t="s">
+      <c r="AP77" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ77" s="118"/>
@@ -9352,44 +9369,44 @@
       </c>
       <c r="F78" s="231"/>
       <c r="G78" s="231"/>
-      <c r="H78" s="304"/>
-      <c r="I78" s="305" t="s">
+      <c r="H78" s="251"/>
+      <c r="I78" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="J78" s="306"/>
-      <c r="K78" s="306"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="248" t="s">
-        <v>265</v>
-      </c>
-      <c r="N78" s="249"/>
-      <c r="O78" s="249"/>
-      <c r="P78" s="249"/>
-      <c r="Q78" s="249"/>
-      <c r="R78" s="249"/>
-      <c r="S78" s="249"/>
-      <c r="T78" s="250"/>
-      <c r="U78" s="283" t="s">
+      <c r="J78" s="312"/>
+      <c r="K78" s="312"/>
+      <c r="L78" s="313"/>
+      <c r="M78" s="245" t="s">
+        <v>264</v>
+      </c>
+      <c r="N78" s="246"/>
+      <c r="O78" s="246"/>
+      <c r="P78" s="246"/>
+      <c r="Q78" s="246"/>
+      <c r="R78" s="246"/>
+      <c r="S78" s="246"/>
+      <c r="T78" s="247"/>
+      <c r="U78" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="V78" s="284"/>
-      <c r="W78" s="284"/>
-      <c r="X78" s="284"/>
-      <c r="Y78" s="285"/>
-      <c r="Z78" s="283" t="s">
+      <c r="V78" s="249"/>
+      <c r="W78" s="249"/>
+      <c r="X78" s="249"/>
+      <c r="Y78" s="250"/>
+      <c r="Z78" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA78" s="284"/>
-      <c r="AB78" s="285"/>
+      <c r="AA78" s="249"/>
+      <c r="AB78" s="250"/>
       <c r="AC78" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD78" s="283" t="s">
+      <c r="AD78" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="284"/>
-      <c r="AF78" s="284"/>
-      <c r="AG78" s="285"/>
+      <c r="AE78" s="249"/>
+      <c r="AF78" s="249"/>
+      <c r="AG78" s="250"/>
       <c r="AH78" s="94"/>
       <c r="AI78" s="94"/>
       <c r="AJ78" s="94"/>
@@ -9406,7 +9423,7 @@
       <c r="AO78" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP78" s="304" t="s">
+      <c r="AP78" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ78" s="94"/>
@@ -9424,49 +9441,49 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E79" s="283" t="s">
+      <c r="E79" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="F79" s="284"/>
-      <c r="G79" s="284"/>
-      <c r="H79" s="285"/>
-      <c r="I79" s="286" t="s">
+      <c r="F79" s="249"/>
+      <c r="G79" s="249"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J79" s="287"/>
-      <c r="K79" s="287"/>
-      <c r="L79" s="288"/>
-      <c r="M79" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="N79" s="249"/>
-      <c r="O79" s="249"/>
-      <c r="P79" s="249"/>
-      <c r="Q79" s="249"/>
-      <c r="R79" s="249"/>
-      <c r="S79" s="249"/>
-      <c r="T79" s="250"/>
-      <c r="U79" s="283" t="s">
+      <c r="J79" s="255"/>
+      <c r="K79" s="255"/>
+      <c r="L79" s="256"/>
+      <c r="M79" s="245" t="s">
+        <v>266</v>
+      </c>
+      <c r="N79" s="246"/>
+      <c r="O79" s="246"/>
+      <c r="P79" s="246"/>
+      <c r="Q79" s="246"/>
+      <c r="R79" s="246"/>
+      <c r="S79" s="246"/>
+      <c r="T79" s="247"/>
+      <c r="U79" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V79" s="284"/>
-      <c r="W79" s="284"/>
-      <c r="X79" s="284"/>
-      <c r="Y79" s="285"/>
-      <c r="Z79" s="283" t="s">
+      <c r="V79" s="249"/>
+      <c r="W79" s="249"/>
+      <c r="X79" s="249"/>
+      <c r="Y79" s="250"/>
+      <c r="Z79" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA79" s="284"/>
-      <c r="AB79" s="285"/>
+      <c r="AA79" s="249"/>
+      <c r="AB79" s="250"/>
       <c r="AC79" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD79" s="283" t="s">
+      <c r="AD79" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE79" s="284"/>
-      <c r="AF79" s="284"/>
-      <c r="AG79" s="285"/>
+      <c r="AE79" s="249"/>
+      <c r="AF79" s="249"/>
+      <c r="AG79" s="250"/>
       <c r="AH79" s="124"/>
       <c r="AI79" s="124"/>
       <c r="AJ79" s="124"/>
@@ -9483,7 +9500,7 @@
       <c r="AO79" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP79" s="304" t="s">
+      <c r="AP79" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ79" s="111"/>
@@ -9500,49 +9517,49 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E80" s="283" t="s">
+      <c r="E80" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="F80" s="284"/>
-      <c r="G80" s="284"/>
-      <c r="H80" s="285"/>
-      <c r="I80" s="286" t="s">
+      <c r="F80" s="249"/>
+      <c r="G80" s="249"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J80" s="287"/>
-      <c r="K80" s="287"/>
-      <c r="L80" s="288"/>
-      <c r="M80" s="248" t="s">
-        <v>268</v>
-      </c>
-      <c r="N80" s="249"/>
-      <c r="O80" s="249"/>
-      <c r="P80" s="249"/>
-      <c r="Q80" s="249"/>
-      <c r="R80" s="249"/>
-      <c r="S80" s="249"/>
-      <c r="T80" s="250"/>
-      <c r="U80" s="283" t="s">
+      <c r="J80" s="255"/>
+      <c r="K80" s="255"/>
+      <c r="L80" s="256"/>
+      <c r="M80" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="N80" s="246"/>
+      <c r="O80" s="246"/>
+      <c r="P80" s="246"/>
+      <c r="Q80" s="246"/>
+      <c r="R80" s="246"/>
+      <c r="S80" s="246"/>
+      <c r="T80" s="247"/>
+      <c r="U80" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V80" s="284"/>
-      <c r="W80" s="284"/>
-      <c r="X80" s="284"/>
-      <c r="Y80" s="285"/>
-      <c r="Z80" s="283" t="s">
+      <c r="V80" s="249"/>
+      <c r="W80" s="249"/>
+      <c r="X80" s="249"/>
+      <c r="Y80" s="250"/>
+      <c r="Z80" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA80" s="284"/>
-      <c r="AB80" s="285"/>
+      <c r="AA80" s="249"/>
+      <c r="AB80" s="250"/>
       <c r="AC80" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD80" s="283" t="s">
+      <c r="AD80" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE80" s="284"/>
-      <c r="AF80" s="284"/>
-      <c r="AG80" s="285"/>
+      <c r="AE80" s="249"/>
+      <c r="AF80" s="249"/>
+      <c r="AG80" s="250"/>
       <c r="AH80" s="118"/>
       <c r="AI80" s="118"/>
       <c r="AJ80" s="118"/>
@@ -9559,7 +9576,7 @@
       <c r="AO80" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP80" s="304" t="s">
+      <c r="AP80" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ80" s="118"/>
@@ -9760,24 +9777,24 @@
     </row>
     <row r="85" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C85" s="94"/>
-      <c r="D85" s="347" t="s">
+      <c r="D85" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="291" t="s">
+      <c r="E85" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="F85" s="292"/>
-      <c r="G85" s="292"/>
-      <c r="H85" s="292"/>
-      <c r="I85" s="292"/>
-      <c r="J85" s="293"/>
-      <c r="K85" s="291" t="s">
+      <c r="F85" s="238"/>
+      <c r="G85" s="238"/>
+      <c r="H85" s="238"/>
+      <c r="I85" s="238"/>
+      <c r="J85" s="239"/>
+      <c r="K85" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="L85" s="292"/>
-      <c r="M85" s="292"/>
-      <c r="N85" s="293"/>
-      <c r="O85" s="289" t="s">
+      <c r="L85" s="238"/>
+      <c r="M85" s="238"/>
+      <c r="N85" s="239"/>
+      <c r="O85" s="321" t="s">
         <v>130</v>
       </c>
       <c r="P85" s="127" t="s">
@@ -9788,21 +9805,21 @@
       <c r="S85" s="128"/>
       <c r="T85" s="128"/>
       <c r="U85" s="128"/>
-      <c r="V85" s="291" t="s">
+      <c r="V85" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="W85" s="292"/>
-      <c r="X85" s="292"/>
-      <c r="Y85" s="292"/>
-      <c r="Z85" s="292"/>
-      <c r="AA85" s="292"/>
-      <c r="AB85" s="292"/>
-      <c r="AC85" s="292"/>
-      <c r="AD85" s="292"/>
-      <c r="AE85" s="292"/>
-      <c r="AF85" s="292"/>
-      <c r="AG85" s="292"/>
-      <c r="AH85" s="293"/>
+      <c r="W85" s="238"/>
+      <c r="X85" s="238"/>
+      <c r="Y85" s="238"/>
+      <c r="Z85" s="238"/>
+      <c r="AA85" s="238"/>
+      <c r="AB85" s="238"/>
+      <c r="AC85" s="238"/>
+      <c r="AD85" s="238"/>
+      <c r="AE85" s="238"/>
+      <c r="AF85" s="238"/>
+      <c r="AG85" s="238"/>
+      <c r="AH85" s="239"/>
       <c r="AK85" s="53"/>
       <c r="AL85" s="53"/>
       <c r="AM85" s="53"/>
@@ -9819,18 +9836,18 @@
     </row>
     <row r="86" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C86" s="94"/>
-      <c r="D86" s="348"/>
-      <c r="E86" s="294"/>
-      <c r="F86" s="295"/>
-      <c r="G86" s="295"/>
-      <c r="H86" s="295"/>
-      <c r="I86" s="295"/>
-      <c r="J86" s="296"/>
-      <c r="K86" s="294"/>
-      <c r="L86" s="295"/>
-      <c r="M86" s="295"/>
-      <c r="N86" s="296"/>
-      <c r="O86" s="290"/>
+      <c r="D86" s="236"/>
+      <c r="E86" s="240"/>
+      <c r="F86" s="241"/>
+      <c r="G86" s="241"/>
+      <c r="H86" s="241"/>
+      <c r="I86" s="241"/>
+      <c r="J86" s="242"/>
+      <c r="K86" s="240"/>
+      <c r="L86" s="241"/>
+      <c r="M86" s="241"/>
+      <c r="N86" s="242"/>
+      <c r="O86" s="322"/>
       <c r="P86" s="129" t="s">
         <v>132</v>
       </c>
@@ -9843,23 +9860,23 @@
       <c r="S86" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="T86" s="297" t="s">
+      <c r="T86" s="323" t="s">
         <v>136</v>
       </c>
-      <c r="U86" s="298"/>
-      <c r="V86" s="294"/>
-      <c r="W86" s="295"/>
-      <c r="X86" s="295"/>
-      <c r="Y86" s="295"/>
-      <c r="Z86" s="295"/>
-      <c r="AA86" s="295"/>
-      <c r="AB86" s="295"/>
-      <c r="AC86" s="295"/>
-      <c r="AD86" s="295"/>
-      <c r="AE86" s="295"/>
-      <c r="AF86" s="295"/>
-      <c r="AG86" s="295"/>
-      <c r="AH86" s="296"/>
+      <c r="U86" s="324"/>
+      <c r="V86" s="240"/>
+      <c r="W86" s="241"/>
+      <c r="X86" s="241"/>
+      <c r="Y86" s="241"/>
+      <c r="Z86" s="241"/>
+      <c r="AA86" s="241"/>
+      <c r="AB86" s="241"/>
+      <c r="AC86" s="241"/>
+      <c r="AD86" s="241"/>
+      <c r="AE86" s="241"/>
+      <c r="AF86" s="241"/>
+      <c r="AG86" s="241"/>
+      <c r="AH86" s="242"/>
       <c r="AK86" s="53"/>
       <c r="AL86" s="53"/>
       <c r="AM86" s="53"/>
@@ -9879,20 +9896,20 @@
       <c r="D87" s="132">
         <v>1</v>
       </c>
-      <c r="E87" s="299" t="s">
+      <c r="E87" s="305" t="s">
         <v>137</v>
       </c>
-      <c r="F87" s="300"/>
-      <c r="G87" s="300"/>
-      <c r="H87" s="300"/>
-      <c r="I87" s="300"/>
-      <c r="J87" s="301"/>
-      <c r="K87" s="283" t="s">
+      <c r="F87" s="306"/>
+      <c r="G87" s="306"/>
+      <c r="H87" s="306"/>
+      <c r="I87" s="306"/>
+      <c r="J87" s="307"/>
+      <c r="K87" s="248" t="s">
         <v>139</v>
       </c>
-      <c r="L87" s="284"/>
-      <c r="M87" s="284"/>
-      <c r="N87" s="285"/>
+      <c r="L87" s="249"/>
+      <c r="M87" s="249"/>
+      <c r="N87" s="250"/>
       <c r="O87" s="133" t="s">
         <v>7</v>
       </c>
@@ -9908,25 +9925,25 @@
       <c r="S87" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T87" s="302" t="s">
+      <c r="T87" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="U87" s="303"/>
-      <c r="V87" s="283" t="s">
+      <c r="U87" s="309"/>
+      <c r="V87" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="W87" s="284"/>
-      <c r="X87" s="284"/>
-      <c r="Y87" s="284"/>
-      <c r="Z87" s="284"/>
-      <c r="AA87" s="284"/>
-      <c r="AB87" s="284"/>
-      <c r="AC87" s="284"/>
-      <c r="AD87" s="284"/>
-      <c r="AE87" s="284"/>
-      <c r="AF87" s="284"/>
-      <c r="AG87" s="284"/>
-      <c r="AH87" s="285"/>
+      <c r="W87" s="249"/>
+      <c r="X87" s="249"/>
+      <c r="Y87" s="249"/>
+      <c r="Z87" s="249"/>
+      <c r="AA87" s="249"/>
+      <c r="AB87" s="249"/>
+      <c r="AC87" s="249"/>
+      <c r="AD87" s="249"/>
+      <c r="AE87" s="249"/>
+      <c r="AF87" s="249"/>
+      <c r="AG87" s="249"/>
+      <c r="AH87" s="250"/>
       <c r="AK87" s="53"/>
       <c r="AL87" s="53"/>
       <c r="AM87" s="53"/>
@@ -9946,20 +9963,20 @@
       <c r="D88" s="132">
         <v>2</v>
       </c>
-      <c r="E88" s="299" t="s">
+      <c r="E88" s="305" t="s">
         <v>138</v>
       </c>
-      <c r="F88" s="300"/>
-      <c r="G88" s="300"/>
-      <c r="H88" s="300"/>
-      <c r="I88" s="300"/>
-      <c r="J88" s="301"/>
-      <c r="K88" s="283" t="s">
+      <c r="F88" s="306"/>
+      <c r="G88" s="306"/>
+      <c r="H88" s="306"/>
+      <c r="I88" s="306"/>
+      <c r="J88" s="307"/>
+      <c r="K88" s="248" t="s">
         <v>139</v>
       </c>
-      <c r="L88" s="284"/>
-      <c r="M88" s="284"/>
-      <c r="N88" s="285"/>
+      <c r="L88" s="249"/>
+      <c r="M88" s="249"/>
+      <c r="N88" s="250"/>
       <c r="O88" s="133" t="s">
         <v>7</v>
       </c>
@@ -9975,25 +9992,25 @@
       <c r="S88" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T88" s="302" t="s">
+      <c r="T88" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="U88" s="303"/>
-      <c r="V88" s="283" t="s">
+      <c r="U88" s="309"/>
+      <c r="V88" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="W88" s="284"/>
-      <c r="X88" s="284"/>
-      <c r="Y88" s="284"/>
-      <c r="Z88" s="284"/>
-      <c r="AA88" s="284"/>
-      <c r="AB88" s="284"/>
-      <c r="AC88" s="284"/>
-      <c r="AD88" s="284"/>
-      <c r="AE88" s="284"/>
-      <c r="AF88" s="284"/>
-      <c r="AG88" s="284"/>
-      <c r="AH88" s="285"/>
+      <c r="W88" s="249"/>
+      <c r="X88" s="249"/>
+      <c r="Y88" s="249"/>
+      <c r="Z88" s="249"/>
+      <c r="AA88" s="249"/>
+      <c r="AB88" s="249"/>
+      <c r="AC88" s="249"/>
+      <c r="AD88" s="249"/>
+      <c r="AE88" s="249"/>
+      <c r="AF88" s="249"/>
+      <c r="AG88" s="249"/>
+      <c r="AH88" s="250"/>
       <c r="AK88" s="53"/>
       <c r="AL88" s="53"/>
       <c r="AM88" s="53"/>
@@ -10184,276 +10201,276 @@
       <c r="D93" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="344" t="s">
+      <c r="E93" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="F93" s="257"/>
-      <c r="G93" s="257"/>
-      <c r="H93" s="257"/>
-      <c r="I93" s="257"/>
-      <c r="J93" s="345"/>
-      <c r="K93" s="344" t="s">
+      <c r="F93" s="243"/>
+      <c r="G93" s="243"/>
+      <c r="H93" s="243"/>
+      <c r="I93" s="243"/>
+      <c r="J93" s="274"/>
+      <c r="K93" s="273" t="s">
         <v>142</v>
       </c>
-      <c r="L93" s="257"/>
-      <c r="M93" s="257"/>
-      <c r="N93" s="257"/>
-      <c r="O93" s="257"/>
-      <c r="P93" s="257"/>
-      <c r="Q93" s="258"/>
+      <c r="L93" s="243"/>
+      <c r="M93" s="243"/>
+      <c r="N93" s="243"/>
+      <c r="O93" s="243"/>
+      <c r="P93" s="243"/>
+      <c r="Q93" s="244"/>
       <c r="R93" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="S93" s="257"/>
-      <c r="T93" s="257"/>
-      <c r="U93" s="257"/>
-      <c r="V93" s="257"/>
-      <c r="W93" s="257"/>
-      <c r="X93" s="257"/>
-      <c r="Y93" s="258"/>
-      <c r="Z93" s="262" t="s">
+      <c r="S93" s="243"/>
+      <c r="T93" s="243"/>
+      <c r="U93" s="243"/>
+      <c r="V93" s="243"/>
+      <c r="W93" s="243"/>
+      <c r="X93" s="243"/>
+      <c r="Y93" s="244"/>
+      <c r="Z93" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="AA93" s="263"/>
-      <c r="AB93" s="263"/>
-      <c r="AC93" s="263"/>
-      <c r="AD93" s="264"/>
-      <c r="AE93" s="259" t="s">
+      <c r="AA93" s="303"/>
+      <c r="AB93" s="303"/>
+      <c r="AC93" s="303"/>
+      <c r="AD93" s="304"/>
+      <c r="AE93" s="340" t="s">
         <v>145</v>
       </c>
-      <c r="AF93" s="260"/>
-      <c r="AG93" s="260"/>
-      <c r="AH93" s="261"/>
+      <c r="AF93" s="341"/>
+      <c r="AG93" s="341"/>
+      <c r="AH93" s="342"/>
     </row>
     <row r="94" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="94"/>
       <c r="D94" s="137">
         <v>1</v>
       </c>
-      <c r="E94" s="265" t="s">
+      <c r="E94" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="F94" s="266"/>
-      <c r="G94" s="266"/>
-      <c r="H94" s="266"/>
-      <c r="I94" s="266"/>
-      <c r="J94" s="267"/>
-      <c r="K94" s="283" t="s">
+      <c r="F94" s="258"/>
+      <c r="G94" s="258"/>
+      <c r="H94" s="258"/>
+      <c r="I94" s="258"/>
+      <c r="J94" s="259"/>
+      <c r="K94" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="L94" s="284"/>
-      <c r="M94" s="284"/>
-      <c r="N94" s="284"/>
-      <c r="O94" s="284"/>
-      <c r="P94" s="284"/>
-      <c r="Q94" s="285"/>
-      <c r="R94" s="283" t="s">
+      <c r="L94" s="249"/>
+      <c r="M94" s="249"/>
+      <c r="N94" s="249"/>
+      <c r="O94" s="249"/>
+      <c r="P94" s="249"/>
+      <c r="Q94" s="250"/>
+      <c r="R94" s="248" t="s">
         <v>149</v>
       </c>
-      <c r="S94" s="284"/>
-      <c r="T94" s="284"/>
-      <c r="U94" s="284"/>
-      <c r="V94" s="284"/>
-      <c r="W94" s="284"/>
-      <c r="X94" s="284"/>
-      <c r="Y94" s="285"/>
-      <c r="Z94" s="283" t="s">
+      <c r="S94" s="249"/>
+      <c r="T94" s="249"/>
+      <c r="U94" s="249"/>
+      <c r="V94" s="249"/>
+      <c r="W94" s="249"/>
+      <c r="X94" s="249"/>
+      <c r="Y94" s="250"/>
+      <c r="Z94" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="AA94" s="284"/>
-      <c r="AB94" s="284"/>
-      <c r="AC94" s="284"/>
-      <c r="AD94" s="285"/>
-      <c r="AE94" s="268" t="s">
+      <c r="AA94" s="249"/>
+      <c r="AB94" s="249"/>
+      <c r="AC94" s="249"/>
+      <c r="AD94" s="250"/>
+      <c r="AE94" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF94" s="269"/>
-      <c r="AG94" s="269"/>
-      <c r="AH94" s="270"/>
+      <c r="AF94" s="271"/>
+      <c r="AG94" s="271"/>
+      <c r="AH94" s="272"/>
     </row>
     <row r="95" spans="3:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="94"/>
       <c r="D95" s="138">
         <v>2</v>
       </c>
-      <c r="E95" s="338" t="s">
+      <c r="E95" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="F95" s="339"/>
-      <c r="G95" s="339"/>
-      <c r="H95" s="339"/>
-      <c r="I95" s="339"/>
-      <c r="J95" s="340"/>
-      <c r="K95" s="338" t="s">
+      <c r="F95" s="262"/>
+      <c r="G95" s="262"/>
+      <c r="H95" s="262"/>
+      <c r="I95" s="262"/>
+      <c r="J95" s="263"/>
+      <c r="K95" s="261" t="s">
         <v>157</v>
       </c>
-      <c r="L95" s="339"/>
-      <c r="M95" s="339"/>
-      <c r="N95" s="339"/>
-      <c r="O95" s="339"/>
-      <c r="P95" s="339"/>
-      <c r="Q95" s="340"/>
-      <c r="R95" s="338" t="s">
+      <c r="L95" s="262"/>
+      <c r="M95" s="262"/>
+      <c r="N95" s="262"/>
+      <c r="O95" s="262"/>
+      <c r="P95" s="262"/>
+      <c r="Q95" s="263"/>
+      <c r="R95" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="S95" s="339"/>
-      <c r="T95" s="339"/>
-      <c r="U95" s="339"/>
-      <c r="V95" s="339"/>
-      <c r="W95" s="339"/>
-      <c r="X95" s="339"/>
-      <c r="Y95" s="340"/>
-      <c r="Z95" s="338" t="s">
+      <c r="S95" s="262"/>
+      <c r="T95" s="262"/>
+      <c r="U95" s="262"/>
+      <c r="V95" s="262"/>
+      <c r="W95" s="262"/>
+      <c r="X95" s="262"/>
+      <c r="Y95" s="263"/>
+      <c r="Z95" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="AA95" s="339"/>
-      <c r="AB95" s="339"/>
-      <c r="AC95" s="339"/>
-      <c r="AD95" s="340"/>
-      <c r="AE95" s="341" t="s">
+      <c r="AA95" s="262"/>
+      <c r="AB95" s="262"/>
+      <c r="AC95" s="262"/>
+      <c r="AD95" s="263"/>
+      <c r="AE95" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="AF95" s="342"/>
-      <c r="AG95" s="342"/>
-      <c r="AH95" s="343"/>
+      <c r="AF95" s="265"/>
+      <c r="AG95" s="265"/>
+      <c r="AH95" s="266"/>
     </row>
     <row r="96" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="94"/>
       <c r="D96" s="137">
         <v>3</v>
       </c>
-      <c r="E96" s="265" t="s">
+      <c r="E96" s="257" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="266"/>
-      <c r="G96" s="266"/>
-      <c r="H96" s="266"/>
-      <c r="I96" s="266"/>
-      <c r="J96" s="267"/>
-      <c r="K96" s="283" t="s">
-        <v>299</v>
-      </c>
-      <c r="L96" s="284"/>
-      <c r="M96" s="284"/>
-      <c r="N96" s="284"/>
-      <c r="O96" s="284"/>
-      <c r="P96" s="284"/>
-      <c r="Q96" s="285"/>
-      <c r="R96" s="283" t="s">
+      <c r="F96" s="258"/>
+      <c r="G96" s="258"/>
+      <c r="H96" s="258"/>
+      <c r="I96" s="258"/>
+      <c r="J96" s="259"/>
+      <c r="K96" s="248" t="s">
+        <v>298</v>
+      </c>
+      <c r="L96" s="249"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="249"/>
+      <c r="O96" s="249"/>
+      <c r="P96" s="249"/>
+      <c r="Q96" s="250"/>
+      <c r="R96" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="S96" s="284"/>
-      <c r="T96" s="284"/>
-      <c r="U96" s="284"/>
-      <c r="V96" s="284"/>
-      <c r="W96" s="284"/>
-      <c r="X96" s="284"/>
-      <c r="Y96" s="285"/>
-      <c r="Z96" s="265" t="s">
+      <c r="S96" s="249"/>
+      <c r="T96" s="249"/>
+      <c r="U96" s="249"/>
+      <c r="V96" s="249"/>
+      <c r="W96" s="249"/>
+      <c r="X96" s="249"/>
+      <c r="Y96" s="250"/>
+      <c r="Z96" s="257" t="s">
         <v>154</v>
       </c>
-      <c r="AA96" s="266"/>
-      <c r="AB96" s="266"/>
-      <c r="AC96" s="266"/>
-      <c r="AD96" s="267"/>
-      <c r="AE96" s="268" t="s">
+      <c r="AA96" s="258"/>
+      <c r="AB96" s="258"/>
+      <c r="AC96" s="258"/>
+      <c r="AD96" s="259"/>
+      <c r="AE96" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF96" s="269"/>
-      <c r="AG96" s="269"/>
-      <c r="AH96" s="270"/>
+      <c r="AF96" s="271"/>
+      <c r="AG96" s="271"/>
+      <c r="AH96" s="272"/>
     </row>
     <row r="97" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="94"/>
       <c r="D97" s="137">
         <v>4</v>
       </c>
-      <c r="E97" s="265" t="s">
+      <c r="E97" s="257" t="s">
         <v>155</v>
       </c>
-      <c r="F97" s="266"/>
-      <c r="G97" s="266"/>
-      <c r="H97" s="266"/>
-      <c r="I97" s="266"/>
-      <c r="J97" s="267"/>
-      <c r="K97" s="283" t="s">
-        <v>300</v>
-      </c>
-      <c r="L97" s="284"/>
-      <c r="M97" s="284"/>
-      <c r="N97" s="284"/>
-      <c r="O97" s="284"/>
-      <c r="P97" s="284"/>
-      <c r="Q97" s="285"/>
-      <c r="R97" s="283" t="s">
+      <c r="F97" s="258"/>
+      <c r="G97" s="258"/>
+      <c r="H97" s="258"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="259"/>
+      <c r="K97" s="248" t="s">
+        <v>299</v>
+      </c>
+      <c r="L97" s="249"/>
+      <c r="M97" s="249"/>
+      <c r="N97" s="249"/>
+      <c r="O97" s="249"/>
+      <c r="P97" s="249"/>
+      <c r="Q97" s="250"/>
+      <c r="R97" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="S97" s="284"/>
-      <c r="T97" s="284"/>
-      <c r="U97" s="284"/>
-      <c r="V97" s="284"/>
-      <c r="W97" s="284"/>
-      <c r="X97" s="284"/>
-      <c r="Y97" s="285"/>
-      <c r="Z97" s="265" t="s">
+      <c r="S97" s="249"/>
+      <c r="T97" s="249"/>
+      <c r="U97" s="249"/>
+      <c r="V97" s="249"/>
+      <c r="W97" s="249"/>
+      <c r="X97" s="249"/>
+      <c r="Y97" s="250"/>
+      <c r="Z97" s="257" t="s">
         <v>154</v>
       </c>
-      <c r="AA97" s="266"/>
-      <c r="AB97" s="266"/>
-      <c r="AC97" s="266"/>
-      <c r="AD97" s="267"/>
-      <c r="AE97" s="268" t="s">
+      <c r="AA97" s="258"/>
+      <c r="AB97" s="258"/>
+      <c r="AC97" s="258"/>
+      <c r="AD97" s="259"/>
+      <c r="AE97" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF97" s="269"/>
-      <c r="AG97" s="269"/>
-      <c r="AH97" s="270"/>
+      <c r="AF97" s="271"/>
+      <c r="AG97" s="271"/>
+      <c r="AH97" s="272"/>
     </row>
     <row r="98" spans="1:56" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="94"/>
       <c r="D98" s="137">
         <v>5</v>
       </c>
-      <c r="E98" s="265" t="s">
+      <c r="E98" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="266"/>
-      <c r="G98" s="266"/>
-      <c r="H98" s="266"/>
-      <c r="I98" s="266"/>
-      <c r="J98" s="267"/>
-      <c r="K98" s="265" t="s">
-        <v>301</v>
-      </c>
-      <c r="L98" s="266"/>
-      <c r="M98" s="266"/>
-      <c r="N98" s="266"/>
-      <c r="O98" s="266"/>
-      <c r="P98" s="266"/>
-      <c r="Q98" s="267"/>
-      <c r="R98" s="265" t="s">
+      <c r="F98" s="258"/>
+      <c r="G98" s="258"/>
+      <c r="H98" s="258"/>
+      <c r="I98" s="258"/>
+      <c r="J98" s="259"/>
+      <c r="K98" s="257" t="s">
+        <v>300</v>
+      </c>
+      <c r="L98" s="258"/>
+      <c r="M98" s="258"/>
+      <c r="N98" s="258"/>
+      <c r="O98" s="258"/>
+      <c r="P98" s="258"/>
+      <c r="Q98" s="259"/>
+      <c r="R98" s="257" t="s">
         <v>158</v>
       </c>
-      <c r="S98" s="266"/>
-      <c r="T98" s="266"/>
-      <c r="U98" s="266"/>
-      <c r="V98" s="266"/>
-      <c r="W98" s="266"/>
-      <c r="X98" s="266"/>
-      <c r="Y98" s="267"/>
-      <c r="Z98" s="265" t="s">
+      <c r="S98" s="258"/>
+      <c r="T98" s="258"/>
+      <c r="U98" s="258"/>
+      <c r="V98" s="258"/>
+      <c r="W98" s="258"/>
+      <c r="X98" s="258"/>
+      <c r="Y98" s="259"/>
+      <c r="Z98" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="AA98" s="266"/>
-      <c r="AB98" s="266"/>
-      <c r="AC98" s="266"/>
-      <c r="AD98" s="267"/>
-      <c r="AE98" s="268" t="s">
+      <c r="AA98" s="258"/>
+      <c r="AB98" s="258"/>
+      <c r="AC98" s="258"/>
+      <c r="AD98" s="259"/>
+      <c r="AE98" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF98" s="269"/>
-      <c r="AG98" s="269"/>
-      <c r="AH98" s="270"/>
+      <c r="AF98" s="271"/>
+      <c r="AG98" s="271"/>
+      <c r="AH98" s="272"/>
     </row>
     <row r="99" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D99" s="66"/>
@@ -10545,7 +10562,7 @@
     </row>
     <row r="101" spans="1:56" ht="12" x14ac:dyDescent="0.2">
       <c r="C101" s="94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="109"/>
       <c r="E101" s="109"/>
@@ -10718,82 +10735,82 @@
       <c r="G110" s="94"/>
     </row>
     <row r="112" spans="1:56" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G112" s="322" t="s">
+      <c r="G112" s="278" t="s">
         <v>166</v>
       </c>
-      <c r="H112" s="323"/>
-      <c r="I112" s="323"/>
-      <c r="J112" s="323"/>
-      <c r="K112" s="323"/>
-      <c r="L112" s="323"/>
-      <c r="M112" s="323"/>
-      <c r="N112" s="323"/>
-      <c r="O112" s="323"/>
-      <c r="P112" s="324"/>
-      <c r="Q112" s="332" t="s">
+      <c r="H112" s="279"/>
+      <c r="I112" s="279"/>
+      <c r="J112" s="279"/>
+      <c r="K112" s="279"/>
+      <c r="L112" s="279"/>
+      <c r="M112" s="279"/>
+      <c r="N112" s="279"/>
+      <c r="O112" s="279"/>
+      <c r="P112" s="280"/>
+      <c r="Q112" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="R112" s="333"/>
-      <c r="S112" s="333"/>
-      <c r="T112" s="333"/>
-      <c r="U112" s="333"/>
-      <c r="V112" s="333"/>
-      <c r="W112" s="333"/>
-      <c r="X112" s="333"/>
-      <c r="Y112" s="333"/>
-      <c r="Z112" s="334"/>
+      <c r="R112" s="282"/>
+      <c r="S112" s="282"/>
+      <c r="T112" s="282"/>
+      <c r="U112" s="282"/>
+      <c r="V112" s="282"/>
+      <c r="W112" s="282"/>
+      <c r="X112" s="282"/>
+      <c r="Y112" s="282"/>
+      <c r="Z112" s="283"/>
     </row>
     <row r="113" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="277" t="s">
+      <c r="G113" s="325" t="s">
         <v>168</v>
       </c>
-      <c r="H113" s="278"/>
-      <c r="I113" s="278"/>
-      <c r="J113" s="278"/>
-      <c r="K113" s="278"/>
-      <c r="L113" s="278"/>
-      <c r="M113" s="278"/>
-      <c r="N113" s="278"/>
-      <c r="O113" s="278"/>
-      <c r="P113" s="279"/>
-      <c r="Q113" s="271" t="s">
+      <c r="H113" s="326"/>
+      <c r="I113" s="326"/>
+      <c r="J113" s="326"/>
+      <c r="K113" s="326"/>
+      <c r="L113" s="326"/>
+      <c r="M113" s="326"/>
+      <c r="N113" s="326"/>
+      <c r="O113" s="326"/>
+      <c r="P113" s="327"/>
+      <c r="Q113" s="314" t="s">
         <v>169</v>
       </c>
-      <c r="R113" s="272"/>
-      <c r="S113" s="272"/>
-      <c r="T113" s="272"/>
-      <c r="U113" s="272"/>
-      <c r="V113" s="272"/>
-      <c r="W113" s="272"/>
-      <c r="X113" s="272"/>
-      <c r="Y113" s="272"/>
-      <c r="Z113" s="273"/>
+      <c r="R113" s="315"/>
+      <c r="S113" s="315"/>
+      <c r="T113" s="315"/>
+      <c r="U113" s="315"/>
+      <c r="V113" s="315"/>
+      <c r="W113" s="315"/>
+      <c r="X113" s="315"/>
+      <c r="Y113" s="315"/>
+      <c r="Z113" s="316"/>
       <c r="AG113" s="57"/>
       <c r="AH113" s="57"/>
     </row>
     <row r="114" spans="5:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G114" s="280"/>
-      <c r="H114" s="281"/>
-      <c r="I114" s="281"/>
-      <c r="J114" s="281"/>
-      <c r="K114" s="281"/>
-      <c r="L114" s="281"/>
-      <c r="M114" s="281"/>
-      <c r="N114" s="281"/>
-      <c r="O114" s="281"/>
-      <c r="P114" s="282"/>
-      <c r="Q114" s="271" t="s">
+      <c r="G114" s="328"/>
+      <c r="H114" s="329"/>
+      <c r="I114" s="329"/>
+      <c r="J114" s="329"/>
+      <c r="K114" s="329"/>
+      <c r="L114" s="329"/>
+      <c r="M114" s="329"/>
+      <c r="N114" s="329"/>
+      <c r="O114" s="329"/>
+      <c r="P114" s="330"/>
+      <c r="Q114" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="R114" s="272"/>
-      <c r="S114" s="272"/>
-      <c r="T114" s="272"/>
-      <c r="U114" s="272"/>
-      <c r="V114" s="272"/>
-      <c r="W114" s="272"/>
-      <c r="X114" s="272"/>
-      <c r="Y114" s="272"/>
-      <c r="Z114" s="273"/>
+      <c r="R114" s="315"/>
+      <c r="S114" s="315"/>
+      <c r="T114" s="315"/>
+      <c r="U114" s="315"/>
+      <c r="V114" s="315"/>
+      <c r="W114" s="315"/>
+      <c r="X114" s="315"/>
+      <c r="Y114" s="315"/>
+      <c r="Z114" s="316"/>
       <c r="AC114" s="58"/>
       <c r="AD114" s="58"/>
       <c r="AE114" s="58"/>
@@ -10812,28 +10829,28 @@
       <c r="AY114" s="58"/>
     </row>
     <row r="115" spans="5:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G115" s="235" t="s">
+      <c r="G115" s="317" t="s">
         <v>171</v>
       </c>
-      <c r="H115" s="236"/>
-      <c r="I115" s="236"/>
-      <c r="J115" s="236"/>
-      <c r="K115" s="236"/>
-      <c r="L115" s="236"/>
-      <c r="M115" s="236"/>
-      <c r="N115" s="236"/>
-      <c r="O115" s="236"/>
-      <c r="P115" s="236"/>
-      <c r="Q115" s="236"/>
-      <c r="R115" s="236"/>
-      <c r="S115" s="236"/>
-      <c r="T115" s="236"/>
-      <c r="U115" s="236"/>
-      <c r="V115" s="236"/>
-      <c r="W115" s="236"/>
-      <c r="X115" s="236"/>
-      <c r="Y115" s="236"/>
-      <c r="Z115" s="237"/>
+      <c r="H115" s="318"/>
+      <c r="I115" s="318"/>
+      <c r="J115" s="318"/>
+      <c r="K115" s="318"/>
+      <c r="L115" s="318"/>
+      <c r="M115" s="318"/>
+      <c r="N115" s="318"/>
+      <c r="O115" s="318"/>
+      <c r="P115" s="318"/>
+      <c r="Q115" s="318"/>
+      <c r="R115" s="318"/>
+      <c r="S115" s="318"/>
+      <c r="T115" s="318"/>
+      <c r="U115" s="318"/>
+      <c r="V115" s="318"/>
+      <c r="W115" s="318"/>
+      <c r="X115" s="318"/>
+      <c r="Y115" s="318"/>
+      <c r="Z115" s="319"/>
       <c r="AJ115" s="58"/>
       <c r="AK115" s="58"/>
       <c r="AL115" s="58"/>
@@ -11472,82 +11489,82 @@
       </c>
     </row>
     <row r="139" spans="1:58" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G139" s="322" t="s">
+      <c r="G139" s="278" t="s">
         <v>203</v>
       </c>
-      <c r="H139" s="323"/>
-      <c r="I139" s="323"/>
-      <c r="J139" s="323"/>
-      <c r="K139" s="323"/>
-      <c r="L139" s="323"/>
-      <c r="M139" s="323"/>
-      <c r="N139" s="323"/>
-      <c r="O139" s="323"/>
-      <c r="P139" s="324"/>
-      <c r="Q139" s="332" t="s">
+      <c r="H139" s="279"/>
+      <c r="I139" s="279"/>
+      <c r="J139" s="279"/>
+      <c r="K139" s="279"/>
+      <c r="L139" s="279"/>
+      <c r="M139" s="279"/>
+      <c r="N139" s="279"/>
+      <c r="O139" s="279"/>
+      <c r="P139" s="280"/>
+      <c r="Q139" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="R139" s="333"/>
-      <c r="S139" s="333"/>
-      <c r="T139" s="333"/>
-      <c r="U139" s="333"/>
-      <c r="V139" s="333"/>
-      <c r="W139" s="333"/>
-      <c r="X139" s="333"/>
-      <c r="Y139" s="333"/>
-      <c r="Z139" s="334"/>
+      <c r="R139" s="282"/>
+      <c r="S139" s="282"/>
+      <c r="T139" s="282"/>
+      <c r="U139" s="282"/>
+      <c r="V139" s="282"/>
+      <c r="W139" s="282"/>
+      <c r="X139" s="282"/>
+      <c r="Y139" s="282"/>
+      <c r="Z139" s="283"/>
     </row>
     <row r="140" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="277" t="s">
+      <c r="G140" s="325" t="s">
         <v>168</v>
       </c>
-      <c r="H140" s="278"/>
-      <c r="I140" s="278"/>
-      <c r="J140" s="278"/>
-      <c r="K140" s="278"/>
-      <c r="L140" s="278"/>
-      <c r="M140" s="278"/>
-      <c r="N140" s="278"/>
-      <c r="O140" s="278"/>
-      <c r="P140" s="279"/>
-      <c r="Q140" s="271" t="s">
+      <c r="H140" s="326"/>
+      <c r="I140" s="326"/>
+      <c r="J140" s="326"/>
+      <c r="K140" s="326"/>
+      <c r="L140" s="326"/>
+      <c r="M140" s="326"/>
+      <c r="N140" s="326"/>
+      <c r="O140" s="326"/>
+      <c r="P140" s="327"/>
+      <c r="Q140" s="314" t="s">
         <v>169</v>
       </c>
-      <c r="R140" s="272"/>
-      <c r="S140" s="272"/>
-      <c r="T140" s="272"/>
-      <c r="U140" s="272"/>
-      <c r="V140" s="272"/>
-      <c r="W140" s="272"/>
-      <c r="X140" s="272"/>
-      <c r="Y140" s="272"/>
-      <c r="Z140" s="273"/>
+      <c r="R140" s="315"/>
+      <c r="S140" s="315"/>
+      <c r="T140" s="315"/>
+      <c r="U140" s="315"/>
+      <c r="V140" s="315"/>
+      <c r="W140" s="315"/>
+      <c r="X140" s="315"/>
+      <c r="Y140" s="315"/>
+      <c r="Z140" s="316"/>
       <c r="AG140" s="57"/>
       <c r="AH140" s="57"/>
     </row>
     <row r="141" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G141" s="280"/>
-      <c r="H141" s="281"/>
-      <c r="I141" s="281"/>
-      <c r="J141" s="281"/>
-      <c r="K141" s="281"/>
-      <c r="L141" s="281"/>
-      <c r="M141" s="281"/>
-      <c r="N141" s="281"/>
-      <c r="O141" s="281"/>
-      <c r="P141" s="282"/>
-      <c r="Q141" s="271" t="s">
+      <c r="G141" s="328"/>
+      <c r="H141" s="329"/>
+      <c r="I141" s="329"/>
+      <c r="J141" s="329"/>
+      <c r="K141" s="329"/>
+      <c r="L141" s="329"/>
+      <c r="M141" s="329"/>
+      <c r="N141" s="329"/>
+      <c r="O141" s="329"/>
+      <c r="P141" s="330"/>
+      <c r="Q141" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="R141" s="272"/>
-      <c r="S141" s="272"/>
-      <c r="T141" s="272"/>
-      <c r="U141" s="272"/>
-      <c r="V141" s="272"/>
-      <c r="W141" s="272"/>
-      <c r="X141" s="272"/>
-      <c r="Y141" s="272"/>
-      <c r="Z141" s="273"/>
+      <c r="R141" s="315"/>
+      <c r="S141" s="315"/>
+      <c r="T141" s="315"/>
+      <c r="U141" s="315"/>
+      <c r="V141" s="315"/>
+      <c r="W141" s="315"/>
+      <c r="X141" s="315"/>
+      <c r="Y141" s="315"/>
+      <c r="Z141" s="316"/>
       <c r="AC141" s="58"/>
       <c r="AD141" s="58"/>
       <c r="AE141" s="58"/>
@@ -11566,28 +11583,28 @@
       <c r="AY141" s="58"/>
     </row>
     <row r="142" spans="1:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G142" s="235" t="s">
+      <c r="G142" s="317" t="s">
         <v>171</v>
       </c>
-      <c r="H142" s="236"/>
-      <c r="I142" s="236"/>
-      <c r="J142" s="236"/>
-      <c r="K142" s="236"/>
-      <c r="L142" s="236"/>
-      <c r="M142" s="236"/>
-      <c r="N142" s="236"/>
-      <c r="O142" s="236"/>
-      <c r="P142" s="236"/>
-      <c r="Q142" s="236"/>
-      <c r="R142" s="236"/>
-      <c r="S142" s="236"/>
-      <c r="T142" s="236"/>
-      <c r="U142" s="236"/>
-      <c r="V142" s="236"/>
-      <c r="W142" s="236"/>
-      <c r="X142" s="236"/>
-      <c r="Y142" s="236"/>
-      <c r="Z142" s="237"/>
+      <c r="H142" s="318"/>
+      <c r="I142" s="318"/>
+      <c r="J142" s="318"/>
+      <c r="K142" s="318"/>
+      <c r="L142" s="318"/>
+      <c r="M142" s="318"/>
+      <c r="N142" s="318"/>
+      <c r="O142" s="318"/>
+      <c r="P142" s="318"/>
+      <c r="Q142" s="318"/>
+      <c r="R142" s="318"/>
+      <c r="S142" s="318"/>
+      <c r="T142" s="318"/>
+      <c r="U142" s="318"/>
+      <c r="V142" s="318"/>
+      <c r="W142" s="318"/>
+      <c r="X142" s="318"/>
+      <c r="Y142" s="318"/>
+      <c r="Z142" s="319"/>
       <c r="AJ142" s="58"/>
       <c r="AK142" s="58"/>
       <c r="AL142" s="58"/>
@@ -12251,7 +12268,7 @@
       <c r="BE158" s="58"/>
       <c r="BF158" s="58"/>
     </row>
-    <row r="159" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:58" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="51"/>
       <c r="D159" s="158"/>
       <c r="E159" s="157"/>
@@ -12261,40 +12278,40 @@
       <c r="G159" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="H159" s="257"/>
-      <c r="I159" s="257"/>
-      <c r="J159" s="257"/>
-      <c r="K159" s="257"/>
-      <c r="L159" s="258"/>
+      <c r="H159" s="243"/>
+      <c r="I159" s="243"/>
+      <c r="J159" s="243"/>
+      <c r="K159" s="243"/>
+      <c r="L159" s="244"/>
       <c r="M159" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="N159" s="257"/>
-      <c r="O159" s="257"/>
-      <c r="P159" s="257"/>
-      <c r="Q159" s="257"/>
-      <c r="R159" s="257"/>
-      <c r="S159" s="257"/>
-      <c r="T159" s="257"/>
-      <c r="U159" s="257"/>
-      <c r="V159" s="258"/>
-      <c r="W159" s="254" t="s">
+      <c r="N159" s="243"/>
+      <c r="O159" s="243"/>
+      <c r="P159" s="243"/>
+      <c r="Q159" s="243"/>
+      <c r="R159" s="243"/>
+      <c r="S159" s="243"/>
+      <c r="T159" s="243"/>
+      <c r="U159" s="243"/>
+      <c r="V159" s="244"/>
+      <c r="W159" s="334" t="s">
         <v>185</v>
       </c>
-      <c r="X159" s="255"/>
-      <c r="Y159" s="256"/>
-      <c r="Z159" s="254" t="s">
+      <c r="X159" s="335"/>
+      <c r="Y159" s="336"/>
+      <c r="Z159" s="365" t="s">
         <v>186</v>
       </c>
-      <c r="AA159" s="255"/>
-      <c r="AB159" s="255"/>
-      <c r="AC159" s="256"/>
-      <c r="AD159" s="274" t="s">
+      <c r="AA159" s="366"/>
+      <c r="AB159" s="366"/>
+      <c r="AC159" s="367"/>
+      <c r="AD159" s="346" t="s">
         <v>187</v>
       </c>
-      <c r="AE159" s="275"/>
-      <c r="AF159" s="275"/>
-      <c r="AG159" s="276"/>
+      <c r="AE159" s="347"/>
+      <c r="AF159" s="347"/>
+      <c r="AG159" s="348"/>
       <c r="AH159" s="94"/>
       <c r="AI159" s="94"/>
       <c r="AJ159" s="63"/>
@@ -12326,43 +12343,43 @@
       <c r="F160" s="159">
         <v>1</v>
       </c>
-      <c r="G160" s="248" t="s">
+      <c r="G160" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="H160" s="249"/>
-      <c r="I160" s="249"/>
-      <c r="J160" s="249"/>
-      <c r="K160" s="249"/>
-      <c r="L160" s="250"/>
-      <c r="M160" s="248" t="s">
+      <c r="H160" s="246"/>
+      <c r="I160" s="246"/>
+      <c r="J160" s="246"/>
+      <c r="K160" s="246"/>
+      <c r="L160" s="247"/>
+      <c r="M160" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="N160" s="249"/>
-      <c r="O160" s="249"/>
-      <c r="P160" s="249"/>
-      <c r="Q160" s="249"/>
-      <c r="R160" s="249"/>
-      <c r="S160" s="249"/>
-      <c r="T160" s="249"/>
-      <c r="U160" s="249"/>
-      <c r="V160" s="250"/>
-      <c r="W160" s="335" t="s">
+      <c r="N160" s="246"/>
+      <c r="O160" s="246"/>
+      <c r="P160" s="246"/>
+      <c r="Q160" s="246"/>
+      <c r="R160" s="246"/>
+      <c r="S160" s="246"/>
+      <c r="T160" s="246"/>
+      <c r="U160" s="246"/>
+      <c r="V160" s="247"/>
+      <c r="W160" s="275" t="s">
         <v>195</v>
       </c>
-      <c r="X160" s="336"/>
-      <c r="Y160" s="337"/>
-      <c r="Z160" s="238" t="s">
+      <c r="X160" s="276"/>
+      <c r="Y160" s="277"/>
+      <c r="Z160" s="267" t="s">
         <v>196</v>
       </c>
-      <c r="AA160" s="239"/>
-      <c r="AB160" s="239"/>
-      <c r="AC160" s="240"/>
-      <c r="AD160" s="248" t="s">
+      <c r="AA160" s="268"/>
+      <c r="AB160" s="268"/>
+      <c r="AC160" s="269"/>
+      <c r="AD160" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="AE160" s="249"/>
-      <c r="AF160" s="249"/>
-      <c r="AG160" s="250"/>
+      <c r="AE160" s="246"/>
+      <c r="AF160" s="246"/>
+      <c r="AG160" s="247"/>
       <c r="AH160" s="94"/>
       <c r="AI160" s="160"/>
       <c r="AJ160" s="63"/>
@@ -12394,7 +12411,7 @@
       <c r="F161" s="159">
         <v>2</v>
       </c>
-      <c r="G161" s="241" t="s">
+      <c r="G161" s="320" t="s">
         <v>189</v>
       </c>
       <c r="H161" s="228"/>
@@ -12402,35 +12419,35 @@
       <c r="J161" s="228"/>
       <c r="K161" s="228"/>
       <c r="L161" s="229"/>
-      <c r="M161" s="242" t="s">
+      <c r="M161" s="331" t="s">
         <v>200</v>
       </c>
-      <c r="N161" s="243"/>
-      <c r="O161" s="243"/>
-      <c r="P161" s="243"/>
-      <c r="Q161" s="243"/>
-      <c r="R161" s="243"/>
-      <c r="S161" s="243"/>
-      <c r="T161" s="243"/>
-      <c r="U161" s="243"/>
-      <c r="V161" s="244"/>
-      <c r="W161" s="245" t="s">
+      <c r="N161" s="332"/>
+      <c r="O161" s="332"/>
+      <c r="P161" s="332"/>
+      <c r="Q161" s="332"/>
+      <c r="R161" s="332"/>
+      <c r="S161" s="332"/>
+      <c r="T161" s="332"/>
+      <c r="U161" s="332"/>
+      <c r="V161" s="333"/>
+      <c r="W161" s="343" t="s">
         <v>41</v>
       </c>
-      <c r="X161" s="246"/>
-      <c r="Y161" s="247"/>
-      <c r="Z161" s="238" t="s">
+      <c r="X161" s="344"/>
+      <c r="Y161" s="345"/>
+      <c r="Z161" s="267" t="s">
         <v>199</v>
       </c>
-      <c r="AA161" s="239"/>
-      <c r="AB161" s="239"/>
-      <c r="AC161" s="240"/>
-      <c r="AD161" s="248" t="s">
+      <c r="AA161" s="268"/>
+      <c r="AB161" s="268"/>
+      <c r="AC161" s="269"/>
+      <c r="AD161" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="AE161" s="249"/>
-      <c r="AF161" s="249"/>
-      <c r="AG161" s="250"/>
+      <c r="AE161" s="246"/>
+      <c r="AF161" s="246"/>
+      <c r="AG161" s="247"/>
       <c r="AH161" s="94"/>
       <c r="AI161" s="94"/>
       <c r="AJ161" s="63"/>
@@ -12442,7 +12459,7 @@
       <c r="F162" s="159">
         <v>3</v>
       </c>
-      <c r="G162" s="241" t="s">
+      <c r="G162" s="320" t="s">
         <v>190</v>
       </c>
       <c r="H162" s="228"/>
@@ -12450,35 +12467,35 @@
       <c r="J162" s="228"/>
       <c r="K162" s="228"/>
       <c r="L162" s="229"/>
-      <c r="M162" s="242" t="s">
+      <c r="M162" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="N162" s="243"/>
-      <c r="O162" s="243"/>
-      <c r="P162" s="243"/>
-      <c r="Q162" s="243"/>
-      <c r="R162" s="243"/>
-      <c r="S162" s="243"/>
-      <c r="T162" s="243"/>
-      <c r="U162" s="243"/>
-      <c r="V162" s="244"/>
-      <c r="W162" s="245" t="s">
+      <c r="N162" s="332"/>
+      <c r="O162" s="332"/>
+      <c r="P162" s="332"/>
+      <c r="Q162" s="332"/>
+      <c r="R162" s="332"/>
+      <c r="S162" s="332"/>
+      <c r="T162" s="332"/>
+      <c r="U162" s="332"/>
+      <c r="V162" s="333"/>
+      <c r="W162" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="X162" s="246"/>
-      <c r="Y162" s="247"/>
-      <c r="Z162" s="238" t="s">
+      <c r="X162" s="344"/>
+      <c r="Y162" s="345"/>
+      <c r="Z162" s="267" t="s">
         <v>197</v>
       </c>
-      <c r="AA162" s="239"/>
-      <c r="AB162" s="239"/>
-      <c r="AC162" s="240"/>
-      <c r="AD162" s="248" t="s">
+      <c r="AA162" s="268"/>
+      <c r="AB162" s="268"/>
+      <c r="AC162" s="269"/>
+      <c r="AD162" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="AE162" s="249"/>
-      <c r="AF162" s="249"/>
-      <c r="AG162" s="250"/>
+      <c r="AE162" s="246"/>
+      <c r="AF162" s="246"/>
+      <c r="AG162" s="247"/>
       <c r="AH162" s="94"/>
       <c r="AI162" s="94"/>
       <c r="AJ162" s="63"/>
@@ -12490,7 +12507,7 @@
       <c r="F163" s="159">
         <v>4</v>
       </c>
-      <c r="G163" s="241" t="s">
+      <c r="G163" s="320" t="s">
         <v>191</v>
       </c>
       <c r="H163" s="228"/>
@@ -12498,35 +12515,35 @@
       <c r="J163" s="228"/>
       <c r="K163" s="228"/>
       <c r="L163" s="229"/>
-      <c r="M163" s="242" t="s">
+      <c r="M163" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="N163" s="243"/>
-      <c r="O163" s="243"/>
-      <c r="P163" s="243"/>
-      <c r="Q163" s="243"/>
-      <c r="R163" s="243"/>
-      <c r="S163" s="243"/>
-      <c r="T163" s="243"/>
-      <c r="U163" s="243"/>
-      <c r="V163" s="244"/>
-      <c r="W163" s="245" t="s">
+      <c r="N163" s="332"/>
+      <c r="O163" s="332"/>
+      <c r="P163" s="332"/>
+      <c r="Q163" s="332"/>
+      <c r="R163" s="332"/>
+      <c r="S163" s="332"/>
+      <c r="T163" s="332"/>
+      <c r="U163" s="332"/>
+      <c r="V163" s="333"/>
+      <c r="W163" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="X163" s="246"/>
-      <c r="Y163" s="247"/>
-      <c r="Z163" s="238" t="s">
+      <c r="X163" s="344"/>
+      <c r="Y163" s="345"/>
+      <c r="Z163" s="267" t="s">
         <v>198</v>
       </c>
-      <c r="AA163" s="239"/>
-      <c r="AB163" s="239"/>
-      <c r="AC163" s="240"/>
-      <c r="AD163" s="248" t="s">
+      <c r="AA163" s="268"/>
+      <c r="AB163" s="268"/>
+      <c r="AC163" s="269"/>
+      <c r="AD163" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="AE163" s="249"/>
-      <c r="AF163" s="249"/>
-      <c r="AG163" s="250"/>
+      <c r="AE163" s="246"/>
+      <c r="AF163" s="246"/>
+      <c r="AG163" s="247"/>
       <c r="AH163" s="94"/>
       <c r="AI163" s="94"/>
       <c r="AJ163" s="63"/>
@@ -12757,37 +12774,37 @@
       <c r="K171" s="165"/>
       <c r="L171" s="165"/>
       <c r="M171" s="165"/>
-      <c r="N171" s="251" t="s">
+      <c r="N171" s="337" t="s">
         <v>206</v>
       </c>
-      <c r="O171" s="252"/>
-      <c r="P171" s="252"/>
-      <c r="Q171" s="252"/>
-      <c r="R171" s="252"/>
-      <c r="S171" s="252"/>
-      <c r="T171" s="252"/>
-      <c r="U171" s="252"/>
-      <c r="V171" s="252"/>
-      <c r="W171" s="253"/>
-      <c r="X171" s="251" t="s">
+      <c r="O171" s="338"/>
+      <c r="P171" s="338"/>
+      <c r="Q171" s="338"/>
+      <c r="R171" s="338"/>
+      <c r="S171" s="338"/>
+      <c r="T171" s="338"/>
+      <c r="U171" s="338"/>
+      <c r="V171" s="338"/>
+      <c r="W171" s="339"/>
+      <c r="X171" s="337" t="s">
         <v>207</v>
       </c>
-      <c r="Y171" s="252"/>
-      <c r="Z171" s="252"/>
-      <c r="AA171" s="252"/>
-      <c r="AB171" s="252"/>
-      <c r="AC171" s="252"/>
-      <c r="AD171" s="252"/>
-      <c r="AE171" s="252"/>
-      <c r="AF171" s="252"/>
-      <c r="AG171" s="253"/>
+      <c r="Y171" s="338"/>
+      <c r="Z171" s="338"/>
+      <c r="AA171" s="338"/>
+      <c r="AB171" s="338"/>
+      <c r="AC171" s="338"/>
+      <c r="AD171" s="338"/>
+      <c r="AE171" s="338"/>
+      <c r="AF171" s="338"/>
+      <c r="AG171" s="339"/>
       <c r="AH171" s="161"/>
     </row>
     <row r="172" spans="4:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="94"/>
       <c r="F172" s="94"/>
       <c r="G172" s="96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H172" s="97"/>
       <c r="I172" s="97"/>
@@ -12796,7 +12813,7 @@
       <c r="L172" s="97"/>
       <c r="M172" s="97"/>
       <c r="N172" s="209" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O172" s="210"/>
       <c r="P172" s="210"/>
@@ -12832,7 +12849,7 @@
       <c r="L173" s="100"/>
       <c r="M173" s="100"/>
       <c r="N173" s="209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O173" s="210"/>
       <c r="P173" s="210"/>
@@ -12844,7 +12861,7 @@
       <c r="V173" s="210"/>
       <c r="W173" s="211"/>
       <c r="X173" s="209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y173" s="210"/>
       <c r="Z173" s="210"/>
@@ -12868,7 +12885,7 @@
       <c r="L174" s="100"/>
       <c r="M174" s="100"/>
       <c r="N174" s="209" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O174" s="210"/>
       <c r="P174" s="210"/>
@@ -12880,7 +12897,7 @@
       <c r="V174" s="210"/>
       <c r="W174" s="211"/>
       <c r="X174" s="209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y174" s="210"/>
       <c r="Z174" s="210"/>
@@ -12904,7 +12921,7 @@
       <c r="L175" s="100"/>
       <c r="M175" s="100"/>
       <c r="N175" s="209" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O175" s="210"/>
       <c r="P175" s="210"/>
@@ -12916,7 +12933,7 @@
       <c r="V175" s="210"/>
       <c r="W175" s="211"/>
       <c r="X175" s="209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y175" s="210"/>
       <c r="Z175" s="210"/>
@@ -12940,7 +12957,7 @@
       <c r="L176" s="100"/>
       <c r="M176" s="100"/>
       <c r="N176" s="209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O176" s="210"/>
       <c r="P176" s="210"/>
@@ -12952,7 +12969,7 @@
       <c r="V176" s="210"/>
       <c r="W176" s="211"/>
       <c r="X176" s="209" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y176" s="210"/>
       <c r="Z176" s="210"/>
@@ -12976,7 +12993,7 @@
       <c r="L177" s="100"/>
       <c r="M177" s="100"/>
       <c r="N177" s="209" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O177" s="210"/>
       <c r="P177" s="210"/>
@@ -12988,7 +13005,7 @@
       <c r="V177" s="210"/>
       <c r="W177" s="211"/>
       <c r="X177" s="209" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y177" s="210"/>
       <c r="Z177" s="210"/>
@@ -13012,7 +13029,7 @@
       <c r="L178" s="100"/>
       <c r="M178" s="100"/>
       <c r="N178" s="209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O178" s="210"/>
       <c r="P178" s="210"/>
@@ -13024,7 +13041,7 @@
       <c r="V178" s="210"/>
       <c r="W178" s="211"/>
       <c r="X178" s="209" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y178" s="210"/>
       <c r="Z178" s="210"/>
@@ -13048,7 +13065,7 @@
       <c r="L179" s="104"/>
       <c r="M179" s="104"/>
       <c r="N179" s="209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O179" s="210"/>
       <c r="P179" s="210"/>
@@ -13060,7 +13077,7 @@
       <c r="V179" s="210"/>
       <c r="W179" s="211"/>
       <c r="X179" s="209" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y179" s="210"/>
       <c r="Z179" s="210"/>
@@ -13077,7 +13094,7 @@
       <c r="E180" s="94"/>
       <c r="F180" s="94"/>
       <c r="G180" s="206" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H180" s="207"/>
       <c r="I180" s="207"/>
@@ -13086,7 +13103,7 @@
       <c r="L180" s="207"/>
       <c r="M180" s="208"/>
       <c r="N180" s="209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O180" s="210"/>
       <c r="P180" s="210"/>
@@ -13098,7 +13115,7 @@
       <c r="V180" s="210"/>
       <c r="W180" s="211"/>
       <c r="X180" s="209" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Y180" s="210"/>
       <c r="Z180" s="210"/>
@@ -13115,7 +13132,7 @@
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
       <c r="G181" s="206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H181" s="207"/>
       <c r="I181" s="207"/>
@@ -13124,7 +13141,7 @@
       <c r="L181" s="207"/>
       <c r="M181" s="208"/>
       <c r="N181" s="212" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O181" s="213"/>
       <c r="P181" s="213"/>
@@ -13136,7 +13153,7 @@
       <c r="V181" s="213"/>
       <c r="W181" s="214"/>
       <c r="X181" s="212" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y181" s="213"/>
       <c r="Z181" s="213"/>
@@ -13162,35 +13179,35 @@
     <row r="182" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E182" s="94"/>
       <c r="F182" s="94"/>
-      <c r="G182" s="235" t="s">
-        <v>352</v>
-      </c>
-      <c r="H182" s="236"/>
-      <c r="I182" s="236"/>
-      <c r="J182" s="236"/>
-      <c r="K182" s="236"/>
-      <c r="L182" s="236"/>
-      <c r="M182" s="236"/>
-      <c r="N182" s="236"/>
-      <c r="O182" s="236"/>
-      <c r="P182" s="236"/>
-      <c r="Q182" s="236"/>
-      <c r="R182" s="236"/>
-      <c r="S182" s="236"/>
-      <c r="T182" s="236"/>
-      <c r="U182" s="236"/>
-      <c r="V182" s="236"/>
-      <c r="W182" s="236"/>
-      <c r="X182" s="236"/>
-      <c r="Y182" s="236"/>
-      <c r="Z182" s="236"/>
-      <c r="AA182" s="236"/>
-      <c r="AB182" s="236"/>
-      <c r="AC182" s="236"/>
-      <c r="AD182" s="236"/>
-      <c r="AE182" s="236"/>
-      <c r="AF182" s="236"/>
-      <c r="AG182" s="237"/>
+      <c r="G182" s="317" t="s">
+        <v>351</v>
+      </c>
+      <c r="H182" s="318"/>
+      <c r="I182" s="318"/>
+      <c r="J182" s="318"/>
+      <c r="K182" s="318"/>
+      <c r="L182" s="318"/>
+      <c r="M182" s="318"/>
+      <c r="N182" s="318"/>
+      <c r="O182" s="318"/>
+      <c r="P182" s="318"/>
+      <c r="Q182" s="318"/>
+      <c r="R182" s="318"/>
+      <c r="S182" s="318"/>
+      <c r="T182" s="318"/>
+      <c r="U182" s="318"/>
+      <c r="V182" s="318"/>
+      <c r="W182" s="318"/>
+      <c r="X182" s="318"/>
+      <c r="Y182" s="318"/>
+      <c r="Z182" s="318"/>
+      <c r="AA182" s="318"/>
+      <c r="AB182" s="318"/>
+      <c r="AC182" s="318"/>
+      <c r="AD182" s="318"/>
+      <c r="AE182" s="318"/>
+      <c r="AF182" s="318"/>
+      <c r="AG182" s="319"/>
       <c r="AH182" s="94"/>
       <c r="AJ182" s="58"/>
       <c r="AK182" s="58"/>
@@ -13276,7 +13293,7 @@
       <c r="F184" s="94"/>
       <c r="G184" s="169"/>
       <c r="H184" s="170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I184" s="170"/>
       <c r="J184" s="170"/>
@@ -13389,13 +13406,13 @@
       <c r="G186" s="169"/>
       <c r="H186" s="170"/>
       <c r="I186" s="173" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J186" s="173"/>
       <c r="K186" s="170"/>
       <c r="L186" s="170"/>
       <c r="M186" s="170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N186" s="170"/>
       <c r="O186" s="170"/>
@@ -13448,10 +13465,10 @@
       <c r="G187" s="169"/>
       <c r="H187" s="170"/>
       <c r="I187" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="J187" s="170" t="s">
         <v>324</v>
-      </c>
-      <c r="J187" s="170" t="s">
-        <v>325</v>
       </c>
       <c r="K187" s="170"/>
       <c r="L187" s="173"/>
@@ -13463,7 +13480,7 @@
         <v>173</v>
       </c>
       <c r="R187" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S187" s="170"/>
       <c r="T187" s="170"/>
@@ -13566,13 +13583,13 @@
       <c r="G189" s="169"/>
       <c r="H189" s="170"/>
       <c r="I189" s="173" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J189" s="173"/>
       <c r="K189" s="170"/>
       <c r="L189" s="170"/>
       <c r="M189" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N189" s="170"/>
       <c r="O189" s="170"/>
@@ -13625,10 +13642,10 @@
       <c r="G190" s="169"/>
       <c r="H190" s="170"/>
       <c r="I190" s="170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J190" s="170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K190" s="170"/>
       <c r="L190" s="173"/>
@@ -13640,7 +13657,7 @@
         <v>173</v>
       </c>
       <c r="R190" s="170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S190" s="170"/>
       <c r="T190" s="170"/>
@@ -13740,35 +13757,35 @@
     <row r="192" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E192" s="94"/>
       <c r="F192" s="94"/>
-      <c r="G192" s="235" t="s">
-        <v>351</v>
-      </c>
-      <c r="H192" s="236"/>
-      <c r="I192" s="236"/>
-      <c r="J192" s="236"/>
-      <c r="K192" s="236"/>
-      <c r="L192" s="236"/>
-      <c r="M192" s="236"/>
-      <c r="N192" s="236"/>
-      <c r="O192" s="236"/>
-      <c r="P192" s="236"/>
-      <c r="Q192" s="236"/>
-      <c r="R192" s="236"/>
-      <c r="S192" s="236"/>
-      <c r="T192" s="236"/>
-      <c r="U192" s="236"/>
-      <c r="V192" s="236"/>
-      <c r="W192" s="236"/>
-      <c r="X192" s="236"/>
-      <c r="Y192" s="236"/>
-      <c r="Z192" s="236"/>
-      <c r="AA192" s="236"/>
-      <c r="AB192" s="236"/>
-      <c r="AC192" s="236"/>
-      <c r="AD192" s="236"/>
-      <c r="AE192" s="236"/>
-      <c r="AF192" s="236"/>
-      <c r="AG192" s="237"/>
+      <c r="G192" s="317" t="s">
+        <v>350</v>
+      </c>
+      <c r="H192" s="318"/>
+      <c r="I192" s="318"/>
+      <c r="J192" s="318"/>
+      <c r="K192" s="318"/>
+      <c r="L192" s="318"/>
+      <c r="M192" s="318"/>
+      <c r="N192" s="318"/>
+      <c r="O192" s="318"/>
+      <c r="P192" s="318"/>
+      <c r="Q192" s="318"/>
+      <c r="R192" s="318"/>
+      <c r="S192" s="318"/>
+      <c r="T192" s="318"/>
+      <c r="U192" s="318"/>
+      <c r="V192" s="318"/>
+      <c r="W192" s="318"/>
+      <c r="X192" s="318"/>
+      <c r="Y192" s="318"/>
+      <c r="Z192" s="318"/>
+      <c r="AA192" s="318"/>
+      <c r="AB192" s="318"/>
+      <c r="AC192" s="318"/>
+      <c r="AD192" s="318"/>
+      <c r="AE192" s="318"/>
+      <c r="AF192" s="318"/>
+      <c r="AG192" s="319"/>
       <c r="AH192" s="94"/>
       <c r="AJ192" s="58"/>
       <c r="AK192" s="58"/>
@@ -13856,7 +13873,7 @@
       <c r="H194" s="94"/>
       <c r="I194" s="94"/>
       <c r="J194" s="170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K194" s="170"/>
       <c r="L194" s="170"/>
@@ -13871,7 +13888,7 @@
       <c r="S194" s="170"/>
       <c r="T194" s="170"/>
       <c r="U194" s="170" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V194" s="170"/>
       <c r="W194" s="170"/>
@@ -13978,7 +13995,7 @@
       </c>
       <c r="I196" s="94"/>
       <c r="J196" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K196" s="170"/>
       <c r="L196" s="170"/>
@@ -13993,7 +14010,7 @@
       <c r="S196" s="170"/>
       <c r="T196" s="170"/>
       <c r="U196" s="170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V196" s="170"/>
       <c r="W196" s="170"/>
@@ -14096,7 +14113,7 @@
       </c>
       <c r="I198" s="94"/>
       <c r="J198" s="170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K198" s="170"/>
       <c r="L198" s="170"/>
@@ -14111,7 +14128,7 @@
       <c r="S198" s="170"/>
       <c r="T198" s="170"/>
       <c r="U198" s="170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V198" s="170"/>
       <c r="W198" s="170"/>
@@ -14214,7 +14231,7 @@
       </c>
       <c r="I200" s="94"/>
       <c r="J200" s="170" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K200" s="170"/>
       <c r="L200" s="170"/>
@@ -14229,7 +14246,7 @@
       <c r="S200" s="170"/>
       <c r="T200" s="170"/>
       <c r="U200" s="170" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V200" s="170"/>
       <c r="W200" s="170"/>
@@ -14332,7 +14349,7 @@
       </c>
       <c r="I202" s="94"/>
       <c r="J202" s="170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K202" s="170"/>
       <c r="L202" s="170"/>
@@ -14342,12 +14359,12 @@
       <c r="P202" s="94"/>
       <c r="Q202" s="94"/>
       <c r="R202" s="215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S202" s="170"/>
       <c r="T202" s="170"/>
       <c r="U202" s="170" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V202" s="170"/>
       <c r="W202" s="170"/>
@@ -14450,7 +14467,7 @@
       </c>
       <c r="I204" s="94"/>
       <c r="J204" s="170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K204" s="170"/>
       <c r="L204" s="173"/>
@@ -14460,12 +14477,12 @@
       <c r="P204" s="170"/>
       <c r="Q204" s="94"/>
       <c r="R204" s="216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S204" s="170"/>
       <c r="T204" s="170"/>
       <c r="U204" s="170" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V204" s="170"/>
       <c r="W204" s="170"/>
@@ -14568,7 +14585,7 @@
       </c>
       <c r="I206" s="94"/>
       <c r="J206" s="170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K206" s="170"/>
       <c r="L206" s="170"/>
@@ -14578,12 +14595,12 @@
       <c r="P206" s="94"/>
       <c r="Q206" s="94"/>
       <c r="R206" s="215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S206" s="170"/>
       <c r="T206" s="170"/>
       <c r="U206" s="170" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V206" s="170"/>
       <c r="W206" s="170"/>
@@ -14686,7 +14703,7 @@
       </c>
       <c r="I208" s="94"/>
       <c r="J208" s="170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K208" s="170"/>
       <c r="L208" s="173"/>
@@ -14696,12 +14713,12 @@
       <c r="P208" s="170"/>
       <c r="Q208" s="94"/>
       <c r="R208" s="216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S208" s="170"/>
       <c r="T208" s="170"/>
       <c r="U208" s="170" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V208" s="170"/>
       <c r="W208" s="170"/>
@@ -14804,7 +14821,7 @@
       </c>
       <c r="I210" s="94"/>
       <c r="J210" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K210" s="170"/>
       <c r="L210" s="170"/>
@@ -14814,12 +14831,12 @@
       <c r="P210" s="94"/>
       <c r="Q210" s="94"/>
       <c r="R210" s="215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S210" s="170"/>
       <c r="T210" s="170"/>
       <c r="U210" s="170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V210" s="170"/>
       <c r="W210" s="170"/>
@@ -14922,7 +14939,7 @@
       </c>
       <c r="I212" s="94"/>
       <c r="J212" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K212" s="170"/>
       <c r="L212" s="173"/>
@@ -14932,12 +14949,12 @@
       <c r="P212" s="170"/>
       <c r="Q212" s="94"/>
       <c r="R212" s="216" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S212" s="170"/>
       <c r="T212" s="170"/>
       <c r="U212" s="170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V212" s="170"/>
       <c r="W212" s="170"/>
@@ -15040,7 +15057,7 @@
       </c>
       <c r="I214" s="94"/>
       <c r="J214" s="170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K214" s="170"/>
       <c r="L214" s="170"/>
@@ -15050,12 +15067,12 @@
       <c r="P214" s="94"/>
       <c r="Q214" s="94"/>
       <c r="R214" s="173" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S214" s="170"/>
       <c r="T214" s="170"/>
       <c r="U214" s="170" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V214" s="170"/>
       <c r="W214" s="170"/>
@@ -15155,35 +15172,35 @@
       <c r="D216" s="94"/>
       <c r="E216" s="94"/>
       <c r="F216" s="94"/>
-      <c r="G216" s="235" t="s">
+      <c r="G216" s="317" t="s">
         <v>221</v>
       </c>
-      <c r="H216" s="236"/>
-      <c r="I216" s="236"/>
-      <c r="J216" s="236"/>
-      <c r="K216" s="236"/>
-      <c r="L216" s="236"/>
-      <c r="M216" s="236"/>
-      <c r="N216" s="236"/>
-      <c r="O216" s="236"/>
-      <c r="P216" s="236"/>
-      <c r="Q216" s="236"/>
-      <c r="R216" s="236"/>
-      <c r="S216" s="236"/>
-      <c r="T216" s="236"/>
-      <c r="U216" s="236"/>
-      <c r="V216" s="236"/>
-      <c r="W216" s="236"/>
-      <c r="X216" s="236"/>
-      <c r="Y216" s="236"/>
-      <c r="Z216" s="236"/>
-      <c r="AA216" s="236"/>
-      <c r="AB216" s="236"/>
-      <c r="AC216" s="236"/>
-      <c r="AD216" s="236"/>
-      <c r="AE216" s="236"/>
-      <c r="AF216" s="236"/>
-      <c r="AG216" s="237"/>
+      <c r="H216" s="318"/>
+      <c r="I216" s="318"/>
+      <c r="J216" s="318"/>
+      <c r="K216" s="318"/>
+      <c r="L216" s="318"/>
+      <c r="M216" s="318"/>
+      <c r="N216" s="318"/>
+      <c r="O216" s="318"/>
+      <c r="P216" s="318"/>
+      <c r="Q216" s="318"/>
+      <c r="R216" s="318"/>
+      <c r="S216" s="318"/>
+      <c r="T216" s="318"/>
+      <c r="U216" s="318"/>
+      <c r="V216" s="318"/>
+      <c r="W216" s="318"/>
+      <c r="X216" s="318"/>
+      <c r="Y216" s="318"/>
+      <c r="Z216" s="318"/>
+      <c r="AA216" s="318"/>
+      <c r="AB216" s="318"/>
+      <c r="AC216" s="318"/>
+      <c r="AD216" s="318"/>
+      <c r="AE216" s="318"/>
+      <c r="AF216" s="318"/>
+      <c r="AG216" s="319"/>
       <c r="AJ216" s="58"/>
       <c r="AK216" s="58"/>
       <c r="AL216" s="58"/>
@@ -15278,7 +15295,7 @@
       <c r="I218" s="170"/>
       <c r="J218" s="170"/>
       <c r="K218" s="170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L218" s="173"/>
       <c r="M218" s="173"/>
@@ -16501,6 +16518,228 @@
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="G216:AG216"/>
+    <mergeCell ref="G192:AG192"/>
+    <mergeCell ref="G182:AG182"/>
+    <mergeCell ref="Z161:AC161"/>
+    <mergeCell ref="G163:L163"/>
+    <mergeCell ref="M163:V163"/>
+    <mergeCell ref="W163:Y163"/>
+    <mergeCell ref="Z163:AC163"/>
+    <mergeCell ref="AD163:AG163"/>
+    <mergeCell ref="N171:W171"/>
+    <mergeCell ref="Z159:AC159"/>
+    <mergeCell ref="M160:V160"/>
+    <mergeCell ref="X171:AG171"/>
+    <mergeCell ref="R93:Y93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Z93:AD93"/>
+    <mergeCell ref="G162:L162"/>
+    <mergeCell ref="M162:V162"/>
+    <mergeCell ref="W162:Y162"/>
+    <mergeCell ref="Z162:AC162"/>
+    <mergeCell ref="AD162:AG162"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="R98:Y98"/>
+    <mergeCell ref="Z98:AD98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="W161:Y161"/>
+    <mergeCell ref="Q113:Z113"/>
+    <mergeCell ref="Q114:Z114"/>
+    <mergeCell ref="AD159:AG159"/>
+    <mergeCell ref="AD160:AG160"/>
+    <mergeCell ref="G142:Z142"/>
+    <mergeCell ref="G140:P141"/>
+    <mergeCell ref="Q140:Z140"/>
+    <mergeCell ref="Q141:Z141"/>
+    <mergeCell ref="G115:Z115"/>
+    <mergeCell ref="G161:L161"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AD79:AG79"/>
+    <mergeCell ref="V88:AH88"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="V85:AH86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V87:AH87"/>
+    <mergeCell ref="Q112:Z112"/>
+    <mergeCell ref="G112:P112"/>
+    <mergeCell ref="G113:P114"/>
+    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="AD161:AG161"/>
+    <mergeCell ref="M161:V161"/>
+    <mergeCell ref="W159:Y159"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AD80:AG80"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AB77"/>
+    <mergeCell ref="AD77:AG77"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="M78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AB78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:T75"/>
+    <mergeCell ref="U75:Y75"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL67:AP67"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="D71:AG71"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="U73:Y73"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="AD73:AG73"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL70:AP70"/>
+    <mergeCell ref="AL66:AP66"/>
+    <mergeCell ref="AL68:AP68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="R94:Y94"/>
+    <mergeCell ref="Z94:AD94"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="M68:T68"/>
+    <mergeCell ref="M66:T66"/>
+    <mergeCell ref="AD70:AG70"/>
+    <mergeCell ref="AL69:AP69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="M69:T69"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:T70"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I57:L58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="E56:AC56"/>
+    <mergeCell ref="Z57:AB58"/>
+    <mergeCell ref="AC57:AC58"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="U57:Y58"/>
+    <mergeCell ref="M57:T58"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="E50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AC50"/>
+    <mergeCell ref="E51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="M63:T63"/>
+    <mergeCell ref="M62:T62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="D59:AG59"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="AD56:AG58"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="V51:AC51"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="R95:Y95"/>
+    <mergeCell ref="Z95:AD95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="M159:V159"/>
+    <mergeCell ref="Z160:AC160"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="W160:Y160"/>
+    <mergeCell ref="G139:P139"/>
+    <mergeCell ref="Q139:Z139"/>
+    <mergeCell ref="Z97:AD97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="R97:Y97"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="M74:T74"/>
+    <mergeCell ref="U74:Y74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AD74:AG74"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="M76:T76"/>
+    <mergeCell ref="U76:Y76"/>
+    <mergeCell ref="Z76:AB76"/>
+    <mergeCell ref="AD76:AG76"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:J86"/>
     <mergeCell ref="K85:N86"/>
@@ -16525,228 +16764,6 @@
     <mergeCell ref="M64:T64"/>
     <mergeCell ref="I66:L66"/>
     <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="M74:T74"/>
-    <mergeCell ref="U74:Y74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AD74:AG74"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="M76:T76"/>
-    <mergeCell ref="U76:Y76"/>
-    <mergeCell ref="Z76:AB76"/>
-    <mergeCell ref="AD76:AG76"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="K95:Q95"/>
-    <mergeCell ref="R95:Y95"/>
-    <mergeCell ref="Z95:AD95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="M159:V159"/>
-    <mergeCell ref="Z160:AC160"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="K93:Q93"/>
-    <mergeCell ref="W160:Y160"/>
-    <mergeCell ref="G139:P139"/>
-    <mergeCell ref="Q139:Z139"/>
-    <mergeCell ref="Z97:AD97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="K97:Q97"/>
-    <mergeCell ref="R97:Y97"/>
-    <mergeCell ref="E50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AC50"/>
-    <mergeCell ref="E51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="M63:T63"/>
-    <mergeCell ref="M62:T62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="D59:AG59"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="AD56:AG58"/>
-    <mergeCell ref="M60:T60"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="V51:AC51"/>
-    <mergeCell ref="I57:L58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="E56:AC56"/>
-    <mergeCell ref="Z57:AB58"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="U57:Y58"/>
-    <mergeCell ref="M57:T58"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="M61:T61"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="R94:Y94"/>
-    <mergeCell ref="Z94:AD94"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="M68:T68"/>
-    <mergeCell ref="M66:T66"/>
-    <mergeCell ref="AD70:AG70"/>
-    <mergeCell ref="AL69:AP69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="M69:T69"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:T70"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="AL67:AP67"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="D71:AG71"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:T73"/>
-    <mergeCell ref="U73:Y73"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="AD73:AG73"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL70:AP70"/>
-    <mergeCell ref="AL66:AP66"/>
-    <mergeCell ref="AL68:AP68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:T75"/>
-    <mergeCell ref="U75:Y75"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AD80:AG80"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="M77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AB77"/>
-    <mergeCell ref="AD77:AG77"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="M78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AB78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="Q141:Z141"/>
-    <mergeCell ref="G115:Z115"/>
-    <mergeCell ref="G161:L161"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="M79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AD79:AG79"/>
-    <mergeCell ref="V88:AH88"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="V85:AH86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V87:AH87"/>
-    <mergeCell ref="Q112:Z112"/>
-    <mergeCell ref="G112:P112"/>
-    <mergeCell ref="G113:P114"/>
-    <mergeCell ref="K94:Q94"/>
-    <mergeCell ref="AD161:AG161"/>
-    <mergeCell ref="M161:V161"/>
-    <mergeCell ref="W159:Y159"/>
-    <mergeCell ref="Z159:AC159"/>
-    <mergeCell ref="M160:V160"/>
-    <mergeCell ref="X171:AG171"/>
-    <mergeCell ref="R93:Y93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Z93:AD93"/>
-    <mergeCell ref="G162:L162"/>
-    <mergeCell ref="M162:V162"/>
-    <mergeCell ref="W162:Y162"/>
-    <mergeCell ref="Z162:AC162"/>
-    <mergeCell ref="AD162:AG162"/>
-    <mergeCell ref="E98:J98"/>
-    <mergeCell ref="K98:Q98"/>
-    <mergeCell ref="R98:Y98"/>
-    <mergeCell ref="Z98:AD98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="W161:Y161"/>
-    <mergeCell ref="Q113:Z113"/>
-    <mergeCell ref="Q114:Z114"/>
-    <mergeCell ref="AD159:AG159"/>
-    <mergeCell ref="AD160:AG160"/>
-    <mergeCell ref="G142:Z142"/>
-    <mergeCell ref="G140:P141"/>
-    <mergeCell ref="Q140:Z140"/>
-    <mergeCell ref="G216:AG216"/>
-    <mergeCell ref="G192:AG192"/>
-    <mergeCell ref="G182:AG182"/>
-    <mergeCell ref="Z161:AC161"/>
-    <mergeCell ref="G163:L163"/>
-    <mergeCell ref="M163:V163"/>
-    <mergeCell ref="W163:Y163"/>
-    <mergeCell ref="Z163:AC163"/>
-    <mergeCell ref="AD163:AG163"/>
-    <mergeCell ref="N171:W171"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="5">
@@ -18085,39 +18102,39 @@
       <c r="D35" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="325" t="s">
+      <c r="E35" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="325"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="325"/>
-      <c r="I35" s="325"/>
-      <c r="J35" s="325"/>
-      <c r="K35" s="325"/>
-      <c r="L35" s="325"/>
-      <c r="M35" s="325"/>
-      <c r="N35" s="325" t="s">
+      <c r="F35" s="284"/>
+      <c r="G35" s="284"/>
+      <c r="H35" s="284"/>
+      <c r="I35" s="284"/>
+      <c r="J35" s="284"/>
+      <c r="K35" s="284"/>
+      <c r="L35" s="284"/>
+      <c r="M35" s="284"/>
+      <c r="N35" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="325"/>
-      <c r="P35" s="325"/>
-      <c r="Q35" s="354" t="s">
+      <c r="O35" s="284"/>
+      <c r="P35" s="284"/>
+      <c r="Q35" s="353" t="s">
         <v>77</v>
       </c>
-      <c r="R35" s="355"/>
-      <c r="S35" s="355"/>
-      <c r="T35" s="355"/>
-      <c r="U35" s="356"/>
-      <c r="V35" s="325" t="s">
+      <c r="R35" s="354"/>
+      <c r="S35" s="354"/>
+      <c r="T35" s="354"/>
+      <c r="U35" s="355"/>
+      <c r="V35" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="W35" s="325"/>
-      <c r="X35" s="325"/>
-      <c r="Y35" s="325"/>
-      <c r="Z35" s="325"/>
-      <c r="AA35" s="325"/>
-      <c r="AB35" s="325"/>
-      <c r="AC35" s="325"/>
+      <c r="W35" s="284"/>
+      <c r="X35" s="284"/>
+      <c r="Y35" s="284"/>
+      <c r="Z35" s="284"/>
+      <c r="AA35" s="284"/>
+      <c r="AB35" s="284"/>
+      <c r="AC35" s="284"/>
       <c r="AD35" s="197"/>
       <c r="AE35" s="197"/>
       <c r="AF35" s="197"/>
@@ -18132,41 +18149,41 @@
       <c r="D36" s="194">
         <v>1</v>
       </c>
-      <c r="E36" s="357" t="s">
+      <c r="E36" s="356" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="357"/>
-      <c r="G36" s="357"/>
-      <c r="H36" s="357"/>
-      <c r="I36" s="357"/>
-      <c r="J36" s="357"/>
-      <c r="K36" s="357"/>
-      <c r="L36" s="357"/>
-      <c r="M36" s="357"/>
-      <c r="N36" s="357" t="s">
+      <c r="F36" s="356"/>
+      <c r="G36" s="356"/>
+      <c r="H36" s="356"/>
+      <c r="I36" s="356"/>
+      <c r="J36" s="356"/>
+      <c r="K36" s="356"/>
+      <c r="L36" s="356"/>
+      <c r="M36" s="356"/>
+      <c r="N36" s="356" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="357"/>
-      <c r="P36" s="357"/>
-      <c r="Q36" s="358" t="s">
+      <c r="O36" s="356"/>
+      <c r="P36" s="356"/>
+      <c r="Q36" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="269"/>
-      <c r="S36" s="269"/>
-      <c r="T36" s="269"/>
-      <c r="U36" s="270"/>
-      <c r="V36" s="357" t="s">
+      <c r="R36" s="271"/>
+      <c r="S36" s="271"/>
+      <c r="T36" s="271"/>
+      <c r="U36" s="272"/>
+      <c r="V36" s="356" t="s">
         <v>5</v>
       </c>
-      <c r="W36" s="357" t="s">
+      <c r="W36" s="356" t="s">
         <v>5</v>
       </c>
-      <c r="X36" s="357"/>
-      <c r="Y36" s="357"/>
-      <c r="Z36" s="357"/>
-      <c r="AA36" s="357"/>
-      <c r="AB36" s="357"/>
-      <c r="AC36" s="357"/>
+      <c r="X36" s="356"/>
+      <c r="Y36" s="356"/>
+      <c r="Z36" s="356"/>
+      <c r="AA36" s="356"/>
+      <c r="AB36" s="356"/>
+      <c r="AC36" s="356"/>
       <c r="AD36" s="94"/>
       <c r="AE36" s="94"/>
       <c r="AF36" s="94"/>
@@ -18364,36 +18381,36 @@
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="320" t="s">
+      <c r="D41" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="262" t="s">
+      <c r="E41" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="263"/>
-      <c r="G41" s="263"/>
-      <c r="H41" s="263"/>
-      <c r="I41" s="263"/>
-      <c r="J41" s="263"/>
-      <c r="K41" s="263"/>
-      <c r="L41" s="263"/>
-      <c r="M41" s="263"/>
-      <c r="N41" s="263"/>
-      <c r="O41" s="263"/>
-      <c r="P41" s="263"/>
-      <c r="Q41" s="263"/>
-      <c r="R41" s="263"/>
-      <c r="S41" s="263"/>
-      <c r="T41" s="263"/>
-      <c r="U41" s="263"/>
-      <c r="V41" s="263"/>
-      <c r="W41" s="263"/>
-      <c r="X41" s="263"/>
-      <c r="Y41" s="263"/>
-      <c r="Z41" s="263"/>
-      <c r="AA41" s="263"/>
-      <c r="AB41" s="263"/>
-      <c r="AC41" s="264"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303"/>
+      <c r="I41" s="303"/>
+      <c r="J41" s="303"/>
+      <c r="K41" s="303"/>
+      <c r="L41" s="303"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="303"/>
+      <c r="O41" s="303"/>
+      <c r="P41" s="303"/>
+      <c r="Q41" s="303"/>
+      <c r="R41" s="303"/>
+      <c r="S41" s="303"/>
+      <c r="T41" s="303"/>
+      <c r="U41" s="303"/>
+      <c r="V41" s="303"/>
+      <c r="W41" s="303"/>
+      <c r="X41" s="303"/>
+      <c r="Y41" s="303"/>
+      <c r="Z41" s="303"/>
+      <c r="AA41" s="303"/>
+      <c r="AB41" s="303"/>
+      <c r="AC41" s="304"/>
       <c r="AD41" s="218" t="s">
         <v>85</v>
       </c>
@@ -18414,29 +18431,29 @@
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="329"/>
+      <c r="D42" s="292"/>
       <c r="E42" s="218" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="219"/>
       <c r="G42" s="219"/>
       <c r="H42" s="220"/>
-      <c r="I42" s="314" t="s">
+      <c r="I42" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="315"/>
-      <c r="K42" s="315"/>
-      <c r="L42" s="316"/>
-      <c r="M42" s="314" t="s">
+      <c r="J42" s="297"/>
+      <c r="K42" s="297"/>
+      <c r="L42" s="298"/>
+      <c r="M42" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="N42" s="315"/>
-      <c r="O42" s="315"/>
-      <c r="P42" s="315"/>
-      <c r="Q42" s="315"/>
-      <c r="R42" s="315"/>
-      <c r="S42" s="315"/>
-      <c r="T42" s="316"/>
+      <c r="N42" s="297"/>
+      <c r="O42" s="297"/>
+      <c r="P42" s="297"/>
+      <c r="Q42" s="297"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="297"/>
+      <c r="T42" s="298"/>
       <c r="U42" s="218" t="s">
         <v>89</v>
       </c>
@@ -18449,8 +18466,8 @@
       </c>
       <c r="AA42" s="219"/>
       <c r="AB42" s="220"/>
-      <c r="AC42" s="320" t="s">
-        <v>261</v>
+      <c r="AC42" s="363" t="s">
+        <v>361</v>
       </c>
       <c r="AD42" s="221"/>
       <c r="AE42" s="222"/>
@@ -18474,23 +18491,23 @@
       <c r="A43" s="95"/>
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="321"/>
+      <c r="D43" s="293"/>
       <c r="E43" s="224"/>
       <c r="F43" s="225"/>
       <c r="G43" s="225"/>
       <c r="H43" s="226"/>
-      <c r="I43" s="317"/>
-      <c r="J43" s="318"/>
-      <c r="K43" s="318"/>
-      <c r="L43" s="319"/>
-      <c r="M43" s="317"/>
-      <c r="N43" s="318"/>
-      <c r="O43" s="318"/>
-      <c r="P43" s="318"/>
-      <c r="Q43" s="318"/>
-      <c r="R43" s="318"/>
-      <c r="S43" s="318"/>
-      <c r="T43" s="319"/>
+      <c r="I43" s="299"/>
+      <c r="J43" s="300"/>
+      <c r="K43" s="300"/>
+      <c r="L43" s="301"/>
+      <c r="M43" s="299"/>
+      <c r="N43" s="300"/>
+      <c r="O43" s="300"/>
+      <c r="P43" s="300"/>
+      <c r="Q43" s="300"/>
+      <c r="R43" s="300"/>
+      <c r="S43" s="300"/>
+      <c r="T43" s="301"/>
       <c r="U43" s="224"/>
       <c r="V43" s="225"/>
       <c r="W43" s="225"/>
@@ -18499,7 +18516,7 @@
       <c r="Z43" s="224"/>
       <c r="AA43" s="225"/>
       <c r="AB43" s="226"/>
-      <c r="AC43" s="321"/>
+      <c r="AC43" s="364"/>
       <c r="AD43" s="224"/>
       <c r="AE43" s="225"/>
       <c r="AF43" s="225"/>
@@ -18508,13 +18525,13 @@
       <c r="AI43" s="111"/>
       <c r="AJ43" s="71"/>
       <c r="AK43" s="71"/>
-      <c r="AL43" s="322" t="s">
+      <c r="AL43" s="278" t="s">
         <v>83</v>
       </c>
-      <c r="AM43" s="323"/>
-      <c r="AN43" s="323"/>
-      <c r="AO43" s="323"/>
-      <c r="AP43" s="324"/>
+      <c r="AM43" s="279"/>
+      <c r="AN43" s="279"/>
+      <c r="AO43" s="279"/>
+      <c r="AP43" s="280"/>
       <c r="AQ43" s="71"/>
       <c r="AR43" s="71"/>
       <c r="AS43" s="71"/>
@@ -18524,38 +18541,38 @@
       <c r="A44" s="95"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
-      <c r="D44" s="311" t="s">
-        <v>353</v>
-      </c>
-      <c r="E44" s="312"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
-      <c r="H44" s="312"/>
-      <c r="I44" s="312"/>
-      <c r="J44" s="312"/>
-      <c r="K44" s="312"/>
-      <c r="L44" s="312"/>
-      <c r="M44" s="312"/>
-      <c r="N44" s="312"/>
-      <c r="O44" s="312"/>
-      <c r="P44" s="312"/>
-      <c r="Q44" s="312"/>
-      <c r="R44" s="312"/>
-      <c r="S44" s="312"/>
-      <c r="T44" s="312"/>
-      <c r="U44" s="312"/>
-      <c r="V44" s="312"/>
-      <c r="W44" s="312"/>
-      <c r="X44" s="312"/>
-      <c r="Y44" s="312"/>
-      <c r="Z44" s="312"/>
-      <c r="AA44" s="312"/>
-      <c r="AB44" s="312"/>
-      <c r="AC44" s="312"/>
-      <c r="AD44" s="312"/>
-      <c r="AE44" s="312"/>
-      <c r="AF44" s="312"/>
-      <c r="AG44" s="313"/>
+      <c r="D44" s="288" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="289"/>
+      <c r="I44" s="289"/>
+      <c r="J44" s="289"/>
+      <c r="K44" s="289"/>
+      <c r="L44" s="289"/>
+      <c r="M44" s="289"/>
+      <c r="N44" s="289"/>
+      <c r="O44" s="289"/>
+      <c r="P44" s="289"/>
+      <c r="Q44" s="289"/>
+      <c r="R44" s="289"/>
+      <c r="S44" s="289"/>
+      <c r="T44" s="289"/>
+      <c r="U44" s="289"/>
+      <c r="V44" s="289"/>
+      <c r="W44" s="289"/>
+      <c r="X44" s="289"/>
+      <c r="Y44" s="289"/>
+      <c r="Z44" s="289"/>
+      <c r="AA44" s="289"/>
+      <c r="AB44" s="289"/>
+      <c r="AC44" s="289"/>
+      <c r="AD44" s="289"/>
+      <c r="AE44" s="289"/>
+      <c r="AF44" s="289"/>
+      <c r="AG44" s="290"/>
       <c r="AH44" s="111"/>
       <c r="AI44" s="111"/>
       <c r="AJ44" s="71"/>
@@ -18584,59 +18601,59 @@
       </c>
       <c r="F45" s="231"/>
       <c r="G45" s="231"/>
-      <c r="H45" s="304"/>
-      <c r="I45" s="286" t="s">
+      <c r="H45" s="251"/>
+      <c r="I45" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J45" s="287"/>
-      <c r="K45" s="287"/>
-      <c r="L45" s="288"/>
-      <c r="M45" s="248" t="s">
-        <v>297</v>
-      </c>
-      <c r="N45" s="249"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249"/>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="250"/>
-      <c r="U45" s="283" t="s">
+      <c r="J45" s="255"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="245" t="s">
+        <v>296</v>
+      </c>
+      <c r="N45" s="246"/>
+      <c r="O45" s="246"/>
+      <c r="P45" s="246"/>
+      <c r="Q45" s="246"/>
+      <c r="R45" s="246"/>
+      <c r="S45" s="246"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="284"/>
-      <c r="W45" s="284"/>
-      <c r="X45" s="284"/>
-      <c r="Y45" s="285"/>
-      <c r="Z45" s="283" t="s">
+      <c r="V45" s="249"/>
+      <c r="W45" s="249"/>
+      <c r="X45" s="249"/>
+      <c r="Y45" s="250"/>
+      <c r="Z45" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="AA45" s="284"/>
-      <c r="AB45" s="285"/>
+      <c r="AA45" s="249"/>
+      <c r="AB45" s="250"/>
       <c r="AC45" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD45" s="283" t="s">
+      <c r="AD45" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE45" s="284"/>
-      <c r="AF45" s="284"/>
-      <c r="AG45" s="285"/>
+      <c r="AE45" s="249"/>
+      <c r="AF45" s="249"/>
+      <c r="AG45" s="250"/>
       <c r="AH45" s="118"/>
       <c r="AI45" s="118"/>
-      <c r="AL45" s="351" t="s">
+      <c r="AL45" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM45" s="352" t="s">
+      <c r="AM45" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN45" s="352" t="s">
+      <c r="AN45" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO45" s="352" t="s">
+      <c r="AO45" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP45" s="353" t="s">
+      <c r="AP45" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU45" s="69"/>
@@ -18658,59 +18675,59 @@
       </c>
       <c r="F46" s="231"/>
       <c r="G46" s="231"/>
-      <c r="H46" s="304"/>
-      <c r="I46" s="286" t="s">
+      <c r="H46" s="251"/>
+      <c r="I46" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="287"/>
-      <c r="K46" s="287"/>
-      <c r="L46" s="288"/>
-      <c r="M46" s="248" t="s">
-        <v>297</v>
-      </c>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="249"/>
-      <c r="R46" s="249"/>
-      <c r="S46" s="249"/>
-      <c r="T46" s="250"/>
-      <c r="U46" s="283" t="s">
+      <c r="J46" s="255"/>
+      <c r="K46" s="255"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="245" t="s">
+        <v>296</v>
+      </c>
+      <c r="N46" s="246"/>
+      <c r="O46" s="246"/>
+      <c r="P46" s="246"/>
+      <c r="Q46" s="246"/>
+      <c r="R46" s="246"/>
+      <c r="S46" s="246"/>
+      <c r="T46" s="247"/>
+      <c r="U46" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V46" s="284"/>
-      <c r="W46" s="284"/>
-      <c r="X46" s="284"/>
-      <c r="Y46" s="285"/>
-      <c r="Z46" s="283" t="s">
+      <c r="V46" s="249"/>
+      <c r="W46" s="249"/>
+      <c r="X46" s="249"/>
+      <c r="Y46" s="250"/>
+      <c r="Z46" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="AA46" s="284"/>
-      <c r="AB46" s="285"/>
+      <c r="AA46" s="249"/>
+      <c r="AB46" s="250"/>
       <c r="AC46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD46" s="283" t="s">
+      <c r="AD46" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE46" s="284"/>
-      <c r="AF46" s="284"/>
-      <c r="AG46" s="285"/>
+      <c r="AE46" s="249"/>
+      <c r="AF46" s="249"/>
+      <c r="AG46" s="250"/>
       <c r="AH46" s="118"/>
       <c r="AI46" s="118"/>
-      <c r="AL46" s="351" t="s">
+      <c r="AL46" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM46" s="352" t="s">
+      <c r="AM46" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN46" s="352" t="s">
+      <c r="AN46" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO46" s="352" t="s">
+      <c r="AO46" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP46" s="353" t="s">
+      <c r="AP46" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU46" s="69"/>
@@ -18732,61 +18749,61 @@
       </c>
       <c r="F47" s="231"/>
       <c r="G47" s="231"/>
-      <c r="H47" s="304"/>
-      <c r="I47" s="286" t="s">
+      <c r="H47" s="251"/>
+      <c r="I47" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="287"/>
-      <c r="K47" s="287"/>
-      <c r="L47" s="288"/>
-      <c r="M47" s="248" t="s">
+      <c r="J47" s="255"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="256"/>
+      <c r="M47" s="245" t="s">
         <v>218</v>
       </c>
-      <c r="N47" s="249"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="249"/>
-      <c r="R47" s="249"/>
-      <c r="S47" s="249"/>
-      <c r="T47" s="250"/>
-      <c r="U47" s="309" t="s">
+      <c r="N47" s="246"/>
+      <c r="O47" s="246"/>
+      <c r="P47" s="246"/>
+      <c r="Q47" s="246"/>
+      <c r="R47" s="246"/>
+      <c r="S47" s="246"/>
+      <c r="T47" s="247"/>
+      <c r="U47" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="309"/>
-      <c r="W47" s="309"/>
-      <c r="X47" s="309"/>
-      <c r="Y47" s="309"/>
-      <c r="Z47" s="309" t="s">
+      <c r="V47" s="260"/>
+      <c r="W47" s="260"/>
+      <c r="X47" s="260"/>
+      <c r="Y47" s="260"/>
+      <c r="Z47" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="AA47" s="309"/>
-      <c r="AB47" s="309"/>
+      <c r="AA47" s="260"/>
+      <c r="AB47" s="260"/>
       <c r="AC47" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD47" s="283" t="s">
+      <c r="AD47" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE47" s="284"/>
-      <c r="AF47" s="284"/>
-      <c r="AG47" s="285"/>
+      <c r="AE47" s="249"/>
+      <c r="AF47" s="249"/>
+      <c r="AG47" s="250"/>
       <c r="AH47" s="111"/>
       <c r="AI47" s="111"/>
       <c r="AJ47" s="71"/>
       <c r="AK47" s="71"/>
-      <c r="AL47" s="351" t="s">
+      <c r="AL47" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM47" s="352" t="s">
+      <c r="AM47" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN47" s="352" t="s">
+      <c r="AN47" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO47" s="352" t="s">
+      <c r="AO47" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP47" s="353" t="s">
+      <c r="AP47" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AQ47" s="71"/>
@@ -18803,65 +18820,65 @@
         <v>4</v>
       </c>
       <c r="E48" s="230" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F48" s="231"/>
       <c r="G48" s="231"/>
-      <c r="H48" s="304"/>
-      <c r="I48" s="286" t="s">
+      <c r="H48" s="251"/>
+      <c r="I48" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J48" s="287"/>
-      <c r="K48" s="287"/>
-      <c r="L48" s="288"/>
-      <c r="M48" s="248" t="s">
+      <c r="J48" s="255"/>
+      <c r="K48" s="255"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="245" t="s">
         <v>217</v>
       </c>
-      <c r="N48" s="249"/>
-      <c r="O48" s="249"/>
-      <c r="P48" s="249"/>
-      <c r="Q48" s="249"/>
-      <c r="R48" s="249"/>
-      <c r="S48" s="249"/>
-      <c r="T48" s="250"/>
-      <c r="U48" s="283" t="s">
+      <c r="N48" s="246"/>
+      <c r="O48" s="246"/>
+      <c r="P48" s="246"/>
+      <c r="Q48" s="246"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="246"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="V48" s="284"/>
-      <c r="W48" s="284"/>
-      <c r="X48" s="284"/>
-      <c r="Y48" s="285"/>
-      <c r="Z48" s="309" t="s">
+      <c r="V48" s="249"/>
+      <c r="W48" s="249"/>
+      <c r="X48" s="249"/>
+      <c r="Y48" s="250"/>
+      <c r="Z48" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA48" s="309"/>
-      <c r="AB48" s="309"/>
+      <c r="AA48" s="260"/>
+      <c r="AB48" s="260"/>
       <c r="AC48" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD48" s="283" t="s">
+      <c r="AD48" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE48" s="284"/>
-      <c r="AF48" s="284"/>
-      <c r="AG48" s="285"/>
+      <c r="AE48" s="249"/>
+      <c r="AF48" s="249"/>
+      <c r="AG48" s="250"/>
       <c r="AH48" s="111"/>
       <c r="AI48" s="111"/>
       <c r="AJ48" s="71"/>
       <c r="AK48" s="71"/>
-      <c r="AL48" s="351" t="s">
+      <c r="AL48" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM48" s="352" t="s">
+      <c r="AM48" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN48" s="352" t="s">
+      <c r="AN48" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO48" s="352" t="s">
+      <c r="AO48" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP48" s="353" t="s">
+      <c r="AP48" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AQ48" s="71"/>
@@ -18882,61 +18899,61 @@
       </c>
       <c r="F49" s="231"/>
       <c r="G49" s="231"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="286" t="s">
+      <c r="H49" s="251"/>
+      <c r="I49" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="287"/>
-      <c r="K49" s="287"/>
-      <c r="L49" s="288"/>
-      <c r="M49" s="248" t="s">
+      <c r="J49" s="255"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="245" t="s">
         <v>216</v>
       </c>
-      <c r="N49" s="249"/>
-      <c r="O49" s="249"/>
-      <c r="P49" s="249"/>
-      <c r="Q49" s="249"/>
-      <c r="R49" s="249"/>
-      <c r="S49" s="249"/>
-      <c r="T49" s="250"/>
-      <c r="U49" s="283" t="s">
+      <c r="N49" s="246"/>
+      <c r="O49" s="246"/>
+      <c r="P49" s="246"/>
+      <c r="Q49" s="246"/>
+      <c r="R49" s="246"/>
+      <c r="S49" s="246"/>
+      <c r="T49" s="247"/>
+      <c r="U49" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="V49" s="284"/>
-      <c r="W49" s="284"/>
-      <c r="X49" s="284"/>
-      <c r="Y49" s="285"/>
-      <c r="Z49" s="309" t="s">
+      <c r="V49" s="249"/>
+      <c r="W49" s="249"/>
+      <c r="X49" s="249"/>
+      <c r="Y49" s="250"/>
+      <c r="Z49" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA49" s="309"/>
-      <c r="AB49" s="309"/>
+      <c r="AA49" s="260"/>
+      <c r="AB49" s="260"/>
       <c r="AC49" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="283" t="s">
+      <c r="AD49" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE49" s="284"/>
-      <c r="AF49" s="284"/>
-      <c r="AG49" s="285"/>
+      <c r="AE49" s="249"/>
+      <c r="AF49" s="249"/>
+      <c r="AG49" s="250"/>
       <c r="AH49" s="111"/>
       <c r="AI49" s="111"/>
       <c r="AJ49" s="71"/>
       <c r="AK49" s="71"/>
-      <c r="AL49" s="351" t="s">
+      <c r="AL49" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="352" t="s">
+      <c r="AM49" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN49" s="352" t="s">
+      <c r="AN49" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO49" s="352" t="s">
+      <c r="AO49" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP49" s="353" t="s">
+      <c r="AP49" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AQ49" s="71"/>
@@ -18957,59 +18974,59 @@
       </c>
       <c r="F50" s="231"/>
       <c r="G50" s="231"/>
-      <c r="H50" s="304"/>
-      <c r="I50" s="305" t="s">
+      <c r="H50" s="251"/>
+      <c r="I50" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="306"/>
-      <c r="K50" s="306"/>
-      <c r="L50" s="307"/>
-      <c r="M50" s="248" t="s">
-        <v>265</v>
-      </c>
-      <c r="N50" s="249"/>
-      <c r="O50" s="249"/>
-      <c r="P50" s="249"/>
-      <c r="Q50" s="249"/>
-      <c r="R50" s="249"/>
-      <c r="S50" s="249"/>
-      <c r="T50" s="250"/>
-      <c r="U50" s="283" t="s">
-        <v>298</v>
-      </c>
-      <c r="V50" s="284"/>
-      <c r="W50" s="284"/>
-      <c r="X50" s="284"/>
-      <c r="Y50" s="285"/>
-      <c r="Z50" s="283" t="s">
+      <c r="J50" s="312"/>
+      <c r="K50" s="312"/>
+      <c r="L50" s="313"/>
+      <c r="M50" s="245" t="s">
+        <v>264</v>
+      </c>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="246"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="248" t="s">
+        <v>297</v>
+      </c>
+      <c r="V50" s="249"/>
+      <c r="W50" s="249"/>
+      <c r="X50" s="249"/>
+      <c r="Y50" s="250"/>
+      <c r="Z50" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="284"/>
-      <c r="AB50" s="285"/>
+      <c r="AA50" s="249"/>
+      <c r="AB50" s="250"/>
       <c r="AC50" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD50" s="283" t="s">
+      <c r="AD50" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE50" s="284"/>
-      <c r="AF50" s="284"/>
-      <c r="AG50" s="285"/>
+      <c r="AE50" s="249"/>
+      <c r="AF50" s="249"/>
+      <c r="AG50" s="250"/>
       <c r="AH50" s="94"/>
       <c r="AI50" s="94"/>
-      <c r="AL50" s="351" t="s">
+      <c r="AL50" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM50" s="352" t="s">
+      <c r="AM50" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN50" s="352" t="s">
+      <c r="AN50" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO50" s="352" t="s">
+      <c r="AO50" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP50" s="353" t="s">
+      <c r="AP50" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AY50" s="56"/>
@@ -19023,63 +19040,63 @@
         <v>7</v>
       </c>
       <c r="E51" s="230" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" s="231"/>
       <c r="G51" s="231"/>
-      <c r="H51" s="304"/>
-      <c r="I51" s="305" t="s">
+      <c r="H51" s="251"/>
+      <c r="I51" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="306"/>
-      <c r="K51" s="306"/>
-      <c r="L51" s="307"/>
-      <c r="M51" s="248" t="s">
-        <v>281</v>
-      </c>
-      <c r="N51" s="249"/>
-      <c r="O51" s="249"/>
-      <c r="P51" s="249"/>
-      <c r="Q51" s="249"/>
-      <c r="R51" s="249"/>
-      <c r="S51" s="249"/>
-      <c r="T51" s="250"/>
-      <c r="U51" s="283" t="s">
+      <c r="J51" s="312"/>
+      <c r="K51" s="312"/>
+      <c r="L51" s="313"/>
+      <c r="M51" s="245" t="s">
+        <v>280</v>
+      </c>
+      <c r="N51" s="246"/>
+      <c r="O51" s="246"/>
+      <c r="P51" s="246"/>
+      <c r="Q51" s="246"/>
+      <c r="R51" s="246"/>
+      <c r="S51" s="246"/>
+      <c r="T51" s="247"/>
+      <c r="U51" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V51" s="284"/>
-      <c r="W51" s="284"/>
-      <c r="X51" s="284"/>
-      <c r="Y51" s="285"/>
-      <c r="Z51" s="283" t="s">
+      <c r="V51" s="249"/>
+      <c r="W51" s="249"/>
+      <c r="X51" s="249"/>
+      <c r="Y51" s="250"/>
+      <c r="Z51" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="284"/>
-      <c r="AB51" s="285"/>
+      <c r="AA51" s="249"/>
+      <c r="AB51" s="250"/>
       <c r="AC51" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="283" t="s">
+      <c r="AD51" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE51" s="284"/>
-      <c r="AF51" s="284"/>
-      <c r="AG51" s="285"/>
+      <c r="AE51" s="249"/>
+      <c r="AF51" s="249"/>
+      <c r="AG51" s="250"/>
       <c r="AH51" s="94"/>
       <c r="AI51" s="94"/>
-      <c r="AL51" s="351" t="s">
+      <c r="AL51" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM51" s="352" t="s">
+      <c r="AM51" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN51" s="352" t="s">
+      <c r="AN51" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO51" s="352" t="s">
+      <c r="AO51" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP51" s="353" t="s">
+      <c r="AP51" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AY51" s="56"/>
@@ -19097,59 +19114,59 @@
       </c>
       <c r="F52" s="231"/>
       <c r="G52" s="231"/>
-      <c r="H52" s="304"/>
-      <c r="I52" s="286" t="s">
+      <c r="H52" s="251"/>
+      <c r="I52" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="287"/>
-      <c r="K52" s="287"/>
-      <c r="L52" s="288"/>
-      <c r="M52" s="248" t="s">
-        <v>266</v>
-      </c>
-      <c r="N52" s="249"/>
-      <c r="O52" s="249"/>
-      <c r="P52" s="249"/>
-      <c r="Q52" s="249"/>
-      <c r="R52" s="249"/>
-      <c r="S52" s="249"/>
-      <c r="T52" s="250"/>
-      <c r="U52" s="283" t="s">
+      <c r="J52" s="255"/>
+      <c r="K52" s="255"/>
+      <c r="L52" s="256"/>
+      <c r="M52" s="245" t="s">
+        <v>265</v>
+      </c>
+      <c r="N52" s="246"/>
+      <c r="O52" s="246"/>
+      <c r="P52" s="246"/>
+      <c r="Q52" s="246"/>
+      <c r="R52" s="246"/>
+      <c r="S52" s="246"/>
+      <c r="T52" s="247"/>
+      <c r="U52" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="284"/>
-      <c r="W52" s="284"/>
-      <c r="X52" s="284"/>
-      <c r="Y52" s="285"/>
-      <c r="Z52" s="283" t="s">
+      <c r="V52" s="249"/>
+      <c r="W52" s="249"/>
+      <c r="X52" s="249"/>
+      <c r="Y52" s="250"/>
+      <c r="Z52" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA52" s="284"/>
-      <c r="AB52" s="285"/>
+      <c r="AA52" s="249"/>
+      <c r="AB52" s="250"/>
       <c r="AC52" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD52" s="283" t="s">
+      <c r="AD52" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE52" s="284"/>
-      <c r="AF52" s="284"/>
-      <c r="AG52" s="285"/>
+      <c r="AE52" s="249"/>
+      <c r="AF52" s="249"/>
+      <c r="AG52" s="250"/>
       <c r="AH52" s="118"/>
       <c r="AI52" s="118"/>
-      <c r="AL52" s="351" t="s">
+      <c r="AL52" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM52" s="352" t="s">
+      <c r="AM52" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="352" t="s">
+      <c r="AN52" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO52" s="352" t="s">
+      <c r="AO52" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP52" s="353" t="s">
+      <c r="AP52" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU52" s="69"/>
@@ -19171,59 +19188,59 @@
       </c>
       <c r="F53" s="231"/>
       <c r="G53" s="231"/>
-      <c r="H53" s="304"/>
-      <c r="I53" s="286" t="s">
+      <c r="H53" s="251"/>
+      <c r="I53" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J53" s="287"/>
-      <c r="K53" s="287"/>
-      <c r="L53" s="288"/>
-      <c r="M53" s="248" t="s">
-        <v>270</v>
-      </c>
-      <c r="N53" s="249"/>
-      <c r="O53" s="249"/>
-      <c r="P53" s="249"/>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="249"/>
-      <c r="S53" s="249"/>
-      <c r="T53" s="250"/>
-      <c r="U53" s="283" t="s">
+      <c r="J53" s="255"/>
+      <c r="K53" s="255"/>
+      <c r="L53" s="256"/>
+      <c r="M53" s="245" t="s">
+        <v>269</v>
+      </c>
+      <c r="N53" s="246"/>
+      <c r="O53" s="246"/>
+      <c r="P53" s="246"/>
+      <c r="Q53" s="246"/>
+      <c r="R53" s="246"/>
+      <c r="S53" s="246"/>
+      <c r="T53" s="247"/>
+      <c r="U53" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V53" s="284"/>
-      <c r="W53" s="284"/>
-      <c r="X53" s="284"/>
-      <c r="Y53" s="285"/>
-      <c r="Z53" s="283" t="s">
+      <c r="V53" s="249"/>
+      <c r="W53" s="249"/>
+      <c r="X53" s="249"/>
+      <c r="Y53" s="250"/>
+      <c r="Z53" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA53" s="284"/>
-      <c r="AB53" s="285"/>
+      <c r="AA53" s="249"/>
+      <c r="AB53" s="250"/>
       <c r="AC53" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD53" s="283" t="s">
+      <c r="AD53" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE53" s="284"/>
-      <c r="AF53" s="284"/>
-      <c r="AG53" s="285"/>
+      <c r="AE53" s="249"/>
+      <c r="AF53" s="249"/>
+      <c r="AG53" s="250"/>
       <c r="AH53" s="118"/>
       <c r="AI53" s="118"/>
-      <c r="AL53" s="351" t="s">
+      <c r="AL53" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM53" s="352" t="s">
+      <c r="AM53" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN53" s="352" t="s">
+      <c r="AN53" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO53" s="352" t="s">
+      <c r="AO53" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP53" s="353" t="s">
+      <c r="AP53" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU53" s="69"/>
@@ -19240,66 +19257,66 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E54" s="283" t="s">
+      <c r="E54" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="284"/>
-      <c r="G54" s="284"/>
-      <c r="H54" s="285"/>
-      <c r="I54" s="286" t="s">
+      <c r="F54" s="249"/>
+      <c r="G54" s="249"/>
+      <c r="H54" s="250"/>
+      <c r="I54" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="287"/>
-      <c r="K54" s="287"/>
-      <c r="L54" s="288"/>
-      <c r="M54" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="N54" s="249"/>
-      <c r="O54" s="249"/>
-      <c r="P54" s="249"/>
-      <c r="Q54" s="249"/>
-      <c r="R54" s="249"/>
-      <c r="S54" s="249"/>
-      <c r="T54" s="250"/>
-      <c r="U54" s="283" t="s">
+      <c r="J54" s="255"/>
+      <c r="K54" s="255"/>
+      <c r="L54" s="256"/>
+      <c r="M54" s="245" t="s">
+        <v>266</v>
+      </c>
+      <c r="N54" s="246"/>
+      <c r="O54" s="246"/>
+      <c r="P54" s="246"/>
+      <c r="Q54" s="246"/>
+      <c r="R54" s="246"/>
+      <c r="S54" s="246"/>
+      <c r="T54" s="247"/>
+      <c r="U54" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V54" s="284"/>
-      <c r="W54" s="284"/>
-      <c r="X54" s="284"/>
-      <c r="Y54" s="285"/>
-      <c r="Z54" s="283" t="s">
+      <c r="V54" s="249"/>
+      <c r="W54" s="249"/>
+      <c r="X54" s="249"/>
+      <c r="Y54" s="250"/>
+      <c r="Z54" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA54" s="284"/>
-      <c r="AB54" s="285"/>
+      <c r="AA54" s="249"/>
+      <c r="AB54" s="250"/>
       <c r="AC54" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD54" s="283" t="s">
+      <c r="AD54" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE54" s="284"/>
-      <c r="AF54" s="284"/>
-      <c r="AG54" s="285"/>
+      <c r="AE54" s="249"/>
+      <c r="AF54" s="249"/>
+      <c r="AG54" s="250"/>
       <c r="AH54" s="124"/>
       <c r="AI54" s="124"/>
       <c r="AJ54" s="76"/>
       <c r="AK54" s="71"/>
-      <c r="AL54" s="351" t="s">
+      <c r="AL54" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM54" s="352" t="s">
+      <c r="AM54" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN54" s="352" t="s">
+      <c r="AN54" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO54" s="352" t="s">
+      <c r="AO54" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP54" s="353" t="s">
+      <c r="AP54" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AQ54" s="71"/>
@@ -19313,64 +19330,64 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E55" s="283" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" s="284"/>
-      <c r="G55" s="284"/>
-      <c r="H55" s="285"/>
-      <c r="I55" s="286" t="s">
+      <c r="E55" s="248" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="249"/>
+      <c r="G55" s="249"/>
+      <c r="H55" s="250"/>
+      <c r="I55" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="287"/>
-      <c r="L55" s="288"/>
-      <c r="M55" s="248" t="s">
-        <v>268</v>
-      </c>
-      <c r="N55" s="249"/>
-      <c r="O55" s="249"/>
-      <c r="P55" s="249"/>
-      <c r="Q55" s="249"/>
-      <c r="R55" s="249"/>
-      <c r="S55" s="249"/>
-      <c r="T55" s="250"/>
-      <c r="U55" s="283" t="s">
+      <c r="J55" s="255"/>
+      <c r="K55" s="255"/>
+      <c r="L55" s="256"/>
+      <c r="M55" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="N55" s="246"/>
+      <c r="O55" s="246"/>
+      <c r="P55" s="246"/>
+      <c r="Q55" s="246"/>
+      <c r="R55" s="246"/>
+      <c r="S55" s="246"/>
+      <c r="T55" s="247"/>
+      <c r="U55" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="V55" s="284"/>
-      <c r="W55" s="284"/>
-      <c r="X55" s="284"/>
-      <c r="Y55" s="285"/>
-      <c r="Z55" s="283" t="s">
+      <c r="V55" s="249"/>
+      <c r="W55" s="249"/>
+      <c r="X55" s="249"/>
+      <c r="Y55" s="250"/>
+      <c r="Z55" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA55" s="284"/>
-      <c r="AB55" s="285"/>
+      <c r="AA55" s="249"/>
+      <c r="AB55" s="250"/>
       <c r="AC55" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD55" s="283" t="s">
+      <c r="AD55" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="284"/>
-      <c r="AF55" s="284"/>
-      <c r="AG55" s="285"/>
+      <c r="AE55" s="249"/>
+      <c r="AF55" s="249"/>
+      <c r="AG55" s="250"/>
       <c r="AH55" s="118"/>
       <c r="AI55" s="118"/>
-      <c r="AL55" s="351" t="s">
+      <c r="AL55" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM55" s="352" t="s">
+      <c r="AM55" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN55" s="352" t="s">
+      <c r="AN55" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO55" s="352" t="s">
+      <c r="AO55" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP55" s="353" t="s">
+      <c r="AP55" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU55" s="69"/>
@@ -19388,63 +19405,63 @@
         <v>12</v>
       </c>
       <c r="E56" s="230" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F56" s="231"/>
       <c r="G56" s="231"/>
-      <c r="H56" s="304"/>
-      <c r="I56" s="286" t="s">
+      <c r="H56" s="251"/>
+      <c r="I56" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="287"/>
-      <c r="K56" s="287"/>
-      <c r="L56" s="288"/>
-      <c r="M56" s="248" t="s">
-        <v>271</v>
-      </c>
-      <c r="N56" s="249"/>
-      <c r="O56" s="249"/>
-      <c r="P56" s="249"/>
-      <c r="Q56" s="249"/>
-      <c r="R56" s="249"/>
-      <c r="S56" s="249"/>
-      <c r="T56" s="250"/>
-      <c r="U56" s="283" t="s">
+      <c r="J56" s="255"/>
+      <c r="K56" s="255"/>
+      <c r="L56" s="256"/>
+      <c r="M56" s="245" t="s">
+        <v>270</v>
+      </c>
+      <c r="N56" s="246"/>
+      <c r="O56" s="246"/>
+      <c r="P56" s="246"/>
+      <c r="Q56" s="246"/>
+      <c r="R56" s="246"/>
+      <c r="S56" s="246"/>
+      <c r="T56" s="247"/>
+      <c r="U56" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V56" s="284"/>
-      <c r="W56" s="284"/>
-      <c r="X56" s="284"/>
-      <c r="Y56" s="285"/>
-      <c r="Z56" s="283" t="s">
+      <c r="V56" s="249"/>
+      <c r="W56" s="249"/>
+      <c r="X56" s="249"/>
+      <c r="Y56" s="250"/>
+      <c r="Z56" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA56" s="284"/>
-      <c r="AB56" s="285"/>
+      <c r="AA56" s="249"/>
+      <c r="AB56" s="250"/>
       <c r="AC56" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD56" s="283" t="s">
+      <c r="AD56" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE56" s="284"/>
-      <c r="AF56" s="284"/>
-      <c r="AG56" s="285"/>
+      <c r="AE56" s="249"/>
+      <c r="AF56" s="249"/>
+      <c r="AG56" s="250"/>
       <c r="AH56" s="118"/>
       <c r="AI56" s="118"/>
-      <c r="AL56" s="351" t="s">
+      <c r="AL56" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AM56" s="352" t="s">
+      <c r="AM56" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AN56" s="352" t="s">
+      <c r="AN56" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AO56" s="352" t="s">
+      <c r="AO56" s="359" t="s">
         <v>12</v>
       </c>
-      <c r="AP56" s="353" t="s">
+      <c r="AP56" s="360" t="s">
         <v>12</v>
       </c>
       <c r="AU56" s="69"/>
@@ -19638,24 +19655,24 @@
       <c r="A61" s="94"/>
       <c r="B61" s="94"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="347" t="s">
+      <c r="D61" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="291" t="s">
+      <c r="E61" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="292"/>
-      <c r="G61" s="292"/>
-      <c r="H61" s="292"/>
-      <c r="I61" s="292"/>
-      <c r="J61" s="293"/>
-      <c r="K61" s="291" t="s">
+      <c r="F61" s="238"/>
+      <c r="G61" s="238"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="238"/>
+      <c r="J61" s="239"/>
+      <c r="K61" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="L61" s="292"/>
-      <c r="M61" s="292"/>
-      <c r="N61" s="293"/>
-      <c r="O61" s="289" t="s">
+      <c r="L61" s="238"/>
+      <c r="M61" s="238"/>
+      <c r="N61" s="239"/>
+      <c r="O61" s="321" t="s">
         <v>130</v>
       </c>
       <c r="P61" s="127" t="s">
@@ -19666,21 +19683,21 @@
       <c r="S61" s="128"/>
       <c r="T61" s="128"/>
       <c r="U61" s="128"/>
-      <c r="V61" s="291" t="s">
+      <c r="V61" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="W61" s="292"/>
-      <c r="X61" s="292"/>
-      <c r="Y61" s="292"/>
-      <c r="Z61" s="292"/>
-      <c r="AA61" s="292"/>
-      <c r="AB61" s="292"/>
-      <c r="AC61" s="292"/>
-      <c r="AD61" s="292"/>
-      <c r="AE61" s="292"/>
-      <c r="AF61" s="292"/>
-      <c r="AG61" s="292"/>
-      <c r="AH61" s="293"/>
+      <c r="W61" s="238"/>
+      <c r="X61" s="238"/>
+      <c r="Y61" s="238"/>
+      <c r="Z61" s="238"/>
+      <c r="AA61" s="238"/>
+      <c r="AB61" s="238"/>
+      <c r="AC61" s="238"/>
+      <c r="AD61" s="238"/>
+      <c r="AE61" s="238"/>
+      <c r="AF61" s="238"/>
+      <c r="AG61" s="238"/>
+      <c r="AH61" s="239"/>
       <c r="AI61" s="94"/>
       <c r="AK61" s="53"/>
       <c r="AL61" s="53"/>
@@ -19700,18 +19717,18 @@
       <c r="A62" s="94"/>
       <c r="B62" s="94"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="348"/>
-      <c r="E62" s="294"/>
-      <c r="F62" s="295"/>
-      <c r="G62" s="295"/>
-      <c r="H62" s="295"/>
-      <c r="I62" s="295"/>
-      <c r="J62" s="296"/>
-      <c r="K62" s="294"/>
-      <c r="L62" s="295"/>
-      <c r="M62" s="295"/>
-      <c r="N62" s="296"/>
-      <c r="O62" s="290"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="240"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="242"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="241"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="242"/>
+      <c r="O62" s="322"/>
       <c r="P62" s="129" t="s">
         <v>132</v>
       </c>
@@ -19724,23 +19741,23 @@
       <c r="S62" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="T62" s="297" t="s">
+      <c r="T62" s="323" t="s">
         <v>136</v>
       </c>
-      <c r="U62" s="298"/>
-      <c r="V62" s="294"/>
-      <c r="W62" s="295"/>
-      <c r="X62" s="295"/>
-      <c r="Y62" s="295"/>
-      <c r="Z62" s="295"/>
-      <c r="AA62" s="295"/>
-      <c r="AB62" s="295"/>
-      <c r="AC62" s="295"/>
-      <c r="AD62" s="295"/>
-      <c r="AE62" s="295"/>
-      <c r="AF62" s="295"/>
-      <c r="AG62" s="295"/>
-      <c r="AH62" s="296"/>
+      <c r="U62" s="324"/>
+      <c r="V62" s="240"/>
+      <c r="W62" s="241"/>
+      <c r="X62" s="241"/>
+      <c r="Y62" s="241"/>
+      <c r="Z62" s="241"/>
+      <c r="AA62" s="241"/>
+      <c r="AB62" s="241"/>
+      <c r="AC62" s="241"/>
+      <c r="AD62" s="241"/>
+      <c r="AE62" s="241"/>
+      <c r="AF62" s="241"/>
+      <c r="AG62" s="241"/>
+      <c r="AH62" s="242"/>
       <c r="AI62" s="94"/>
       <c r="AK62" s="53"/>
       <c r="AL62" s="53"/>
@@ -19763,20 +19780,20 @@
       <c r="D63" s="132">
         <v>1</v>
       </c>
-      <c r="E63" s="299" t="s">
+      <c r="E63" s="305" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="300"/>
-      <c r="G63" s="300"/>
-      <c r="H63" s="300"/>
-      <c r="I63" s="300"/>
-      <c r="J63" s="301"/>
-      <c r="K63" s="283" t="s">
+      <c r="F63" s="306"/>
+      <c r="G63" s="306"/>
+      <c r="H63" s="306"/>
+      <c r="I63" s="306"/>
+      <c r="J63" s="307"/>
+      <c r="K63" s="248" t="s">
         <v>139</v>
       </c>
-      <c r="L63" s="284"/>
-      <c r="M63" s="284"/>
-      <c r="N63" s="285"/>
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="250"/>
       <c r="O63" s="133" t="s">
         <v>7</v>
       </c>
@@ -19792,25 +19809,25 @@
       <c r="S63" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T63" s="302" t="s">
+      <c r="T63" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="U63" s="303"/>
-      <c r="V63" s="283" t="s">
+      <c r="U63" s="309"/>
+      <c r="V63" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="W63" s="284"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="284"/>
-      <c r="Z63" s="284"/>
-      <c r="AA63" s="284"/>
-      <c r="AB63" s="284"/>
-      <c r="AC63" s="284"/>
-      <c r="AD63" s="284"/>
-      <c r="AE63" s="284"/>
-      <c r="AF63" s="284"/>
-      <c r="AG63" s="284"/>
-      <c r="AH63" s="285"/>
+      <c r="W63" s="249"/>
+      <c r="X63" s="249"/>
+      <c r="Y63" s="249"/>
+      <c r="Z63" s="249"/>
+      <c r="AA63" s="249"/>
+      <c r="AB63" s="249"/>
+      <c r="AC63" s="249"/>
+      <c r="AD63" s="249"/>
+      <c r="AE63" s="249"/>
+      <c r="AF63" s="249"/>
+      <c r="AG63" s="249"/>
+      <c r="AH63" s="250"/>
       <c r="AI63" s="94"/>
       <c r="AK63" s="53"/>
       <c r="AL63" s="53"/>
@@ -19833,20 +19850,20 @@
       <c r="D64" s="132">
         <v>2</v>
       </c>
-      <c r="E64" s="299" t="s">
+      <c r="E64" s="305" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="300"/>
-      <c r="G64" s="300"/>
-      <c r="H64" s="300"/>
-      <c r="I64" s="300"/>
-      <c r="J64" s="301"/>
-      <c r="K64" s="283" t="s">
+      <c r="F64" s="306"/>
+      <c r="G64" s="306"/>
+      <c r="H64" s="306"/>
+      <c r="I64" s="306"/>
+      <c r="J64" s="307"/>
+      <c r="K64" s="248" t="s">
         <v>139</v>
       </c>
-      <c r="L64" s="284"/>
-      <c r="M64" s="284"/>
-      <c r="N64" s="285"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="250"/>
       <c r="O64" s="133" t="s">
         <v>7</v>
       </c>
@@ -19862,25 +19879,25 @@
       <c r="S64" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T64" s="302" t="s">
+      <c r="T64" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="U64" s="303"/>
-      <c r="V64" s="283" t="s">
+      <c r="U64" s="309"/>
+      <c r="V64" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="W64" s="284"/>
-      <c r="X64" s="284"/>
-      <c r="Y64" s="284"/>
-      <c r="Z64" s="284"/>
-      <c r="AA64" s="284"/>
-      <c r="AB64" s="284"/>
-      <c r="AC64" s="284"/>
-      <c r="AD64" s="284"/>
-      <c r="AE64" s="284"/>
-      <c r="AF64" s="284"/>
-      <c r="AG64" s="284"/>
-      <c r="AH64" s="285"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="249"/>
+      <c r="Z64" s="249"/>
+      <c r="AA64" s="249"/>
+      <c r="AB64" s="249"/>
+      <c r="AC64" s="249"/>
+      <c r="AD64" s="249"/>
+      <c r="AE64" s="249"/>
+      <c r="AF64" s="249"/>
+      <c r="AG64" s="249"/>
+      <c r="AH64" s="250"/>
       <c r="AI64" s="94"/>
       <c r="AK64" s="53"/>
       <c r="AL64" s="53"/>
@@ -20089,46 +20106,46 @@
       <c r="D69" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="344" t="s">
+      <c r="E69" s="273" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="257"/>
-      <c r="G69" s="257"/>
-      <c r="H69" s="257"/>
-      <c r="I69" s="257"/>
-      <c r="J69" s="345"/>
-      <c r="K69" s="344" t="s">
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="274"/>
+      <c r="K69" s="273" t="s">
         <v>142</v>
       </c>
-      <c r="L69" s="257"/>
-      <c r="M69" s="257"/>
-      <c r="N69" s="257"/>
-      <c r="O69" s="257"/>
-      <c r="P69" s="257"/>
-      <c r="Q69" s="258"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="244"/>
       <c r="R69" s="227" t="s">
         <v>143</v>
       </c>
-      <c r="S69" s="257"/>
-      <c r="T69" s="257"/>
-      <c r="U69" s="257"/>
-      <c r="V69" s="257"/>
-      <c r="W69" s="257"/>
-      <c r="X69" s="257"/>
-      <c r="Y69" s="258"/>
-      <c r="Z69" s="262" t="s">
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="244"/>
+      <c r="Z69" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="AA69" s="263"/>
-      <c r="AB69" s="263"/>
-      <c r="AC69" s="263"/>
-      <c r="AD69" s="264"/>
-      <c r="AE69" s="259" t="s">
+      <c r="AA69" s="303"/>
+      <c r="AB69" s="303"/>
+      <c r="AC69" s="303"/>
+      <c r="AD69" s="304"/>
+      <c r="AE69" s="340" t="s">
         <v>145</v>
       </c>
-      <c r="AF69" s="260"/>
-      <c r="AG69" s="260"/>
-      <c r="AH69" s="261"/>
+      <c r="AF69" s="341"/>
+      <c r="AG69" s="341"/>
+      <c r="AH69" s="342"/>
       <c r="AI69" s="94"/>
     </row>
     <row r="70" spans="1:57" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20138,46 +20155,46 @@
       <c r="D70" s="137">
         <v>1</v>
       </c>
-      <c r="E70" s="265" t="s">
+      <c r="E70" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="266"/>
-      <c r="J70" s="267"/>
-      <c r="K70" s="309" t="s">
-        <v>284</v>
-      </c>
-      <c r="L70" s="309"/>
-      <c r="M70" s="309"/>
-      <c r="N70" s="309"/>
-      <c r="O70" s="309"/>
-      <c r="P70" s="309"/>
-      <c r="Q70" s="309"/>
-      <c r="R70" s="309" t="s">
-        <v>275</v>
-      </c>
-      <c r="S70" s="309"/>
-      <c r="T70" s="309"/>
-      <c r="U70" s="309"/>
-      <c r="V70" s="309"/>
-      <c r="W70" s="309"/>
-      <c r="X70" s="309"/>
-      <c r="Y70" s="309"/>
-      <c r="Z70" s="309" t="s">
+      <c r="F70" s="258"/>
+      <c r="G70" s="258"/>
+      <c r="H70" s="258"/>
+      <c r="I70" s="258"/>
+      <c r="J70" s="259"/>
+      <c r="K70" s="260" t="s">
+        <v>283</v>
+      </c>
+      <c r="L70" s="260"/>
+      <c r="M70" s="260"/>
+      <c r="N70" s="260"/>
+      <c r="O70" s="260"/>
+      <c r="P70" s="260"/>
+      <c r="Q70" s="260"/>
+      <c r="R70" s="260" t="s">
+        <v>274</v>
+      </c>
+      <c r="S70" s="260"/>
+      <c r="T70" s="260"/>
+      <c r="U70" s="260"/>
+      <c r="V70" s="260"/>
+      <c r="W70" s="260"/>
+      <c r="X70" s="260"/>
+      <c r="Y70" s="260"/>
+      <c r="Z70" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="AA70" s="309"/>
-      <c r="AB70" s="309"/>
-      <c r="AC70" s="309"/>
-      <c r="AD70" s="309"/>
-      <c r="AE70" s="268" t="s">
+      <c r="AA70" s="260"/>
+      <c r="AB70" s="260"/>
+      <c r="AC70" s="260"/>
+      <c r="AD70" s="260"/>
+      <c r="AE70" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF70" s="269"/>
-      <c r="AG70" s="269"/>
-      <c r="AH70" s="270"/>
+      <c r="AF70" s="271"/>
+      <c r="AG70" s="271"/>
+      <c r="AH70" s="272"/>
       <c r="AI70" s="94"/>
     </row>
     <row r="71" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -20187,46 +20204,46 @@
       <c r="D71" s="195">
         <v>2</v>
       </c>
-      <c r="E71" s="350" t="s">
-        <v>276</v>
-      </c>
-      <c r="F71" s="350"/>
-      <c r="G71" s="350"/>
-      <c r="H71" s="350"/>
-      <c r="I71" s="350"/>
-      <c r="J71" s="350"/>
-      <c r="K71" s="309" t="s">
-        <v>302</v>
-      </c>
-      <c r="L71" s="309"/>
-      <c r="M71" s="309"/>
-      <c r="N71" s="309"/>
-      <c r="O71" s="309"/>
-      <c r="P71" s="309"/>
-      <c r="Q71" s="309"/>
-      <c r="R71" s="309" t="s">
+      <c r="E71" s="362" t="s">
+        <v>275</v>
+      </c>
+      <c r="F71" s="362"/>
+      <c r="G71" s="362"/>
+      <c r="H71" s="362"/>
+      <c r="I71" s="362"/>
+      <c r="J71" s="362"/>
+      <c r="K71" s="260" t="s">
+        <v>301</v>
+      </c>
+      <c r="L71" s="260"/>
+      <c r="M71" s="260"/>
+      <c r="N71" s="260"/>
+      <c r="O71" s="260"/>
+      <c r="P71" s="260"/>
+      <c r="Q71" s="260"/>
+      <c r="R71" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="S71" s="309"/>
-      <c r="T71" s="309"/>
-      <c r="U71" s="309"/>
-      <c r="V71" s="309"/>
-      <c r="W71" s="309"/>
-      <c r="X71" s="309"/>
-      <c r="Y71" s="309"/>
-      <c r="Z71" s="350" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA71" s="350"/>
-      <c r="AB71" s="350"/>
-      <c r="AC71" s="350"/>
-      <c r="AD71" s="350"/>
-      <c r="AE71" s="268" t="s">
+      <c r="S71" s="260"/>
+      <c r="T71" s="260"/>
+      <c r="U71" s="260"/>
+      <c r="V71" s="260"/>
+      <c r="W71" s="260"/>
+      <c r="X71" s="260"/>
+      <c r="Y71" s="260"/>
+      <c r="Z71" s="362" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA71" s="362"/>
+      <c r="AB71" s="362"/>
+      <c r="AC71" s="362"/>
+      <c r="AD71" s="362"/>
+      <c r="AE71" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF71" s="269"/>
-      <c r="AG71" s="269"/>
-      <c r="AH71" s="270"/>
+      <c r="AF71" s="271"/>
+      <c r="AG71" s="271"/>
+      <c r="AH71" s="272"/>
       <c r="AI71" s="94"/>
     </row>
     <row r="72" spans="1:57" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20236,46 +20253,46 @@
       <c r="D72" s="137">
         <v>3</v>
       </c>
-      <c r="E72" s="349" t="s">
-        <v>277</v>
-      </c>
-      <c r="F72" s="349"/>
-      <c r="G72" s="349"/>
-      <c r="H72" s="349"/>
-      <c r="I72" s="349"/>
-      <c r="J72" s="349"/>
-      <c r="K72" s="308" t="s">
-        <v>303</v>
-      </c>
-      <c r="L72" s="308"/>
-      <c r="M72" s="308"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="308"/>
-      <c r="Q72" s="308"/>
-      <c r="R72" s="308" t="s">
-        <v>274</v>
-      </c>
-      <c r="S72" s="308"/>
-      <c r="T72" s="308"/>
-      <c r="U72" s="308"/>
-      <c r="V72" s="308"/>
-      <c r="W72" s="308"/>
-      <c r="X72" s="308"/>
-      <c r="Y72" s="308"/>
-      <c r="Z72" s="308" t="s">
+      <c r="E72" s="361" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="361"/>
+      <c r="G72" s="361"/>
+      <c r="H72" s="361"/>
+      <c r="I72" s="361"/>
+      <c r="J72" s="361"/>
+      <c r="K72" s="310" t="s">
+        <v>302</v>
+      </c>
+      <c r="L72" s="310"/>
+      <c r="M72" s="310"/>
+      <c r="N72" s="310"/>
+      <c r="O72" s="310"/>
+      <c r="P72" s="310"/>
+      <c r="Q72" s="310"/>
+      <c r="R72" s="310" t="s">
         <v>273</v>
       </c>
-      <c r="AA72" s="308"/>
-      <c r="AB72" s="308"/>
-      <c r="AC72" s="308"/>
-      <c r="AD72" s="308"/>
-      <c r="AE72" s="268" t="s">
+      <c r="S72" s="310"/>
+      <c r="T72" s="310"/>
+      <c r="U72" s="310"/>
+      <c r="V72" s="310"/>
+      <c r="W72" s="310"/>
+      <c r="X72" s="310"/>
+      <c r="Y72" s="310"/>
+      <c r="Z72" s="310" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA72" s="310"/>
+      <c r="AB72" s="310"/>
+      <c r="AC72" s="310"/>
+      <c r="AD72" s="310"/>
+      <c r="AE72" s="270" t="s">
         <v>146</v>
       </c>
-      <c r="AF72" s="269"/>
-      <c r="AG72" s="269"/>
-      <c r="AH72" s="270"/>
+      <c r="AF72" s="271"/>
+      <c r="AG72" s="271"/>
+      <c r="AH72" s="272"/>
       <c r="AI72" s="161"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
@@ -20392,7 +20409,7 @@
       <c r="B75" s="94"/>
       <c r="C75" s="158"/>
       <c r="D75" s="94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E75" s="157"/>
       <c r="F75" s="94"/>
@@ -20540,7 +20557,7 @@
       <c r="D78" s="157"/>
       <c r="E78" s="157"/>
       <c r="F78" s="161" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G78" s="161"/>
       <c r="H78" s="161"/>
@@ -20611,7 +20628,7 @@
       <c r="AI79" s="161"/>
       <c r="AP79" s="5"/>
     </row>
-    <row r="80" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="94"/>
       <c r="B80" s="94"/>
       <c r="C80" s="94"/>
@@ -20623,40 +20640,40 @@
       <c r="G80" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="H80" s="257"/>
-      <c r="I80" s="257"/>
-      <c r="J80" s="257"/>
-      <c r="K80" s="257"/>
-      <c r="L80" s="258"/>
+      <c r="H80" s="243"/>
+      <c r="I80" s="243"/>
+      <c r="J80" s="243"/>
+      <c r="K80" s="243"/>
+      <c r="L80" s="244"/>
       <c r="M80" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="N80" s="257"/>
-      <c r="O80" s="257"/>
-      <c r="P80" s="257"/>
-      <c r="Q80" s="257"/>
-      <c r="R80" s="257"/>
-      <c r="S80" s="257"/>
-      <c r="T80" s="257"/>
-      <c r="U80" s="257"/>
-      <c r="V80" s="258"/>
-      <c r="W80" s="254" t="s">
+      <c r="N80" s="243"/>
+      <c r="O80" s="243"/>
+      <c r="P80" s="243"/>
+      <c r="Q80" s="243"/>
+      <c r="R80" s="243"/>
+      <c r="S80" s="243"/>
+      <c r="T80" s="243"/>
+      <c r="U80" s="243"/>
+      <c r="V80" s="244"/>
+      <c r="W80" s="334" t="s">
         <v>185</v>
       </c>
-      <c r="X80" s="255"/>
-      <c r="Y80" s="256"/>
-      <c r="Z80" s="254" t="s">
+      <c r="X80" s="335"/>
+      <c r="Y80" s="336"/>
+      <c r="Z80" s="365" t="s">
         <v>186</v>
       </c>
-      <c r="AA80" s="255"/>
-      <c r="AB80" s="255"/>
-      <c r="AC80" s="256"/>
-      <c r="AD80" s="274" t="s">
+      <c r="AA80" s="366"/>
+      <c r="AB80" s="366"/>
+      <c r="AC80" s="367"/>
+      <c r="AD80" s="346" t="s">
         <v>187</v>
       </c>
-      <c r="AE80" s="275"/>
-      <c r="AF80" s="275"/>
-      <c r="AG80" s="276"/>
+      <c r="AE80" s="347"/>
+      <c r="AF80" s="347"/>
+      <c r="AG80" s="348"/>
       <c r="AH80" s="94"/>
       <c r="AI80" s="94"/>
       <c r="AJ80" s="63"/>
@@ -20691,43 +20708,43 @@
       <c r="F81" s="159">
         <v>1</v>
       </c>
-      <c r="G81" s="248" t="s">
+      <c r="G81" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="249"/>
-      <c r="I81" s="249"/>
-      <c r="J81" s="249"/>
-      <c r="K81" s="249"/>
-      <c r="L81" s="250"/>
-      <c r="M81" s="248" t="s">
+      <c r="H81" s="246"/>
+      <c r="I81" s="246"/>
+      <c r="J81" s="246"/>
+      <c r="K81" s="246"/>
+      <c r="L81" s="247"/>
+      <c r="M81" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="N81" s="249"/>
-      <c r="O81" s="249"/>
-      <c r="P81" s="249"/>
-      <c r="Q81" s="249"/>
-      <c r="R81" s="249"/>
-      <c r="S81" s="249"/>
-      <c r="T81" s="249"/>
-      <c r="U81" s="249"/>
-      <c r="V81" s="250"/>
-      <c r="W81" s="335" t="s">
+      <c r="N81" s="246"/>
+      <c r="O81" s="246"/>
+      <c r="P81" s="246"/>
+      <c r="Q81" s="246"/>
+      <c r="R81" s="246"/>
+      <c r="S81" s="246"/>
+      <c r="T81" s="246"/>
+      <c r="U81" s="246"/>
+      <c r="V81" s="247"/>
+      <c r="W81" s="275" t="s">
+        <v>284</v>
+      </c>
+      <c r="X81" s="276"/>
+      <c r="Y81" s="277"/>
+      <c r="Z81" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="X81" s="336"/>
-      <c r="Y81" s="337"/>
-      <c r="Z81" s="238" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA81" s="239"/>
-      <c r="AB81" s="239"/>
-      <c r="AC81" s="240"/>
-      <c r="AD81" s="248" t="s">
+      <c r="AA81" s="268"/>
+      <c r="AB81" s="268"/>
+      <c r="AC81" s="269"/>
+      <c r="AD81" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="AE81" s="249"/>
-      <c r="AF81" s="249"/>
-      <c r="AG81" s="250"/>
+      <c r="AE81" s="246"/>
+      <c r="AF81" s="246"/>
+      <c r="AG81" s="247"/>
       <c r="AH81" s="94"/>
       <c r="AI81" s="160"/>
       <c r="AJ81" s="63"/>
@@ -20819,7 +20836,7 @@
       <c r="D83" s="162"/>
       <c r="E83" s="162"/>
       <c r="F83" s="161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G83" s="200"/>
       <c r="H83" s="200"/>
@@ -21061,30 +21078,30 @@
       <c r="K89" s="165"/>
       <c r="L89" s="165"/>
       <c r="M89" s="165"/>
-      <c r="N89" s="251" t="s">
+      <c r="N89" s="337" t="s">
         <v>206</v>
       </c>
-      <c r="O89" s="252"/>
-      <c r="P89" s="252"/>
-      <c r="Q89" s="252"/>
-      <c r="R89" s="252"/>
-      <c r="S89" s="252"/>
-      <c r="T89" s="252"/>
-      <c r="U89" s="252"/>
-      <c r="V89" s="252"/>
-      <c r="W89" s="253"/>
-      <c r="X89" s="251" t="s">
+      <c r="O89" s="338"/>
+      <c r="P89" s="338"/>
+      <c r="Q89" s="338"/>
+      <c r="R89" s="338"/>
+      <c r="S89" s="338"/>
+      <c r="T89" s="338"/>
+      <c r="U89" s="338"/>
+      <c r="V89" s="338"/>
+      <c r="W89" s="339"/>
+      <c r="X89" s="337" t="s">
         <v>207</v>
       </c>
-      <c r="Y89" s="252"/>
-      <c r="Z89" s="252"/>
-      <c r="AA89" s="252"/>
-      <c r="AB89" s="252"/>
-      <c r="AC89" s="252"/>
-      <c r="AD89" s="252"/>
-      <c r="AE89" s="252"/>
-      <c r="AF89" s="252"/>
-      <c r="AG89" s="253"/>
+      <c r="Y89" s="338"/>
+      <c r="Z89" s="338"/>
+      <c r="AA89" s="338"/>
+      <c r="AB89" s="338"/>
+      <c r="AC89" s="338"/>
+      <c r="AD89" s="338"/>
+      <c r="AE89" s="338"/>
+      <c r="AF89" s="338"/>
+      <c r="AG89" s="339"/>
       <c r="AH89" s="161"/>
       <c r="AI89" s="161"/>
     </row>
@@ -21096,7 +21113,7 @@
       <c r="E90" s="94"/>
       <c r="F90" s="94"/>
       <c r="G90" s="96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H90" s="97"/>
       <c r="I90" s="97"/>
@@ -21105,7 +21122,7 @@
       <c r="L90" s="97"/>
       <c r="M90" s="97"/>
       <c r="N90" s="209" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O90" s="210"/>
       <c r="P90" s="210"/>
@@ -21116,18 +21133,18 @@
       <c r="U90" s="210"/>
       <c r="V90" s="210"/>
       <c r="W90" s="211"/>
-      <c r="X90" s="299" t="s">
+      <c r="X90" s="305" t="s">
         <v>42</v>
       </c>
-      <c r="Y90" s="300"/>
-      <c r="Z90" s="300"/>
-      <c r="AA90" s="300"/>
-      <c r="AB90" s="300"/>
-      <c r="AC90" s="300"/>
-      <c r="AD90" s="300"/>
-      <c r="AE90" s="300"/>
-      <c r="AF90" s="300"/>
-      <c r="AG90" s="301"/>
+      <c r="Y90" s="306"/>
+      <c r="Z90" s="306"/>
+      <c r="AA90" s="306"/>
+      <c r="AB90" s="306"/>
+      <c r="AC90" s="306"/>
+      <c r="AD90" s="306"/>
+      <c r="AE90" s="306"/>
+      <c r="AF90" s="306"/>
+      <c r="AG90" s="307"/>
       <c r="AH90" s="94"/>
       <c r="AI90" s="94"/>
     </row>
@@ -21146,7 +21163,7 @@
       <c r="L91" s="100"/>
       <c r="M91" s="100"/>
       <c r="N91" s="209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O91" s="210"/>
       <c r="P91" s="210"/>
@@ -21157,18 +21174,18 @@
       <c r="U91" s="210"/>
       <c r="V91" s="210"/>
       <c r="W91" s="211"/>
-      <c r="X91" s="299" t="s">
+      <c r="X91" s="305" t="s">
         <v>210</v>
       </c>
-      <c r="Y91" s="300"/>
-      <c r="Z91" s="300"/>
-      <c r="AA91" s="300"/>
-      <c r="AB91" s="300"/>
-      <c r="AC91" s="300"/>
-      <c r="AD91" s="300"/>
-      <c r="AE91" s="300"/>
-      <c r="AF91" s="300"/>
-      <c r="AG91" s="301"/>
+      <c r="Y91" s="306"/>
+      <c r="Z91" s="306"/>
+      <c r="AA91" s="306"/>
+      <c r="AB91" s="306"/>
+      <c r="AC91" s="306"/>
+      <c r="AD91" s="306"/>
+      <c r="AE91" s="306"/>
+      <c r="AF91" s="306"/>
+      <c r="AG91" s="307"/>
       <c r="AH91" s="94"/>
       <c r="AI91" s="94"/>
     </row>
@@ -21187,7 +21204,7 @@
       <c r="L92" s="100"/>
       <c r="M92" s="100"/>
       <c r="N92" s="209" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O92" s="210"/>
       <c r="P92" s="210"/>
@@ -21198,18 +21215,18 @@
       <c r="U92" s="210"/>
       <c r="V92" s="210"/>
       <c r="W92" s="211"/>
-      <c r="X92" s="299" t="s">
+      <c r="X92" s="305" t="s">
         <v>212</v>
       </c>
-      <c r="Y92" s="300"/>
-      <c r="Z92" s="300"/>
-      <c r="AA92" s="300"/>
-      <c r="AB92" s="300"/>
-      <c r="AC92" s="300"/>
-      <c r="AD92" s="300"/>
-      <c r="AE92" s="300"/>
-      <c r="AF92" s="300"/>
-      <c r="AG92" s="301"/>
+      <c r="Y92" s="306"/>
+      <c r="Z92" s="306"/>
+      <c r="AA92" s="306"/>
+      <c r="AB92" s="306"/>
+      <c r="AC92" s="306"/>
+      <c r="AD92" s="306"/>
+      <c r="AE92" s="306"/>
+      <c r="AF92" s="306"/>
+      <c r="AG92" s="307"/>
       <c r="AH92" s="94"/>
       <c r="AI92" s="94"/>
     </row>
@@ -21228,7 +21245,7 @@
       <c r="L93" s="100"/>
       <c r="M93" s="100"/>
       <c r="N93" s="209" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O93" s="210"/>
       <c r="P93" s="210"/>
@@ -21239,18 +21256,18 @@
       <c r="U93" s="210"/>
       <c r="V93" s="210"/>
       <c r="W93" s="211"/>
-      <c r="X93" s="299" t="s">
+      <c r="X93" s="305" t="s">
         <v>211</v>
       </c>
-      <c r="Y93" s="300"/>
-      <c r="Z93" s="300"/>
-      <c r="AA93" s="300"/>
-      <c r="AB93" s="300"/>
-      <c r="AC93" s="300"/>
-      <c r="AD93" s="300"/>
-      <c r="AE93" s="300"/>
-      <c r="AF93" s="300"/>
-      <c r="AG93" s="301"/>
+      <c r="Y93" s="306"/>
+      <c r="Z93" s="306"/>
+      <c r="AA93" s="306"/>
+      <c r="AB93" s="306"/>
+      <c r="AC93" s="306"/>
+      <c r="AD93" s="306"/>
+      <c r="AE93" s="306"/>
+      <c r="AF93" s="306"/>
+      <c r="AG93" s="307"/>
       <c r="AH93" s="94"/>
       <c r="AI93" s="94"/>
     </row>
@@ -21269,7 +21286,7 @@
       <c r="L94" s="100"/>
       <c r="M94" s="100"/>
       <c r="N94" s="209" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O94" s="210"/>
       <c r="P94" s="210"/>
@@ -21280,18 +21297,18 @@
       <c r="U94" s="210"/>
       <c r="V94" s="210"/>
       <c r="W94" s="211"/>
-      <c r="X94" s="362" t="s">
+      <c r="X94" s="352" t="s">
         <v>104</v>
       </c>
-      <c r="Y94" s="300"/>
-      <c r="Z94" s="300"/>
-      <c r="AA94" s="300"/>
-      <c r="AB94" s="300"/>
-      <c r="AC94" s="300"/>
-      <c r="AD94" s="300"/>
-      <c r="AE94" s="300"/>
-      <c r="AF94" s="300"/>
-      <c r="AG94" s="301"/>
+      <c r="Y94" s="306"/>
+      <c r="Z94" s="306"/>
+      <c r="AA94" s="306"/>
+      <c r="AB94" s="306"/>
+      <c r="AC94" s="306"/>
+      <c r="AD94" s="306"/>
+      <c r="AE94" s="306"/>
+      <c r="AF94" s="306"/>
+      <c r="AG94" s="307"/>
       <c r="AH94" s="94"/>
       <c r="AI94" s="94"/>
     </row>
@@ -21310,7 +21327,7 @@
       <c r="L95" s="100"/>
       <c r="M95" s="100"/>
       <c r="N95" s="209" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O95" s="210"/>
       <c r="P95" s="210"/>
@@ -21321,18 +21338,18 @@
       <c r="U95" s="210"/>
       <c r="V95" s="210"/>
       <c r="W95" s="211"/>
-      <c r="X95" s="299" t="s">
+      <c r="X95" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="Y95" s="300"/>
-      <c r="Z95" s="300"/>
-      <c r="AA95" s="300"/>
-      <c r="AB95" s="300"/>
-      <c r="AC95" s="300"/>
-      <c r="AD95" s="300"/>
-      <c r="AE95" s="300"/>
-      <c r="AF95" s="300"/>
-      <c r="AG95" s="301"/>
+      <c r="Y95" s="306"/>
+      <c r="Z95" s="306"/>
+      <c r="AA95" s="306"/>
+      <c r="AB95" s="306"/>
+      <c r="AC95" s="306"/>
+      <c r="AD95" s="306"/>
+      <c r="AE95" s="306"/>
+      <c r="AF95" s="306"/>
+      <c r="AG95" s="307"/>
       <c r="AH95" s="94"/>
       <c r="AI95" s="94"/>
     </row>
@@ -21351,7 +21368,7 @@
       <c r="L96" s="100"/>
       <c r="M96" s="100"/>
       <c r="N96" s="209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O96" s="210"/>
       <c r="P96" s="210"/>
@@ -21362,18 +21379,18 @@
       <c r="U96" s="210"/>
       <c r="V96" s="210"/>
       <c r="W96" s="211"/>
-      <c r="X96" s="299" t="s">
+      <c r="X96" s="305" t="s">
         <v>43</v>
       </c>
-      <c r="Y96" s="300"/>
-      <c r="Z96" s="300"/>
-      <c r="AA96" s="300"/>
-      <c r="AB96" s="300"/>
-      <c r="AC96" s="300"/>
-      <c r="AD96" s="300"/>
-      <c r="AE96" s="300"/>
-      <c r="AF96" s="300"/>
-      <c r="AG96" s="301"/>
+      <c r="Y96" s="306"/>
+      <c r="Z96" s="306"/>
+      <c r="AA96" s="306"/>
+      <c r="AB96" s="306"/>
+      <c r="AC96" s="306"/>
+      <c r="AD96" s="306"/>
+      <c r="AE96" s="306"/>
+      <c r="AF96" s="306"/>
+      <c r="AG96" s="307"/>
       <c r="AH96" s="94"/>
       <c r="AI96" s="94"/>
     </row>
@@ -21392,7 +21409,7 @@
       <c r="L97" s="100"/>
       <c r="M97" s="100"/>
       <c r="N97" s="209" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O97" s="210"/>
       <c r="P97" s="210"/>
@@ -21403,18 +21420,18 @@
       <c r="U97" s="210"/>
       <c r="V97" s="210"/>
       <c r="W97" s="211"/>
-      <c r="X97" s="299" t="s">
+      <c r="X97" s="305" t="s">
         <v>45</v>
       </c>
-      <c r="Y97" s="300"/>
-      <c r="Z97" s="300"/>
-      <c r="AA97" s="300"/>
-      <c r="AB97" s="300"/>
-      <c r="AC97" s="300"/>
-      <c r="AD97" s="300"/>
-      <c r="AE97" s="300"/>
-      <c r="AF97" s="300"/>
-      <c r="AG97" s="301"/>
+      <c r="Y97" s="306"/>
+      <c r="Z97" s="306"/>
+      <c r="AA97" s="306"/>
+      <c r="AB97" s="306"/>
+      <c r="AC97" s="306"/>
+      <c r="AD97" s="306"/>
+      <c r="AE97" s="306"/>
+      <c r="AF97" s="306"/>
+      <c r="AG97" s="307"/>
       <c r="AH97" s="94"/>
       <c r="AI97" s="94"/>
     </row>
@@ -21433,7 +21450,7 @@
       <c r="L98" s="100"/>
       <c r="M98" s="100"/>
       <c r="N98" s="209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O98" s="210"/>
       <c r="P98" s="210"/>
@@ -21444,18 +21461,18 @@
       <c r="U98" s="210"/>
       <c r="V98" s="210"/>
       <c r="W98" s="211"/>
-      <c r="X98" s="299" t="s">
+      <c r="X98" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="Y98" s="300"/>
-      <c r="Z98" s="300"/>
-      <c r="AA98" s="300"/>
-      <c r="AB98" s="300"/>
-      <c r="AC98" s="300"/>
-      <c r="AD98" s="300"/>
-      <c r="AE98" s="300"/>
-      <c r="AF98" s="300"/>
-      <c r="AG98" s="301"/>
+      <c r="Y98" s="306"/>
+      <c r="Z98" s="306"/>
+      <c r="AA98" s="306"/>
+      <c r="AB98" s="306"/>
+      <c r="AC98" s="306"/>
+      <c r="AD98" s="306"/>
+      <c r="AE98" s="306"/>
+      <c r="AF98" s="306"/>
+      <c r="AG98" s="307"/>
       <c r="AH98" s="94"/>
       <c r="AI98" s="94"/>
     </row>
@@ -21474,7 +21491,7 @@
       <c r="L99" s="100"/>
       <c r="M99" s="100"/>
       <c r="N99" s="209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O99" s="210"/>
       <c r="P99" s="210"/>
@@ -21485,18 +21502,18 @@
       <c r="U99" s="210"/>
       <c r="V99" s="210"/>
       <c r="W99" s="211"/>
-      <c r="X99" s="299" t="s">
+      <c r="X99" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="Y99" s="300"/>
-      <c r="Z99" s="300"/>
-      <c r="AA99" s="300"/>
-      <c r="AB99" s="300"/>
-      <c r="AC99" s="300"/>
-      <c r="AD99" s="300"/>
-      <c r="AE99" s="300"/>
-      <c r="AF99" s="300"/>
-      <c r="AG99" s="301"/>
+      <c r="Y99" s="306"/>
+      <c r="Z99" s="306"/>
+      <c r="AA99" s="306"/>
+      <c r="AB99" s="306"/>
+      <c r="AC99" s="306"/>
+      <c r="AD99" s="306"/>
+      <c r="AE99" s="306"/>
+      <c r="AF99" s="306"/>
+      <c r="AG99" s="307"/>
       <c r="AH99" s="94"/>
       <c r="AI99" s="94"/>
     </row>
@@ -21515,7 +21532,7 @@
       <c r="L100" s="104"/>
       <c r="M100" s="104"/>
       <c r="N100" s="209" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O100" s="210"/>
       <c r="P100" s="210"/>
@@ -21526,18 +21543,18 @@
       <c r="U100" s="210"/>
       <c r="V100" s="210"/>
       <c r="W100" s="211"/>
-      <c r="X100" s="299" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y100" s="300"/>
-      <c r="Z100" s="300"/>
-      <c r="AA100" s="300"/>
-      <c r="AB100" s="300"/>
-      <c r="AC100" s="300"/>
-      <c r="AD100" s="300"/>
-      <c r="AE100" s="300"/>
-      <c r="AF100" s="300"/>
-      <c r="AG100" s="301"/>
+      <c r="X100" s="305" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y100" s="306"/>
+      <c r="Z100" s="306"/>
+      <c r="AA100" s="306"/>
+      <c r="AB100" s="306"/>
+      <c r="AC100" s="306"/>
+      <c r="AD100" s="306"/>
+      <c r="AE100" s="306"/>
+      <c r="AF100" s="306"/>
+      <c r="AG100" s="307"/>
       <c r="AH100" s="94"/>
       <c r="AI100" s="94"/>
     </row>
@@ -21549,7 +21566,7 @@
       <c r="E101" s="94"/>
       <c r="F101" s="94"/>
       <c r="G101" s="206" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H101" s="207"/>
       <c r="I101" s="207"/>
@@ -21558,7 +21575,7 @@
       <c r="L101" s="207"/>
       <c r="M101" s="208"/>
       <c r="N101" s="209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O101" s="210"/>
       <c r="P101" s="210"/>
@@ -21569,18 +21586,18 @@
       <c r="U101" s="210"/>
       <c r="V101" s="210"/>
       <c r="W101" s="211"/>
-      <c r="X101" s="299" t="s">
+      <c r="X101" s="305" t="s">
         <v>208</v>
       </c>
-      <c r="Y101" s="300"/>
-      <c r="Z101" s="300"/>
-      <c r="AA101" s="300"/>
-      <c r="AB101" s="300"/>
-      <c r="AC101" s="300"/>
-      <c r="AD101" s="300"/>
-      <c r="AE101" s="300"/>
-      <c r="AF101" s="300"/>
-      <c r="AG101" s="301"/>
+      <c r="Y101" s="306"/>
+      <c r="Z101" s="306"/>
+      <c r="AA101" s="306"/>
+      <c r="AB101" s="306"/>
+      <c r="AC101" s="306"/>
+      <c r="AD101" s="306"/>
+      <c r="AE101" s="306"/>
+      <c r="AF101" s="306"/>
+      <c r="AG101" s="307"/>
       <c r="AH101" s="94"/>
       <c r="AI101" s="94"/>
     </row>
@@ -21592,7 +21609,7 @@
       <c r="E102" s="94"/>
       <c r="F102" s="94"/>
       <c r="G102" s="206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H102" s="207"/>
       <c r="I102" s="207"/>
@@ -21601,7 +21618,7 @@
       <c r="L102" s="207"/>
       <c r="M102" s="208"/>
       <c r="N102" s="212" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O102" s="213"/>
       <c r="P102" s="213"/>
@@ -21612,18 +21629,18 @@
       <c r="U102" s="213"/>
       <c r="V102" s="213"/>
       <c r="W102" s="214"/>
-      <c r="X102" s="359" t="s">
+      <c r="X102" s="349" t="s">
         <v>209</v>
       </c>
-      <c r="Y102" s="360"/>
-      <c r="Z102" s="360"/>
-      <c r="AA102" s="360"/>
-      <c r="AB102" s="360"/>
-      <c r="AC102" s="360"/>
-      <c r="AD102" s="360"/>
-      <c r="AE102" s="360"/>
-      <c r="AF102" s="360"/>
-      <c r="AG102" s="361"/>
+      <c r="Y102" s="350"/>
+      <c r="Z102" s="350"/>
+      <c r="AA102" s="350"/>
+      <c r="AB102" s="350"/>
+      <c r="AC102" s="350"/>
+      <c r="AD102" s="350"/>
+      <c r="AE102" s="350"/>
+      <c r="AF102" s="350"/>
+      <c r="AG102" s="351"/>
       <c r="AH102" s="94"/>
       <c r="AI102" s="94"/>
       <c r="AP102" s="58"/>
@@ -21644,35 +21661,35 @@
       <c r="D103" s="94"/>
       <c r="E103" s="94"/>
       <c r="F103" s="94"/>
-      <c r="G103" s="235" t="s">
-        <v>352</v>
-      </c>
-      <c r="H103" s="236"/>
-      <c r="I103" s="236"/>
-      <c r="J103" s="236"/>
-      <c r="K103" s="236"/>
-      <c r="L103" s="236"/>
-      <c r="M103" s="236"/>
-      <c r="N103" s="236"/>
-      <c r="O103" s="236"/>
-      <c r="P103" s="236"/>
-      <c r="Q103" s="236"/>
-      <c r="R103" s="236"/>
-      <c r="S103" s="236"/>
-      <c r="T103" s="236"/>
-      <c r="U103" s="236"/>
-      <c r="V103" s="236"/>
-      <c r="W103" s="236"/>
-      <c r="X103" s="236"/>
-      <c r="Y103" s="236"/>
-      <c r="Z103" s="236"/>
-      <c r="AA103" s="236"/>
-      <c r="AB103" s="236"/>
-      <c r="AC103" s="236"/>
-      <c r="AD103" s="236"/>
-      <c r="AE103" s="236"/>
-      <c r="AF103" s="236"/>
-      <c r="AG103" s="237"/>
+      <c r="G103" s="317" t="s">
+        <v>351</v>
+      </c>
+      <c r="H103" s="318"/>
+      <c r="I103" s="318"/>
+      <c r="J103" s="318"/>
+      <c r="K103" s="318"/>
+      <c r="L103" s="318"/>
+      <c r="M103" s="318"/>
+      <c r="N103" s="318"/>
+      <c r="O103" s="318"/>
+      <c r="P103" s="318"/>
+      <c r="Q103" s="318"/>
+      <c r="R103" s="318"/>
+      <c r="S103" s="318"/>
+      <c r="T103" s="318"/>
+      <c r="U103" s="318"/>
+      <c r="V103" s="318"/>
+      <c r="W103" s="318"/>
+      <c r="X103" s="318"/>
+      <c r="Y103" s="318"/>
+      <c r="Z103" s="318"/>
+      <c r="AA103" s="318"/>
+      <c r="AB103" s="318"/>
+      <c r="AC103" s="318"/>
+      <c r="AD103" s="318"/>
+      <c r="AE103" s="318"/>
+      <c r="AF103" s="318"/>
+      <c r="AG103" s="319"/>
       <c r="AH103" s="94"/>
       <c r="AI103" s="94"/>
       <c r="AJ103" s="58"/>
@@ -21768,7 +21785,7 @@
       <c r="F105" s="94"/>
       <c r="G105" s="169"/>
       <c r="H105" s="170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I105" s="170"/>
       <c r="J105" s="170"/>
@@ -21891,13 +21908,13 @@
       <c r="G107" s="169"/>
       <c r="H107" s="170"/>
       <c r="I107" s="173" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J107" s="173"/>
       <c r="K107" s="170"/>
       <c r="L107" s="170"/>
       <c r="M107" s="170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N107" s="170"/>
       <c r="O107" s="170"/>
@@ -21955,10 +21972,10 @@
       <c r="G108" s="169"/>
       <c r="H108" s="170"/>
       <c r="I108" s="170" t="s">
+        <v>323</v>
+      </c>
+      <c r="J108" s="170" t="s">
         <v>324</v>
-      </c>
-      <c r="J108" s="170" t="s">
-        <v>325</v>
       </c>
       <c r="K108" s="170"/>
       <c r="L108" s="173"/>
@@ -21970,7 +21987,7 @@
         <v>173</v>
       </c>
       <c r="R108" s="170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S108" s="170"/>
       <c r="T108" s="170"/>
@@ -22083,13 +22100,13 @@
       <c r="G110" s="169"/>
       <c r="H110" s="170"/>
       <c r="I110" s="173" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J110" s="173"/>
       <c r="K110" s="170"/>
       <c r="L110" s="170"/>
       <c r="M110" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N110" s="170"/>
       <c r="O110" s="170"/>
@@ -22147,10 +22164,10 @@
       <c r="G111" s="169"/>
       <c r="H111" s="170"/>
       <c r="I111" s="170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J111" s="170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K111" s="170"/>
       <c r="L111" s="173"/>
@@ -22162,7 +22179,7 @@
         <v>173</v>
       </c>
       <c r="R111" s="170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S111" s="170"/>
       <c r="T111" s="170"/>
@@ -22272,35 +22289,35 @@
       <c r="D113" s="94"/>
       <c r="E113" s="94"/>
       <c r="F113" s="94"/>
-      <c r="G113" s="235" t="s">
-        <v>351</v>
-      </c>
-      <c r="H113" s="236"/>
-      <c r="I113" s="236"/>
-      <c r="J113" s="236"/>
-      <c r="K113" s="236"/>
-      <c r="L113" s="236"/>
-      <c r="M113" s="236"/>
-      <c r="N113" s="236"/>
-      <c r="O113" s="236"/>
-      <c r="P113" s="236"/>
-      <c r="Q113" s="236"/>
-      <c r="R113" s="236"/>
-      <c r="S113" s="236"/>
-      <c r="T113" s="236"/>
-      <c r="U113" s="236"/>
-      <c r="V113" s="236"/>
-      <c r="W113" s="236"/>
-      <c r="X113" s="236"/>
-      <c r="Y113" s="236"/>
-      <c r="Z113" s="236"/>
-      <c r="AA113" s="236"/>
-      <c r="AB113" s="236"/>
-      <c r="AC113" s="236"/>
-      <c r="AD113" s="236"/>
-      <c r="AE113" s="236"/>
-      <c r="AF113" s="236"/>
-      <c r="AG113" s="237"/>
+      <c r="G113" s="317" t="s">
+        <v>350</v>
+      </c>
+      <c r="H113" s="318"/>
+      <c r="I113" s="318"/>
+      <c r="J113" s="318"/>
+      <c r="K113" s="318"/>
+      <c r="L113" s="318"/>
+      <c r="M113" s="318"/>
+      <c r="N113" s="318"/>
+      <c r="O113" s="318"/>
+      <c r="P113" s="318"/>
+      <c r="Q113" s="318"/>
+      <c r="R113" s="318"/>
+      <c r="S113" s="318"/>
+      <c r="T113" s="318"/>
+      <c r="U113" s="318"/>
+      <c r="V113" s="318"/>
+      <c r="W113" s="318"/>
+      <c r="X113" s="318"/>
+      <c r="Y113" s="318"/>
+      <c r="Z113" s="318"/>
+      <c r="AA113" s="318"/>
+      <c r="AB113" s="318"/>
+      <c r="AC113" s="318"/>
+      <c r="AD113" s="318"/>
+      <c r="AE113" s="318"/>
+      <c r="AF113" s="318"/>
+      <c r="AG113" s="319"/>
       <c r="AH113" s="94"/>
       <c r="AI113" s="94"/>
       <c r="AJ113" s="58"/>
@@ -22398,7 +22415,7 @@
       <c r="H115" s="94"/>
       <c r="I115" s="94"/>
       <c r="J115" s="170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K115" s="170"/>
       <c r="L115" s="170"/>
@@ -22413,7 +22430,7 @@
       <c r="S115" s="170"/>
       <c r="T115" s="170"/>
       <c r="U115" s="170" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V115" s="170"/>
       <c r="W115" s="170"/>
@@ -22580,7 +22597,7 @@
       <c r="D118" s="94"/>
       <c r="E118" s="94"/>
       <c r="F118" s="94" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G118" s="170"/>
       <c r="H118" s="170"/>
@@ -22642,7 +22659,7 @@
       <c r="D119" s="94"/>
       <c r="E119" s="94"/>
       <c r="F119" s="94" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G119" s="170"/>
       <c r="H119" s="170"/>
@@ -22948,7 +22965,7 @@
       <c r="E124" s="94"/>
       <c r="F124" s="193"/>
       <c r="G124" s="154" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H124" s="154"/>
       <c r="I124" s="130"/>
@@ -23192,7 +23209,7 @@
       <c r="E128" s="94"/>
       <c r="F128" s="193"/>
       <c r="G128" s="154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H128" s="130"/>
       <c r="I128" s="130"/>
@@ -23311,7 +23328,7 @@
       <c r="B130" s="94"/>
       <c r="C130" s="158"/>
       <c r="D130" s="157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E130" s="157"/>
       <c r="F130" s="94"/>
@@ -23425,7 +23442,7 @@
       <c r="C132" s="94"/>
       <c r="D132" s="94"/>
       <c r="E132" s="154" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F132" s="94"/>
       <c r="G132" s="153"/>
@@ -23487,7 +23504,7 @@
       <c r="C133" s="94"/>
       <c r="D133" s="94"/>
       <c r="E133" s="154" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F133" s="155"/>
       <c r="G133" s="154"/>
@@ -23622,7 +23639,7 @@
       <c r="B136" s="94"/>
       <c r="C136" s="94"/>
       <c r="D136" s="94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E136" s="94"/>
       <c r="F136" s="94"/>
@@ -23662,7 +23679,7 @@
       <c r="C137" s="94"/>
       <c r="D137" s="94"/>
       <c r="E137" s="94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F137" s="94"/>
       <c r="G137" s="94"/>
@@ -23701,7 +23718,7 @@
       <c r="C138" s="94"/>
       <c r="D138" s="94"/>
       <c r="E138" s="94" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F138" s="94"/>
       <c r="G138" s="94"/>
@@ -23773,27 +23790,125 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:V80"/>
-    <mergeCell ref="W80:Y80"/>
-    <mergeCell ref="Z80:AC80"/>
-    <mergeCell ref="AD80:AG80"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="M81:V81"/>
-    <mergeCell ref="W81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="X102:AG102"/>
-    <mergeCell ref="G103:AG103"/>
-    <mergeCell ref="G113:AG113"/>
-    <mergeCell ref="X99:AG99"/>
-    <mergeCell ref="X95:AG95"/>
-    <mergeCell ref="X96:AG96"/>
-    <mergeCell ref="X97:AG97"/>
-    <mergeCell ref="X94:AG94"/>
-    <mergeCell ref="X98:AG98"/>
-    <mergeCell ref="X100:AG100"/>
-    <mergeCell ref="X101:AG101"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="R72:Y72"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="R71:Y71"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="R70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:AH63"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:AH64"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="K61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="V61:AH62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AG56"/>
+    <mergeCell ref="AL50:AP50"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="U54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AG54"/>
+    <mergeCell ref="AL54:AP54"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AL51:AP51"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="AL49:AP49"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AL48:AP48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AL53:AP53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="AL52:AP52"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AL46:AP46"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:AC41"/>
+    <mergeCell ref="AD41:AG43"/>
+    <mergeCell ref="E42:H43"/>
+    <mergeCell ref="I42:L43"/>
+    <mergeCell ref="M42:T43"/>
+    <mergeCell ref="U42:Y43"/>
+    <mergeCell ref="Z42:AB43"/>
+    <mergeCell ref="AC42:AC43"/>
     <mergeCell ref="N89:W89"/>
     <mergeCell ref="X89:AG89"/>
     <mergeCell ref="X90:AG90"/>
@@ -23818,125 +23933,27 @@
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:J62"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:AC41"/>
-    <mergeCell ref="AD41:AG43"/>
-    <mergeCell ref="E42:H43"/>
-    <mergeCell ref="I42:L43"/>
-    <mergeCell ref="M42:T43"/>
-    <mergeCell ref="U42:Y43"/>
-    <mergeCell ref="Z42:AB43"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AL52:AP52"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="AL49:AP49"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AL48:AP48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="AL53:AP53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="AL50:AP50"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:T54"/>
-    <mergeCell ref="U54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AG54"/>
-    <mergeCell ref="AL54:AP54"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL51:AP51"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:AH63"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:AH64"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="K61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="V61:AH62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AG55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="R70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="R72:Y72"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="R71:Y71"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="X102:AG102"/>
+    <mergeCell ref="G103:AG103"/>
+    <mergeCell ref="G113:AG113"/>
+    <mergeCell ref="X99:AG99"/>
+    <mergeCell ref="X95:AG95"/>
+    <mergeCell ref="X96:AG96"/>
+    <mergeCell ref="X97:AG97"/>
+    <mergeCell ref="X94:AG94"/>
+    <mergeCell ref="X98:AG98"/>
+    <mergeCell ref="X100:AG100"/>
+    <mergeCell ref="X101:AG101"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:V80"/>
+    <mergeCell ref="W80:Y80"/>
+    <mergeCell ref="Z80:AC80"/>
+    <mergeCell ref="AD80:AG80"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="M81:V81"/>
+    <mergeCell ref="W81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10202_Project_Inquiry.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437DB44-9B86-410C-851B-A4107B1C0828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602AE4EC-5456-404F-85B7-F65ACA8FA895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="0" windowWidth="24000" windowHeight="8370" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="30" r:id="rId1"/>
@@ -30,7 +30,17 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1564,10 +1574,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>If both "end_date_FROM" and "end_date_TO" are entered, "end_date_FROM" &lt; "end_date_TO" must be "end_date_FROM" &lt; "end_date_TO".</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">If both "start date_FROM" and "start date_TO" are entered, "start date_FROM" </t>
     </r>
@@ -2670,6 +2676,10 @@
   </si>
   <si>
     <t>PROJECT.TURNOVER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>If both "end_date_FROM" and "end_date_TO" are entered, "end_date_FROM" &lt; "end_date_TO".</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3826,14 +3836,101 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3844,62 +3941,95 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3910,101 +4040,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4015,17 +4055,71 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4036,162 +4130,78 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7391,7 +7401,7 @@
     </row>
     <row r="3" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7510,39 +7520,39 @@
       <c r="D50" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="332" t="s">
+      <c r="E50" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
-      <c r="J50" s="332"/>
-      <c r="K50" s="332"/>
-      <c r="L50" s="332"/>
-      <c r="M50" s="332"/>
-      <c r="N50" s="332" t="s">
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="284"/>
+      <c r="J50" s="284"/>
+      <c r="K50" s="284"/>
+      <c r="L50" s="284"/>
+      <c r="M50" s="284"/>
+      <c r="N50" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="332"/>
-      <c r="P50" s="332"/>
-      <c r="Q50" s="332" t="s">
+      <c r="O50" s="284"/>
+      <c r="P50" s="284"/>
+      <c r="Q50" s="284" t="s">
         <v>77</v>
       </c>
-      <c r="R50" s="332"/>
-      <c r="S50" s="332"/>
-      <c r="T50" s="332"/>
-      <c r="U50" s="332"/>
-      <c r="V50" s="332" t="s">
+      <c r="R50" s="284"/>
+      <c r="S50" s="284"/>
+      <c r="T50" s="284"/>
+      <c r="U50" s="284"/>
+      <c r="V50" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="W50" s="332"/>
-      <c r="X50" s="332"/>
-      <c r="Y50" s="332"/>
-      <c r="Z50" s="332"/>
-      <c r="AA50" s="332"/>
-      <c r="AB50" s="332"/>
-      <c r="AC50" s="332"/>
+      <c r="W50" s="284"/>
+      <c r="X50" s="284"/>
+      <c r="Y50" s="284"/>
+      <c r="Z50" s="284"/>
+      <c r="AA50" s="284"/>
+      <c r="AB50" s="284"/>
+      <c r="AC50" s="284"/>
       <c r="AD50" s="73"/>
       <c r="AE50" s="73"/>
       <c r="AF50" s="73"/>
@@ -7553,39 +7563,39 @@
       <c r="D51" s="81">
         <v>1</v>
       </c>
-      <c r="E51" s="333" t="s">
+      <c r="E51" s="285" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="334"/>
-      <c r="G51" s="334"/>
-      <c r="H51" s="334"/>
-      <c r="I51" s="334"/>
-      <c r="J51" s="334"/>
-      <c r="K51" s="334"/>
-      <c r="L51" s="334"/>
-      <c r="M51" s="334"/>
-      <c r="N51" s="335" t="s">
+      <c r="F51" s="286"/>
+      <c r="G51" s="286"/>
+      <c r="H51" s="286"/>
+      <c r="I51" s="286"/>
+      <c r="J51" s="286"/>
+      <c r="K51" s="286"/>
+      <c r="L51" s="286"/>
+      <c r="M51" s="286"/>
+      <c r="N51" s="287" t="s">
         <v>79</v>
       </c>
-      <c r="O51" s="335"/>
-      <c r="P51" s="335"/>
-      <c r="Q51" s="339" t="s">
+      <c r="O51" s="287"/>
+      <c r="P51" s="287"/>
+      <c r="Q51" s="294" t="s">
         <v>81</v>
       </c>
-      <c r="R51" s="340"/>
-      <c r="S51" s="340"/>
-      <c r="T51" s="340"/>
-      <c r="U51" s="340"/>
-      <c r="V51" s="339" t="s">
+      <c r="R51" s="295"/>
+      <c r="S51" s="295"/>
+      <c r="T51" s="295"/>
+      <c r="U51" s="295"/>
+      <c r="V51" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="W51" s="340"/>
-      <c r="X51" s="340"/>
-      <c r="Y51" s="340"/>
-      <c r="Z51" s="340"/>
-      <c r="AA51" s="340"/>
-      <c r="AB51" s="340"/>
-      <c r="AC51" s="340"/>
+      <c r="W51" s="295"/>
+      <c r="X51" s="295"/>
+      <c r="Y51" s="295"/>
+      <c r="Z51" s="295"/>
+      <c r="AA51" s="295"/>
+      <c r="AB51" s="295"/>
+      <c r="AC51" s="295"/>
       <c r="AM51" s="9"/>
     </row>
     <row r="52" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7729,36 +7739,36 @@
     </row>
     <row r="56" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="95"/>
-      <c r="D56" s="336" t="s">
+      <c r="D56" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="262" t="s">
+      <c r="E56" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="263"/>
-      <c r="G56" s="263"/>
-      <c r="H56" s="263"/>
-      <c r="I56" s="263"/>
-      <c r="J56" s="263"/>
-      <c r="K56" s="263"/>
-      <c r="L56" s="263"/>
-      <c r="M56" s="263"/>
-      <c r="N56" s="263"/>
-      <c r="O56" s="263"/>
-      <c r="P56" s="263"/>
-      <c r="Q56" s="263"/>
-      <c r="R56" s="263"/>
-      <c r="S56" s="263"/>
-      <c r="T56" s="263"/>
-      <c r="U56" s="263"/>
-      <c r="V56" s="263"/>
-      <c r="W56" s="263"/>
-      <c r="X56" s="263"/>
-      <c r="Y56" s="263"/>
-      <c r="Z56" s="263"/>
-      <c r="AA56" s="263"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="264"/>
+      <c r="F56" s="303"/>
+      <c r="G56" s="303"/>
+      <c r="H56" s="303"/>
+      <c r="I56" s="303"/>
+      <c r="J56" s="303"/>
+      <c r="K56" s="303"/>
+      <c r="L56" s="303"/>
+      <c r="M56" s="303"/>
+      <c r="N56" s="303"/>
+      <c r="O56" s="303"/>
+      <c r="P56" s="303"/>
+      <c r="Q56" s="303"/>
+      <c r="R56" s="303"/>
+      <c r="S56" s="303"/>
+      <c r="T56" s="303"/>
+      <c r="U56" s="303"/>
+      <c r="V56" s="303"/>
+      <c r="W56" s="303"/>
+      <c r="X56" s="303"/>
+      <c r="Y56" s="303"/>
+      <c r="Z56" s="303"/>
+      <c r="AA56" s="303"/>
+      <c r="AB56" s="303"/>
+      <c r="AC56" s="304"/>
       <c r="AD56" s="218" t="s">
         <v>85</v>
       </c>
@@ -7786,29 +7796,29 @@
     </row>
     <row r="57" spans="3:53" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="95"/>
-      <c r="D57" s="337"/>
+      <c r="D57" s="292"/>
       <c r="E57" s="218" t="s">
         <v>86</v>
       </c>
       <c r="F57" s="219"/>
       <c r="G57" s="219"/>
       <c r="H57" s="220"/>
-      <c r="I57" s="323" t="s">
+      <c r="I57" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="J57" s="324"/>
-      <c r="K57" s="324"/>
-      <c r="L57" s="325"/>
-      <c r="M57" s="323" t="s">
+      <c r="J57" s="297"/>
+      <c r="K57" s="297"/>
+      <c r="L57" s="298"/>
+      <c r="M57" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="N57" s="324"/>
-      <c r="O57" s="324"/>
-      <c r="P57" s="324"/>
-      <c r="Q57" s="324"/>
-      <c r="R57" s="324"/>
-      <c r="S57" s="324"/>
-      <c r="T57" s="325"/>
+      <c r="N57" s="297"/>
+      <c r="O57" s="297"/>
+      <c r="P57" s="297"/>
+      <c r="Q57" s="297"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="297"/>
+      <c r="T57" s="298"/>
       <c r="U57" s="218" t="s">
         <v>89</v>
       </c>
@@ -7821,7 +7831,7 @@
       </c>
       <c r="AA57" s="219"/>
       <c r="AB57" s="220"/>
-      <c r="AC57" s="329" t="s">
+      <c r="AC57" s="305" t="s">
         <v>91</v>
       </c>
       <c r="AD57" s="221"/>
@@ -7847,23 +7857,23 @@
     </row>
     <row r="58" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="95"/>
-      <c r="D58" s="338"/>
+      <c r="D58" s="293"/>
       <c r="E58" s="224"/>
       <c r="F58" s="225"/>
       <c r="G58" s="225"/>
       <c r="H58" s="226"/>
-      <c r="I58" s="326"/>
-      <c r="J58" s="327"/>
-      <c r="K58" s="327"/>
-      <c r="L58" s="328"/>
-      <c r="M58" s="326"/>
-      <c r="N58" s="327"/>
-      <c r="O58" s="327"/>
-      <c r="P58" s="327"/>
-      <c r="Q58" s="327"/>
-      <c r="R58" s="327"/>
-      <c r="S58" s="327"/>
-      <c r="T58" s="328"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="300"/>
+      <c r="K58" s="300"/>
+      <c r="L58" s="301"/>
+      <c r="M58" s="299"/>
+      <c r="N58" s="300"/>
+      <c r="O58" s="300"/>
+      <c r="P58" s="300"/>
+      <c r="Q58" s="300"/>
+      <c r="R58" s="300"/>
+      <c r="S58" s="300"/>
+      <c r="T58" s="301"/>
       <c r="U58" s="224"/>
       <c r="V58" s="225"/>
       <c r="W58" s="225"/>
@@ -7872,7 +7882,7 @@
       <c r="Z58" s="224"/>
       <c r="AA58" s="225"/>
       <c r="AB58" s="226"/>
-      <c r="AC58" s="330"/>
+      <c r="AC58" s="306"/>
       <c r="AD58" s="224"/>
       <c r="AE58" s="225"/>
       <c r="AF58" s="225"/>
@@ -7881,13 +7891,13 @@
       <c r="AI58" s="111"/>
       <c r="AJ58" s="111"/>
       <c r="AK58" s="111"/>
-      <c r="AL58" s="307" t="s">
+      <c r="AL58" s="278" t="s">
         <v>83</v>
       </c>
-      <c r="AM58" s="308"/>
-      <c r="AN58" s="308"/>
-      <c r="AO58" s="308"/>
-      <c r="AP58" s="309"/>
+      <c r="AM58" s="279"/>
+      <c r="AN58" s="279"/>
+      <c r="AO58" s="279"/>
+      <c r="AP58" s="280"/>
       <c r="AQ58" s="111"/>
       <c r="AR58" s="111"/>
       <c r="AS58" s="111"/>
@@ -7898,38 +7908,38 @@
     </row>
     <row r="59" spans="3:53" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="95"/>
-      <c r="D59" s="320" t="s">
+      <c r="D59" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="321"/>
-      <c r="F59" s="321"/>
-      <c r="G59" s="321"/>
-      <c r="H59" s="321"/>
-      <c r="I59" s="321"/>
-      <c r="J59" s="321"/>
-      <c r="K59" s="321"/>
-      <c r="L59" s="321"/>
-      <c r="M59" s="321"/>
-      <c r="N59" s="321"/>
-      <c r="O59" s="321"/>
-      <c r="P59" s="321"/>
-      <c r="Q59" s="321"/>
-      <c r="R59" s="321"/>
-      <c r="S59" s="321"/>
-      <c r="T59" s="321"/>
-      <c r="U59" s="321"/>
-      <c r="V59" s="321"/>
-      <c r="W59" s="321"/>
-      <c r="X59" s="321"/>
-      <c r="Y59" s="321"/>
-      <c r="Z59" s="321"/>
-      <c r="AA59" s="321"/>
-      <c r="AB59" s="321"/>
-      <c r="AC59" s="321"/>
-      <c r="AD59" s="321"/>
-      <c r="AE59" s="321"/>
-      <c r="AF59" s="321"/>
-      <c r="AG59" s="322"/>
+      <c r="E59" s="289"/>
+      <c r="F59" s="289"/>
+      <c r="G59" s="289"/>
+      <c r="H59" s="289"/>
+      <c r="I59" s="289"/>
+      <c r="J59" s="289"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="289"/>
+      <c r="M59" s="289"/>
+      <c r="N59" s="289"/>
+      <c r="O59" s="289"/>
+      <c r="P59" s="289"/>
+      <c r="Q59" s="289"/>
+      <c r="R59" s="289"/>
+      <c r="S59" s="289"/>
+      <c r="T59" s="289"/>
+      <c r="U59" s="289"/>
+      <c r="V59" s="289"/>
+      <c r="W59" s="289"/>
+      <c r="X59" s="289"/>
+      <c r="Y59" s="289"/>
+      <c r="Z59" s="289"/>
+      <c r="AA59" s="289"/>
+      <c r="AB59" s="289"/>
+      <c r="AC59" s="289"/>
+      <c r="AD59" s="289"/>
+      <c r="AE59" s="289"/>
+      <c r="AF59" s="289"/>
+      <c r="AG59" s="290"/>
       <c r="AH59" s="111"/>
       <c r="AI59" s="111"/>
       <c r="AJ59" s="111"/>
@@ -7959,44 +7969,44 @@
       </c>
       <c r="F60" s="231"/>
       <c r="G60" s="231"/>
-      <c r="H60" s="313"/>
-      <c r="I60" s="319" t="s">
+      <c r="H60" s="251"/>
+      <c r="I60" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="319"/>
-      <c r="K60" s="319"/>
-      <c r="L60" s="319"/>
-      <c r="M60" s="248" t="s">
+      <c r="J60" s="253"/>
+      <c r="K60" s="253"/>
+      <c r="L60" s="253"/>
+      <c r="M60" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="249"/>
-      <c r="O60" s="249"/>
-      <c r="P60" s="249"/>
-      <c r="Q60" s="249"/>
-      <c r="R60" s="249"/>
-      <c r="S60" s="249"/>
-      <c r="T60" s="250"/>
-      <c r="U60" s="283" t="s">
+      <c r="N60" s="246"/>
+      <c r="O60" s="246"/>
+      <c r="P60" s="246"/>
+      <c r="Q60" s="246"/>
+      <c r="R60" s="246"/>
+      <c r="S60" s="246"/>
+      <c r="T60" s="247"/>
+      <c r="U60" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="284"/>
-      <c r="W60" s="284"/>
-      <c r="X60" s="284"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="283" t="s">
+      <c r="V60" s="249"/>
+      <c r="W60" s="249"/>
+      <c r="X60" s="249"/>
+      <c r="Y60" s="250"/>
+      <c r="Z60" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="AA60" s="284"/>
-      <c r="AB60" s="285"/>
+      <c r="AA60" s="249"/>
+      <c r="AB60" s="250"/>
       <c r="AC60" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD60" s="283" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD60" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="AE60" s="284"/>
-      <c r="AF60" s="284"/>
-      <c r="AG60" s="285"/>
+      <c r="AE60" s="249"/>
+      <c r="AF60" s="249"/>
+      <c r="AG60" s="250"/>
       <c r="AH60" s="118"/>
       <c r="AI60" s="118"/>
       <c r="AJ60" s="118"/>
@@ -8013,7 +8023,7 @@
       <c r="AO60" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP60" s="313" t="s">
+      <c r="AP60" s="251" t="s">
         <v>17</v>
       </c>
       <c r="AQ60" s="118"/>
@@ -8037,44 +8047,44 @@
       </c>
       <c r="F61" s="231"/>
       <c r="G61" s="231"/>
-      <c r="H61" s="313"/>
-      <c r="I61" s="319" t="s">
+      <c r="H61" s="251"/>
+      <c r="I61" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="J61" s="319"/>
-      <c r="K61" s="319"/>
-      <c r="L61" s="319"/>
-      <c r="M61" s="248" t="s">
+      <c r="J61" s="253"/>
+      <c r="K61" s="253"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="249"/>
-      <c r="O61" s="249"/>
-      <c r="P61" s="249"/>
-      <c r="Q61" s="249"/>
-      <c r="R61" s="249"/>
-      <c r="S61" s="249"/>
-      <c r="T61" s="250"/>
-      <c r="U61" s="283" t="s">
+      <c r="N61" s="246"/>
+      <c r="O61" s="246"/>
+      <c r="P61" s="246"/>
+      <c r="Q61" s="246"/>
+      <c r="R61" s="246"/>
+      <c r="S61" s="246"/>
+      <c r="T61" s="247"/>
+      <c r="U61" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V61" s="284"/>
-      <c r="W61" s="284"/>
-      <c r="X61" s="284"/>
-      <c r="Y61" s="285"/>
-      <c r="Z61" s="283" t="s">
+      <c r="V61" s="249"/>
+      <c r="W61" s="249"/>
+      <c r="X61" s="249"/>
+      <c r="Y61" s="250"/>
+      <c r="Z61" s="248" t="s">
         <v>96</v>
       </c>
-      <c r="AA61" s="284"/>
-      <c r="AB61" s="285"/>
+      <c r="AA61" s="249"/>
+      <c r="AB61" s="250"/>
       <c r="AC61" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD61" s="283" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD61" s="248" t="s">
         <v>94</v>
       </c>
-      <c r="AE61" s="284"/>
-      <c r="AF61" s="284"/>
-      <c r="AG61" s="285"/>
+      <c r="AE61" s="249"/>
+      <c r="AF61" s="249"/>
+      <c r="AG61" s="250"/>
       <c r="AH61" s="118"/>
       <c r="AI61" s="118"/>
       <c r="AJ61" s="118"/>
@@ -8091,7 +8101,7 @@
       <c r="AO61" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AP61" s="313" t="s">
+      <c r="AP61" s="251" t="s">
         <v>17</v>
       </c>
       <c r="AQ61" s="118"/>
@@ -8111,48 +8121,48 @@
         <v>3</v>
       </c>
       <c r="E62" s="230" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F62" s="231"/>
       <c r="G62" s="231"/>
-      <c r="H62" s="313"/>
-      <c r="I62" s="319" t="s">
-        <v>349</v>
-      </c>
-      <c r="J62" s="319"/>
-      <c r="K62" s="319"/>
-      <c r="L62" s="319"/>
-      <c r="M62" s="248" t="s">
+      <c r="H62" s="251"/>
+      <c r="I62" s="253" t="s">
+        <v>348</v>
+      </c>
+      <c r="J62" s="253"/>
+      <c r="K62" s="253"/>
+      <c r="L62" s="253"/>
+      <c r="M62" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="N62" s="249"/>
-      <c r="O62" s="249"/>
-      <c r="P62" s="249"/>
-      <c r="Q62" s="249"/>
-      <c r="R62" s="249"/>
-      <c r="S62" s="249"/>
-      <c r="T62" s="250"/>
-      <c r="U62" s="283" t="s">
-        <v>344</v>
-      </c>
-      <c r="V62" s="284"/>
-      <c r="W62" s="284"/>
-      <c r="X62" s="284"/>
-      <c r="Y62" s="285"/>
-      <c r="Z62" s="283" t="s">
+      <c r="N62" s="246"/>
+      <c r="O62" s="246"/>
+      <c r="P62" s="246"/>
+      <c r="Q62" s="246"/>
+      <c r="R62" s="246"/>
+      <c r="S62" s="246"/>
+      <c r="T62" s="247"/>
+      <c r="U62" s="248" t="s">
+        <v>343</v>
+      </c>
+      <c r="V62" s="249"/>
+      <c r="W62" s="249"/>
+      <c r="X62" s="249"/>
+      <c r="Y62" s="250"/>
+      <c r="Z62" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA62" s="284"/>
-      <c r="AB62" s="285"/>
+      <c r="AA62" s="249"/>
+      <c r="AB62" s="250"/>
       <c r="AC62" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD62" s="283" t="s">
+      <c r="AD62" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="AE62" s="284"/>
-      <c r="AF62" s="284"/>
-      <c r="AG62" s="285"/>
+      <c r="AE62" s="249"/>
+      <c r="AF62" s="249"/>
+      <c r="AG62" s="250"/>
       <c r="AH62" s="111"/>
       <c r="AI62" s="111"/>
       <c r="AJ62" s="111"/>
@@ -8169,7 +8179,7 @@
       <c r="AO62" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="AP62" s="313" t="s">
+      <c r="AP62" s="251" t="s">
         <v>13</v>
       </c>
       <c r="AQ62" s="111"/>
@@ -8187,48 +8197,48 @@
         <v>4</v>
       </c>
       <c r="E63" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F63" s="231"/>
       <c r="G63" s="231"/>
-      <c r="H63" s="313"/>
-      <c r="I63" s="319" t="s">
+      <c r="H63" s="251"/>
+      <c r="I63" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="319"/>
-      <c r="K63" s="319"/>
-      <c r="L63" s="319"/>
-      <c r="M63" s="248" t="s">
+      <c r="J63" s="253"/>
+      <c r="K63" s="253"/>
+      <c r="L63" s="253"/>
+      <c r="M63" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="N63" s="249"/>
-      <c r="O63" s="249"/>
-      <c r="P63" s="249"/>
-      <c r="Q63" s="249"/>
-      <c r="R63" s="249"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="250"/>
-      <c r="U63" s="283" t="s">
+      <c r="N63" s="246"/>
+      <c r="O63" s="246"/>
+      <c r="P63" s="246"/>
+      <c r="Q63" s="246"/>
+      <c r="R63" s="246"/>
+      <c r="S63" s="246"/>
+      <c r="T63" s="247"/>
+      <c r="U63" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="V63" s="284"/>
-      <c r="W63" s="284"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="285"/>
-      <c r="Z63" s="283" t="s">
+      <c r="V63" s="249"/>
+      <c r="W63" s="249"/>
+      <c r="X63" s="249"/>
+      <c r="Y63" s="250"/>
+      <c r="Z63" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA63" s="284"/>
-      <c r="AB63" s="285"/>
+      <c r="AA63" s="249"/>
+      <c r="AB63" s="250"/>
       <c r="AC63" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD63" s="283" t="s">
+      <c r="AD63" s="248" t="s">
         <v>101</v>
       </c>
-      <c r="AE63" s="284"/>
-      <c r="AF63" s="284"/>
-      <c r="AG63" s="285"/>
+      <c r="AE63" s="249"/>
+      <c r="AF63" s="249"/>
+      <c r="AG63" s="250"/>
       <c r="AH63" s="111"/>
       <c r="AI63" s="111"/>
       <c r="AJ63" s="111"/>
@@ -8245,7 +8255,7 @@
       <c r="AO63" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="AP63" s="313" t="s">
+      <c r="AP63" s="251" t="s">
         <v>14</v>
       </c>
       <c r="AQ63" s="111"/>
@@ -8263,48 +8273,48 @@
         <v>5</v>
       </c>
       <c r="E64" s="230" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F64" s="231"/>
       <c r="G64" s="231"/>
-      <c r="H64" s="313"/>
-      <c r="I64" s="331" t="s">
+      <c r="H64" s="251"/>
+      <c r="I64" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="J64" s="331"/>
-      <c r="K64" s="331"/>
-      <c r="L64" s="331"/>
-      <c r="M64" s="248" t="s">
+      <c r="J64" s="252"/>
+      <c r="K64" s="252"/>
+      <c r="L64" s="252"/>
+      <c r="M64" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N64" s="249"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="249"/>
-      <c r="Q64" s="249"/>
-      <c r="R64" s="249"/>
-      <c r="S64" s="249"/>
-      <c r="T64" s="250"/>
-      <c r="U64" s="283" t="s">
+      <c r="N64" s="246"/>
+      <c r="O64" s="246"/>
+      <c r="P64" s="246"/>
+      <c r="Q64" s="246"/>
+      <c r="R64" s="246"/>
+      <c r="S64" s="246"/>
+      <c r="T64" s="247"/>
+      <c r="U64" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="V64" s="284"/>
-      <c r="W64" s="284"/>
-      <c r="X64" s="284"/>
-      <c r="Y64" s="285"/>
-      <c r="Z64" s="283" t="s">
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="250"/>
+      <c r="Z64" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA64" s="284"/>
-      <c r="AB64" s="285"/>
+      <c r="AA64" s="249"/>
+      <c r="AB64" s="250"/>
       <c r="AC64" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD64" s="283" t="s">
+      <c r="AD64" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="AE64" s="284"/>
-      <c r="AF64" s="284"/>
-      <c r="AG64" s="285"/>
+      <c r="AE64" s="249"/>
+      <c r="AF64" s="249"/>
+      <c r="AG64" s="250"/>
       <c r="AH64" s="94"/>
       <c r="AI64" s="94"/>
       <c r="AJ64" s="94"/>
@@ -8321,7 +8331,7 @@
       <c r="AO64" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP64" s="313" t="s">
+      <c r="AP64" s="251" t="s">
         <v>18</v>
       </c>
       <c r="AQ64" s="94"/>
@@ -8340,48 +8350,48 @@
         <v>6</v>
       </c>
       <c r="E65" s="230" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F65" s="231"/>
       <c r="G65" s="231"/>
-      <c r="H65" s="313"/>
-      <c r="I65" s="331" t="s">
+      <c r="H65" s="251"/>
+      <c r="I65" s="252" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="331"/>
-      <c r="K65" s="331"/>
-      <c r="L65" s="331"/>
-      <c r="M65" s="248" t="s">
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N65" s="249"/>
-      <c r="O65" s="249"/>
-      <c r="P65" s="249"/>
-      <c r="Q65" s="249"/>
-      <c r="R65" s="249"/>
-      <c r="S65" s="249"/>
-      <c r="T65" s="250"/>
-      <c r="U65" s="283" t="s">
+      <c r="N65" s="246"/>
+      <c r="O65" s="246"/>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="246"/>
+      <c r="R65" s="246"/>
+      <c r="S65" s="246"/>
+      <c r="T65" s="247"/>
+      <c r="U65" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="V65" s="284"/>
-      <c r="W65" s="284"/>
-      <c r="X65" s="284"/>
-      <c r="Y65" s="285"/>
-      <c r="Z65" s="283" t="s">
+      <c r="V65" s="249"/>
+      <c r="W65" s="249"/>
+      <c r="X65" s="249"/>
+      <c r="Y65" s="250"/>
+      <c r="Z65" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA65" s="284"/>
-      <c r="AB65" s="285"/>
+      <c r="AA65" s="249"/>
+      <c r="AB65" s="250"/>
       <c r="AC65" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD65" s="283" t="s">
+      <c r="AD65" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="AE65" s="284"/>
-      <c r="AF65" s="284"/>
-      <c r="AG65" s="285"/>
+      <c r="AE65" s="249"/>
+      <c r="AF65" s="249"/>
+      <c r="AG65" s="250"/>
       <c r="AH65" s="94"/>
       <c r="AI65" s="94"/>
       <c r="AJ65" s="94"/>
@@ -8398,7 +8408,7 @@
       <c r="AO65" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="AP65" s="313" t="s">
+      <c r="AP65" s="251" t="s">
         <v>18</v>
       </c>
       <c r="AQ65" s="94"/>
@@ -8416,49 +8426,49 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E66" s="283" t="s">
+      <c r="E66" s="248" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="284"/>
-      <c r="G66" s="284"/>
-      <c r="H66" s="285"/>
-      <c r="I66" s="319" t="s">
+      <c r="F66" s="249"/>
+      <c r="G66" s="249"/>
+      <c r="H66" s="250"/>
+      <c r="I66" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="319"/>
-      <c r="K66" s="319"/>
-      <c r="L66" s="319"/>
-      <c r="M66" s="248" t="s">
+      <c r="J66" s="253"/>
+      <c r="K66" s="253"/>
+      <c r="L66" s="253"/>
+      <c r="M66" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="249"/>
-      <c r="O66" s="249"/>
-      <c r="P66" s="249"/>
-      <c r="Q66" s="249"/>
-      <c r="R66" s="249"/>
-      <c r="S66" s="249"/>
-      <c r="T66" s="250"/>
-      <c r="U66" s="283" t="s">
+      <c r="N66" s="246"/>
+      <c r="O66" s="246"/>
+      <c r="P66" s="246"/>
+      <c r="Q66" s="246"/>
+      <c r="R66" s="246"/>
+      <c r="S66" s="246"/>
+      <c r="T66" s="247"/>
+      <c r="U66" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V66" s="284"/>
-      <c r="W66" s="284"/>
-      <c r="X66" s="284"/>
-      <c r="Y66" s="285"/>
-      <c r="Z66" s="283" t="s">
+      <c r="V66" s="249"/>
+      <c r="W66" s="249"/>
+      <c r="X66" s="249"/>
+      <c r="Y66" s="250"/>
+      <c r="Z66" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA66" s="284"/>
-      <c r="AB66" s="285"/>
+      <c r="AA66" s="249"/>
+      <c r="AB66" s="250"/>
       <c r="AC66" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD66" s="283" t="s">
+      <c r="AD66" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="AE66" s="284"/>
-      <c r="AF66" s="284"/>
-      <c r="AG66" s="285"/>
+      <c r="AE66" s="249"/>
+      <c r="AF66" s="249"/>
+      <c r="AG66" s="250"/>
       <c r="AH66" s="124"/>
       <c r="AI66" s="124"/>
       <c r="AJ66" s="124"/>
@@ -8475,7 +8485,7 @@
       <c r="AO66" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP66" s="313" t="s">
+      <c r="AP66" s="251" t="s">
         <v>15</v>
       </c>
       <c r="AQ66" s="111"/>
@@ -8492,49 +8502,49 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E67" s="283" t="s">
+      <c r="E67" s="248" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="284"/>
-      <c r="G67" s="284"/>
-      <c r="H67" s="285"/>
-      <c r="I67" s="319" t="s">
+      <c r="F67" s="249"/>
+      <c r="G67" s="249"/>
+      <c r="H67" s="250"/>
+      <c r="I67" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J67" s="319"/>
-      <c r="K67" s="319"/>
-      <c r="L67" s="319"/>
-      <c r="M67" s="248" t="s">
+      <c r="J67" s="253"/>
+      <c r="K67" s="253"/>
+      <c r="L67" s="253"/>
+      <c r="M67" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N67" s="249"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
-      <c r="Q67" s="249"/>
-      <c r="R67" s="249"/>
-      <c r="S67" s="249"/>
-      <c r="T67" s="250"/>
-      <c r="U67" s="283" t="s">
+      <c r="N67" s="246"/>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="246"/>
+      <c r="T67" s="247"/>
+      <c r="U67" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V67" s="284"/>
-      <c r="W67" s="284"/>
-      <c r="X67" s="284"/>
-      <c r="Y67" s="285"/>
-      <c r="Z67" s="283" t="s">
+      <c r="V67" s="249"/>
+      <c r="W67" s="249"/>
+      <c r="X67" s="249"/>
+      <c r="Y67" s="250"/>
+      <c r="Z67" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA67" s="284"/>
-      <c r="AB67" s="285"/>
+      <c r="AA67" s="249"/>
+      <c r="AB67" s="250"/>
       <c r="AC67" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD67" s="283" t="s">
+      <c r="AD67" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="AE67" s="284"/>
-      <c r="AF67" s="284"/>
-      <c r="AG67" s="285"/>
+      <c r="AE67" s="249"/>
+      <c r="AF67" s="249"/>
+      <c r="AG67" s="250"/>
       <c r="AH67" s="124"/>
       <c r="AI67" s="124"/>
       <c r="AJ67" s="124"/>
@@ -8551,7 +8561,7 @@
       <c r="AO67" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="AP67" s="313" t="s">
+      <c r="AP67" s="251" t="s">
         <v>15</v>
       </c>
       <c r="AQ67" s="111"/>
@@ -8568,49 +8578,49 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E68" s="283" t="s">
+      <c r="E68" s="248" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="284"/>
-      <c r="G68" s="284"/>
-      <c r="H68" s="285"/>
-      <c r="I68" s="319" t="s">
+      <c r="F68" s="249"/>
+      <c r="G68" s="249"/>
+      <c r="H68" s="250"/>
+      <c r="I68" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J68" s="319"/>
-      <c r="K68" s="319"/>
-      <c r="L68" s="319"/>
-      <c r="M68" s="248" t="s">
+      <c r="J68" s="253"/>
+      <c r="K68" s="253"/>
+      <c r="L68" s="253"/>
+      <c r="M68" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N68" s="249"/>
-      <c r="O68" s="249"/>
-      <c r="P68" s="249"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="249"/>
-      <c r="S68" s="249"/>
-      <c r="T68" s="250"/>
-      <c r="U68" s="283" t="s">
+      <c r="N68" s="246"/>
+      <c r="O68" s="246"/>
+      <c r="P68" s="246"/>
+      <c r="Q68" s="246"/>
+      <c r="R68" s="246"/>
+      <c r="S68" s="246"/>
+      <c r="T68" s="247"/>
+      <c r="U68" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V68" s="284"/>
-      <c r="W68" s="284"/>
-      <c r="X68" s="284"/>
-      <c r="Y68" s="285"/>
-      <c r="Z68" s="283" t="s">
+      <c r="V68" s="249"/>
+      <c r="W68" s="249"/>
+      <c r="X68" s="249"/>
+      <c r="Y68" s="250"/>
+      <c r="Z68" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA68" s="284"/>
-      <c r="AB68" s="285"/>
+      <c r="AA68" s="249"/>
+      <c r="AB68" s="250"/>
       <c r="AC68" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="283" t="s">
+      <c r="AD68" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="AE68" s="284"/>
-      <c r="AF68" s="284"/>
-      <c r="AG68" s="285"/>
+      <c r="AE68" s="249"/>
+      <c r="AF68" s="249"/>
+      <c r="AG68" s="250"/>
       <c r="AH68" s="118"/>
       <c r="AI68" s="118"/>
       <c r="AJ68" s="118"/>
@@ -8627,7 +8637,7 @@
       <c r="AO68" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP68" s="313" t="s">
+      <c r="AP68" s="251" t="s">
         <v>16</v>
       </c>
       <c r="AQ68" s="118"/>
@@ -8646,49 +8656,49 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E69" s="283" t="s">
+      <c r="E69" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="285"/>
-      <c r="I69" s="319" t="s">
+      <c r="F69" s="249"/>
+      <c r="G69" s="249"/>
+      <c r="H69" s="250"/>
+      <c r="I69" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J69" s="319"/>
-      <c r="K69" s="319"/>
-      <c r="L69" s="319"/>
-      <c r="M69" s="248" t="s">
+      <c r="J69" s="253"/>
+      <c r="K69" s="253"/>
+      <c r="L69" s="253"/>
+      <c r="M69" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="N69" s="249"/>
-      <c r="O69" s="249"/>
-      <c r="P69" s="249"/>
-      <c r="Q69" s="249"/>
-      <c r="R69" s="249"/>
-      <c r="S69" s="249"/>
-      <c r="T69" s="250"/>
-      <c r="U69" s="283" t="s">
+      <c r="N69" s="246"/>
+      <c r="O69" s="246"/>
+      <c r="P69" s="246"/>
+      <c r="Q69" s="246"/>
+      <c r="R69" s="246"/>
+      <c r="S69" s="246"/>
+      <c r="T69" s="247"/>
+      <c r="U69" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V69" s="284"/>
-      <c r="W69" s="284"/>
-      <c r="X69" s="284"/>
-      <c r="Y69" s="285"/>
-      <c r="Z69" s="283" t="s">
+      <c r="V69" s="249"/>
+      <c r="W69" s="249"/>
+      <c r="X69" s="249"/>
+      <c r="Y69" s="250"/>
+      <c r="Z69" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="AA69" s="284"/>
-      <c r="AB69" s="285"/>
+      <c r="AA69" s="249"/>
+      <c r="AB69" s="250"/>
       <c r="AC69" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD69" s="283" t="s">
+      <c r="AD69" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="AE69" s="284"/>
-      <c r="AF69" s="284"/>
-      <c r="AG69" s="285"/>
+      <c r="AE69" s="249"/>
+      <c r="AF69" s="249"/>
+      <c r="AG69" s="250"/>
       <c r="AH69" s="118"/>
       <c r="AI69" s="118"/>
       <c r="AJ69" s="118"/>
@@ -8705,7 +8715,7 @@
       <c r="AO69" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AP69" s="313" t="s">
+      <c r="AP69" s="251" t="s">
         <v>16</v>
       </c>
       <c r="AQ69" s="118"/>
@@ -8724,49 +8734,49 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E70" s="283" t="s">
+      <c r="E70" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="284"/>
-      <c r="G70" s="284"/>
-      <c r="H70" s="285"/>
-      <c r="I70" s="319" t="s">
+      <c r="F70" s="249"/>
+      <c r="G70" s="249"/>
+      <c r="H70" s="250"/>
+      <c r="I70" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="319"/>
-      <c r="K70" s="319"/>
-      <c r="L70" s="319"/>
-      <c r="M70" s="317" t="s">
+      <c r="J70" s="253"/>
+      <c r="K70" s="253"/>
+      <c r="L70" s="253"/>
+      <c r="M70" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="N70" s="317"/>
-      <c r="O70" s="317"/>
-      <c r="P70" s="317"/>
-      <c r="Q70" s="317"/>
-      <c r="R70" s="317"/>
-      <c r="S70" s="317"/>
-      <c r="T70" s="317"/>
-      <c r="U70" s="318" t="s">
+      <c r="N70" s="312"/>
+      <c r="O70" s="312"/>
+      <c r="P70" s="312"/>
+      <c r="Q70" s="312"/>
+      <c r="R70" s="312"/>
+      <c r="S70" s="312"/>
+      <c r="T70" s="312"/>
+      <c r="U70" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="V70" s="318"/>
-      <c r="W70" s="318"/>
-      <c r="X70" s="318"/>
-      <c r="Y70" s="318"/>
-      <c r="Z70" s="318" t="s">
+      <c r="V70" s="260"/>
+      <c r="W70" s="260"/>
+      <c r="X70" s="260"/>
+      <c r="Y70" s="260"/>
+      <c r="Z70" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="AA70" s="318"/>
-      <c r="AB70" s="318"/>
+      <c r="AA70" s="260"/>
+      <c r="AB70" s="260"/>
       <c r="AC70" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD70" s="283" t="s">
+      <c r="AD70" s="248" t="s">
         <v>111</v>
       </c>
-      <c r="AE70" s="284"/>
-      <c r="AF70" s="284"/>
-      <c r="AG70" s="285"/>
+      <c r="AE70" s="249"/>
+      <c r="AF70" s="249"/>
+      <c r="AG70" s="250"/>
       <c r="AH70" s="111"/>
       <c r="AI70" s="111"/>
       <c r="AJ70" s="111"/>
@@ -8783,7 +8793,7 @@
       <c r="AO70" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP70" s="313" t="s">
+      <c r="AP70" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ70" s="111"/>
@@ -8796,38 +8806,38 @@
     </row>
     <row r="71" spans="3:51" s="48" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="95"/>
-      <c r="D71" s="320" t="s">
+      <c r="D71" s="288" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="321"/>
-      <c r="F71" s="321"/>
-      <c r="G71" s="321"/>
-      <c r="H71" s="321"/>
-      <c r="I71" s="321"/>
-      <c r="J71" s="321"/>
-      <c r="K71" s="321"/>
-      <c r="L71" s="321"/>
-      <c r="M71" s="321"/>
-      <c r="N71" s="321"/>
-      <c r="O71" s="321"/>
-      <c r="P71" s="321"/>
-      <c r="Q71" s="321"/>
-      <c r="R71" s="321"/>
-      <c r="S71" s="321"/>
-      <c r="T71" s="321"/>
-      <c r="U71" s="321"/>
-      <c r="V71" s="321"/>
-      <c r="W71" s="321"/>
-      <c r="X71" s="321"/>
-      <c r="Y71" s="321"/>
-      <c r="Z71" s="321"/>
-      <c r="AA71" s="321"/>
-      <c r="AB71" s="321"/>
-      <c r="AC71" s="321"/>
-      <c r="AD71" s="321"/>
-      <c r="AE71" s="321"/>
-      <c r="AF71" s="321"/>
-      <c r="AG71" s="322"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="289"/>
+      <c r="G71" s="289"/>
+      <c r="H71" s="289"/>
+      <c r="I71" s="289"/>
+      <c r="J71" s="289"/>
+      <c r="K71" s="289"/>
+      <c r="L71" s="289"/>
+      <c r="M71" s="289"/>
+      <c r="N71" s="289"/>
+      <c r="O71" s="289"/>
+      <c r="P71" s="289"/>
+      <c r="Q71" s="289"/>
+      <c r="R71" s="289"/>
+      <c r="S71" s="289"/>
+      <c r="T71" s="289"/>
+      <c r="U71" s="289"/>
+      <c r="V71" s="289"/>
+      <c r="W71" s="289"/>
+      <c r="X71" s="289"/>
+      <c r="Y71" s="289"/>
+      <c r="Z71" s="289"/>
+      <c r="AA71" s="289"/>
+      <c r="AB71" s="289"/>
+      <c r="AC71" s="289"/>
+      <c r="AD71" s="289"/>
+      <c r="AE71" s="289"/>
+      <c r="AF71" s="289"/>
+      <c r="AG71" s="290"/>
       <c r="AH71" s="111"/>
       <c r="AI71" s="111"/>
       <c r="AJ71" s="111"/>
@@ -8858,44 +8868,44 @@
       </c>
       <c r="F72" s="231"/>
       <c r="G72" s="231"/>
-      <c r="H72" s="313"/>
-      <c r="I72" s="286" t="s">
+      <c r="H72" s="251"/>
+      <c r="I72" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="287"/>
-      <c r="K72" s="287"/>
-      <c r="L72" s="288"/>
-      <c r="M72" s="317" t="s">
+      <c r="J72" s="255"/>
+      <c r="K72" s="255"/>
+      <c r="L72" s="256"/>
+      <c r="M72" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="N72" s="317"/>
-      <c r="O72" s="317"/>
-      <c r="P72" s="317"/>
-      <c r="Q72" s="317"/>
-      <c r="R72" s="317"/>
-      <c r="S72" s="317"/>
-      <c r="T72" s="317"/>
-      <c r="U72" s="318" t="s">
+      <c r="N72" s="312"/>
+      <c r="O72" s="312"/>
+      <c r="P72" s="312"/>
+      <c r="Q72" s="312"/>
+      <c r="R72" s="312"/>
+      <c r="S72" s="312"/>
+      <c r="T72" s="312"/>
+      <c r="U72" s="260" t="s">
         <v>116</v>
       </c>
-      <c r="V72" s="318"/>
-      <c r="W72" s="318"/>
-      <c r="X72" s="318"/>
-      <c r="Y72" s="318"/>
-      <c r="Z72" s="318" t="s">
+      <c r="V72" s="260"/>
+      <c r="W72" s="260"/>
+      <c r="X72" s="260"/>
+      <c r="Y72" s="260"/>
+      <c r="Z72" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="AA72" s="318"/>
-      <c r="AB72" s="318"/>
+      <c r="AA72" s="260"/>
+      <c r="AB72" s="260"/>
       <c r="AC72" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD72" s="283" t="s">
+      <c r="AD72" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE72" s="284"/>
-      <c r="AF72" s="284"/>
-      <c r="AG72" s="285"/>
+      <c r="AE72" s="249"/>
+      <c r="AF72" s="249"/>
+      <c r="AG72" s="250"/>
       <c r="AH72" s="111"/>
       <c r="AI72" s="111"/>
       <c r="AJ72" s="111"/>
@@ -8912,7 +8922,7 @@
       <c r="AO72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP72" s="313" t="s">
+      <c r="AP72" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ72" s="111"/>
@@ -8934,44 +8944,44 @@
       </c>
       <c r="F73" s="231"/>
       <c r="G73" s="231"/>
-      <c r="H73" s="313"/>
-      <c r="I73" s="286" t="s">
+      <c r="H73" s="251"/>
+      <c r="I73" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J73" s="287"/>
-      <c r="K73" s="287"/>
-      <c r="L73" s="288"/>
-      <c r="M73" s="248" t="s">
-        <v>258</v>
-      </c>
-      <c r="N73" s="249"/>
-      <c r="O73" s="249"/>
-      <c r="P73" s="249"/>
-      <c r="Q73" s="249"/>
-      <c r="R73" s="249"/>
-      <c r="S73" s="249"/>
-      <c r="T73" s="250"/>
-      <c r="U73" s="283" t="s">
+      <c r="J73" s="255"/>
+      <c r="K73" s="255"/>
+      <c r="L73" s="256"/>
+      <c r="M73" s="245" t="s">
+        <v>257</v>
+      </c>
+      <c r="N73" s="246"/>
+      <c r="O73" s="246"/>
+      <c r="P73" s="246"/>
+      <c r="Q73" s="246"/>
+      <c r="R73" s="246"/>
+      <c r="S73" s="246"/>
+      <c r="T73" s="247"/>
+      <c r="U73" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V73" s="284"/>
-      <c r="W73" s="284"/>
-      <c r="X73" s="284"/>
-      <c r="Y73" s="285"/>
-      <c r="Z73" s="283" t="s">
+      <c r="V73" s="249"/>
+      <c r="W73" s="249"/>
+      <c r="X73" s="249"/>
+      <c r="Y73" s="250"/>
+      <c r="Z73" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="AA73" s="284"/>
-      <c r="AB73" s="285"/>
+      <c r="AA73" s="249"/>
+      <c r="AB73" s="250"/>
       <c r="AC73" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD73" s="283" t="s">
+      <c r="AD73" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE73" s="284"/>
-      <c r="AF73" s="284"/>
-      <c r="AG73" s="285"/>
+      <c r="AE73" s="249"/>
+      <c r="AF73" s="249"/>
+      <c r="AG73" s="250"/>
       <c r="AH73" s="118"/>
       <c r="AI73" s="118"/>
       <c r="AJ73" s="118"/>
@@ -8988,7 +8998,7 @@
       <c r="AO73" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP73" s="313" t="s">
+      <c r="AP73" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ73" s="118"/>
@@ -9012,44 +9022,44 @@
       </c>
       <c r="F74" s="231"/>
       <c r="G74" s="231"/>
-      <c r="H74" s="313"/>
-      <c r="I74" s="286" t="s">
+      <c r="H74" s="251"/>
+      <c r="I74" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="287"/>
-      <c r="K74" s="287"/>
-      <c r="L74" s="288"/>
-      <c r="M74" s="248" t="s">
-        <v>258</v>
-      </c>
-      <c r="N74" s="249"/>
-      <c r="O74" s="249"/>
-      <c r="P74" s="249"/>
-      <c r="Q74" s="249"/>
-      <c r="R74" s="249"/>
-      <c r="S74" s="249"/>
-      <c r="T74" s="250"/>
-      <c r="U74" s="283" t="s">
+      <c r="J74" s="255"/>
+      <c r="K74" s="255"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="245" t="s">
+        <v>257</v>
+      </c>
+      <c r="N74" s="246"/>
+      <c r="O74" s="246"/>
+      <c r="P74" s="246"/>
+      <c r="Q74" s="246"/>
+      <c r="R74" s="246"/>
+      <c r="S74" s="246"/>
+      <c r="T74" s="247"/>
+      <c r="U74" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V74" s="284"/>
-      <c r="W74" s="284"/>
-      <c r="X74" s="284"/>
-      <c r="Y74" s="285"/>
-      <c r="Z74" s="283" t="s">
+      <c r="V74" s="249"/>
+      <c r="W74" s="249"/>
+      <c r="X74" s="249"/>
+      <c r="Y74" s="250"/>
+      <c r="Z74" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="AA74" s="284"/>
-      <c r="AB74" s="285"/>
+      <c r="AA74" s="249"/>
+      <c r="AB74" s="250"/>
       <c r="AC74" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD74" s="283" t="s">
+      <c r="AD74" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE74" s="284"/>
-      <c r="AF74" s="284"/>
-      <c r="AG74" s="285"/>
+      <c r="AE74" s="249"/>
+      <c r="AF74" s="249"/>
+      <c r="AG74" s="250"/>
       <c r="AH74" s="118"/>
       <c r="AI74" s="118"/>
       <c r="AJ74" s="118"/>
@@ -9066,7 +9076,7 @@
       <c r="AO74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP74" s="313" t="s">
+      <c r="AP74" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ74" s="118"/>
@@ -9086,48 +9096,48 @@
         <v>15</v>
       </c>
       <c r="E75" s="230" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F75" s="231"/>
       <c r="G75" s="231"/>
-      <c r="H75" s="313"/>
-      <c r="I75" s="286" t="s">
+      <c r="H75" s="251"/>
+      <c r="I75" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J75" s="287"/>
-      <c r="K75" s="287"/>
-      <c r="L75" s="288"/>
-      <c r="M75" s="248" t="s">
-        <v>207</v>
-      </c>
-      <c r="N75" s="249"/>
-      <c r="O75" s="249"/>
-      <c r="P75" s="249"/>
-      <c r="Q75" s="249"/>
-      <c r="R75" s="249"/>
-      <c r="S75" s="249"/>
-      <c r="T75" s="250"/>
-      <c r="U75" s="283" t="s">
-        <v>345</v>
-      </c>
-      <c r="V75" s="284"/>
-      <c r="W75" s="284"/>
-      <c r="X75" s="284"/>
-      <c r="Y75" s="285"/>
-      <c r="Z75" s="318" t="s">
+      <c r="J75" s="255"/>
+      <c r="K75" s="255"/>
+      <c r="L75" s="256"/>
+      <c r="M75" s="245" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" s="246"/>
+      <c r="O75" s="246"/>
+      <c r="P75" s="246"/>
+      <c r="Q75" s="246"/>
+      <c r="R75" s="246"/>
+      <c r="S75" s="246"/>
+      <c r="T75" s="247"/>
+      <c r="U75" s="248" t="s">
+        <v>344</v>
+      </c>
+      <c r="V75" s="249"/>
+      <c r="W75" s="249"/>
+      <c r="X75" s="249"/>
+      <c r="Y75" s="250"/>
+      <c r="Z75" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA75" s="318"/>
-      <c r="AB75" s="318"/>
+      <c r="AA75" s="260"/>
+      <c r="AB75" s="260"/>
       <c r="AC75" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD75" s="283" t="s">
+      <c r="AD75" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE75" s="284"/>
-      <c r="AF75" s="284"/>
-      <c r="AG75" s="285"/>
+      <c r="AE75" s="249"/>
+      <c r="AF75" s="249"/>
+      <c r="AG75" s="250"/>
       <c r="AH75" s="111"/>
       <c r="AI75" s="111"/>
       <c r="AJ75" s="111"/>
@@ -9144,7 +9154,7 @@
       <c r="AO75" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP75" s="313" t="s">
+      <c r="AP75" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ75" s="111"/>
@@ -9162,48 +9172,48 @@
         <v>16</v>
       </c>
       <c r="E76" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F76" s="231"/>
       <c r="G76" s="231"/>
-      <c r="H76" s="313"/>
-      <c r="I76" s="286" t="s">
+      <c r="H76" s="251"/>
+      <c r="I76" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J76" s="287"/>
-      <c r="K76" s="287"/>
-      <c r="L76" s="288"/>
-      <c r="M76" s="248" t="s">
-        <v>206</v>
-      </c>
-      <c r="N76" s="249"/>
-      <c r="O76" s="249"/>
-      <c r="P76" s="249"/>
-      <c r="Q76" s="249"/>
-      <c r="R76" s="249"/>
-      <c r="S76" s="249"/>
-      <c r="T76" s="250"/>
-      <c r="U76" s="283" t="s">
+      <c r="J76" s="255"/>
+      <c r="K76" s="255"/>
+      <c r="L76" s="256"/>
+      <c r="M76" s="245" t="s">
+        <v>205</v>
+      </c>
+      <c r="N76" s="246"/>
+      <c r="O76" s="246"/>
+      <c r="P76" s="246"/>
+      <c r="Q76" s="246"/>
+      <c r="R76" s="246"/>
+      <c r="S76" s="246"/>
+      <c r="T76" s="247"/>
+      <c r="U76" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="V76" s="284"/>
-      <c r="W76" s="284"/>
-      <c r="X76" s="284"/>
-      <c r="Y76" s="285"/>
-      <c r="Z76" s="318" t="s">
+      <c r="V76" s="249"/>
+      <c r="W76" s="249"/>
+      <c r="X76" s="249"/>
+      <c r="Y76" s="250"/>
+      <c r="Z76" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA76" s="318"/>
-      <c r="AB76" s="318"/>
+      <c r="AA76" s="260"/>
+      <c r="AB76" s="260"/>
       <c r="AC76" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD76" s="283" t="s">
+      <c r="AD76" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE76" s="284"/>
-      <c r="AF76" s="284"/>
-      <c r="AG76" s="285"/>
+      <c r="AE76" s="249"/>
+      <c r="AF76" s="249"/>
+      <c r="AG76" s="250"/>
       <c r="AH76" s="111"/>
       <c r="AI76" s="111"/>
       <c r="AJ76" s="111"/>
@@ -9220,7 +9230,7 @@
       <c r="AO76" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP76" s="313" t="s">
+      <c r="AP76" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ76" s="111"/>
@@ -9242,44 +9252,44 @@
       </c>
       <c r="F77" s="231"/>
       <c r="G77" s="231"/>
-      <c r="H77" s="313"/>
-      <c r="I77" s="286" t="s">
+      <c r="H77" s="251"/>
+      <c r="I77" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J77" s="287"/>
-      <c r="K77" s="287"/>
-      <c r="L77" s="288"/>
-      <c r="M77" s="248" t="s">
-        <v>255</v>
-      </c>
-      <c r="N77" s="249"/>
-      <c r="O77" s="249"/>
-      <c r="P77" s="249"/>
-      <c r="Q77" s="249"/>
-      <c r="R77" s="249"/>
-      <c r="S77" s="249"/>
-      <c r="T77" s="250"/>
-      <c r="U77" s="283" t="s">
+      <c r="J77" s="255"/>
+      <c r="K77" s="255"/>
+      <c r="L77" s="256"/>
+      <c r="M77" s="245" t="s">
+        <v>254</v>
+      </c>
+      <c r="N77" s="246"/>
+      <c r="O77" s="246"/>
+      <c r="P77" s="246"/>
+      <c r="Q77" s="246"/>
+      <c r="R77" s="246"/>
+      <c r="S77" s="246"/>
+      <c r="T77" s="247"/>
+      <c r="U77" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="284"/>
-      <c r="W77" s="284"/>
-      <c r="X77" s="284"/>
-      <c r="Y77" s="285"/>
-      <c r="Z77" s="283" t="s">
+      <c r="V77" s="249"/>
+      <c r="W77" s="249"/>
+      <c r="X77" s="249"/>
+      <c r="Y77" s="250"/>
+      <c r="Z77" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA77" s="284"/>
-      <c r="AB77" s="285"/>
+      <c r="AA77" s="249"/>
+      <c r="AB77" s="250"/>
       <c r="AC77" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD77" s="283" t="s">
+      <c r="AD77" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE77" s="284"/>
-      <c r="AF77" s="284"/>
-      <c r="AG77" s="285"/>
+      <c r="AE77" s="249"/>
+      <c r="AF77" s="249"/>
+      <c r="AG77" s="250"/>
       <c r="AH77" s="118"/>
       <c r="AI77" s="118"/>
       <c r="AJ77" s="118"/>
@@ -9296,7 +9306,7 @@
       <c r="AO77" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP77" s="313" t="s">
+      <c r="AP77" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ77" s="118"/>
@@ -9316,48 +9326,48 @@
         <v>18</v>
       </c>
       <c r="E78" s="230" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F78" s="231"/>
       <c r="G78" s="231"/>
-      <c r="H78" s="313"/>
-      <c r="I78" s="314" t="s">
+      <c r="H78" s="251"/>
+      <c r="I78" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="J78" s="315"/>
-      <c r="K78" s="315"/>
-      <c r="L78" s="316"/>
-      <c r="M78" s="248" t="s">
-        <v>254</v>
-      </c>
-      <c r="N78" s="249"/>
-      <c r="O78" s="249"/>
-      <c r="P78" s="249"/>
-      <c r="Q78" s="249"/>
-      <c r="R78" s="249"/>
-      <c r="S78" s="249"/>
-      <c r="T78" s="250"/>
-      <c r="U78" s="283" t="s">
+      <c r="J78" s="314"/>
+      <c r="K78" s="314"/>
+      <c r="L78" s="315"/>
+      <c r="M78" s="245" t="s">
+        <v>253</v>
+      </c>
+      <c r="N78" s="246"/>
+      <c r="O78" s="246"/>
+      <c r="P78" s="246"/>
+      <c r="Q78" s="246"/>
+      <c r="R78" s="246"/>
+      <c r="S78" s="246"/>
+      <c r="T78" s="247"/>
+      <c r="U78" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="V78" s="284"/>
-      <c r="W78" s="284"/>
-      <c r="X78" s="284"/>
-      <c r="Y78" s="285"/>
-      <c r="Z78" s="283" t="s">
+      <c r="V78" s="249"/>
+      <c r="W78" s="249"/>
+      <c r="X78" s="249"/>
+      <c r="Y78" s="250"/>
+      <c r="Z78" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA78" s="284"/>
-      <c r="AB78" s="285"/>
+      <c r="AA78" s="249"/>
+      <c r="AB78" s="250"/>
       <c r="AC78" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD78" s="283" t="s">
+      <c r="AD78" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE78" s="284"/>
-      <c r="AF78" s="284"/>
-      <c r="AG78" s="285"/>
+      <c r="AE78" s="249"/>
+      <c r="AF78" s="249"/>
+      <c r="AG78" s="250"/>
       <c r="AH78" s="94"/>
       <c r="AI78" s="94"/>
       <c r="AJ78" s="94"/>
@@ -9374,7 +9384,7 @@
       <c r="AO78" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP78" s="313" t="s">
+      <c r="AP78" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ78" s="94"/>
@@ -9392,49 +9402,49 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E79" s="283" t="s">
+      <c r="E79" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="F79" s="284"/>
-      <c r="G79" s="284"/>
-      <c r="H79" s="285"/>
-      <c r="I79" s="286" t="s">
+      <c r="F79" s="249"/>
+      <c r="G79" s="249"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J79" s="287"/>
-      <c r="K79" s="287"/>
-      <c r="L79" s="288"/>
-      <c r="M79" s="248" t="s">
-        <v>256</v>
-      </c>
-      <c r="N79" s="249"/>
-      <c r="O79" s="249"/>
-      <c r="P79" s="249"/>
-      <c r="Q79" s="249"/>
-      <c r="R79" s="249"/>
-      <c r="S79" s="249"/>
-      <c r="T79" s="250"/>
-      <c r="U79" s="283" t="s">
+      <c r="J79" s="255"/>
+      <c r="K79" s="255"/>
+      <c r="L79" s="256"/>
+      <c r="M79" s="245" t="s">
+        <v>255</v>
+      </c>
+      <c r="N79" s="246"/>
+      <c r="O79" s="246"/>
+      <c r="P79" s="246"/>
+      <c r="Q79" s="246"/>
+      <c r="R79" s="246"/>
+      <c r="S79" s="246"/>
+      <c r="T79" s="247"/>
+      <c r="U79" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V79" s="284"/>
-      <c r="W79" s="284"/>
-      <c r="X79" s="284"/>
-      <c r="Y79" s="285"/>
-      <c r="Z79" s="283" t="s">
+      <c r="V79" s="249"/>
+      <c r="W79" s="249"/>
+      <c r="X79" s="249"/>
+      <c r="Y79" s="250"/>
+      <c r="Z79" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA79" s="284"/>
-      <c r="AB79" s="285"/>
+      <c r="AA79" s="249"/>
+      <c r="AB79" s="250"/>
       <c r="AC79" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD79" s="283" t="s">
+      <c r="AD79" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE79" s="284"/>
-      <c r="AF79" s="284"/>
-      <c r="AG79" s="285"/>
+      <c r="AE79" s="249"/>
+      <c r="AF79" s="249"/>
+      <c r="AG79" s="250"/>
       <c r="AH79" s="124"/>
       <c r="AI79" s="124"/>
       <c r="AJ79" s="124"/>
@@ -9451,7 +9461,7 @@
       <c r="AO79" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP79" s="313" t="s">
+      <c r="AP79" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ79" s="111"/>
@@ -9468,49 +9478,49 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E80" s="283" t="s">
+      <c r="E80" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="F80" s="284"/>
-      <c r="G80" s="284"/>
-      <c r="H80" s="285"/>
-      <c r="I80" s="286" t="s">
+      <c r="F80" s="249"/>
+      <c r="G80" s="249"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J80" s="287"/>
-      <c r="K80" s="287"/>
-      <c r="L80" s="288"/>
-      <c r="M80" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="N80" s="249"/>
-      <c r="O80" s="249"/>
-      <c r="P80" s="249"/>
-      <c r="Q80" s="249"/>
-      <c r="R80" s="249"/>
-      <c r="S80" s="249"/>
-      <c r="T80" s="250"/>
-      <c r="U80" s="283" t="s">
+      <c r="J80" s="255"/>
+      <c r="K80" s="255"/>
+      <c r="L80" s="256"/>
+      <c r="M80" s="245" t="s">
+        <v>256</v>
+      </c>
+      <c r="N80" s="246"/>
+      <c r="O80" s="246"/>
+      <c r="P80" s="246"/>
+      <c r="Q80" s="246"/>
+      <c r="R80" s="246"/>
+      <c r="S80" s="246"/>
+      <c r="T80" s="247"/>
+      <c r="U80" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V80" s="284"/>
-      <c r="W80" s="284"/>
-      <c r="X80" s="284"/>
-      <c r="Y80" s="285"/>
-      <c r="Z80" s="283" t="s">
+      <c r="V80" s="249"/>
+      <c r="W80" s="249"/>
+      <c r="X80" s="249"/>
+      <c r="Y80" s="250"/>
+      <c r="Z80" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA80" s="284"/>
-      <c r="AB80" s="285"/>
+      <c r="AA80" s="249"/>
+      <c r="AB80" s="250"/>
       <c r="AC80" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD80" s="283" t="s">
+      <c r="AD80" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE80" s="284"/>
-      <c r="AF80" s="284"/>
-      <c r="AG80" s="285"/>
+      <c r="AE80" s="249"/>
+      <c r="AF80" s="249"/>
+      <c r="AG80" s="250"/>
       <c r="AH80" s="118"/>
       <c r="AI80" s="118"/>
       <c r="AJ80" s="118"/>
@@ -9527,7 +9537,7 @@
       <c r="AO80" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="AP80" s="313" t="s">
+      <c r="AP80" s="251" t="s">
         <v>12</v>
       </c>
       <c r="AQ80" s="118"/>
@@ -9728,24 +9738,24 @@
     </row>
     <row r="85" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C85" s="94"/>
-      <c r="D85" s="352" t="s">
+      <c r="D85" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="291" t="s">
+      <c r="E85" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="F85" s="292"/>
-      <c r="G85" s="292"/>
-      <c r="H85" s="292"/>
-      <c r="I85" s="292"/>
-      <c r="J85" s="293"/>
-      <c r="K85" s="291" t="s">
+      <c r="F85" s="238"/>
+      <c r="G85" s="238"/>
+      <c r="H85" s="238"/>
+      <c r="I85" s="238"/>
+      <c r="J85" s="239"/>
+      <c r="K85" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="L85" s="292"/>
-      <c r="M85" s="292"/>
-      <c r="N85" s="293"/>
-      <c r="O85" s="289" t="s">
+      <c r="L85" s="238"/>
+      <c r="M85" s="238"/>
+      <c r="N85" s="239"/>
+      <c r="O85" s="323" t="s">
         <v>124</v>
       </c>
       <c r="P85" s="127" t="s">
@@ -9756,21 +9766,21 @@
       <c r="S85" s="128"/>
       <c r="T85" s="128"/>
       <c r="U85" s="128"/>
-      <c r="V85" s="291" t="s">
+      <c r="V85" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="W85" s="292"/>
-      <c r="X85" s="292"/>
-      <c r="Y85" s="292"/>
-      <c r="Z85" s="292"/>
-      <c r="AA85" s="292"/>
-      <c r="AB85" s="292"/>
-      <c r="AC85" s="292"/>
-      <c r="AD85" s="292"/>
-      <c r="AE85" s="292"/>
-      <c r="AF85" s="292"/>
-      <c r="AG85" s="292"/>
-      <c r="AH85" s="293"/>
+      <c r="W85" s="238"/>
+      <c r="X85" s="238"/>
+      <c r="Y85" s="238"/>
+      <c r="Z85" s="238"/>
+      <c r="AA85" s="238"/>
+      <c r="AB85" s="238"/>
+      <c r="AC85" s="238"/>
+      <c r="AD85" s="238"/>
+      <c r="AE85" s="238"/>
+      <c r="AF85" s="238"/>
+      <c r="AG85" s="238"/>
+      <c r="AH85" s="239"/>
       <c r="AK85" s="53"/>
       <c r="AL85" s="53"/>
       <c r="AM85" s="53"/>
@@ -9787,18 +9797,18 @@
     </row>
     <row r="86" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C86" s="94"/>
-      <c r="D86" s="353"/>
-      <c r="E86" s="294"/>
-      <c r="F86" s="295"/>
-      <c r="G86" s="295"/>
-      <c r="H86" s="295"/>
-      <c r="I86" s="295"/>
-      <c r="J86" s="296"/>
-      <c r="K86" s="294"/>
-      <c r="L86" s="295"/>
-      <c r="M86" s="295"/>
-      <c r="N86" s="296"/>
-      <c r="O86" s="290"/>
+      <c r="D86" s="236"/>
+      <c r="E86" s="240"/>
+      <c r="F86" s="241"/>
+      <c r="G86" s="241"/>
+      <c r="H86" s="241"/>
+      <c r="I86" s="241"/>
+      <c r="J86" s="242"/>
+      <c r="K86" s="240"/>
+      <c r="L86" s="241"/>
+      <c r="M86" s="241"/>
+      <c r="N86" s="242"/>
+      <c r="O86" s="324"/>
       <c r="P86" s="129" t="s">
         <v>126</v>
       </c>
@@ -9811,23 +9821,23 @@
       <c r="S86" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="T86" s="297" t="s">
+      <c r="T86" s="325" t="s">
         <v>130</v>
       </c>
-      <c r="U86" s="298"/>
-      <c r="V86" s="294"/>
-      <c r="W86" s="295"/>
-      <c r="X86" s="295"/>
-      <c r="Y86" s="295"/>
-      <c r="Z86" s="295"/>
-      <c r="AA86" s="295"/>
-      <c r="AB86" s="295"/>
-      <c r="AC86" s="295"/>
-      <c r="AD86" s="295"/>
-      <c r="AE86" s="295"/>
-      <c r="AF86" s="295"/>
-      <c r="AG86" s="295"/>
-      <c r="AH86" s="296"/>
+      <c r="U86" s="326"/>
+      <c r="V86" s="240"/>
+      <c r="W86" s="241"/>
+      <c r="X86" s="241"/>
+      <c r="Y86" s="241"/>
+      <c r="Z86" s="241"/>
+      <c r="AA86" s="241"/>
+      <c r="AB86" s="241"/>
+      <c r="AC86" s="241"/>
+      <c r="AD86" s="241"/>
+      <c r="AE86" s="241"/>
+      <c r="AF86" s="241"/>
+      <c r="AG86" s="241"/>
+      <c r="AH86" s="242"/>
       <c r="AK86" s="53"/>
       <c r="AL86" s="53"/>
       <c r="AM86" s="53"/>
@@ -9847,20 +9857,20 @@
       <c r="D87" s="132">
         <v>1</v>
       </c>
-      <c r="E87" s="299" t="s">
+      <c r="E87" s="307" t="s">
         <v>131</v>
       </c>
-      <c r="F87" s="300"/>
-      <c r="G87" s="300"/>
-      <c r="H87" s="300"/>
-      <c r="I87" s="300"/>
-      <c r="J87" s="301"/>
-      <c r="K87" s="283" t="s">
+      <c r="F87" s="308"/>
+      <c r="G87" s="308"/>
+      <c r="H87" s="308"/>
+      <c r="I87" s="308"/>
+      <c r="J87" s="309"/>
+      <c r="K87" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="L87" s="284"/>
-      <c r="M87" s="284"/>
-      <c r="N87" s="285"/>
+      <c r="L87" s="249"/>
+      <c r="M87" s="249"/>
+      <c r="N87" s="250"/>
       <c r="O87" s="133" t="s">
         <v>7</v>
       </c>
@@ -9868,7 +9878,7 @@
         <v>5</v>
       </c>
       <c r="Q87" s="134" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R87" s="134" t="s">
         <v>5</v>
@@ -9876,25 +9886,25 @@
       <c r="S87" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T87" s="302" t="s">
+      <c r="T87" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="U87" s="303"/>
-      <c r="V87" s="283" t="s">
+      <c r="U87" s="311"/>
+      <c r="V87" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="W87" s="284"/>
-      <c r="X87" s="284"/>
-      <c r="Y87" s="284"/>
-      <c r="Z87" s="284"/>
-      <c r="AA87" s="284"/>
-      <c r="AB87" s="284"/>
-      <c r="AC87" s="284"/>
-      <c r="AD87" s="284"/>
-      <c r="AE87" s="284"/>
-      <c r="AF87" s="284"/>
-      <c r="AG87" s="284"/>
-      <c r="AH87" s="285"/>
+      <c r="W87" s="249"/>
+      <c r="X87" s="249"/>
+      <c r="Y87" s="249"/>
+      <c r="Z87" s="249"/>
+      <c r="AA87" s="249"/>
+      <c r="AB87" s="249"/>
+      <c r="AC87" s="249"/>
+      <c r="AD87" s="249"/>
+      <c r="AE87" s="249"/>
+      <c r="AF87" s="249"/>
+      <c r="AG87" s="249"/>
+      <c r="AH87" s="250"/>
       <c r="AK87" s="53"/>
       <c r="AL87" s="53"/>
       <c r="AM87" s="53"/>
@@ -9914,20 +9924,20 @@
       <c r="D88" s="132">
         <v>2</v>
       </c>
-      <c r="E88" s="299" t="s">
+      <c r="E88" s="307" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="300"/>
-      <c r="G88" s="300"/>
-      <c r="H88" s="300"/>
-      <c r="I88" s="300"/>
-      <c r="J88" s="301"/>
-      <c r="K88" s="283" t="s">
+      <c r="F88" s="308"/>
+      <c r="G88" s="308"/>
+      <c r="H88" s="308"/>
+      <c r="I88" s="308"/>
+      <c r="J88" s="309"/>
+      <c r="K88" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="L88" s="284"/>
-      <c r="M88" s="284"/>
-      <c r="N88" s="285"/>
+      <c r="L88" s="249"/>
+      <c r="M88" s="249"/>
+      <c r="N88" s="250"/>
       <c r="O88" s="133" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="Q88" s="134" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R88" s="134" t="s">
         <v>5</v>
@@ -9943,25 +9953,25 @@
       <c r="S88" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T88" s="302" t="s">
+      <c r="T88" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="U88" s="303"/>
-      <c r="V88" s="283" t="s">
+      <c r="U88" s="311"/>
+      <c r="V88" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="W88" s="284"/>
-      <c r="X88" s="284"/>
-      <c r="Y88" s="284"/>
-      <c r="Z88" s="284"/>
-      <c r="AA88" s="284"/>
-      <c r="AB88" s="284"/>
-      <c r="AC88" s="284"/>
-      <c r="AD88" s="284"/>
-      <c r="AE88" s="284"/>
-      <c r="AF88" s="284"/>
-      <c r="AG88" s="284"/>
-      <c r="AH88" s="285"/>
+      <c r="W88" s="249"/>
+      <c r="X88" s="249"/>
+      <c r="Y88" s="249"/>
+      <c r="Z88" s="249"/>
+      <c r="AA88" s="249"/>
+      <c r="AB88" s="249"/>
+      <c r="AC88" s="249"/>
+      <c r="AD88" s="249"/>
+      <c r="AE88" s="249"/>
+      <c r="AF88" s="249"/>
+      <c r="AG88" s="249"/>
+      <c r="AH88" s="250"/>
       <c r="AK88" s="53"/>
       <c r="AL88" s="53"/>
       <c r="AM88" s="53"/>
@@ -10152,276 +10162,276 @@
       <c r="D93" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="347" t="s">
+      <c r="E93" s="273" t="s">
         <v>134</v>
       </c>
-      <c r="F93" s="257"/>
-      <c r="G93" s="257"/>
-      <c r="H93" s="257"/>
-      <c r="I93" s="257"/>
-      <c r="J93" s="348"/>
-      <c r="K93" s="347" t="s">
+      <c r="F93" s="243"/>
+      <c r="G93" s="243"/>
+      <c r="H93" s="243"/>
+      <c r="I93" s="243"/>
+      <c r="J93" s="274"/>
+      <c r="K93" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="L93" s="257"/>
-      <c r="M93" s="257"/>
-      <c r="N93" s="257"/>
-      <c r="O93" s="257"/>
-      <c r="P93" s="257"/>
-      <c r="Q93" s="258"/>
+      <c r="L93" s="243"/>
+      <c r="M93" s="243"/>
+      <c r="N93" s="243"/>
+      <c r="O93" s="243"/>
+      <c r="P93" s="243"/>
+      <c r="Q93" s="244"/>
       <c r="R93" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="S93" s="257"/>
-      <c r="T93" s="257"/>
-      <c r="U93" s="257"/>
-      <c r="V93" s="257"/>
-      <c r="W93" s="257"/>
-      <c r="X93" s="257"/>
-      <c r="Y93" s="258"/>
-      <c r="Z93" s="262" t="s">
+      <c r="S93" s="243"/>
+      <c r="T93" s="243"/>
+      <c r="U93" s="243"/>
+      <c r="V93" s="243"/>
+      <c r="W93" s="243"/>
+      <c r="X93" s="243"/>
+      <c r="Y93" s="244"/>
+      <c r="Z93" s="302" t="s">
         <v>137</v>
       </c>
-      <c r="AA93" s="263"/>
-      <c r="AB93" s="263"/>
-      <c r="AC93" s="263"/>
-      <c r="AD93" s="264"/>
-      <c r="AE93" s="259" t="s">
+      <c r="AA93" s="303"/>
+      <c r="AB93" s="303"/>
+      <c r="AC93" s="303"/>
+      <c r="AD93" s="304"/>
+      <c r="AE93" s="345" t="s">
         <v>138</v>
       </c>
-      <c r="AF93" s="260"/>
-      <c r="AG93" s="260"/>
-      <c r="AH93" s="261"/>
+      <c r="AF93" s="346"/>
+      <c r="AG93" s="346"/>
+      <c r="AH93" s="347"/>
     </row>
     <row r="94" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="94"/>
       <c r="D94" s="137">
         <v>1</v>
       </c>
-      <c r="E94" s="265" t="s">
+      <c r="E94" s="257" t="s">
         <v>141</v>
       </c>
-      <c r="F94" s="266"/>
-      <c r="G94" s="266"/>
-      <c r="H94" s="266"/>
-      <c r="I94" s="266"/>
-      <c r="J94" s="267"/>
-      <c r="K94" s="283" t="s">
+      <c r="F94" s="258"/>
+      <c r="G94" s="258"/>
+      <c r="H94" s="258"/>
+      <c r="I94" s="258"/>
+      <c r="J94" s="259"/>
+      <c r="K94" s="248" t="s">
         <v>154</v>
       </c>
-      <c r="L94" s="284"/>
-      <c r="M94" s="284"/>
-      <c r="N94" s="284"/>
-      <c r="O94" s="284"/>
-      <c r="P94" s="284"/>
-      <c r="Q94" s="285"/>
-      <c r="R94" s="283" t="s">
+      <c r="L94" s="249"/>
+      <c r="M94" s="249"/>
+      <c r="N94" s="249"/>
+      <c r="O94" s="249"/>
+      <c r="P94" s="249"/>
+      <c r="Q94" s="250"/>
+      <c r="R94" s="248" t="s">
         <v>142</v>
       </c>
-      <c r="S94" s="284"/>
-      <c r="T94" s="284"/>
-      <c r="U94" s="284"/>
-      <c r="V94" s="284"/>
-      <c r="W94" s="284"/>
-      <c r="X94" s="284"/>
-      <c r="Y94" s="285"/>
-      <c r="Z94" s="283" t="s">
+      <c r="S94" s="249"/>
+      <c r="T94" s="249"/>
+      <c r="U94" s="249"/>
+      <c r="V94" s="249"/>
+      <c r="W94" s="249"/>
+      <c r="X94" s="249"/>
+      <c r="Y94" s="250"/>
+      <c r="Z94" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="AA94" s="284"/>
-      <c r="AB94" s="284"/>
-      <c r="AC94" s="284"/>
-      <c r="AD94" s="285"/>
-      <c r="AE94" s="268" t="s">
+      <c r="AA94" s="249"/>
+      <c r="AB94" s="249"/>
+      <c r="AC94" s="249"/>
+      <c r="AD94" s="250"/>
+      <c r="AE94" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF94" s="269"/>
-      <c r="AG94" s="269"/>
-      <c r="AH94" s="270"/>
+      <c r="AF94" s="271"/>
+      <c r="AG94" s="271"/>
+      <c r="AH94" s="272"/>
     </row>
     <row r="95" spans="3:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="94"/>
       <c r="D95" s="138">
         <v>2</v>
       </c>
-      <c r="E95" s="341" t="s">
+      <c r="E95" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="F95" s="342"/>
-      <c r="G95" s="342"/>
-      <c r="H95" s="342"/>
-      <c r="I95" s="342"/>
-      <c r="J95" s="343"/>
-      <c r="K95" s="341" t="s">
+      <c r="F95" s="262"/>
+      <c r="G95" s="262"/>
+      <c r="H95" s="262"/>
+      <c r="I95" s="262"/>
+      <c r="J95" s="263"/>
+      <c r="K95" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="L95" s="342"/>
-      <c r="M95" s="342"/>
-      <c r="N95" s="342"/>
-      <c r="O95" s="342"/>
-      <c r="P95" s="342"/>
-      <c r="Q95" s="343"/>
-      <c r="R95" s="341" t="s">
+      <c r="L95" s="262"/>
+      <c r="M95" s="262"/>
+      <c r="N95" s="262"/>
+      <c r="O95" s="262"/>
+      <c r="P95" s="262"/>
+      <c r="Q95" s="263"/>
+      <c r="R95" s="261" t="s">
         <v>144</v>
       </c>
-      <c r="S95" s="342"/>
-      <c r="T95" s="342"/>
-      <c r="U95" s="342"/>
-      <c r="V95" s="342"/>
-      <c r="W95" s="342"/>
-      <c r="X95" s="342"/>
-      <c r="Y95" s="343"/>
-      <c r="Z95" s="341" t="s">
+      <c r="S95" s="262"/>
+      <c r="T95" s="262"/>
+      <c r="U95" s="262"/>
+      <c r="V95" s="262"/>
+      <c r="W95" s="262"/>
+      <c r="X95" s="262"/>
+      <c r="Y95" s="263"/>
+      <c r="Z95" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="AA95" s="342"/>
-      <c r="AB95" s="342"/>
-      <c r="AC95" s="342"/>
-      <c r="AD95" s="343"/>
-      <c r="AE95" s="344" t="s">
+      <c r="AA95" s="262"/>
+      <c r="AB95" s="262"/>
+      <c r="AC95" s="262"/>
+      <c r="AD95" s="263"/>
+      <c r="AE95" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="AF95" s="345"/>
-      <c r="AG95" s="345"/>
-      <c r="AH95" s="346"/>
+      <c r="AF95" s="265"/>
+      <c r="AG95" s="265"/>
+      <c r="AH95" s="266"/>
     </row>
     <row r="96" spans="3:53" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="94"/>
       <c r="D96" s="137">
         <v>3</v>
       </c>
-      <c r="E96" s="265" t="s">
+      <c r="E96" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="266"/>
-      <c r="G96" s="266"/>
-      <c r="H96" s="266"/>
-      <c r="I96" s="266"/>
-      <c r="J96" s="267"/>
-      <c r="K96" s="283" t="s">
-        <v>288</v>
-      </c>
-      <c r="L96" s="284"/>
-      <c r="M96" s="284"/>
-      <c r="N96" s="284"/>
-      <c r="O96" s="284"/>
-      <c r="P96" s="284"/>
-      <c r="Q96" s="285"/>
-      <c r="R96" s="283" t="s">
+      <c r="F96" s="258"/>
+      <c r="G96" s="258"/>
+      <c r="H96" s="258"/>
+      <c r="I96" s="258"/>
+      <c r="J96" s="259"/>
+      <c r="K96" s="248" t="s">
+        <v>287</v>
+      </c>
+      <c r="L96" s="249"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="249"/>
+      <c r="O96" s="249"/>
+      <c r="P96" s="249"/>
+      <c r="Q96" s="250"/>
+      <c r="R96" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="S96" s="284"/>
-      <c r="T96" s="284"/>
-      <c r="U96" s="284"/>
-      <c r="V96" s="284"/>
-      <c r="W96" s="284"/>
-      <c r="X96" s="284"/>
-      <c r="Y96" s="285"/>
-      <c r="Z96" s="265" t="s">
+      <c r="S96" s="249"/>
+      <c r="T96" s="249"/>
+      <c r="U96" s="249"/>
+      <c r="V96" s="249"/>
+      <c r="W96" s="249"/>
+      <c r="X96" s="249"/>
+      <c r="Y96" s="250"/>
+      <c r="Z96" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="AA96" s="266"/>
-      <c r="AB96" s="266"/>
-      <c r="AC96" s="266"/>
-      <c r="AD96" s="267"/>
-      <c r="AE96" s="268" t="s">
+      <c r="AA96" s="258"/>
+      <c r="AB96" s="258"/>
+      <c r="AC96" s="258"/>
+      <c r="AD96" s="259"/>
+      <c r="AE96" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF96" s="269"/>
-      <c r="AG96" s="269"/>
-      <c r="AH96" s="270"/>
+      <c r="AF96" s="271"/>
+      <c r="AG96" s="271"/>
+      <c r="AH96" s="272"/>
     </row>
     <row r="97" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="94"/>
       <c r="D97" s="137">
         <v>4</v>
       </c>
-      <c r="E97" s="265" t="s">
+      <c r="E97" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="F97" s="266"/>
-      <c r="G97" s="266"/>
-      <c r="H97" s="266"/>
-      <c r="I97" s="266"/>
-      <c r="J97" s="267"/>
-      <c r="K97" s="283" t="s">
-        <v>289</v>
-      </c>
-      <c r="L97" s="284"/>
-      <c r="M97" s="284"/>
-      <c r="N97" s="284"/>
-      <c r="O97" s="284"/>
-      <c r="P97" s="284"/>
-      <c r="Q97" s="285"/>
-      <c r="R97" s="283" t="s">
+      <c r="F97" s="258"/>
+      <c r="G97" s="258"/>
+      <c r="H97" s="258"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="259"/>
+      <c r="K97" s="248" t="s">
+        <v>288</v>
+      </c>
+      <c r="L97" s="249"/>
+      <c r="M97" s="249"/>
+      <c r="N97" s="249"/>
+      <c r="O97" s="249"/>
+      <c r="P97" s="249"/>
+      <c r="Q97" s="250"/>
+      <c r="R97" s="248" t="s">
         <v>146</v>
       </c>
-      <c r="S97" s="284"/>
-      <c r="T97" s="284"/>
-      <c r="U97" s="284"/>
-      <c r="V97" s="284"/>
-      <c r="W97" s="284"/>
-      <c r="X97" s="284"/>
-      <c r="Y97" s="285"/>
-      <c r="Z97" s="265" t="s">
+      <c r="S97" s="249"/>
+      <c r="T97" s="249"/>
+      <c r="U97" s="249"/>
+      <c r="V97" s="249"/>
+      <c r="W97" s="249"/>
+      <c r="X97" s="249"/>
+      <c r="Y97" s="250"/>
+      <c r="Z97" s="257" t="s">
         <v>147</v>
       </c>
-      <c r="AA97" s="266"/>
-      <c r="AB97" s="266"/>
-      <c r="AC97" s="266"/>
-      <c r="AD97" s="267"/>
-      <c r="AE97" s="268" t="s">
+      <c r="AA97" s="258"/>
+      <c r="AB97" s="258"/>
+      <c r="AC97" s="258"/>
+      <c r="AD97" s="259"/>
+      <c r="AE97" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF97" s="269"/>
-      <c r="AG97" s="269"/>
-      <c r="AH97" s="270"/>
+      <c r="AF97" s="271"/>
+      <c r="AG97" s="271"/>
+      <c r="AH97" s="272"/>
     </row>
     <row r="98" spans="1:56" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="94"/>
       <c r="D98" s="137">
         <v>5</v>
       </c>
-      <c r="E98" s="265" t="s">
+      <c r="E98" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="F98" s="266"/>
-      <c r="G98" s="266"/>
-      <c r="H98" s="266"/>
-      <c r="I98" s="266"/>
-      <c r="J98" s="267"/>
-      <c r="K98" s="265" t="s">
-        <v>290</v>
-      </c>
-      <c r="L98" s="266"/>
-      <c r="M98" s="266"/>
-      <c r="N98" s="266"/>
-      <c r="O98" s="266"/>
-      <c r="P98" s="266"/>
-      <c r="Q98" s="267"/>
-      <c r="R98" s="265" t="s">
+      <c r="F98" s="258"/>
+      <c r="G98" s="258"/>
+      <c r="H98" s="258"/>
+      <c r="I98" s="258"/>
+      <c r="J98" s="259"/>
+      <c r="K98" s="257" t="s">
+        <v>289</v>
+      </c>
+      <c r="L98" s="258"/>
+      <c r="M98" s="258"/>
+      <c r="N98" s="258"/>
+      <c r="O98" s="258"/>
+      <c r="P98" s="258"/>
+      <c r="Q98" s="259"/>
+      <c r="R98" s="257" t="s">
         <v>151</v>
       </c>
-      <c r="S98" s="266"/>
-      <c r="T98" s="266"/>
-      <c r="U98" s="266"/>
-      <c r="V98" s="266"/>
-      <c r="W98" s="266"/>
-      <c r="X98" s="266"/>
-      <c r="Y98" s="267"/>
-      <c r="Z98" s="265" t="s">
+      <c r="S98" s="258"/>
+      <c r="T98" s="258"/>
+      <c r="U98" s="258"/>
+      <c r="V98" s="258"/>
+      <c r="W98" s="258"/>
+      <c r="X98" s="258"/>
+      <c r="Y98" s="259"/>
+      <c r="Z98" s="257" t="s">
         <v>152</v>
       </c>
-      <c r="AA98" s="266"/>
-      <c r="AB98" s="266"/>
-      <c r="AC98" s="266"/>
-      <c r="AD98" s="267"/>
-      <c r="AE98" s="268" t="s">
+      <c r="AA98" s="258"/>
+      <c r="AB98" s="258"/>
+      <c r="AC98" s="258"/>
+      <c r="AD98" s="259"/>
+      <c r="AE98" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="269"/>
-      <c r="AG98" s="269"/>
-      <c r="AH98" s="270"/>
+      <c r="AF98" s="271"/>
+      <c r="AG98" s="271"/>
+      <c r="AH98" s="272"/>
     </row>
     <row r="99" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D99" s="66"/>
@@ -10513,7 +10523,7 @@
     </row>
     <row r="101" spans="1:56" ht="12" x14ac:dyDescent="0.2">
       <c r="C101" s="94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="109"/>
       <c r="E101" s="109"/>
@@ -10686,82 +10696,82 @@
       <c r="G110" s="94"/>
     </row>
     <row r="112" spans="1:56" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G112" s="307" t="s">
+      <c r="G112" s="278" t="s">
         <v>159</v>
       </c>
-      <c r="H112" s="308"/>
-      <c r="I112" s="308"/>
-      <c r="J112" s="308"/>
-      <c r="K112" s="308"/>
-      <c r="L112" s="308"/>
-      <c r="M112" s="308"/>
-      <c r="N112" s="308"/>
-      <c r="O112" s="308"/>
-      <c r="P112" s="309"/>
-      <c r="Q112" s="304" t="s">
+      <c r="H112" s="279"/>
+      <c r="I112" s="279"/>
+      <c r="J112" s="279"/>
+      <c r="K112" s="279"/>
+      <c r="L112" s="279"/>
+      <c r="M112" s="279"/>
+      <c r="N112" s="279"/>
+      <c r="O112" s="279"/>
+      <c r="P112" s="280"/>
+      <c r="Q112" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="R112" s="305"/>
-      <c r="S112" s="305"/>
-      <c r="T112" s="305"/>
-      <c r="U112" s="305"/>
-      <c r="V112" s="305"/>
-      <c r="W112" s="305"/>
-      <c r="X112" s="305"/>
-      <c r="Y112" s="305"/>
-      <c r="Z112" s="306"/>
+      <c r="R112" s="282"/>
+      <c r="S112" s="282"/>
+      <c r="T112" s="282"/>
+      <c r="U112" s="282"/>
+      <c r="V112" s="282"/>
+      <c r="W112" s="282"/>
+      <c r="X112" s="282"/>
+      <c r="Y112" s="282"/>
+      <c r="Z112" s="283"/>
     </row>
     <row r="113" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="277" t="s">
+      <c r="G113" s="327" t="s">
         <v>161</v>
       </c>
-      <c r="H113" s="278"/>
-      <c r="I113" s="278"/>
-      <c r="J113" s="278"/>
-      <c r="K113" s="278"/>
-      <c r="L113" s="278"/>
-      <c r="M113" s="278"/>
-      <c r="N113" s="278"/>
-      <c r="O113" s="278"/>
-      <c r="P113" s="279"/>
-      <c r="Q113" s="271" t="s">
+      <c r="H113" s="328"/>
+      <c r="I113" s="328"/>
+      <c r="J113" s="328"/>
+      <c r="K113" s="328"/>
+      <c r="L113" s="328"/>
+      <c r="M113" s="328"/>
+      <c r="N113" s="328"/>
+      <c r="O113" s="328"/>
+      <c r="P113" s="329"/>
+      <c r="Q113" s="316" t="s">
         <v>162</v>
       </c>
-      <c r="R113" s="272"/>
-      <c r="S113" s="272"/>
-      <c r="T113" s="272"/>
-      <c r="U113" s="272"/>
-      <c r="V113" s="272"/>
-      <c r="W113" s="272"/>
-      <c r="X113" s="272"/>
-      <c r="Y113" s="272"/>
-      <c r="Z113" s="273"/>
+      <c r="R113" s="317"/>
+      <c r="S113" s="317"/>
+      <c r="T113" s="317"/>
+      <c r="U113" s="317"/>
+      <c r="V113" s="317"/>
+      <c r="W113" s="317"/>
+      <c r="X113" s="317"/>
+      <c r="Y113" s="317"/>
+      <c r="Z113" s="318"/>
       <c r="AG113" s="57"/>
       <c r="AH113" s="57"/>
     </row>
     <row r="114" spans="5:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G114" s="280"/>
-      <c r="H114" s="281"/>
-      <c r="I114" s="281"/>
-      <c r="J114" s="281"/>
-      <c r="K114" s="281"/>
-      <c r="L114" s="281"/>
-      <c r="M114" s="281"/>
-      <c r="N114" s="281"/>
-      <c r="O114" s="281"/>
-      <c r="P114" s="282"/>
-      <c r="Q114" s="271" t="s">
+      <c r="G114" s="330"/>
+      <c r="H114" s="331"/>
+      <c r="I114" s="331"/>
+      <c r="J114" s="331"/>
+      <c r="K114" s="331"/>
+      <c r="L114" s="331"/>
+      <c r="M114" s="331"/>
+      <c r="N114" s="331"/>
+      <c r="O114" s="331"/>
+      <c r="P114" s="332"/>
+      <c r="Q114" s="316" t="s">
         <v>163</v>
       </c>
-      <c r="R114" s="272"/>
-      <c r="S114" s="272"/>
-      <c r="T114" s="272"/>
-      <c r="U114" s="272"/>
-      <c r="V114" s="272"/>
-      <c r="W114" s="272"/>
-      <c r="X114" s="272"/>
-      <c r="Y114" s="272"/>
-      <c r="Z114" s="273"/>
+      <c r="R114" s="317"/>
+      <c r="S114" s="317"/>
+      <c r="T114" s="317"/>
+      <c r="U114" s="317"/>
+      <c r="V114" s="317"/>
+      <c r="W114" s="317"/>
+      <c r="X114" s="317"/>
+      <c r="Y114" s="317"/>
+      <c r="Z114" s="318"/>
       <c r="AC114" s="58"/>
       <c r="AD114" s="58"/>
       <c r="AE114" s="58"/>
@@ -10780,28 +10790,28 @@
       <c r="AY114" s="58"/>
     </row>
     <row r="115" spans="5:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G115" s="235" t="s">
+      <c r="G115" s="319" t="s">
         <v>164</v>
       </c>
-      <c r="H115" s="236"/>
-      <c r="I115" s="236"/>
-      <c r="J115" s="236"/>
-      <c r="K115" s="236"/>
-      <c r="L115" s="236"/>
-      <c r="M115" s="236"/>
-      <c r="N115" s="236"/>
-      <c r="O115" s="236"/>
-      <c r="P115" s="236"/>
-      <c r="Q115" s="236"/>
-      <c r="R115" s="236"/>
-      <c r="S115" s="236"/>
-      <c r="T115" s="236"/>
-      <c r="U115" s="236"/>
-      <c r="V115" s="236"/>
-      <c r="W115" s="236"/>
-      <c r="X115" s="236"/>
-      <c r="Y115" s="236"/>
-      <c r="Z115" s="237"/>
+      <c r="H115" s="320"/>
+      <c r="I115" s="320"/>
+      <c r="J115" s="320"/>
+      <c r="K115" s="320"/>
+      <c r="L115" s="320"/>
+      <c r="M115" s="320"/>
+      <c r="N115" s="320"/>
+      <c r="O115" s="320"/>
+      <c r="P115" s="320"/>
+      <c r="Q115" s="320"/>
+      <c r="R115" s="320"/>
+      <c r="S115" s="320"/>
+      <c r="T115" s="320"/>
+      <c r="U115" s="320"/>
+      <c r="V115" s="320"/>
+      <c r="W115" s="320"/>
+      <c r="X115" s="320"/>
+      <c r="Y115" s="320"/>
+      <c r="Z115" s="321"/>
       <c r="AJ115" s="58"/>
       <c r="AK115" s="58"/>
       <c r="AL115" s="58"/>
@@ -11440,82 +11450,82 @@
       </c>
     </row>
     <row r="139" spans="1:58" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="G139" s="307" t="s">
-        <v>193</v>
-      </c>
-      <c r="H139" s="308"/>
-      <c r="I139" s="308"/>
-      <c r="J139" s="308"/>
-      <c r="K139" s="308"/>
-      <c r="L139" s="308"/>
-      <c r="M139" s="308"/>
-      <c r="N139" s="308"/>
-      <c r="O139" s="308"/>
-      <c r="P139" s="309"/>
-      <c r="Q139" s="304" t="s">
-        <v>195</v>
-      </c>
-      <c r="R139" s="305"/>
-      <c r="S139" s="305"/>
-      <c r="T139" s="305"/>
-      <c r="U139" s="305"/>
-      <c r="V139" s="305"/>
-      <c r="W139" s="305"/>
-      <c r="X139" s="305"/>
-      <c r="Y139" s="305"/>
-      <c r="Z139" s="306"/>
+      <c r="G139" s="278" t="s">
+        <v>192</v>
+      </c>
+      <c r="H139" s="279"/>
+      <c r="I139" s="279"/>
+      <c r="J139" s="279"/>
+      <c r="K139" s="279"/>
+      <c r="L139" s="279"/>
+      <c r="M139" s="279"/>
+      <c r="N139" s="279"/>
+      <c r="O139" s="279"/>
+      <c r="P139" s="280"/>
+      <c r="Q139" s="281" t="s">
+        <v>194</v>
+      </c>
+      <c r="R139" s="282"/>
+      <c r="S139" s="282"/>
+      <c r="T139" s="282"/>
+      <c r="U139" s="282"/>
+      <c r="V139" s="282"/>
+      <c r="W139" s="282"/>
+      <c r="X139" s="282"/>
+      <c r="Y139" s="282"/>
+      <c r="Z139" s="283"/>
     </row>
     <row r="140" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="277" t="s">
+      <c r="G140" s="327" t="s">
         <v>161</v>
       </c>
-      <c r="H140" s="278"/>
-      <c r="I140" s="278"/>
-      <c r="J140" s="278"/>
-      <c r="K140" s="278"/>
-      <c r="L140" s="278"/>
-      <c r="M140" s="278"/>
-      <c r="N140" s="278"/>
-      <c r="O140" s="278"/>
-      <c r="P140" s="279"/>
-      <c r="Q140" s="271" t="s">
+      <c r="H140" s="328"/>
+      <c r="I140" s="328"/>
+      <c r="J140" s="328"/>
+      <c r="K140" s="328"/>
+      <c r="L140" s="328"/>
+      <c r="M140" s="328"/>
+      <c r="N140" s="328"/>
+      <c r="O140" s="328"/>
+      <c r="P140" s="329"/>
+      <c r="Q140" s="316" t="s">
         <v>162</v>
       </c>
-      <c r="R140" s="272"/>
-      <c r="S140" s="272"/>
-      <c r="T140" s="272"/>
-      <c r="U140" s="272"/>
-      <c r="V140" s="272"/>
-      <c r="W140" s="272"/>
-      <c r="X140" s="272"/>
-      <c r="Y140" s="272"/>
-      <c r="Z140" s="273"/>
+      <c r="R140" s="317"/>
+      <c r="S140" s="317"/>
+      <c r="T140" s="317"/>
+      <c r="U140" s="317"/>
+      <c r="V140" s="317"/>
+      <c r="W140" s="317"/>
+      <c r="X140" s="317"/>
+      <c r="Y140" s="317"/>
+      <c r="Z140" s="318"/>
       <c r="AG140" s="57"/>
       <c r="AH140" s="57"/>
     </row>
     <row r="141" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="G141" s="280"/>
-      <c r="H141" s="281"/>
-      <c r="I141" s="281"/>
-      <c r="J141" s="281"/>
-      <c r="K141" s="281"/>
-      <c r="L141" s="281"/>
-      <c r="M141" s="281"/>
-      <c r="N141" s="281"/>
-      <c r="O141" s="281"/>
-      <c r="P141" s="282"/>
-      <c r="Q141" s="271" t="s">
+      <c r="G141" s="330"/>
+      <c r="H141" s="331"/>
+      <c r="I141" s="331"/>
+      <c r="J141" s="331"/>
+      <c r="K141" s="331"/>
+      <c r="L141" s="331"/>
+      <c r="M141" s="331"/>
+      <c r="N141" s="331"/>
+      <c r="O141" s="331"/>
+      <c r="P141" s="332"/>
+      <c r="Q141" s="316" t="s">
         <v>163</v>
       </c>
-      <c r="R141" s="272"/>
-      <c r="S141" s="272"/>
-      <c r="T141" s="272"/>
-      <c r="U141" s="272"/>
-      <c r="V141" s="272"/>
-      <c r="W141" s="272"/>
-      <c r="X141" s="272"/>
-      <c r="Y141" s="272"/>
-      <c r="Z141" s="273"/>
+      <c r="R141" s="317"/>
+      <c r="S141" s="317"/>
+      <c r="T141" s="317"/>
+      <c r="U141" s="317"/>
+      <c r="V141" s="317"/>
+      <c r="W141" s="317"/>
+      <c r="X141" s="317"/>
+      <c r="Y141" s="317"/>
+      <c r="Z141" s="318"/>
       <c r="AC141" s="58"/>
       <c r="AD141" s="58"/>
       <c r="AE141" s="58"/>
@@ -11534,28 +11544,28 @@
       <c r="AY141" s="58"/>
     </row>
     <row r="142" spans="1:58" ht="12" x14ac:dyDescent="0.15">
-      <c r="G142" s="235" t="s">
+      <c r="G142" s="319" t="s">
         <v>164</v>
       </c>
-      <c r="H142" s="236"/>
-      <c r="I142" s="236"/>
-      <c r="J142" s="236"/>
-      <c r="K142" s="236"/>
-      <c r="L142" s="236"/>
-      <c r="M142" s="236"/>
-      <c r="N142" s="236"/>
-      <c r="O142" s="236"/>
-      <c r="P142" s="236"/>
-      <c r="Q142" s="236"/>
-      <c r="R142" s="236"/>
-      <c r="S142" s="236"/>
-      <c r="T142" s="236"/>
-      <c r="U142" s="236"/>
-      <c r="V142" s="236"/>
-      <c r="W142" s="236"/>
-      <c r="X142" s="236"/>
-      <c r="Y142" s="236"/>
-      <c r="Z142" s="237"/>
+      <c r="H142" s="320"/>
+      <c r="I142" s="320"/>
+      <c r="J142" s="320"/>
+      <c r="K142" s="320"/>
+      <c r="L142" s="320"/>
+      <c r="M142" s="320"/>
+      <c r="N142" s="320"/>
+      <c r="O142" s="320"/>
+      <c r="P142" s="320"/>
+      <c r="Q142" s="320"/>
+      <c r="R142" s="320"/>
+      <c r="S142" s="320"/>
+      <c r="T142" s="320"/>
+      <c r="U142" s="320"/>
+      <c r="V142" s="320"/>
+      <c r="W142" s="320"/>
+      <c r="X142" s="320"/>
+      <c r="Y142" s="320"/>
+      <c r="Z142" s="321"/>
       <c r="AJ142" s="58"/>
       <c r="AK142" s="58"/>
       <c r="AL142" s="58"/>
@@ -11988,7 +11998,7 @@
     <row r="155" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="C155" s="53"/>
       <c r="D155" s="157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E155" s="157"/>
       <c r="F155" s="94"/>
@@ -12229,40 +12239,40 @@
       <c r="G159" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="H159" s="257"/>
-      <c r="I159" s="257"/>
-      <c r="J159" s="257"/>
-      <c r="K159" s="257"/>
-      <c r="L159" s="258"/>
+      <c r="H159" s="243"/>
+      <c r="I159" s="243"/>
+      <c r="J159" s="243"/>
+      <c r="K159" s="243"/>
+      <c r="L159" s="244"/>
       <c r="M159" s="227" t="s">
         <v>177</v>
       </c>
-      <c r="N159" s="257"/>
-      <c r="O159" s="257"/>
-      <c r="P159" s="257"/>
-      <c r="Q159" s="257"/>
-      <c r="R159" s="257"/>
-      <c r="S159" s="257"/>
-      <c r="T159" s="257"/>
-      <c r="U159" s="257"/>
-      <c r="V159" s="258"/>
-      <c r="W159" s="310" t="s">
+      <c r="N159" s="243"/>
+      <c r="O159" s="243"/>
+      <c r="P159" s="243"/>
+      <c r="Q159" s="243"/>
+      <c r="R159" s="243"/>
+      <c r="S159" s="243"/>
+      <c r="T159" s="243"/>
+      <c r="U159" s="243"/>
+      <c r="V159" s="244"/>
+      <c r="W159" s="336" t="s">
         <v>178</v>
       </c>
-      <c r="X159" s="311"/>
-      <c r="Y159" s="312"/>
-      <c r="Z159" s="254" t="s">
+      <c r="X159" s="337"/>
+      <c r="Y159" s="338"/>
+      <c r="Z159" s="339" t="s">
         <v>179</v>
       </c>
-      <c r="AA159" s="255"/>
-      <c r="AB159" s="255"/>
-      <c r="AC159" s="256"/>
-      <c r="AD159" s="274" t="s">
+      <c r="AA159" s="340"/>
+      <c r="AB159" s="340"/>
+      <c r="AC159" s="341"/>
+      <c r="AD159" s="351" t="s">
         <v>180</v>
       </c>
-      <c r="AE159" s="275"/>
-      <c r="AF159" s="275"/>
-      <c r="AG159" s="276"/>
+      <c r="AE159" s="352"/>
+      <c r="AF159" s="352"/>
+      <c r="AG159" s="353"/>
       <c r="AH159" s="94"/>
       <c r="AI159" s="94"/>
       <c r="AJ159" s="63"/>
@@ -12294,43 +12304,43 @@
       <c r="F160" s="159">
         <v>1</v>
       </c>
-      <c r="G160" s="248" t="s">
+      <c r="G160" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="H160" s="249"/>
-      <c r="I160" s="249"/>
-      <c r="J160" s="249"/>
-      <c r="K160" s="249"/>
-      <c r="L160" s="250"/>
-      <c r="M160" s="248" t="s">
+      <c r="H160" s="246"/>
+      <c r="I160" s="246"/>
+      <c r="J160" s="246"/>
+      <c r="K160" s="246"/>
+      <c r="L160" s="247"/>
+      <c r="M160" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="N160" s="249"/>
-      <c r="O160" s="249"/>
-      <c r="P160" s="249"/>
-      <c r="Q160" s="249"/>
-      <c r="R160" s="249"/>
-      <c r="S160" s="249"/>
-      <c r="T160" s="249"/>
-      <c r="U160" s="249"/>
-      <c r="V160" s="250"/>
-      <c r="W160" s="349" t="s">
+      <c r="N160" s="246"/>
+      <c r="O160" s="246"/>
+      <c r="P160" s="246"/>
+      <c r="Q160" s="246"/>
+      <c r="R160" s="246"/>
+      <c r="S160" s="246"/>
+      <c r="T160" s="246"/>
+      <c r="U160" s="246"/>
+      <c r="V160" s="247"/>
+      <c r="W160" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="X160" s="350"/>
-      <c r="Y160" s="351"/>
-      <c r="Z160" s="238" t="s">
+      <c r="X160" s="276"/>
+      <c r="Y160" s="277"/>
+      <c r="Z160" s="267" t="s">
         <v>188</v>
       </c>
-      <c r="AA160" s="239"/>
-      <c r="AB160" s="239"/>
-      <c r="AC160" s="240"/>
-      <c r="AD160" s="248" t="s">
+      <c r="AA160" s="268"/>
+      <c r="AB160" s="268"/>
+      <c r="AC160" s="269"/>
+      <c r="AD160" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="AE160" s="249"/>
-      <c r="AF160" s="249"/>
-      <c r="AG160" s="250"/>
+      <c r="AE160" s="246"/>
+      <c r="AF160" s="246"/>
+      <c r="AG160" s="247"/>
       <c r="AH160" s="94"/>
       <c r="AI160" s="160"/>
       <c r="AJ160" s="63"/>
@@ -12362,43 +12372,43 @@
       <c r="F161" s="159">
         <v>2</v>
       </c>
-      <c r="G161" s="241" t="s">
-        <v>354</v>
+      <c r="G161" s="322" t="s">
+        <v>353</v>
       </c>
       <c r="H161" s="228"/>
       <c r="I161" s="228"/>
       <c r="J161" s="228"/>
       <c r="K161" s="228"/>
       <c r="L161" s="229"/>
-      <c r="M161" s="242" t="s">
+      <c r="M161" s="333" t="s">
+        <v>354</v>
+      </c>
+      <c r="N161" s="334"/>
+      <c r="O161" s="334"/>
+      <c r="P161" s="334"/>
+      <c r="Q161" s="334"/>
+      <c r="R161" s="334"/>
+      <c r="S161" s="334"/>
+      <c r="T161" s="334"/>
+      <c r="U161" s="334"/>
+      <c r="V161" s="335"/>
+      <c r="W161" s="348" t="s">
+        <v>41</v>
+      </c>
+      <c r="X161" s="349"/>
+      <c r="Y161" s="350"/>
+      <c r="Z161" s="267" t="s">
         <v>355</v>
       </c>
-      <c r="N161" s="243"/>
-      <c r="O161" s="243"/>
-      <c r="P161" s="243"/>
-      <c r="Q161" s="243"/>
-      <c r="R161" s="243"/>
-      <c r="S161" s="243"/>
-      <c r="T161" s="243"/>
-      <c r="U161" s="243"/>
-      <c r="V161" s="244"/>
-      <c r="W161" s="245" t="s">
-        <v>41</v>
-      </c>
-      <c r="X161" s="246"/>
-      <c r="Y161" s="247"/>
-      <c r="Z161" s="238" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA161" s="239"/>
-      <c r="AB161" s="239"/>
-      <c r="AC161" s="240"/>
-      <c r="AD161" s="248" t="s">
+      <c r="AA161" s="268"/>
+      <c r="AB161" s="268"/>
+      <c r="AC161" s="269"/>
+      <c r="AD161" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="AE161" s="249"/>
-      <c r="AF161" s="249"/>
-      <c r="AG161" s="250"/>
+      <c r="AE161" s="246"/>
+      <c r="AF161" s="246"/>
+      <c r="AG161" s="247"/>
       <c r="AH161" s="94"/>
       <c r="AI161" s="94"/>
       <c r="AJ161" s="63"/>
@@ -12410,7 +12420,7 @@
       <c r="F162" s="159">
         <v>3</v>
       </c>
-      <c r="G162" s="241" t="s">
+      <c r="G162" s="322" t="s">
         <v>182</v>
       </c>
       <c r="H162" s="228"/>
@@ -12418,35 +12428,35 @@
       <c r="J162" s="228"/>
       <c r="K162" s="228"/>
       <c r="L162" s="229"/>
-      <c r="M162" s="242" t="s">
-        <v>192</v>
-      </c>
-      <c r="N162" s="243"/>
-      <c r="O162" s="243"/>
-      <c r="P162" s="243"/>
-      <c r="Q162" s="243"/>
-      <c r="R162" s="243"/>
-      <c r="S162" s="243"/>
-      <c r="T162" s="243"/>
-      <c r="U162" s="243"/>
-      <c r="V162" s="244"/>
-      <c r="W162" s="245" t="s">
+      <c r="M162" s="333" t="s">
+        <v>191</v>
+      </c>
+      <c r="N162" s="334"/>
+      <c r="O162" s="334"/>
+      <c r="P162" s="334"/>
+      <c r="Q162" s="334"/>
+      <c r="R162" s="334"/>
+      <c r="S162" s="334"/>
+      <c r="T162" s="334"/>
+      <c r="U162" s="334"/>
+      <c r="V162" s="335"/>
+      <c r="W162" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="X162" s="246"/>
-      <c r="Y162" s="247"/>
-      <c r="Z162" s="238" t="s">
+      <c r="X162" s="349"/>
+      <c r="Y162" s="350"/>
+      <c r="Z162" s="267" t="s">
         <v>189</v>
       </c>
-      <c r="AA162" s="239"/>
-      <c r="AB162" s="239"/>
-      <c r="AC162" s="240"/>
-      <c r="AD162" s="248" t="s">
+      <c r="AA162" s="268"/>
+      <c r="AB162" s="268"/>
+      <c r="AC162" s="269"/>
+      <c r="AD162" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="AE162" s="249"/>
-      <c r="AF162" s="249"/>
-      <c r="AG162" s="250"/>
+      <c r="AE162" s="246"/>
+      <c r="AF162" s="246"/>
+      <c r="AG162" s="247"/>
       <c r="AH162" s="94"/>
       <c r="AI162" s="94"/>
       <c r="AJ162" s="63"/>
@@ -12458,7 +12468,7 @@
       <c r="F163" s="159">
         <v>4</v>
       </c>
-      <c r="G163" s="241" t="s">
+      <c r="G163" s="322" t="s">
         <v>183</v>
       </c>
       <c r="H163" s="228"/>
@@ -12466,35 +12476,35 @@
       <c r="J163" s="228"/>
       <c r="K163" s="228"/>
       <c r="L163" s="229"/>
-      <c r="M163" s="242" t="s">
-        <v>191</v>
-      </c>
-      <c r="N163" s="243"/>
-      <c r="O163" s="243"/>
-      <c r="P163" s="243"/>
-      <c r="Q163" s="243"/>
-      <c r="R163" s="243"/>
-      <c r="S163" s="243"/>
-      <c r="T163" s="243"/>
-      <c r="U163" s="243"/>
-      <c r="V163" s="244"/>
-      <c r="W163" s="245" t="s">
+      <c r="M163" s="333" t="s">
+        <v>362</v>
+      </c>
+      <c r="N163" s="334"/>
+      <c r="O163" s="334"/>
+      <c r="P163" s="334"/>
+      <c r="Q163" s="334"/>
+      <c r="R163" s="334"/>
+      <c r="S163" s="334"/>
+      <c r="T163" s="334"/>
+      <c r="U163" s="334"/>
+      <c r="V163" s="335"/>
+      <c r="W163" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="X163" s="246"/>
-      <c r="Y163" s="247"/>
-      <c r="Z163" s="238" t="s">
+      <c r="X163" s="349"/>
+      <c r="Y163" s="350"/>
+      <c r="Z163" s="267" t="s">
         <v>190</v>
       </c>
-      <c r="AA163" s="239"/>
-      <c r="AB163" s="239"/>
-      <c r="AC163" s="240"/>
-      <c r="AD163" s="248" t="s">
+      <c r="AA163" s="268"/>
+      <c r="AB163" s="268"/>
+      <c r="AC163" s="269"/>
+      <c r="AD163" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="AE163" s="249"/>
-      <c r="AF163" s="249"/>
-      <c r="AG163" s="250"/>
+      <c r="AE163" s="246"/>
+      <c r="AF163" s="246"/>
+      <c r="AG163" s="247"/>
       <c r="AH163" s="94"/>
       <c r="AI163" s="94"/>
       <c r="AJ163" s="63"/>
@@ -12613,7 +12623,7 @@
     </row>
     <row r="168" spans="4:57" ht="12" x14ac:dyDescent="0.2">
       <c r="E168" s="94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F168" s="130"/>
       <c r="G168" s="130"/>
@@ -12650,7 +12660,7 @@
     <row r="169" spans="4:57" ht="12" x14ac:dyDescent="0.2">
       <c r="E169" s="94"/>
       <c r="F169" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G169" s="94"/>
       <c r="H169" s="94"/>
@@ -12717,7 +12727,7 @@
       <c r="E171" s="161"/>
       <c r="F171" s="161"/>
       <c r="G171" s="164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H171" s="165"/>
       <c r="I171" s="165"/>
@@ -12725,37 +12735,37 @@
       <c r="K171" s="165"/>
       <c r="L171" s="165"/>
       <c r="M171" s="165"/>
-      <c r="N171" s="251" t="s">
+      <c r="N171" s="342" t="s">
+        <v>195</v>
+      </c>
+      <c r="O171" s="343"/>
+      <c r="P171" s="343"/>
+      <c r="Q171" s="343"/>
+      <c r="R171" s="343"/>
+      <c r="S171" s="343"/>
+      <c r="T171" s="343"/>
+      <c r="U171" s="343"/>
+      <c r="V171" s="343"/>
+      <c r="W171" s="344"/>
+      <c r="X171" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="O171" s="252"/>
-      <c r="P171" s="252"/>
-      <c r="Q171" s="252"/>
-      <c r="R171" s="252"/>
-      <c r="S171" s="252"/>
-      <c r="T171" s="252"/>
-      <c r="U171" s="252"/>
-      <c r="V171" s="252"/>
-      <c r="W171" s="253"/>
-      <c r="X171" s="251" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y171" s="252"/>
-      <c r="Z171" s="252"/>
-      <c r="AA171" s="252"/>
-      <c r="AB171" s="252"/>
-      <c r="AC171" s="252"/>
-      <c r="AD171" s="252"/>
-      <c r="AE171" s="252"/>
-      <c r="AF171" s="252"/>
-      <c r="AG171" s="253"/>
+      <c r="Y171" s="343"/>
+      <c r="Z171" s="343"/>
+      <c r="AA171" s="343"/>
+      <c r="AB171" s="343"/>
+      <c r="AC171" s="343"/>
+      <c r="AD171" s="343"/>
+      <c r="AE171" s="343"/>
+      <c r="AF171" s="343"/>
+      <c r="AG171" s="344"/>
       <c r="AH171" s="161"/>
     </row>
     <row r="172" spans="4:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="94"/>
       <c r="F172" s="94"/>
       <c r="G172" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H172" s="97"/>
       <c r="I172" s="97"/>
@@ -12764,7 +12774,7 @@
       <c r="L172" s="97"/>
       <c r="M172" s="97"/>
       <c r="N172" s="209" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O172" s="210"/>
       <c r="P172" s="210"/>
@@ -12800,7 +12810,7 @@
       <c r="L173" s="100"/>
       <c r="M173" s="100"/>
       <c r="N173" s="209" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O173" s="210"/>
       <c r="P173" s="210"/>
@@ -12812,7 +12822,7 @@
       <c r="V173" s="210"/>
       <c r="W173" s="211"/>
       <c r="X173" s="209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y173" s="210"/>
       <c r="Z173" s="210"/>
@@ -12836,7 +12846,7 @@
       <c r="L174" s="100"/>
       <c r="M174" s="100"/>
       <c r="N174" s="209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O174" s="210"/>
       <c r="P174" s="210"/>
@@ -12848,7 +12858,7 @@
       <c r="V174" s="210"/>
       <c r="W174" s="211"/>
       <c r="X174" s="209" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y174" s="210"/>
       <c r="Z174" s="210"/>
@@ -12872,7 +12882,7 @@
       <c r="L175" s="100"/>
       <c r="M175" s="100"/>
       <c r="N175" s="209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O175" s="210"/>
       <c r="P175" s="210"/>
@@ -12884,7 +12894,7 @@
       <c r="V175" s="210"/>
       <c r="W175" s="211"/>
       <c r="X175" s="209" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y175" s="210"/>
       <c r="Z175" s="210"/>
@@ -12908,7 +12918,7 @@
       <c r="L176" s="100"/>
       <c r="M176" s="100"/>
       <c r="N176" s="209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O176" s="210"/>
       <c r="P176" s="210"/>
@@ -12920,7 +12930,7 @@
       <c r="V176" s="210"/>
       <c r="W176" s="211"/>
       <c r="X176" s="209" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y176" s="210"/>
       <c r="Z176" s="210"/>
@@ -12944,7 +12954,7 @@
       <c r="L177" s="100"/>
       <c r="M177" s="100"/>
       <c r="N177" s="209" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O177" s="210"/>
       <c r="P177" s="210"/>
@@ -12956,7 +12966,7 @@
       <c r="V177" s="210"/>
       <c r="W177" s="211"/>
       <c r="X177" s="209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y177" s="210"/>
       <c r="Z177" s="210"/>
@@ -12980,7 +12990,7 @@
       <c r="L178" s="100"/>
       <c r="M178" s="100"/>
       <c r="N178" s="209" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O178" s="210"/>
       <c r="P178" s="210"/>
@@ -12992,7 +13002,7 @@
       <c r="V178" s="210"/>
       <c r="W178" s="211"/>
       <c r="X178" s="209" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y178" s="210"/>
       <c r="Z178" s="210"/>
@@ -13016,7 +13026,7 @@
       <c r="L179" s="104"/>
       <c r="M179" s="104"/>
       <c r="N179" s="209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O179" s="210"/>
       <c r="P179" s="210"/>
@@ -13028,7 +13038,7 @@
       <c r="V179" s="210"/>
       <c r="W179" s="211"/>
       <c r="X179" s="209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y179" s="210"/>
       <c r="Z179" s="210"/>
@@ -13045,7 +13055,7 @@
       <c r="E180" s="94"/>
       <c r="F180" s="94"/>
       <c r="G180" s="206" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H180" s="207"/>
       <c r="I180" s="207"/>
@@ -13054,7 +13064,7 @@
       <c r="L180" s="207"/>
       <c r="M180" s="208"/>
       <c r="N180" s="209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O180" s="210"/>
       <c r="P180" s="210"/>
@@ -13066,7 +13076,7 @@
       <c r="V180" s="210"/>
       <c r="W180" s="211"/>
       <c r="X180" s="209" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y180" s="210"/>
       <c r="Z180" s="210"/>
@@ -13083,7 +13093,7 @@
       <c r="E181" s="94"/>
       <c r="F181" s="94"/>
       <c r="G181" s="206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H181" s="207"/>
       <c r="I181" s="207"/>
@@ -13092,7 +13102,7 @@
       <c r="L181" s="207"/>
       <c r="M181" s="208"/>
       <c r="N181" s="212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O181" s="213"/>
       <c r="P181" s="213"/>
@@ -13104,7 +13114,7 @@
       <c r="V181" s="213"/>
       <c r="W181" s="214"/>
       <c r="X181" s="212" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y181" s="213"/>
       <c r="Z181" s="213"/>
@@ -13130,35 +13140,35 @@
     <row r="182" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E182" s="94"/>
       <c r="F182" s="94"/>
-      <c r="G182" s="235" t="s">
-        <v>338</v>
-      </c>
-      <c r="H182" s="236"/>
-      <c r="I182" s="236"/>
-      <c r="J182" s="236"/>
-      <c r="K182" s="236"/>
-      <c r="L182" s="236"/>
-      <c r="M182" s="236"/>
-      <c r="N182" s="236"/>
-      <c r="O182" s="236"/>
-      <c r="P182" s="236"/>
-      <c r="Q182" s="236"/>
-      <c r="R182" s="236"/>
-      <c r="S182" s="236"/>
-      <c r="T182" s="236"/>
-      <c r="U182" s="236"/>
-      <c r="V182" s="236"/>
-      <c r="W182" s="236"/>
-      <c r="X182" s="236"/>
-      <c r="Y182" s="236"/>
-      <c r="Z182" s="236"/>
-      <c r="AA182" s="236"/>
-      <c r="AB182" s="236"/>
-      <c r="AC182" s="236"/>
-      <c r="AD182" s="236"/>
-      <c r="AE182" s="236"/>
-      <c r="AF182" s="236"/>
-      <c r="AG182" s="237"/>
+      <c r="G182" s="319" t="s">
+        <v>337</v>
+      </c>
+      <c r="H182" s="320"/>
+      <c r="I182" s="320"/>
+      <c r="J182" s="320"/>
+      <c r="K182" s="320"/>
+      <c r="L182" s="320"/>
+      <c r="M182" s="320"/>
+      <c r="N182" s="320"/>
+      <c r="O182" s="320"/>
+      <c r="P182" s="320"/>
+      <c r="Q182" s="320"/>
+      <c r="R182" s="320"/>
+      <c r="S182" s="320"/>
+      <c r="T182" s="320"/>
+      <c r="U182" s="320"/>
+      <c r="V182" s="320"/>
+      <c r="W182" s="320"/>
+      <c r="X182" s="320"/>
+      <c r="Y182" s="320"/>
+      <c r="Z182" s="320"/>
+      <c r="AA182" s="320"/>
+      <c r="AB182" s="320"/>
+      <c r="AC182" s="320"/>
+      <c r="AD182" s="320"/>
+      <c r="AE182" s="320"/>
+      <c r="AF182" s="320"/>
+      <c r="AG182" s="321"/>
       <c r="AH182" s="94"/>
       <c r="AJ182" s="58"/>
       <c r="AK182" s="58"/>
@@ -13244,7 +13254,7 @@
       <c r="F184" s="94"/>
       <c r="G184" s="169"/>
       <c r="H184" s="170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I184" s="170"/>
       <c r="J184" s="170"/>
@@ -13357,13 +13367,13 @@
       <c r="G186" s="169"/>
       <c r="H186" s="170"/>
       <c r="I186" s="173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J186" s="173"/>
       <c r="K186" s="170"/>
       <c r="L186" s="170"/>
       <c r="M186" s="170" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N186" s="170"/>
       <c r="O186" s="170"/>
@@ -13416,10 +13426,10 @@
       <c r="G187" s="169"/>
       <c r="H187" s="170"/>
       <c r="I187" s="170" t="s">
+        <v>312</v>
+      </c>
+      <c r="J187" s="170" t="s">
         <v>313</v>
-      </c>
-      <c r="J187" s="170" t="s">
-        <v>314</v>
       </c>
       <c r="K187" s="170"/>
       <c r="L187" s="173"/>
@@ -13431,7 +13441,7 @@
         <v>166</v>
       </c>
       <c r="R187" s="170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S187" s="170"/>
       <c r="T187" s="170"/>
@@ -13534,13 +13544,13 @@
       <c r="G189" s="169"/>
       <c r="H189" s="170"/>
       <c r="I189" s="173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J189" s="173"/>
       <c r="K189" s="170"/>
       <c r="L189" s="170"/>
       <c r="M189" s="170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N189" s="170"/>
       <c r="O189" s="170"/>
@@ -13593,10 +13603,10 @@
       <c r="G190" s="169"/>
       <c r="H190" s="170"/>
       <c r="I190" s="170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J190" s="170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K190" s="170"/>
       <c r="L190" s="173"/>
@@ -13608,7 +13618,7 @@
         <v>166</v>
       </c>
       <c r="R190" s="170" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S190" s="170"/>
       <c r="T190" s="170"/>
@@ -13708,35 +13718,35 @@
     <row r="192" spans="5:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E192" s="94"/>
       <c r="F192" s="94"/>
-      <c r="G192" s="235" t="s">
-        <v>337</v>
-      </c>
-      <c r="H192" s="236"/>
-      <c r="I192" s="236"/>
-      <c r="J192" s="236"/>
-      <c r="K192" s="236"/>
-      <c r="L192" s="236"/>
-      <c r="M192" s="236"/>
-      <c r="N192" s="236"/>
-      <c r="O192" s="236"/>
-      <c r="P192" s="236"/>
-      <c r="Q192" s="236"/>
-      <c r="R192" s="236"/>
-      <c r="S192" s="236"/>
-      <c r="T192" s="236"/>
-      <c r="U192" s="236"/>
-      <c r="V192" s="236"/>
-      <c r="W192" s="236"/>
-      <c r="X192" s="236"/>
-      <c r="Y192" s="236"/>
-      <c r="Z192" s="236"/>
-      <c r="AA192" s="236"/>
-      <c r="AB192" s="236"/>
-      <c r="AC192" s="236"/>
-      <c r="AD192" s="236"/>
-      <c r="AE192" s="236"/>
-      <c r="AF192" s="236"/>
-      <c r="AG192" s="237"/>
+      <c r="G192" s="319" t="s">
+        <v>336</v>
+      </c>
+      <c r="H192" s="320"/>
+      <c r="I192" s="320"/>
+      <c r="J192" s="320"/>
+      <c r="K192" s="320"/>
+      <c r="L192" s="320"/>
+      <c r="M192" s="320"/>
+      <c r="N192" s="320"/>
+      <c r="O192" s="320"/>
+      <c r="P192" s="320"/>
+      <c r="Q192" s="320"/>
+      <c r="R192" s="320"/>
+      <c r="S192" s="320"/>
+      <c r="T192" s="320"/>
+      <c r="U192" s="320"/>
+      <c r="V192" s="320"/>
+      <c r="W192" s="320"/>
+      <c r="X192" s="320"/>
+      <c r="Y192" s="320"/>
+      <c r="Z192" s="320"/>
+      <c r="AA192" s="320"/>
+      <c r="AB192" s="320"/>
+      <c r="AC192" s="320"/>
+      <c r="AD192" s="320"/>
+      <c r="AE192" s="320"/>
+      <c r="AF192" s="320"/>
+      <c r="AG192" s="321"/>
       <c r="AH192" s="94"/>
       <c r="AJ192" s="58"/>
       <c r="AK192" s="58"/>
@@ -13824,7 +13834,7 @@
       <c r="H194" s="94"/>
       <c r="I194" s="94"/>
       <c r="J194" s="170" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K194" s="170"/>
       <c r="L194" s="170"/>
@@ -13839,7 +13849,7 @@
       <c r="S194" s="170"/>
       <c r="T194" s="170"/>
       <c r="U194" s="170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V194" s="170"/>
       <c r="W194" s="170"/>
@@ -13847,7 +13857,7 @@
       <c r="Y194" s="170"/>
       <c r="Z194" s="172"/>
       <c r="AA194" s="180" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB194" s="94"/>
       <c r="AC194" s="161"/>
@@ -13904,7 +13914,7 @@
       <c r="Y195" s="170"/>
       <c r="Z195" s="172"/>
       <c r="AA195" s="180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB195" s="94"/>
       <c r="AC195" s="161"/>
@@ -13942,11 +13952,11 @@
       <c r="F196" s="94"/>
       <c r="G196" s="169"/>
       <c r="H196" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I196" s="94"/>
       <c r="J196" s="170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K196" s="170"/>
       <c r="L196" s="170"/>
@@ -13961,7 +13971,7 @@
       <c r="S196" s="170"/>
       <c r="T196" s="170"/>
       <c r="U196" s="170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V196" s="170"/>
       <c r="W196" s="170"/>
@@ -14060,11 +14070,11 @@
       <c r="F198" s="94"/>
       <c r="G198" s="169"/>
       <c r="H198" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I198" s="94"/>
       <c r="J198" s="170" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K198" s="170"/>
       <c r="L198" s="170"/>
@@ -14074,12 +14084,12 @@
       <c r="P198" s="94"/>
       <c r="Q198" s="94"/>
       <c r="R198" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S198" s="170"/>
       <c r="T198" s="170"/>
       <c r="U198" s="170" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V198" s="170"/>
       <c r="W198" s="170"/>
@@ -14178,11 +14188,11 @@
       <c r="F200" s="94"/>
       <c r="G200" s="169"/>
       <c r="H200" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I200" s="94"/>
       <c r="J200" s="170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K200" s="170"/>
       <c r="L200" s="170"/>
@@ -14192,12 +14202,12 @@
       <c r="P200" s="94"/>
       <c r="Q200" s="94"/>
       <c r="R200" s="173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S200" s="170"/>
       <c r="T200" s="170"/>
       <c r="U200" s="170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V200" s="170"/>
       <c r="W200" s="170"/>
@@ -14296,11 +14306,11 @@
       <c r="F202" s="94"/>
       <c r="G202" s="169"/>
       <c r="H202" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I202" s="94"/>
       <c r="J202" s="170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K202" s="170"/>
       <c r="L202" s="170"/>
@@ -14310,12 +14320,12 @@
       <c r="P202" s="94"/>
       <c r="Q202" s="94"/>
       <c r="R202" s="215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S202" s="170"/>
       <c r="T202" s="170"/>
       <c r="U202" s="170" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V202" s="170"/>
       <c r="W202" s="170"/>
@@ -14414,11 +14424,11 @@
       <c r="F204" s="94"/>
       <c r="G204" s="169"/>
       <c r="H204" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I204" s="94"/>
       <c r="J204" s="170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K204" s="170"/>
       <c r="L204" s="173"/>
@@ -14428,12 +14438,12 @@
       <c r="P204" s="170"/>
       <c r="Q204" s="94"/>
       <c r="R204" s="216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S204" s="170"/>
       <c r="T204" s="170"/>
       <c r="U204" s="170" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V204" s="170"/>
       <c r="W204" s="170"/>
@@ -14532,11 +14542,11 @@
       <c r="F206" s="94"/>
       <c r="G206" s="169"/>
       <c r="H206" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I206" s="94"/>
       <c r="J206" s="170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K206" s="170"/>
       <c r="L206" s="170"/>
@@ -14546,12 +14556,12 @@
       <c r="P206" s="94"/>
       <c r="Q206" s="94"/>
       <c r="R206" s="215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S206" s="170"/>
       <c r="T206" s="170"/>
       <c r="U206" s="170" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V206" s="170"/>
       <c r="W206" s="170"/>
@@ -14650,11 +14660,11 @@
       <c r="F208" s="94"/>
       <c r="G208" s="169"/>
       <c r="H208" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I208" s="94"/>
       <c r="J208" s="170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K208" s="170"/>
       <c r="L208" s="173"/>
@@ -14664,12 +14674,12 @@
       <c r="P208" s="170"/>
       <c r="Q208" s="94"/>
       <c r="R208" s="216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S208" s="170"/>
       <c r="T208" s="170"/>
       <c r="U208" s="170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V208" s="170"/>
       <c r="W208" s="170"/>
@@ -14768,11 +14778,11 @@
       <c r="F210" s="94"/>
       <c r="G210" s="169"/>
       <c r="H210" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I210" s="94"/>
       <c r="J210" s="170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K210" s="170"/>
       <c r="L210" s="170"/>
@@ -14782,12 +14792,12 @@
       <c r="P210" s="94"/>
       <c r="Q210" s="94"/>
       <c r="R210" s="215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S210" s="170"/>
       <c r="T210" s="170"/>
       <c r="U210" s="170" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V210" s="170"/>
       <c r="W210" s="170"/>
@@ -14886,11 +14896,11 @@
       <c r="F212" s="94"/>
       <c r="G212" s="169"/>
       <c r="H212" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I212" s="94"/>
       <c r="J212" s="170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K212" s="170"/>
       <c r="L212" s="173"/>
@@ -14900,12 +14910,12 @@
       <c r="P212" s="170"/>
       <c r="Q212" s="94"/>
       <c r="R212" s="216" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S212" s="170"/>
       <c r="T212" s="170"/>
       <c r="U212" s="170" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V212" s="170"/>
       <c r="W212" s="170"/>
@@ -15004,11 +15014,11 @@
       <c r="F214" s="94"/>
       <c r="G214" s="169"/>
       <c r="H214" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I214" s="94"/>
       <c r="J214" s="170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K214" s="170"/>
       <c r="L214" s="170"/>
@@ -15018,12 +15028,12 @@
       <c r="P214" s="94"/>
       <c r="Q214" s="94"/>
       <c r="R214" s="173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S214" s="170"/>
       <c r="T214" s="170"/>
       <c r="U214" s="170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V214" s="170"/>
       <c r="W214" s="170"/>
@@ -15123,35 +15133,35 @@
       <c r="D216" s="94"/>
       <c r="E216" s="94"/>
       <c r="F216" s="94"/>
-      <c r="G216" s="235" t="s">
-        <v>211</v>
-      </c>
-      <c r="H216" s="236"/>
-      <c r="I216" s="236"/>
-      <c r="J216" s="236"/>
-      <c r="K216" s="236"/>
-      <c r="L216" s="236"/>
-      <c r="M216" s="236"/>
-      <c r="N216" s="236"/>
-      <c r="O216" s="236"/>
-      <c r="P216" s="236"/>
-      <c r="Q216" s="236"/>
-      <c r="R216" s="236"/>
-      <c r="S216" s="236"/>
-      <c r="T216" s="236"/>
-      <c r="U216" s="236"/>
-      <c r="V216" s="236"/>
-      <c r="W216" s="236"/>
-      <c r="X216" s="236"/>
-      <c r="Y216" s="236"/>
-      <c r="Z216" s="236"/>
-      <c r="AA216" s="236"/>
-      <c r="AB216" s="236"/>
-      <c r="AC216" s="236"/>
-      <c r="AD216" s="236"/>
-      <c r="AE216" s="236"/>
-      <c r="AF216" s="236"/>
-      <c r="AG216" s="237"/>
+      <c r="G216" s="319" t="s">
+        <v>210</v>
+      </c>
+      <c r="H216" s="320"/>
+      <c r="I216" s="320"/>
+      <c r="J216" s="320"/>
+      <c r="K216" s="320"/>
+      <c r="L216" s="320"/>
+      <c r="M216" s="320"/>
+      <c r="N216" s="320"/>
+      <c r="O216" s="320"/>
+      <c r="P216" s="320"/>
+      <c r="Q216" s="320"/>
+      <c r="R216" s="320"/>
+      <c r="S216" s="320"/>
+      <c r="T216" s="320"/>
+      <c r="U216" s="320"/>
+      <c r="V216" s="320"/>
+      <c r="W216" s="320"/>
+      <c r="X216" s="320"/>
+      <c r="Y216" s="320"/>
+      <c r="Z216" s="320"/>
+      <c r="AA216" s="320"/>
+      <c r="AB216" s="320"/>
+      <c r="AC216" s="320"/>
+      <c r="AD216" s="320"/>
+      <c r="AE216" s="320"/>
+      <c r="AF216" s="320"/>
+      <c r="AG216" s="321"/>
       <c r="AJ216" s="58"/>
       <c r="AK216" s="58"/>
       <c r="AL216" s="58"/>
@@ -15246,7 +15256,7 @@
       <c r="I218" s="170"/>
       <c r="J218" s="170"/>
       <c r="K218" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L218" s="173"/>
       <c r="M218" s="173"/>
@@ -15476,7 +15486,7 @@
       <c r="D222" s="94"/>
       <c r="E222" s="193"/>
       <c r="F222" s="154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G222" s="130"/>
       <c r="H222" s="130"/>
@@ -15601,7 +15611,7 @@
       <c r="E224" s="94"/>
       <c r="F224" s="193"/>
       <c r="G224" s="154" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H224" s="154"/>
       <c r="I224" s="130"/>
@@ -15664,7 +15674,7 @@
       <c r="E225" s="94"/>
       <c r="F225" s="193"/>
       <c r="G225" s="154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H225" s="130"/>
       <c r="I225" s="130"/>
@@ -15748,7 +15758,7 @@
       <c r="D227" s="94"/>
       <c r="E227" s="193"/>
       <c r="F227" s="154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G227" s="130"/>
       <c r="H227" s="130"/>
@@ -15831,7 +15841,7 @@
       <c r="E229" s="94"/>
       <c r="F229" s="193"/>
       <c r="G229" s="154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H229" s="130"/>
       <c r="I229" s="130"/>
@@ -15873,7 +15883,7 @@
       <c r="E230" s="94"/>
       <c r="F230" s="193"/>
       <c r="G230" s="154" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H230" s="130"/>
       <c r="I230" s="130"/>
@@ -15990,7 +16000,7 @@
       <c r="B233" s="94"/>
       <c r="C233" s="94"/>
       <c r="D233" s="157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E233" s="130"/>
       <c r="F233" s="130"/>
@@ -16073,7 +16083,7 @@
       <c r="C235" s="94"/>
       <c r="D235" s="193"/>
       <c r="E235" s="154" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F235" s="154"/>
       <c r="G235" s="154"/>
@@ -16116,7 +16126,7 @@
       <c r="D236" s="193"/>
       <c r="E236" s="154"/>
       <c r="F236" s="154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G236" s="154"/>
       <c r="H236" s="130"/>
@@ -16157,7 +16167,7 @@
       <c r="D237" s="193"/>
       <c r="E237" s="154"/>
       <c r="F237" s="154" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G237" s="154"/>
       <c r="H237" s="130"/>
@@ -16197,7 +16207,7 @@
       <c r="D238" s="193"/>
       <c r="E238" s="130"/>
       <c r="F238" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G238" s="130"/>
       <c r="H238" s="130"/>
@@ -16237,7 +16247,7 @@
       <c r="D239" s="193"/>
       <c r="E239" s="130"/>
       <c r="F239" s="154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G239" s="130"/>
       <c r="H239" s="130"/>
@@ -16277,7 +16287,7 @@
       <c r="D240" s="193"/>
       <c r="E240" s="130"/>
       <c r="F240" s="154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G240" s="130"/>
       <c r="H240" s="130"/>
@@ -16353,7 +16363,7 @@
       <c r="B242" s="94"/>
       <c r="C242" s="94"/>
       <c r="D242" s="193" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E242" s="130"/>
       <c r="F242" s="154"/>
@@ -16432,7 +16442,7 @@
       <c r="C244" s="94"/>
       <c r="D244" s="193"/>
       <c r="E244" s="154" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F244" s="161"/>
       <c r="G244" s="161"/>
@@ -16469,6 +16479,228 @@
     </row>
   </sheetData>
   <mergeCells count="246">
+    <mergeCell ref="G216:AG216"/>
+    <mergeCell ref="G192:AG192"/>
+    <mergeCell ref="G182:AG182"/>
+    <mergeCell ref="Z161:AC161"/>
+    <mergeCell ref="G163:L163"/>
+    <mergeCell ref="M163:V163"/>
+    <mergeCell ref="W163:Y163"/>
+    <mergeCell ref="Z163:AC163"/>
+    <mergeCell ref="AD163:AG163"/>
+    <mergeCell ref="N171:W171"/>
+    <mergeCell ref="Z159:AC159"/>
+    <mergeCell ref="M160:V160"/>
+    <mergeCell ref="X171:AG171"/>
+    <mergeCell ref="R93:Y93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Z93:AD93"/>
+    <mergeCell ref="G162:L162"/>
+    <mergeCell ref="M162:V162"/>
+    <mergeCell ref="W162:Y162"/>
+    <mergeCell ref="Z162:AC162"/>
+    <mergeCell ref="AD162:AG162"/>
+    <mergeCell ref="E98:J98"/>
+    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="R98:Y98"/>
+    <mergeCell ref="Z98:AD98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="W161:Y161"/>
+    <mergeCell ref="Q113:Z113"/>
+    <mergeCell ref="Q114:Z114"/>
+    <mergeCell ref="AD159:AG159"/>
+    <mergeCell ref="AD160:AG160"/>
+    <mergeCell ref="G142:Z142"/>
+    <mergeCell ref="G140:P141"/>
+    <mergeCell ref="Q140:Z140"/>
+    <mergeCell ref="Q141:Z141"/>
+    <mergeCell ref="G115:Z115"/>
+    <mergeCell ref="G161:L161"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:T79"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="Z79:AB79"/>
+    <mergeCell ref="AD79:AG79"/>
+    <mergeCell ref="V88:AH88"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="V85:AH86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V87:AH87"/>
+    <mergeCell ref="Q112:Z112"/>
+    <mergeCell ref="G112:P112"/>
+    <mergeCell ref="G113:P114"/>
+    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="AD161:AG161"/>
+    <mergeCell ref="M161:V161"/>
+    <mergeCell ref="W159:Y159"/>
+    <mergeCell ref="AL76:AP76"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="AL79:AP79"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:T80"/>
+    <mergeCell ref="U80:Y80"/>
+    <mergeCell ref="Z80:AB80"/>
+    <mergeCell ref="AD80:AG80"/>
+    <mergeCell ref="AL80:AP80"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:T77"/>
+    <mergeCell ref="U77:Y77"/>
+    <mergeCell ref="Z77:AB77"/>
+    <mergeCell ref="AD77:AG77"/>
+    <mergeCell ref="AL77:AP77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="M78:T78"/>
+    <mergeCell ref="U78:Y78"/>
+    <mergeCell ref="Z78:AB78"/>
+    <mergeCell ref="AD78:AG78"/>
+    <mergeCell ref="AL78:AP78"/>
+    <mergeCell ref="AL74:AP74"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AL72:AP72"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:T75"/>
+    <mergeCell ref="U75:Y75"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AG75"/>
+    <mergeCell ref="AL75:AP75"/>
+    <mergeCell ref="AL67:AP67"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="D71:AG71"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:T73"/>
+    <mergeCell ref="U73:Y73"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="AD73:AG73"/>
+    <mergeCell ref="AL73:AP73"/>
+    <mergeCell ref="AL70:AP70"/>
+    <mergeCell ref="AL66:AP66"/>
+    <mergeCell ref="AL68:AP68"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="R94:Y94"/>
+    <mergeCell ref="Z94:AD94"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="M68:T68"/>
+    <mergeCell ref="M66:T66"/>
+    <mergeCell ref="AD70:AG70"/>
+    <mergeCell ref="AL69:AP69"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="M69:T69"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="U70:Y70"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:T70"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I57:L58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="E56:AC56"/>
+    <mergeCell ref="Z57:AB58"/>
+    <mergeCell ref="AC57:AC58"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="U57:Y58"/>
+    <mergeCell ref="M57:T58"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="E50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AC50"/>
+    <mergeCell ref="E51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="M63:T63"/>
+    <mergeCell ref="M62:T62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="D59:AG59"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="AD56:AG58"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="V51:AC51"/>
+    <mergeCell ref="E95:J95"/>
+    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="R95:Y95"/>
+    <mergeCell ref="Z95:AD95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="M159:V159"/>
+    <mergeCell ref="Z160:AC160"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="W160:Y160"/>
+    <mergeCell ref="G139:P139"/>
+    <mergeCell ref="Q139:Z139"/>
+    <mergeCell ref="Z97:AD97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="R97:Y97"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="M74:T74"/>
+    <mergeCell ref="U74:Y74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AD74:AG74"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="M76:T76"/>
+    <mergeCell ref="U76:Y76"/>
+    <mergeCell ref="Z76:AB76"/>
+    <mergeCell ref="AD76:AG76"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:J86"/>
     <mergeCell ref="K85:N86"/>
@@ -16493,228 +16725,6 @@
     <mergeCell ref="M64:T64"/>
     <mergeCell ref="I66:L66"/>
     <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="M74:T74"/>
-    <mergeCell ref="U74:Y74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AD74:AG74"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="M76:T76"/>
-    <mergeCell ref="U76:Y76"/>
-    <mergeCell ref="Z76:AB76"/>
-    <mergeCell ref="AD76:AG76"/>
-    <mergeCell ref="E95:J95"/>
-    <mergeCell ref="K95:Q95"/>
-    <mergeCell ref="R95:Y95"/>
-    <mergeCell ref="Z95:AD95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="M159:V159"/>
-    <mergeCell ref="Z160:AC160"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="E93:J93"/>
-    <mergeCell ref="K93:Q93"/>
-    <mergeCell ref="W160:Y160"/>
-    <mergeCell ref="G139:P139"/>
-    <mergeCell ref="Q139:Z139"/>
-    <mergeCell ref="Z97:AD97"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="K97:Q97"/>
-    <mergeCell ref="R97:Y97"/>
-    <mergeCell ref="E50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AC50"/>
-    <mergeCell ref="E51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="M63:T63"/>
-    <mergeCell ref="M62:T62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="D59:AG59"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="AD56:AG58"/>
-    <mergeCell ref="M60:T60"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="V51:AC51"/>
-    <mergeCell ref="I57:L58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="E56:AC56"/>
-    <mergeCell ref="Z57:AB58"/>
-    <mergeCell ref="AC57:AC58"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="U57:Y58"/>
-    <mergeCell ref="M57:T58"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="M61:T61"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="R94:Y94"/>
-    <mergeCell ref="Z94:AD94"/>
-    <mergeCell ref="E87:J87"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="M68:T68"/>
-    <mergeCell ref="M66:T66"/>
-    <mergeCell ref="AD70:AG70"/>
-    <mergeCell ref="AL69:AP69"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="M69:T69"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="U70:Y70"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:T70"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="AL67:AP67"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="D71:AG71"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:T73"/>
-    <mergeCell ref="U73:Y73"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="AD73:AG73"/>
-    <mergeCell ref="AL73:AP73"/>
-    <mergeCell ref="AL70:AP70"/>
-    <mergeCell ref="AL66:AP66"/>
-    <mergeCell ref="AL68:AP68"/>
-    <mergeCell ref="AD68:AG68"/>
-    <mergeCell ref="AL74:AP74"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AL72:AP72"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:T75"/>
-    <mergeCell ref="U75:Y75"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AG75"/>
-    <mergeCell ref="AL75:AP75"/>
-    <mergeCell ref="AL76:AP76"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="AL79:AP79"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:T80"/>
-    <mergeCell ref="U80:Y80"/>
-    <mergeCell ref="Z80:AB80"/>
-    <mergeCell ref="AD80:AG80"/>
-    <mergeCell ref="AL80:AP80"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="M77:T77"/>
-    <mergeCell ref="U77:Y77"/>
-    <mergeCell ref="Z77:AB77"/>
-    <mergeCell ref="AD77:AG77"/>
-    <mergeCell ref="AL77:AP77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="M78:T78"/>
-    <mergeCell ref="U78:Y78"/>
-    <mergeCell ref="Z78:AB78"/>
-    <mergeCell ref="AD78:AG78"/>
-    <mergeCell ref="AL78:AP78"/>
-    <mergeCell ref="Q141:Z141"/>
-    <mergeCell ref="G115:Z115"/>
-    <mergeCell ref="G161:L161"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="M79:T79"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="Z79:AB79"/>
-    <mergeCell ref="AD79:AG79"/>
-    <mergeCell ref="V88:AH88"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="V85:AH86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="E88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="V87:AH87"/>
-    <mergeCell ref="Q112:Z112"/>
-    <mergeCell ref="G112:P112"/>
-    <mergeCell ref="G113:P114"/>
-    <mergeCell ref="K94:Q94"/>
-    <mergeCell ref="AD161:AG161"/>
-    <mergeCell ref="M161:V161"/>
-    <mergeCell ref="W159:Y159"/>
-    <mergeCell ref="Z159:AC159"/>
-    <mergeCell ref="M160:V160"/>
-    <mergeCell ref="X171:AG171"/>
-    <mergeCell ref="R93:Y93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Z93:AD93"/>
-    <mergeCell ref="G162:L162"/>
-    <mergeCell ref="M162:V162"/>
-    <mergeCell ref="W162:Y162"/>
-    <mergeCell ref="Z162:AC162"/>
-    <mergeCell ref="AD162:AG162"/>
-    <mergeCell ref="E98:J98"/>
-    <mergeCell ref="K98:Q98"/>
-    <mergeCell ref="R98:Y98"/>
-    <mergeCell ref="Z98:AD98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="W161:Y161"/>
-    <mergeCell ref="Q113:Z113"/>
-    <mergeCell ref="Q114:Z114"/>
-    <mergeCell ref="AD159:AG159"/>
-    <mergeCell ref="AD160:AG160"/>
-    <mergeCell ref="G142:Z142"/>
-    <mergeCell ref="G140:P141"/>
-    <mergeCell ref="Q140:Z140"/>
-    <mergeCell ref="G216:AG216"/>
-    <mergeCell ref="G192:AG192"/>
-    <mergeCell ref="G182:AG182"/>
-    <mergeCell ref="Z161:AC161"/>
-    <mergeCell ref="G163:L163"/>
-    <mergeCell ref="M163:V163"/>
-    <mergeCell ref="W163:Y163"/>
-    <mergeCell ref="Z163:AC163"/>
-    <mergeCell ref="AD163:AG163"/>
-    <mergeCell ref="N171:W171"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
@@ -16818,7 +16828,7 @@
     <row r="2" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="94"/>
       <c r="B2" s="109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="94"/>
       <c r="D2" s="94"/>
@@ -16858,7 +16868,7 @@
       <c r="A3" s="94"/>
       <c r="B3" s="94"/>
       <c r="C3" s="94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
@@ -18050,39 +18060,39 @@
       <c r="D35" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="332" t="s">
+      <c r="E35" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
-      <c r="H35" s="332"/>
-      <c r="I35" s="332"/>
-      <c r="J35" s="332"/>
-      <c r="K35" s="332"/>
-      <c r="L35" s="332"/>
-      <c r="M35" s="332"/>
-      <c r="N35" s="332" t="s">
+      <c r="F35" s="284"/>
+      <c r="G35" s="284"/>
+      <c r="H35" s="284"/>
+      <c r="I35" s="284"/>
+      <c r="J35" s="284"/>
+      <c r="K35" s="284"/>
+      <c r="L35" s="284"/>
+      <c r="M35" s="284"/>
+      <c r="N35" s="284" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="332"/>
-      <c r="P35" s="332"/>
-      <c r="Q35" s="359" t="s">
+      <c r="O35" s="284"/>
+      <c r="P35" s="284"/>
+      <c r="Q35" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="R35" s="360"/>
-      <c r="S35" s="360"/>
-      <c r="T35" s="360"/>
-      <c r="U35" s="361"/>
-      <c r="V35" s="332" t="s">
+      <c r="R35" s="358"/>
+      <c r="S35" s="358"/>
+      <c r="T35" s="358"/>
+      <c r="U35" s="359"/>
+      <c r="V35" s="284" t="s">
         <v>78</v>
       </c>
-      <c r="W35" s="332"/>
-      <c r="X35" s="332"/>
-      <c r="Y35" s="332"/>
-      <c r="Z35" s="332"/>
-      <c r="AA35" s="332"/>
-      <c r="AB35" s="332"/>
-      <c r="AC35" s="332"/>
+      <c r="W35" s="284"/>
+      <c r="X35" s="284"/>
+      <c r="Y35" s="284"/>
+      <c r="Z35" s="284"/>
+      <c r="AA35" s="284"/>
+      <c r="AB35" s="284"/>
+      <c r="AC35" s="284"/>
       <c r="AD35" s="197"/>
       <c r="AE35" s="197"/>
       <c r="AF35" s="197"/>
@@ -18097,41 +18107,41 @@
       <c r="D36" s="194">
         <v>1</v>
       </c>
-      <c r="E36" s="362" t="s">
+      <c r="E36" s="360" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="362"/>
-      <c r="G36" s="362"/>
-      <c r="H36" s="362"/>
-      <c r="I36" s="362"/>
-      <c r="J36" s="362"/>
-      <c r="K36" s="362"/>
-      <c r="L36" s="362"/>
-      <c r="M36" s="362"/>
-      <c r="N36" s="362" t="s">
+      <c r="F36" s="360"/>
+      <c r="G36" s="360"/>
+      <c r="H36" s="360"/>
+      <c r="I36" s="360"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="360"/>
+      <c r="L36" s="360"/>
+      <c r="M36" s="360"/>
+      <c r="N36" s="360" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="362"/>
-      <c r="P36" s="362"/>
-      <c r="Q36" s="363" t="s">
+      <c r="O36" s="360"/>
+      <c r="P36" s="360"/>
+      <c r="Q36" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="269"/>
-      <c r="S36" s="269"/>
-      <c r="T36" s="269"/>
-      <c r="U36" s="270"/>
-      <c r="V36" s="362" t="s">
+      <c r="R36" s="271"/>
+      <c r="S36" s="271"/>
+      <c r="T36" s="271"/>
+      <c r="U36" s="272"/>
+      <c r="V36" s="360" t="s">
         <v>5</v>
       </c>
-      <c r="W36" s="362" t="s">
+      <c r="W36" s="360" t="s">
         <v>5</v>
       </c>
-      <c r="X36" s="362"/>
-      <c r="Y36" s="362"/>
-      <c r="Z36" s="362"/>
-      <c r="AA36" s="362"/>
-      <c r="AB36" s="362"/>
-      <c r="AC36" s="362"/>
+      <c r="X36" s="360"/>
+      <c r="Y36" s="360"/>
+      <c r="Z36" s="360"/>
+      <c r="AA36" s="360"/>
+      <c r="AB36" s="360"/>
+      <c r="AC36" s="360"/>
       <c r="AD36" s="94"/>
       <c r="AE36" s="94"/>
       <c r="AF36" s="94"/>
@@ -18329,36 +18339,36 @@
       <c r="A41" s="95"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
-      <c r="D41" s="336" t="s">
+      <c r="D41" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="262" t="s">
+      <c r="E41" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="263"/>
-      <c r="G41" s="263"/>
-      <c r="H41" s="263"/>
-      <c r="I41" s="263"/>
-      <c r="J41" s="263"/>
-      <c r="K41" s="263"/>
-      <c r="L41" s="263"/>
-      <c r="M41" s="263"/>
-      <c r="N41" s="263"/>
-      <c r="O41" s="263"/>
-      <c r="P41" s="263"/>
-      <c r="Q41" s="263"/>
-      <c r="R41" s="263"/>
-      <c r="S41" s="263"/>
-      <c r="T41" s="263"/>
-      <c r="U41" s="263"/>
-      <c r="V41" s="263"/>
-      <c r="W41" s="263"/>
-      <c r="X41" s="263"/>
-      <c r="Y41" s="263"/>
-      <c r="Z41" s="263"/>
-      <c r="AA41" s="263"/>
-      <c r="AB41" s="263"/>
-      <c r="AC41" s="264"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303"/>
+      <c r="I41" s="303"/>
+      <c r="J41" s="303"/>
+      <c r="K41" s="303"/>
+      <c r="L41" s="303"/>
+      <c r="M41" s="303"/>
+      <c r="N41" s="303"/>
+      <c r="O41" s="303"/>
+      <c r="P41" s="303"/>
+      <c r="Q41" s="303"/>
+      <c r="R41" s="303"/>
+      <c r="S41" s="303"/>
+      <c r="T41" s="303"/>
+      <c r="U41" s="303"/>
+      <c r="V41" s="303"/>
+      <c r="W41" s="303"/>
+      <c r="X41" s="303"/>
+      <c r="Y41" s="303"/>
+      <c r="Z41" s="303"/>
+      <c r="AA41" s="303"/>
+      <c r="AB41" s="303"/>
+      <c r="AC41" s="304"/>
       <c r="AD41" s="218" t="s">
         <v>85</v>
       </c>
@@ -18379,29 +18389,29 @@
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="95"/>
-      <c r="D42" s="337"/>
+      <c r="D42" s="292"/>
       <c r="E42" s="218" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="219"/>
       <c r="G42" s="219"/>
       <c r="H42" s="220"/>
-      <c r="I42" s="323" t="s">
+      <c r="I42" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="324"/>
-      <c r="K42" s="324"/>
-      <c r="L42" s="325"/>
-      <c r="M42" s="323" t="s">
+      <c r="J42" s="297"/>
+      <c r="K42" s="297"/>
+      <c r="L42" s="298"/>
+      <c r="M42" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="N42" s="324"/>
-      <c r="O42" s="324"/>
-      <c r="P42" s="324"/>
-      <c r="Q42" s="324"/>
-      <c r="R42" s="324"/>
-      <c r="S42" s="324"/>
-      <c r="T42" s="325"/>
+      <c r="N42" s="297"/>
+      <c r="O42" s="297"/>
+      <c r="P42" s="297"/>
+      <c r="Q42" s="297"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="297"/>
+      <c r="T42" s="298"/>
       <c r="U42" s="218" t="s">
         <v>89</v>
       </c>
@@ -18414,8 +18424,8 @@
       </c>
       <c r="AA42" s="219"/>
       <c r="AB42" s="220"/>
-      <c r="AC42" s="329" t="s">
-        <v>346</v>
+      <c r="AC42" s="305" t="s">
+        <v>345</v>
       </c>
       <c r="AD42" s="221"/>
       <c r="AE42" s="222"/>
@@ -18439,23 +18449,23 @@
       <c r="A43" s="95"/>
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
-      <c r="D43" s="338"/>
+      <c r="D43" s="293"/>
       <c r="E43" s="224"/>
       <c r="F43" s="225"/>
       <c r="G43" s="225"/>
       <c r="H43" s="226"/>
-      <c r="I43" s="326"/>
-      <c r="J43" s="327"/>
-      <c r="K43" s="327"/>
-      <c r="L43" s="328"/>
-      <c r="M43" s="326"/>
-      <c r="N43" s="327"/>
-      <c r="O43" s="327"/>
-      <c r="P43" s="327"/>
-      <c r="Q43" s="327"/>
-      <c r="R43" s="327"/>
-      <c r="S43" s="327"/>
-      <c r="T43" s="328"/>
+      <c r="I43" s="299"/>
+      <c r="J43" s="300"/>
+      <c r="K43" s="300"/>
+      <c r="L43" s="301"/>
+      <c r="M43" s="299"/>
+      <c r="N43" s="300"/>
+      <c r="O43" s="300"/>
+      <c r="P43" s="300"/>
+      <c r="Q43" s="300"/>
+      <c r="R43" s="300"/>
+      <c r="S43" s="300"/>
+      <c r="T43" s="301"/>
       <c r="U43" s="224"/>
       <c r="V43" s="225"/>
       <c r="W43" s="225"/>
@@ -18464,7 +18474,7 @@
       <c r="Z43" s="224"/>
       <c r="AA43" s="225"/>
       <c r="AB43" s="226"/>
-      <c r="AC43" s="330"/>
+      <c r="AC43" s="306"/>
       <c r="AD43" s="224"/>
       <c r="AE43" s="225"/>
       <c r="AF43" s="225"/>
@@ -18473,13 +18483,13 @@
       <c r="AI43" s="111"/>
       <c r="AJ43" s="71"/>
       <c r="AK43" s="71"/>
-      <c r="AL43" s="307" t="s">
+      <c r="AL43" s="278" t="s">
         <v>83</v>
       </c>
-      <c r="AM43" s="308"/>
-      <c r="AN43" s="308"/>
-      <c r="AO43" s="308"/>
-      <c r="AP43" s="309"/>
+      <c r="AM43" s="279"/>
+      <c r="AN43" s="279"/>
+      <c r="AO43" s="279"/>
+      <c r="AP43" s="280"/>
       <c r="AQ43" s="71"/>
       <c r="AR43" s="71"/>
       <c r="AS43" s="71"/>
@@ -18489,38 +18499,38 @@
       <c r="A44" s="95"/>
       <c r="B44" s="95"/>
       <c r="C44" s="95"/>
-      <c r="D44" s="320" t="s">
-        <v>339</v>
-      </c>
-      <c r="E44" s="321"/>
-      <c r="F44" s="321"/>
-      <c r="G44" s="321"/>
-      <c r="H44" s="321"/>
-      <c r="I44" s="321"/>
-      <c r="J44" s="321"/>
-      <c r="K44" s="321"/>
-      <c r="L44" s="321"/>
-      <c r="M44" s="321"/>
-      <c r="N44" s="321"/>
-      <c r="O44" s="321"/>
-      <c r="P44" s="321"/>
-      <c r="Q44" s="321"/>
-      <c r="R44" s="321"/>
-      <c r="S44" s="321"/>
-      <c r="T44" s="321"/>
-      <c r="U44" s="321"/>
-      <c r="V44" s="321"/>
-      <c r="W44" s="321"/>
-      <c r="X44" s="321"/>
-      <c r="Y44" s="321"/>
-      <c r="Z44" s="321"/>
-      <c r="AA44" s="321"/>
-      <c r="AB44" s="321"/>
-      <c r="AC44" s="321"/>
-      <c r="AD44" s="321"/>
-      <c r="AE44" s="321"/>
-      <c r="AF44" s="321"/>
-      <c r="AG44" s="322"/>
+      <c r="D44" s="288" t="s">
+        <v>338</v>
+      </c>
+      <c r="E44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="289"/>
+      <c r="I44" s="289"/>
+      <c r="J44" s="289"/>
+      <c r="K44" s="289"/>
+      <c r="L44" s="289"/>
+      <c r="M44" s="289"/>
+      <c r="N44" s="289"/>
+      <c r="O44" s="289"/>
+      <c r="P44" s="289"/>
+      <c r="Q44" s="289"/>
+      <c r="R44" s="289"/>
+      <c r="S44" s="289"/>
+      <c r="T44" s="289"/>
+      <c r="U44" s="289"/>
+      <c r="V44" s="289"/>
+      <c r="W44" s="289"/>
+      <c r="X44" s="289"/>
+      <c r="Y44" s="289"/>
+      <c r="Z44" s="289"/>
+      <c r="AA44" s="289"/>
+      <c r="AB44" s="289"/>
+      <c r="AC44" s="289"/>
+      <c r="AD44" s="289"/>
+      <c r="AE44" s="289"/>
+      <c r="AF44" s="289"/>
+      <c r="AG44" s="290"/>
       <c r="AH44" s="111"/>
       <c r="AI44" s="111"/>
       <c r="AJ44" s="71"/>
@@ -18549,59 +18559,59 @@
       </c>
       <c r="F45" s="231"/>
       <c r="G45" s="231"/>
-      <c r="H45" s="313"/>
-      <c r="I45" s="286" t="s">
+      <c r="H45" s="251"/>
+      <c r="I45" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J45" s="287"/>
-      <c r="K45" s="287"/>
-      <c r="L45" s="288"/>
-      <c r="M45" s="248" t="s">
-        <v>286</v>
-      </c>
-      <c r="N45" s="249"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249"/>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="250"/>
-      <c r="U45" s="283" t="s">
+      <c r="J45" s="255"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="245" t="s">
+        <v>285</v>
+      </c>
+      <c r="N45" s="246"/>
+      <c r="O45" s="246"/>
+      <c r="P45" s="246"/>
+      <c r="Q45" s="246"/>
+      <c r="R45" s="246"/>
+      <c r="S45" s="246"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="284"/>
-      <c r="W45" s="284"/>
-      <c r="X45" s="284"/>
-      <c r="Y45" s="285"/>
-      <c r="Z45" s="283" t="s">
+      <c r="V45" s="249"/>
+      <c r="W45" s="249"/>
+      <c r="X45" s="249"/>
+      <c r="Y45" s="250"/>
+      <c r="Z45" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="AA45" s="284"/>
-      <c r="AB45" s="285"/>
+      <c r="AA45" s="249"/>
+      <c r="AB45" s="250"/>
       <c r="AC45" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD45" s="283" t="s">
+      <c r="AD45" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE45" s="284"/>
-      <c r="AF45" s="284"/>
-      <c r="AG45" s="285"/>
+      <c r="AE45" s="249"/>
+      <c r="AF45" s="249"/>
+      <c r="AG45" s="250"/>
       <c r="AH45" s="118"/>
       <c r="AI45" s="118"/>
-      <c r="AL45" s="356" t="s">
+      <c r="AL45" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM45" s="357" t="s">
+      <c r="AM45" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN45" s="357" t="s">
+      <c r="AN45" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO45" s="357" t="s">
+      <c r="AO45" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP45" s="358" t="s">
+      <c r="AP45" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU45" s="69"/>
@@ -18623,59 +18633,59 @@
       </c>
       <c r="F46" s="231"/>
       <c r="G46" s="231"/>
-      <c r="H46" s="313"/>
-      <c r="I46" s="286" t="s">
+      <c r="H46" s="251"/>
+      <c r="I46" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="287"/>
-      <c r="K46" s="287"/>
-      <c r="L46" s="288"/>
-      <c r="M46" s="248" t="s">
-        <v>286</v>
-      </c>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="249"/>
-      <c r="R46" s="249"/>
-      <c r="S46" s="249"/>
-      <c r="T46" s="250"/>
-      <c r="U46" s="283" t="s">
+      <c r="J46" s="255"/>
+      <c r="K46" s="255"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="245" t="s">
+        <v>285</v>
+      </c>
+      <c r="N46" s="246"/>
+      <c r="O46" s="246"/>
+      <c r="P46" s="246"/>
+      <c r="Q46" s="246"/>
+      <c r="R46" s="246"/>
+      <c r="S46" s="246"/>
+      <c r="T46" s="247"/>
+      <c r="U46" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V46" s="284"/>
-      <c r="W46" s="284"/>
-      <c r="X46" s="284"/>
-      <c r="Y46" s="285"/>
-      <c r="Z46" s="283" t="s">
+      <c r="V46" s="249"/>
+      <c r="W46" s="249"/>
+      <c r="X46" s="249"/>
+      <c r="Y46" s="250"/>
+      <c r="Z46" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="AA46" s="284"/>
-      <c r="AB46" s="285"/>
+      <c r="AA46" s="249"/>
+      <c r="AB46" s="250"/>
       <c r="AC46" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD46" s="283" t="s">
+      <c r="AD46" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE46" s="284"/>
-      <c r="AF46" s="284"/>
-      <c r="AG46" s="285"/>
+      <c r="AE46" s="249"/>
+      <c r="AF46" s="249"/>
+      <c r="AG46" s="250"/>
       <c r="AH46" s="118"/>
       <c r="AI46" s="118"/>
-      <c r="AL46" s="356" t="s">
+      <c r="AL46" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM46" s="357" t="s">
+      <c r="AM46" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN46" s="357" t="s">
+      <c r="AN46" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO46" s="357" t="s">
+      <c r="AO46" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP46" s="358" t="s">
+      <c r="AP46" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU46" s="69"/>
@@ -18693,65 +18703,65 @@
         <v>3</v>
       </c>
       <c r="E47" s="230" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F47" s="231"/>
       <c r="G47" s="231"/>
-      <c r="H47" s="313"/>
-      <c r="I47" s="286" t="s">
+      <c r="H47" s="251"/>
+      <c r="I47" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J47" s="287"/>
-      <c r="K47" s="287"/>
-      <c r="L47" s="288"/>
-      <c r="M47" s="248" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" s="249"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="249"/>
-      <c r="R47" s="249"/>
-      <c r="S47" s="249"/>
-      <c r="T47" s="250"/>
-      <c r="U47" s="318" t="s">
+      <c r="J47" s="255"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="256"/>
+      <c r="M47" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="N47" s="246"/>
+      <c r="O47" s="246"/>
+      <c r="P47" s="246"/>
+      <c r="Q47" s="246"/>
+      <c r="R47" s="246"/>
+      <c r="S47" s="246"/>
+      <c r="T47" s="247"/>
+      <c r="U47" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="318"/>
-      <c r="W47" s="318"/>
-      <c r="X47" s="318"/>
-      <c r="Y47" s="318"/>
-      <c r="Z47" s="318" t="s">
+      <c r="V47" s="260"/>
+      <c r="W47" s="260"/>
+      <c r="X47" s="260"/>
+      <c r="Y47" s="260"/>
+      <c r="Z47" s="260" t="s">
         <v>36</v>
       </c>
-      <c r="AA47" s="318"/>
-      <c r="AB47" s="318"/>
+      <c r="AA47" s="260"/>
+      <c r="AB47" s="260"/>
       <c r="AC47" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD47" s="283" t="s">
+      <c r="AD47" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE47" s="284"/>
-      <c r="AF47" s="284"/>
-      <c r="AG47" s="285"/>
+      <c r="AE47" s="249"/>
+      <c r="AF47" s="249"/>
+      <c r="AG47" s="250"/>
       <c r="AH47" s="111"/>
       <c r="AI47" s="111"/>
       <c r="AJ47" s="71"/>
       <c r="AK47" s="71"/>
-      <c r="AL47" s="356" t="s">
+      <c r="AL47" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM47" s="357" t="s">
+      <c r="AM47" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN47" s="357" t="s">
+      <c r="AN47" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO47" s="357" t="s">
+      <c r="AO47" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP47" s="358" t="s">
+      <c r="AP47" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AQ47" s="71"/>
@@ -18768,65 +18778,65 @@
         <v>4</v>
       </c>
       <c r="E48" s="230" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="231"/>
       <c r="G48" s="231"/>
-      <c r="H48" s="313"/>
-      <c r="I48" s="286" t="s">
+      <c r="H48" s="251"/>
+      <c r="I48" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J48" s="287"/>
-      <c r="K48" s="287"/>
-      <c r="L48" s="288"/>
-      <c r="M48" s="248" t="s">
-        <v>207</v>
-      </c>
-      <c r="N48" s="249"/>
-      <c r="O48" s="249"/>
-      <c r="P48" s="249"/>
-      <c r="Q48" s="249"/>
-      <c r="R48" s="249"/>
-      <c r="S48" s="249"/>
-      <c r="T48" s="250"/>
-      <c r="U48" s="283" t="s">
+      <c r="J48" s="255"/>
+      <c r="K48" s="255"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="245" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" s="246"/>
+      <c r="O48" s="246"/>
+      <c r="P48" s="246"/>
+      <c r="Q48" s="246"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="246"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="V48" s="284"/>
-      <c r="W48" s="284"/>
-      <c r="X48" s="284"/>
-      <c r="Y48" s="285"/>
-      <c r="Z48" s="318" t="s">
+      <c r="V48" s="249"/>
+      <c r="W48" s="249"/>
+      <c r="X48" s="249"/>
+      <c r="Y48" s="250"/>
+      <c r="Z48" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA48" s="318"/>
-      <c r="AB48" s="318"/>
+      <c r="AA48" s="260"/>
+      <c r="AB48" s="260"/>
       <c r="AC48" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD48" s="283" t="s">
+      <c r="AD48" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE48" s="284"/>
-      <c r="AF48" s="284"/>
-      <c r="AG48" s="285"/>
+      <c r="AE48" s="249"/>
+      <c r="AF48" s="249"/>
+      <c r="AG48" s="250"/>
       <c r="AH48" s="111"/>
       <c r="AI48" s="111"/>
       <c r="AJ48" s="71"/>
       <c r="AK48" s="71"/>
-      <c r="AL48" s="356" t="s">
+      <c r="AL48" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM48" s="357" t="s">
+      <c r="AM48" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN48" s="357" t="s">
+      <c r="AN48" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO48" s="357" t="s">
+      <c r="AO48" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP48" s="358" t="s">
+      <c r="AP48" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AQ48" s="71"/>
@@ -18843,65 +18853,65 @@
         <v>5</v>
       </c>
       <c r="E49" s="230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="231"/>
       <c r="G49" s="231"/>
-      <c r="H49" s="313"/>
-      <c r="I49" s="286" t="s">
+      <c r="H49" s="251"/>
+      <c r="I49" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="287"/>
-      <c r="K49" s="287"/>
-      <c r="L49" s="288"/>
-      <c r="M49" s="248" t="s">
-        <v>206</v>
-      </c>
-      <c r="N49" s="249"/>
-      <c r="O49" s="249"/>
-      <c r="P49" s="249"/>
-      <c r="Q49" s="249"/>
-      <c r="R49" s="249"/>
-      <c r="S49" s="249"/>
-      <c r="T49" s="250"/>
-      <c r="U49" s="283" t="s">
+      <c r="J49" s="255"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="245" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" s="246"/>
+      <c r="O49" s="246"/>
+      <c r="P49" s="246"/>
+      <c r="Q49" s="246"/>
+      <c r="R49" s="246"/>
+      <c r="S49" s="246"/>
+      <c r="T49" s="247"/>
+      <c r="U49" s="248" t="s">
         <v>121</v>
       </c>
-      <c r="V49" s="284"/>
-      <c r="W49" s="284"/>
-      <c r="X49" s="284"/>
-      <c r="Y49" s="285"/>
-      <c r="Z49" s="318" t="s">
+      <c r="V49" s="249"/>
+      <c r="W49" s="249"/>
+      <c r="X49" s="249"/>
+      <c r="Y49" s="250"/>
+      <c r="Z49" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AA49" s="318"/>
-      <c r="AB49" s="318"/>
+      <c r="AA49" s="260"/>
+      <c r="AB49" s="260"/>
       <c r="AC49" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="283" t="s">
+      <c r="AD49" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE49" s="284"/>
-      <c r="AF49" s="284"/>
-      <c r="AG49" s="285"/>
+      <c r="AE49" s="249"/>
+      <c r="AF49" s="249"/>
+      <c r="AG49" s="250"/>
       <c r="AH49" s="111"/>
       <c r="AI49" s="111"/>
       <c r="AJ49" s="71"/>
       <c r="AK49" s="71"/>
-      <c r="AL49" s="356" t="s">
+      <c r="AL49" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM49" s="357" t="s">
+      <c r="AM49" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN49" s="357" t="s">
+      <c r="AN49" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO49" s="357" t="s">
+      <c r="AO49" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP49" s="358" t="s">
+      <c r="AP49" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AQ49" s="71"/>
@@ -18918,63 +18928,63 @@
         <v>6</v>
       </c>
       <c r="E50" s="230" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F50" s="231"/>
       <c r="G50" s="231"/>
-      <c r="H50" s="313"/>
-      <c r="I50" s="314" t="s">
+      <c r="H50" s="251"/>
+      <c r="I50" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="315"/>
-      <c r="K50" s="315"/>
-      <c r="L50" s="316"/>
-      <c r="M50" s="248" t="s">
-        <v>254</v>
-      </c>
-      <c r="N50" s="249"/>
-      <c r="O50" s="249"/>
-      <c r="P50" s="249"/>
-      <c r="Q50" s="249"/>
-      <c r="R50" s="249"/>
-      <c r="S50" s="249"/>
-      <c r="T50" s="250"/>
-      <c r="U50" s="283" t="s">
-        <v>287</v>
-      </c>
-      <c r="V50" s="284"/>
-      <c r="W50" s="284"/>
-      <c r="X50" s="284"/>
-      <c r="Y50" s="285"/>
-      <c r="Z50" s="283" t="s">
+      <c r="J50" s="314"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="315"/>
+      <c r="M50" s="245" t="s">
+        <v>253</v>
+      </c>
+      <c r="N50" s="246"/>
+      <c r="O50" s="246"/>
+      <c r="P50" s="246"/>
+      <c r="Q50" s="246"/>
+      <c r="R50" s="246"/>
+      <c r="S50" s="246"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="248" t="s">
+        <v>286</v>
+      </c>
+      <c r="V50" s="249"/>
+      <c r="W50" s="249"/>
+      <c r="X50" s="249"/>
+      <c r="Y50" s="250"/>
+      <c r="Z50" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="284"/>
-      <c r="AB50" s="285"/>
+      <c r="AA50" s="249"/>
+      <c r="AB50" s="250"/>
       <c r="AC50" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD50" s="283" t="s">
+      <c r="AD50" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE50" s="284"/>
-      <c r="AF50" s="284"/>
-      <c r="AG50" s="285"/>
+      <c r="AE50" s="249"/>
+      <c r="AF50" s="249"/>
+      <c r="AG50" s="250"/>
       <c r="AH50" s="94"/>
       <c r="AI50" s="94"/>
-      <c r="AL50" s="356" t="s">
+      <c r="AL50" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM50" s="357" t="s">
+      <c r="AM50" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN50" s="357" t="s">
+      <c r="AN50" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO50" s="357" t="s">
+      <c r="AO50" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP50" s="358" t="s">
+      <c r="AP50" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AY50" s="56"/>
@@ -18988,63 +18998,63 @@
         <v>7</v>
       </c>
       <c r="E51" s="230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F51" s="231"/>
       <c r="G51" s="231"/>
-      <c r="H51" s="313"/>
-      <c r="I51" s="314" t="s">
+      <c r="H51" s="251"/>
+      <c r="I51" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="J51" s="315"/>
-      <c r="K51" s="315"/>
-      <c r="L51" s="316"/>
-      <c r="M51" s="248" t="s">
-        <v>270</v>
-      </c>
-      <c r="N51" s="249"/>
-      <c r="O51" s="249"/>
-      <c r="P51" s="249"/>
-      <c r="Q51" s="249"/>
-      <c r="R51" s="249"/>
-      <c r="S51" s="249"/>
-      <c r="T51" s="250"/>
-      <c r="U51" s="283" t="s">
+      <c r="J51" s="314"/>
+      <c r="K51" s="314"/>
+      <c r="L51" s="315"/>
+      <c r="M51" s="245" t="s">
+        <v>269</v>
+      </c>
+      <c r="N51" s="246"/>
+      <c r="O51" s="246"/>
+      <c r="P51" s="246"/>
+      <c r="Q51" s="246"/>
+      <c r="R51" s="246"/>
+      <c r="S51" s="246"/>
+      <c r="T51" s="247"/>
+      <c r="U51" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V51" s="284"/>
-      <c r="W51" s="284"/>
-      <c r="X51" s="284"/>
-      <c r="Y51" s="285"/>
-      <c r="Z51" s="283" t="s">
+      <c r="V51" s="249"/>
+      <c r="W51" s="249"/>
+      <c r="X51" s="249"/>
+      <c r="Y51" s="250"/>
+      <c r="Z51" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="284"/>
-      <c r="AB51" s="285"/>
+      <c r="AA51" s="249"/>
+      <c r="AB51" s="250"/>
       <c r="AC51" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="283" t="s">
+      <c r="AD51" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE51" s="284"/>
-      <c r="AF51" s="284"/>
-      <c r="AG51" s="285"/>
+      <c r="AE51" s="249"/>
+      <c r="AF51" s="249"/>
+      <c r="AG51" s="250"/>
       <c r="AH51" s="94"/>
       <c r="AI51" s="94"/>
-      <c r="AL51" s="356" t="s">
+      <c r="AL51" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM51" s="357" t="s">
+      <c r="AM51" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN51" s="357" t="s">
+      <c r="AN51" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO51" s="357" t="s">
+      <c r="AO51" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP51" s="358" t="s">
+      <c r="AP51" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AY51" s="56"/>
@@ -19062,59 +19072,59 @@
       </c>
       <c r="F52" s="231"/>
       <c r="G52" s="231"/>
-      <c r="H52" s="313"/>
-      <c r="I52" s="286" t="s">
+      <c r="H52" s="251"/>
+      <c r="I52" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="287"/>
-      <c r="K52" s="287"/>
-      <c r="L52" s="288"/>
-      <c r="M52" s="248" t="s">
-        <v>255</v>
-      </c>
-      <c r="N52" s="249"/>
-      <c r="O52" s="249"/>
-      <c r="P52" s="249"/>
-      <c r="Q52" s="249"/>
-      <c r="R52" s="249"/>
-      <c r="S52" s="249"/>
-      <c r="T52" s="250"/>
-      <c r="U52" s="283" t="s">
+      <c r="J52" s="255"/>
+      <c r="K52" s="255"/>
+      <c r="L52" s="256"/>
+      <c r="M52" s="245" t="s">
+        <v>254</v>
+      </c>
+      <c r="N52" s="246"/>
+      <c r="O52" s="246"/>
+      <c r="P52" s="246"/>
+      <c r="Q52" s="246"/>
+      <c r="R52" s="246"/>
+      <c r="S52" s="246"/>
+      <c r="T52" s="247"/>
+      <c r="U52" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="284"/>
-      <c r="W52" s="284"/>
-      <c r="X52" s="284"/>
-      <c r="Y52" s="285"/>
-      <c r="Z52" s="283" t="s">
+      <c r="V52" s="249"/>
+      <c r="W52" s="249"/>
+      <c r="X52" s="249"/>
+      <c r="Y52" s="250"/>
+      <c r="Z52" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA52" s="284"/>
-      <c r="AB52" s="285"/>
+      <c r="AA52" s="249"/>
+      <c r="AB52" s="250"/>
       <c r="AC52" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD52" s="283" t="s">
+      <c r="AD52" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE52" s="284"/>
-      <c r="AF52" s="284"/>
-      <c r="AG52" s="285"/>
+      <c r="AE52" s="249"/>
+      <c r="AF52" s="249"/>
+      <c r="AG52" s="250"/>
       <c r="AH52" s="118"/>
       <c r="AI52" s="118"/>
-      <c r="AL52" s="356" t="s">
+      <c r="AL52" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM52" s="357" t="s">
+      <c r="AM52" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN52" s="357" t="s">
+      <c r="AN52" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO52" s="357" t="s">
+      <c r="AO52" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP52" s="358" t="s">
+      <c r="AP52" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU52" s="69"/>
@@ -19136,59 +19146,59 @@
       </c>
       <c r="F53" s="231"/>
       <c r="G53" s="231"/>
-      <c r="H53" s="313"/>
-      <c r="I53" s="286" t="s">
+      <c r="H53" s="251"/>
+      <c r="I53" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J53" s="287"/>
-      <c r="K53" s="287"/>
-      <c r="L53" s="288"/>
-      <c r="M53" s="248" t="s">
-        <v>259</v>
-      </c>
-      <c r="N53" s="249"/>
-      <c r="O53" s="249"/>
-      <c r="P53" s="249"/>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="249"/>
-      <c r="S53" s="249"/>
-      <c r="T53" s="250"/>
-      <c r="U53" s="283" t="s">
+      <c r="J53" s="255"/>
+      <c r="K53" s="255"/>
+      <c r="L53" s="256"/>
+      <c r="M53" s="245" t="s">
+        <v>258</v>
+      </c>
+      <c r="N53" s="246"/>
+      <c r="O53" s="246"/>
+      <c r="P53" s="246"/>
+      <c r="Q53" s="246"/>
+      <c r="R53" s="246"/>
+      <c r="S53" s="246"/>
+      <c r="T53" s="247"/>
+      <c r="U53" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V53" s="284"/>
-      <c r="W53" s="284"/>
-      <c r="X53" s="284"/>
-      <c r="Y53" s="285"/>
-      <c r="Z53" s="283" t="s">
+      <c r="V53" s="249"/>
+      <c r="W53" s="249"/>
+      <c r="X53" s="249"/>
+      <c r="Y53" s="250"/>
+      <c r="Z53" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA53" s="284"/>
-      <c r="AB53" s="285"/>
+      <c r="AA53" s="249"/>
+      <c r="AB53" s="250"/>
       <c r="AC53" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD53" s="283" t="s">
+      <c r="AD53" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE53" s="284"/>
-      <c r="AF53" s="284"/>
-      <c r="AG53" s="285"/>
+      <c r="AE53" s="249"/>
+      <c r="AF53" s="249"/>
+      <c r="AG53" s="250"/>
       <c r="AH53" s="118"/>
       <c r="AI53" s="118"/>
-      <c r="AL53" s="356" t="s">
+      <c r="AL53" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM53" s="357" t="s">
+      <c r="AM53" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN53" s="357" t="s">
+      <c r="AN53" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO53" s="357" t="s">
+      <c r="AO53" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP53" s="358" t="s">
+      <c r="AP53" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU53" s="69"/>
@@ -19205,66 +19215,66 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E54" s="283" t="s">
+      <c r="E54" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="284"/>
-      <c r="G54" s="284"/>
-      <c r="H54" s="285"/>
-      <c r="I54" s="286" t="s">
+      <c r="F54" s="249"/>
+      <c r="G54" s="249"/>
+      <c r="H54" s="250"/>
+      <c r="I54" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="287"/>
-      <c r="K54" s="287"/>
-      <c r="L54" s="288"/>
-      <c r="M54" s="248" t="s">
-        <v>256</v>
-      </c>
-      <c r="N54" s="249"/>
-      <c r="O54" s="249"/>
-      <c r="P54" s="249"/>
-      <c r="Q54" s="249"/>
-      <c r="R54" s="249"/>
-      <c r="S54" s="249"/>
-      <c r="T54" s="250"/>
-      <c r="U54" s="283" t="s">
+      <c r="J54" s="255"/>
+      <c r="K54" s="255"/>
+      <c r="L54" s="256"/>
+      <c r="M54" s="245" t="s">
+        <v>255</v>
+      </c>
+      <c r="N54" s="246"/>
+      <c r="O54" s="246"/>
+      <c r="P54" s="246"/>
+      <c r="Q54" s="246"/>
+      <c r="R54" s="246"/>
+      <c r="S54" s="246"/>
+      <c r="T54" s="247"/>
+      <c r="U54" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V54" s="284"/>
-      <c r="W54" s="284"/>
-      <c r="X54" s="284"/>
-      <c r="Y54" s="285"/>
-      <c r="Z54" s="283" t="s">
+      <c r="V54" s="249"/>
+      <c r="W54" s="249"/>
+      <c r="X54" s="249"/>
+      <c r="Y54" s="250"/>
+      <c r="Z54" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA54" s="284"/>
-      <c r="AB54" s="285"/>
+      <c r="AA54" s="249"/>
+      <c r="AB54" s="250"/>
       <c r="AC54" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD54" s="283" t="s">
+      <c r="AD54" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE54" s="284"/>
-      <c r="AF54" s="284"/>
-      <c r="AG54" s="285"/>
+      <c r="AE54" s="249"/>
+      <c r="AF54" s="249"/>
+      <c r="AG54" s="250"/>
       <c r="AH54" s="124"/>
       <c r="AI54" s="124"/>
       <c r="AJ54" s="76"/>
       <c r="AK54" s="71"/>
-      <c r="AL54" s="356" t="s">
+      <c r="AL54" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM54" s="357" t="s">
+      <c r="AM54" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN54" s="357" t="s">
+      <c r="AN54" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO54" s="357" t="s">
+      <c r="AO54" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP54" s="358" t="s">
+      <c r="AP54" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AQ54" s="71"/>
@@ -19278,64 +19288,64 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E55" s="283" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="284"/>
-      <c r="G55" s="284"/>
-      <c r="H55" s="285"/>
-      <c r="I55" s="286" t="s">
+      <c r="E55" s="248" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" s="249"/>
+      <c r="G55" s="249"/>
+      <c r="H55" s="250"/>
+      <c r="I55" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="287"/>
-      <c r="K55" s="287"/>
-      <c r="L55" s="288"/>
-      <c r="M55" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="N55" s="249"/>
-      <c r="O55" s="249"/>
-      <c r="P55" s="249"/>
-      <c r="Q55" s="249"/>
-      <c r="R55" s="249"/>
-      <c r="S55" s="249"/>
-      <c r="T55" s="250"/>
-      <c r="U55" s="283" t="s">
+      <c r="J55" s="255"/>
+      <c r="K55" s="255"/>
+      <c r="L55" s="256"/>
+      <c r="M55" s="245" t="s">
+        <v>256</v>
+      </c>
+      <c r="N55" s="246"/>
+      <c r="O55" s="246"/>
+      <c r="P55" s="246"/>
+      <c r="Q55" s="246"/>
+      <c r="R55" s="246"/>
+      <c r="S55" s="246"/>
+      <c r="T55" s="247"/>
+      <c r="U55" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="V55" s="284"/>
-      <c r="W55" s="284"/>
-      <c r="X55" s="284"/>
-      <c r="Y55" s="285"/>
-      <c r="Z55" s="283" t="s">
+      <c r="V55" s="249"/>
+      <c r="W55" s="249"/>
+      <c r="X55" s="249"/>
+      <c r="Y55" s="250"/>
+      <c r="Z55" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA55" s="284"/>
-      <c r="AB55" s="285"/>
+      <c r="AA55" s="249"/>
+      <c r="AB55" s="250"/>
       <c r="AC55" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD55" s="283" t="s">
+      <c r="AD55" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE55" s="284"/>
-      <c r="AF55" s="284"/>
-      <c r="AG55" s="285"/>
+      <c r="AE55" s="249"/>
+      <c r="AF55" s="249"/>
+      <c r="AG55" s="250"/>
       <c r="AH55" s="118"/>
       <c r="AI55" s="118"/>
-      <c r="AL55" s="356" t="s">
+      <c r="AL55" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM55" s="357" t="s">
+      <c r="AM55" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN55" s="357" t="s">
+      <c r="AN55" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO55" s="357" t="s">
+      <c r="AO55" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP55" s="358" t="s">
+      <c r="AP55" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU55" s="69"/>
@@ -19353,63 +19363,63 @@
         <v>12</v>
       </c>
       <c r="E56" s="230" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F56" s="231"/>
       <c r="G56" s="231"/>
-      <c r="H56" s="313"/>
-      <c r="I56" s="286" t="s">
+      <c r="H56" s="251"/>
+      <c r="I56" s="254" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="287"/>
-      <c r="K56" s="287"/>
-      <c r="L56" s="288"/>
-      <c r="M56" s="248" t="s">
-        <v>260</v>
-      </c>
-      <c r="N56" s="249"/>
-      <c r="O56" s="249"/>
-      <c r="P56" s="249"/>
-      <c r="Q56" s="249"/>
-      <c r="R56" s="249"/>
-      <c r="S56" s="249"/>
-      <c r="T56" s="250"/>
-      <c r="U56" s="283" t="s">
+      <c r="J56" s="255"/>
+      <c r="K56" s="255"/>
+      <c r="L56" s="256"/>
+      <c r="M56" s="245" t="s">
+        <v>259</v>
+      </c>
+      <c r="N56" s="246"/>
+      <c r="O56" s="246"/>
+      <c r="P56" s="246"/>
+      <c r="Q56" s="246"/>
+      <c r="R56" s="246"/>
+      <c r="S56" s="246"/>
+      <c r="T56" s="247"/>
+      <c r="U56" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="V56" s="284"/>
-      <c r="W56" s="284"/>
-      <c r="X56" s="284"/>
-      <c r="Y56" s="285"/>
-      <c r="Z56" s="283" t="s">
+      <c r="V56" s="249"/>
+      <c r="W56" s="249"/>
+      <c r="X56" s="249"/>
+      <c r="Y56" s="250"/>
+      <c r="Z56" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="AA56" s="284"/>
-      <c r="AB56" s="285"/>
+      <c r="AA56" s="249"/>
+      <c r="AB56" s="250"/>
       <c r="AC56" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD56" s="283" t="s">
+      <c r="AD56" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="AE56" s="284"/>
-      <c r="AF56" s="284"/>
-      <c r="AG56" s="285"/>
+      <c r="AE56" s="249"/>
+      <c r="AF56" s="249"/>
+      <c r="AG56" s="250"/>
       <c r="AH56" s="118"/>
       <c r="AI56" s="118"/>
-      <c r="AL56" s="356" t="s">
+      <c r="AL56" s="362" t="s">
         <v>39</v>
       </c>
-      <c r="AM56" s="357" t="s">
+      <c r="AM56" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AN56" s="357" t="s">
+      <c r="AN56" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AO56" s="357" t="s">
+      <c r="AO56" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="AP56" s="358" t="s">
+      <c r="AP56" s="364" t="s">
         <v>12</v>
       </c>
       <c r="AU56" s="69"/>
@@ -19603,24 +19613,24 @@
       <c r="A61" s="94"/>
       <c r="B61" s="94"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="352" t="s">
+      <c r="D61" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="291" t="s">
+      <c r="E61" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="292"/>
-      <c r="G61" s="292"/>
-      <c r="H61" s="292"/>
-      <c r="I61" s="292"/>
-      <c r="J61" s="293"/>
-      <c r="K61" s="291" t="s">
+      <c r="F61" s="238"/>
+      <c r="G61" s="238"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="238"/>
+      <c r="J61" s="239"/>
+      <c r="K61" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="L61" s="292"/>
-      <c r="M61" s="292"/>
-      <c r="N61" s="293"/>
-      <c r="O61" s="289" t="s">
+      <c r="L61" s="238"/>
+      <c r="M61" s="238"/>
+      <c r="N61" s="239"/>
+      <c r="O61" s="323" t="s">
         <v>124</v>
       </c>
       <c r="P61" s="127" t="s">
@@ -19631,21 +19641,21 @@
       <c r="S61" s="128"/>
       <c r="T61" s="128"/>
       <c r="U61" s="128"/>
-      <c r="V61" s="291" t="s">
+      <c r="V61" s="237" t="s">
         <v>78</v>
       </c>
-      <c r="W61" s="292"/>
-      <c r="X61" s="292"/>
-      <c r="Y61" s="292"/>
-      <c r="Z61" s="292"/>
-      <c r="AA61" s="292"/>
-      <c r="AB61" s="292"/>
-      <c r="AC61" s="292"/>
-      <c r="AD61" s="292"/>
-      <c r="AE61" s="292"/>
-      <c r="AF61" s="292"/>
-      <c r="AG61" s="292"/>
-      <c r="AH61" s="293"/>
+      <c r="W61" s="238"/>
+      <c r="X61" s="238"/>
+      <c r="Y61" s="238"/>
+      <c r="Z61" s="238"/>
+      <c r="AA61" s="238"/>
+      <c r="AB61" s="238"/>
+      <c r="AC61" s="238"/>
+      <c r="AD61" s="238"/>
+      <c r="AE61" s="238"/>
+      <c r="AF61" s="238"/>
+      <c r="AG61" s="238"/>
+      <c r="AH61" s="239"/>
       <c r="AI61" s="94"/>
       <c r="AK61" s="53"/>
       <c r="AL61" s="53"/>
@@ -19665,18 +19675,18 @@
       <c r="A62" s="94"/>
       <c r="B62" s="94"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="353"/>
-      <c r="E62" s="294"/>
-      <c r="F62" s="295"/>
-      <c r="G62" s="295"/>
-      <c r="H62" s="295"/>
-      <c r="I62" s="295"/>
-      <c r="J62" s="296"/>
-      <c r="K62" s="294"/>
-      <c r="L62" s="295"/>
-      <c r="M62" s="295"/>
-      <c r="N62" s="296"/>
-      <c r="O62" s="290"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="240"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="241"/>
+      <c r="H62" s="241"/>
+      <c r="I62" s="241"/>
+      <c r="J62" s="242"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="241"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="242"/>
+      <c r="O62" s="324"/>
       <c r="P62" s="129" t="s">
         <v>126</v>
       </c>
@@ -19689,23 +19699,23 @@
       <c r="S62" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="T62" s="297" t="s">
+      <c r="T62" s="325" t="s">
         <v>130</v>
       </c>
-      <c r="U62" s="298"/>
-      <c r="V62" s="294"/>
-      <c r="W62" s="295"/>
-      <c r="X62" s="295"/>
-      <c r="Y62" s="295"/>
-      <c r="Z62" s="295"/>
-      <c r="AA62" s="295"/>
-      <c r="AB62" s="295"/>
-      <c r="AC62" s="295"/>
-      <c r="AD62" s="295"/>
-      <c r="AE62" s="295"/>
-      <c r="AF62" s="295"/>
-      <c r="AG62" s="295"/>
-      <c r="AH62" s="296"/>
+      <c r="U62" s="326"/>
+      <c r="V62" s="240"/>
+      <c r="W62" s="241"/>
+      <c r="X62" s="241"/>
+      <c r="Y62" s="241"/>
+      <c r="Z62" s="241"/>
+      <c r="AA62" s="241"/>
+      <c r="AB62" s="241"/>
+      <c r="AC62" s="241"/>
+      <c r="AD62" s="241"/>
+      <c r="AE62" s="241"/>
+      <c r="AF62" s="241"/>
+      <c r="AG62" s="241"/>
+      <c r="AH62" s="242"/>
       <c r="AI62" s="94"/>
       <c r="AK62" s="53"/>
       <c r="AL62" s="53"/>
@@ -19728,20 +19738,20 @@
       <c r="D63" s="132">
         <v>1</v>
       </c>
-      <c r="E63" s="299" t="s">
+      <c r="E63" s="307" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="300"/>
-      <c r="G63" s="300"/>
-      <c r="H63" s="300"/>
-      <c r="I63" s="300"/>
-      <c r="J63" s="301"/>
-      <c r="K63" s="283" t="s">
+      <c r="F63" s="308"/>
+      <c r="G63" s="308"/>
+      <c r="H63" s="308"/>
+      <c r="I63" s="308"/>
+      <c r="J63" s="309"/>
+      <c r="K63" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="L63" s="284"/>
-      <c r="M63" s="284"/>
-      <c r="N63" s="285"/>
+      <c r="L63" s="249"/>
+      <c r="M63" s="249"/>
+      <c r="N63" s="250"/>
       <c r="O63" s="133" t="s">
         <v>7</v>
       </c>
@@ -19749,7 +19759,7 @@
         <v>5</v>
       </c>
       <c r="Q63" s="134" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R63" s="134" t="s">
         <v>5</v>
@@ -19757,25 +19767,25 @@
       <c r="S63" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T63" s="302" t="s">
+      <c r="T63" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="U63" s="303"/>
-      <c r="V63" s="283" t="s">
+      <c r="U63" s="311"/>
+      <c r="V63" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="W63" s="284"/>
-      <c r="X63" s="284"/>
-      <c r="Y63" s="284"/>
-      <c r="Z63" s="284"/>
-      <c r="AA63" s="284"/>
-      <c r="AB63" s="284"/>
-      <c r="AC63" s="284"/>
-      <c r="AD63" s="284"/>
-      <c r="AE63" s="284"/>
-      <c r="AF63" s="284"/>
-      <c r="AG63" s="284"/>
-      <c r="AH63" s="285"/>
+      <c r="W63" s="249"/>
+      <c r="X63" s="249"/>
+      <c r="Y63" s="249"/>
+      <c r="Z63" s="249"/>
+      <c r="AA63" s="249"/>
+      <c r="AB63" s="249"/>
+      <c r="AC63" s="249"/>
+      <c r="AD63" s="249"/>
+      <c r="AE63" s="249"/>
+      <c r="AF63" s="249"/>
+      <c r="AG63" s="249"/>
+      <c r="AH63" s="250"/>
       <c r="AI63" s="94"/>
       <c r="AK63" s="53"/>
       <c r="AL63" s="53"/>
@@ -19798,20 +19808,20 @@
       <c r="D64" s="132">
         <v>2</v>
       </c>
-      <c r="E64" s="299" t="s">
+      <c r="E64" s="307" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="300"/>
-      <c r="G64" s="300"/>
-      <c r="H64" s="300"/>
-      <c r="I64" s="300"/>
-      <c r="J64" s="301"/>
-      <c r="K64" s="283" t="s">
+      <c r="F64" s="308"/>
+      <c r="G64" s="308"/>
+      <c r="H64" s="308"/>
+      <c r="I64" s="308"/>
+      <c r="J64" s="309"/>
+      <c r="K64" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="L64" s="284"/>
-      <c r="M64" s="284"/>
-      <c r="N64" s="285"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="250"/>
       <c r="O64" s="133" t="s">
         <v>7</v>
       </c>
@@ -19819,7 +19829,7 @@
         <v>5</v>
       </c>
       <c r="Q64" s="134" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R64" s="134" t="s">
         <v>5</v>
@@ -19827,25 +19837,25 @@
       <c r="S64" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="T64" s="302" t="s">
+      <c r="T64" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="U64" s="303"/>
-      <c r="V64" s="283" t="s">
+      <c r="U64" s="311"/>
+      <c r="V64" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="W64" s="284"/>
-      <c r="X64" s="284"/>
-      <c r="Y64" s="284"/>
-      <c r="Z64" s="284"/>
-      <c r="AA64" s="284"/>
-      <c r="AB64" s="284"/>
-      <c r="AC64" s="284"/>
-      <c r="AD64" s="284"/>
-      <c r="AE64" s="284"/>
-      <c r="AF64" s="284"/>
-      <c r="AG64" s="284"/>
-      <c r="AH64" s="285"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="249"/>
+      <c r="Z64" s="249"/>
+      <c r="AA64" s="249"/>
+      <c r="AB64" s="249"/>
+      <c r="AC64" s="249"/>
+      <c r="AD64" s="249"/>
+      <c r="AE64" s="249"/>
+      <c r="AF64" s="249"/>
+      <c r="AG64" s="249"/>
+      <c r="AH64" s="250"/>
       <c r="AI64" s="94"/>
       <c r="AK64" s="53"/>
       <c r="AL64" s="53"/>
@@ -20054,46 +20064,46 @@
       <c r="D69" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="347" t="s">
+      <c r="E69" s="273" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="257"/>
-      <c r="G69" s="257"/>
-      <c r="H69" s="257"/>
-      <c r="I69" s="257"/>
-      <c r="J69" s="348"/>
-      <c r="K69" s="347" t="s">
+      <c r="F69" s="243"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="243"/>
+      <c r="I69" s="243"/>
+      <c r="J69" s="274"/>
+      <c r="K69" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="L69" s="257"/>
-      <c r="M69" s="257"/>
-      <c r="N69" s="257"/>
-      <c r="O69" s="257"/>
-      <c r="P69" s="257"/>
-      <c r="Q69" s="258"/>
+      <c r="L69" s="243"/>
+      <c r="M69" s="243"/>
+      <c r="N69" s="243"/>
+      <c r="O69" s="243"/>
+      <c r="P69" s="243"/>
+      <c r="Q69" s="244"/>
       <c r="R69" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="S69" s="257"/>
-      <c r="T69" s="257"/>
-      <c r="U69" s="257"/>
-      <c r="V69" s="257"/>
-      <c r="W69" s="257"/>
-      <c r="X69" s="257"/>
-      <c r="Y69" s="258"/>
-      <c r="Z69" s="262" t="s">
+      <c r="S69" s="243"/>
+      <c r="T69" s="243"/>
+      <c r="U69" s="243"/>
+      <c r="V69" s="243"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="243"/>
+      <c r="Y69" s="244"/>
+      <c r="Z69" s="302" t="s">
         <v>137</v>
       </c>
-      <c r="AA69" s="263"/>
-      <c r="AB69" s="263"/>
-      <c r="AC69" s="263"/>
-      <c r="AD69" s="264"/>
-      <c r="AE69" s="259" t="s">
+      <c r="AA69" s="303"/>
+      <c r="AB69" s="303"/>
+      <c r="AC69" s="303"/>
+      <c r="AD69" s="304"/>
+      <c r="AE69" s="345" t="s">
         <v>138</v>
       </c>
-      <c r="AF69" s="260"/>
-      <c r="AG69" s="260"/>
-      <c r="AH69" s="261"/>
+      <c r="AF69" s="346"/>
+      <c r="AG69" s="346"/>
+      <c r="AH69" s="347"/>
       <c r="AI69" s="94"/>
     </row>
     <row r="70" spans="1:57" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -20103,46 +20113,46 @@
       <c r="D70" s="137">
         <v>1</v>
       </c>
-      <c r="E70" s="265" t="s">
+      <c r="E70" s="257" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="266"/>
-      <c r="G70" s="266"/>
-      <c r="H70" s="266"/>
-      <c r="I70" s="266"/>
-      <c r="J70" s="267"/>
-      <c r="K70" s="318" t="s">
-        <v>273</v>
-      </c>
-      <c r="L70" s="318"/>
-      <c r="M70" s="318"/>
-      <c r="N70" s="318"/>
-      <c r="O70" s="318"/>
-      <c r="P70" s="318"/>
-      <c r="Q70" s="318"/>
-      <c r="R70" s="318" t="s">
-        <v>264</v>
-      </c>
-      <c r="S70" s="318"/>
-      <c r="T70" s="318"/>
-      <c r="U70" s="318"/>
-      <c r="V70" s="318"/>
-      <c r="W70" s="318"/>
-      <c r="X70" s="318"/>
-      <c r="Y70" s="318"/>
-      <c r="Z70" s="318" t="s">
+      <c r="F70" s="258"/>
+      <c r="G70" s="258"/>
+      <c r="H70" s="258"/>
+      <c r="I70" s="258"/>
+      <c r="J70" s="259"/>
+      <c r="K70" s="260" t="s">
+        <v>272</v>
+      </c>
+      <c r="L70" s="260"/>
+      <c r="M70" s="260"/>
+      <c r="N70" s="260"/>
+      <c r="O70" s="260"/>
+      <c r="P70" s="260"/>
+      <c r="Q70" s="260"/>
+      <c r="R70" s="260" t="s">
+        <v>263</v>
+      </c>
+      <c r="S70" s="260"/>
+      <c r="T70" s="260"/>
+      <c r="U70" s="260"/>
+      <c r="V70" s="260"/>
+      <c r="W70" s="260"/>
+      <c r="X70" s="260"/>
+      <c r="Y70" s="260"/>
+      <c r="Z70" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="AA70" s="318"/>
-      <c r="AB70" s="318"/>
-      <c r="AC70" s="318"/>
-      <c r="AD70" s="318"/>
-      <c r="AE70" s="268" t="s">
+      <c r="AA70" s="260"/>
+      <c r="AB70" s="260"/>
+      <c r="AC70" s="260"/>
+      <c r="AD70" s="260"/>
+      <c r="AE70" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF70" s="269"/>
-      <c r="AG70" s="269"/>
-      <c r="AH70" s="270"/>
+      <c r="AF70" s="271"/>
+      <c r="AG70" s="271"/>
+      <c r="AH70" s="272"/>
       <c r="AI70" s="94"/>
     </row>
     <row r="71" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -20152,46 +20162,46 @@
       <c r="D71" s="195">
         <v>2</v>
       </c>
-      <c r="E71" s="355" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="355"/>
-      <c r="G71" s="355"/>
-      <c r="H71" s="355"/>
-      <c r="I71" s="355"/>
-      <c r="J71" s="355"/>
-      <c r="K71" s="318" t="s">
-        <v>291</v>
-      </c>
-      <c r="L71" s="318"/>
-      <c r="M71" s="318"/>
-      <c r="N71" s="318"/>
-      <c r="O71" s="318"/>
-      <c r="P71" s="318"/>
-      <c r="Q71" s="318"/>
-      <c r="R71" s="318" t="s">
+      <c r="E71" s="366" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="366"/>
+      <c r="G71" s="366"/>
+      <c r="H71" s="366"/>
+      <c r="I71" s="366"/>
+      <c r="J71" s="366"/>
+      <c r="K71" s="260" t="s">
+        <v>290</v>
+      </c>
+      <c r="L71" s="260"/>
+      <c r="M71" s="260"/>
+      <c r="N71" s="260"/>
+      <c r="O71" s="260"/>
+      <c r="P71" s="260"/>
+      <c r="Q71" s="260"/>
+      <c r="R71" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="S71" s="318"/>
-      <c r="T71" s="318"/>
-      <c r="U71" s="318"/>
-      <c r="V71" s="318"/>
-      <c r="W71" s="318"/>
-      <c r="X71" s="318"/>
-      <c r="Y71" s="318"/>
-      <c r="Z71" s="355" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA71" s="355"/>
-      <c r="AB71" s="355"/>
-      <c r="AC71" s="355"/>
-      <c r="AD71" s="355"/>
-      <c r="AE71" s="268" t="s">
+      <c r="S71" s="260"/>
+      <c r="T71" s="260"/>
+      <c r="U71" s="260"/>
+      <c r="V71" s="260"/>
+      <c r="W71" s="260"/>
+      <c r="X71" s="260"/>
+      <c r="Y71" s="260"/>
+      <c r="Z71" s="366" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA71" s="366"/>
+      <c r="AB71" s="366"/>
+      <c r="AC71" s="366"/>
+      <c r="AD71" s="366"/>
+      <c r="AE71" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF71" s="269"/>
-      <c r="AG71" s="269"/>
-      <c r="AH71" s="270"/>
+      <c r="AF71" s="271"/>
+      <c r="AG71" s="271"/>
+      <c r="AH71" s="272"/>
       <c r="AI71" s="94"/>
     </row>
     <row r="72" spans="1:57" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -20201,46 +20211,46 @@
       <c r="D72" s="137">
         <v>3</v>
       </c>
-      <c r="E72" s="354" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="354"/>
-      <c r="G72" s="354"/>
-      <c r="H72" s="354"/>
-      <c r="I72" s="354"/>
-      <c r="J72" s="354"/>
-      <c r="K72" s="317" t="s">
-        <v>292</v>
-      </c>
-      <c r="L72" s="317"/>
-      <c r="M72" s="317"/>
-      <c r="N72" s="317"/>
-      <c r="O72" s="317"/>
-      <c r="P72" s="317"/>
-      <c r="Q72" s="317"/>
-      <c r="R72" s="317" t="s">
-        <v>263</v>
-      </c>
-      <c r="S72" s="317"/>
-      <c r="T72" s="317"/>
-      <c r="U72" s="317"/>
-      <c r="V72" s="317"/>
-      <c r="W72" s="317"/>
-      <c r="X72" s="317"/>
-      <c r="Y72" s="317"/>
-      <c r="Z72" s="317" t="s">
+      <c r="E72" s="365" t="s">
+        <v>265</v>
+      </c>
+      <c r="F72" s="365"/>
+      <c r="G72" s="365"/>
+      <c r="H72" s="365"/>
+      <c r="I72" s="365"/>
+      <c r="J72" s="365"/>
+      <c r="K72" s="312" t="s">
+        <v>291</v>
+      </c>
+      <c r="L72" s="312"/>
+      <c r="M72" s="312"/>
+      <c r="N72" s="312"/>
+      <c r="O72" s="312"/>
+      <c r="P72" s="312"/>
+      <c r="Q72" s="312"/>
+      <c r="R72" s="312" t="s">
         <v>262</v>
       </c>
-      <c r="AA72" s="317"/>
-      <c r="AB72" s="317"/>
-      <c r="AC72" s="317"/>
-      <c r="AD72" s="317"/>
-      <c r="AE72" s="268" t="s">
+      <c r="S72" s="312"/>
+      <c r="T72" s="312"/>
+      <c r="U72" s="312"/>
+      <c r="V72" s="312"/>
+      <c r="W72" s="312"/>
+      <c r="X72" s="312"/>
+      <c r="Y72" s="312"/>
+      <c r="Z72" s="312" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA72" s="312"/>
+      <c r="AB72" s="312"/>
+      <c r="AC72" s="312"/>
+      <c r="AD72" s="312"/>
+      <c r="AE72" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="AF72" s="269"/>
-      <c r="AG72" s="269"/>
-      <c r="AH72" s="270"/>
+      <c r="AF72" s="271"/>
+      <c r="AG72" s="271"/>
+      <c r="AH72" s="272"/>
       <c r="AI72" s="161"/>
       <c r="AN72" s="5"/>
       <c r="AO72" s="5"/>
@@ -20357,7 +20367,7 @@
       <c r="B75" s="94"/>
       <c r="C75" s="158"/>
       <c r="D75" s="94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E75" s="157"/>
       <c r="F75" s="94"/>
@@ -20505,7 +20515,7 @@
       <c r="D78" s="157"/>
       <c r="E78" s="157"/>
       <c r="F78" s="161" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G78" s="161"/>
       <c r="H78" s="161"/>
@@ -20588,40 +20598,40 @@
       <c r="G80" s="227" t="s">
         <v>176</v>
       </c>
-      <c r="H80" s="257"/>
-      <c r="I80" s="257"/>
-      <c r="J80" s="257"/>
-      <c r="K80" s="257"/>
-      <c r="L80" s="258"/>
+      <c r="H80" s="243"/>
+      <c r="I80" s="243"/>
+      <c r="J80" s="243"/>
+      <c r="K80" s="243"/>
+      <c r="L80" s="244"/>
       <c r="M80" s="227" t="s">
         <v>177</v>
       </c>
-      <c r="N80" s="257"/>
-      <c r="O80" s="257"/>
-      <c r="P80" s="257"/>
-      <c r="Q80" s="257"/>
-      <c r="R80" s="257"/>
-      <c r="S80" s="257"/>
-      <c r="T80" s="257"/>
-      <c r="U80" s="257"/>
-      <c r="V80" s="258"/>
-      <c r="W80" s="310" t="s">
+      <c r="N80" s="243"/>
+      <c r="O80" s="243"/>
+      <c r="P80" s="243"/>
+      <c r="Q80" s="243"/>
+      <c r="R80" s="243"/>
+      <c r="S80" s="243"/>
+      <c r="T80" s="243"/>
+      <c r="U80" s="243"/>
+      <c r="V80" s="244"/>
+      <c r="W80" s="336" t="s">
         <v>178</v>
       </c>
-      <c r="X80" s="311"/>
-      <c r="Y80" s="312"/>
-      <c r="Z80" s="254" t="s">
+      <c r="X80" s="337"/>
+      <c r="Y80" s="338"/>
+      <c r="Z80" s="339" t="s">
         <v>179</v>
       </c>
-      <c r="AA80" s="255"/>
-      <c r="AB80" s="255"/>
-      <c r="AC80" s="256"/>
-      <c r="AD80" s="274" t="s">
+      <c r="AA80" s="340"/>
+      <c r="AB80" s="340"/>
+      <c r="AC80" s="341"/>
+      <c r="AD80" s="351" t="s">
         <v>180</v>
       </c>
-      <c r="AE80" s="275"/>
-      <c r="AF80" s="275"/>
-      <c r="AG80" s="276"/>
+      <c r="AE80" s="352"/>
+      <c r="AF80" s="352"/>
+      <c r="AG80" s="353"/>
       <c r="AH80" s="94"/>
       <c r="AI80" s="94"/>
       <c r="AJ80" s="63"/>
@@ -20656,43 +20666,43 @@
       <c r="F81" s="159">
         <v>1</v>
       </c>
-      <c r="G81" s="248" t="s">
+      <c r="G81" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="H81" s="249"/>
-      <c r="I81" s="249"/>
-      <c r="J81" s="249"/>
-      <c r="K81" s="249"/>
-      <c r="L81" s="250"/>
-      <c r="M81" s="248" t="s">
+      <c r="H81" s="246"/>
+      <c r="I81" s="246"/>
+      <c r="J81" s="246"/>
+      <c r="K81" s="246"/>
+      <c r="L81" s="247"/>
+      <c r="M81" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="N81" s="249"/>
-      <c r="O81" s="249"/>
-      <c r="P81" s="249"/>
-      <c r="Q81" s="249"/>
-      <c r="R81" s="249"/>
-      <c r="S81" s="249"/>
-      <c r="T81" s="249"/>
-      <c r="U81" s="249"/>
-      <c r="V81" s="250"/>
-      <c r="W81" s="349" t="s">
+      <c r="N81" s="246"/>
+      <c r="O81" s="246"/>
+      <c r="P81" s="246"/>
+      <c r="Q81" s="246"/>
+      <c r="R81" s="246"/>
+      <c r="S81" s="246"/>
+      <c r="T81" s="246"/>
+      <c r="U81" s="246"/>
+      <c r="V81" s="247"/>
+      <c r="W81" s="275" t="s">
+        <v>273</v>
+      </c>
+      <c r="X81" s="276"/>
+      <c r="Y81" s="277"/>
+      <c r="Z81" s="267" t="s">
         <v>274</v>
       </c>
-      <c r="X81" s="350"/>
-      <c r="Y81" s="351"/>
-      <c r="Z81" s="238" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA81" s="239"/>
-      <c r="AB81" s="239"/>
-      <c r="AC81" s="240"/>
-      <c r="AD81" s="248" t="s">
+      <c r="AA81" s="268"/>
+      <c r="AB81" s="268"/>
+      <c r="AC81" s="269"/>
+      <c r="AD81" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="AE81" s="249"/>
-      <c r="AF81" s="249"/>
-      <c r="AG81" s="250"/>
+      <c r="AE81" s="246"/>
+      <c r="AF81" s="246"/>
+      <c r="AG81" s="247"/>
       <c r="AH81" s="94"/>
       <c r="AI81" s="160"/>
       <c r="AJ81" s="63"/>
@@ -20784,7 +20794,7 @@
       <c r="D83" s="162"/>
       <c r="E83" s="162"/>
       <c r="F83" s="161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G83" s="200"/>
       <c r="H83" s="200"/>
@@ -20901,7 +20911,7 @@
       <c r="C86" s="94"/>
       <c r="D86" s="94"/>
       <c r="E86" s="94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F86" s="130"/>
       <c r="G86" s="94"/>
@@ -20941,7 +20951,7 @@
       <c r="D87" s="94"/>
       <c r="E87" s="94"/>
       <c r="F87" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G87" s="94"/>
       <c r="H87" s="94"/>
@@ -21018,7 +21028,7 @@
       <c r="E89" s="161"/>
       <c r="F89" s="161"/>
       <c r="G89" s="164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H89" s="165"/>
       <c r="I89" s="165"/>
@@ -21026,30 +21036,30 @@
       <c r="K89" s="165"/>
       <c r="L89" s="165"/>
       <c r="M89" s="165"/>
-      <c r="N89" s="251" t="s">
+      <c r="N89" s="342" t="s">
+        <v>195</v>
+      </c>
+      <c r="O89" s="343"/>
+      <c r="P89" s="343"/>
+      <c r="Q89" s="343"/>
+      <c r="R89" s="343"/>
+      <c r="S89" s="343"/>
+      <c r="T89" s="343"/>
+      <c r="U89" s="343"/>
+      <c r="V89" s="343"/>
+      <c r="W89" s="344"/>
+      <c r="X89" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="O89" s="252"/>
-      <c r="P89" s="252"/>
-      <c r="Q89" s="252"/>
-      <c r="R89" s="252"/>
-      <c r="S89" s="252"/>
-      <c r="T89" s="252"/>
-      <c r="U89" s="252"/>
-      <c r="V89" s="252"/>
-      <c r="W89" s="253"/>
-      <c r="X89" s="251" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y89" s="252"/>
-      <c r="Z89" s="252"/>
-      <c r="AA89" s="252"/>
-      <c r="AB89" s="252"/>
-      <c r="AC89" s="252"/>
-      <c r="AD89" s="252"/>
-      <c r="AE89" s="252"/>
-      <c r="AF89" s="252"/>
-      <c r="AG89" s="253"/>
+      <c r="Y89" s="343"/>
+      <c r="Z89" s="343"/>
+      <c r="AA89" s="343"/>
+      <c r="AB89" s="343"/>
+      <c r="AC89" s="343"/>
+      <c r="AD89" s="343"/>
+      <c r="AE89" s="343"/>
+      <c r="AF89" s="343"/>
+      <c r="AG89" s="344"/>
       <c r="AH89" s="161"/>
       <c r="AI89" s="161"/>
     </row>
@@ -21061,7 +21071,7 @@
       <c r="E90" s="94"/>
       <c r="F90" s="94"/>
       <c r="G90" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H90" s="97"/>
       <c r="I90" s="97"/>
@@ -21070,7 +21080,7 @@
       <c r="L90" s="97"/>
       <c r="M90" s="97"/>
       <c r="N90" s="209" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O90" s="210"/>
       <c r="P90" s="210"/>
@@ -21081,18 +21091,18 @@
       <c r="U90" s="210"/>
       <c r="V90" s="210"/>
       <c r="W90" s="211"/>
-      <c r="X90" s="299" t="s">
+      <c r="X90" s="307" t="s">
         <v>42</v>
       </c>
-      <c r="Y90" s="300"/>
-      <c r="Z90" s="300"/>
-      <c r="AA90" s="300"/>
-      <c r="AB90" s="300"/>
-      <c r="AC90" s="300"/>
-      <c r="AD90" s="300"/>
-      <c r="AE90" s="300"/>
-      <c r="AF90" s="300"/>
-      <c r="AG90" s="301"/>
+      <c r="Y90" s="308"/>
+      <c r="Z90" s="308"/>
+      <c r="AA90" s="308"/>
+      <c r="AB90" s="308"/>
+      <c r="AC90" s="308"/>
+      <c r="AD90" s="308"/>
+      <c r="AE90" s="308"/>
+      <c r="AF90" s="308"/>
+      <c r="AG90" s="309"/>
       <c r="AH90" s="94"/>
       <c r="AI90" s="94"/>
     </row>
@@ -21111,7 +21121,7 @@
       <c r="L91" s="100"/>
       <c r="M91" s="100"/>
       <c r="N91" s="209" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O91" s="210"/>
       <c r="P91" s="210"/>
@@ -21122,18 +21132,18 @@
       <c r="U91" s="210"/>
       <c r="V91" s="210"/>
       <c r="W91" s="211"/>
-      <c r="X91" s="299" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y91" s="300"/>
-      <c r="Z91" s="300"/>
-      <c r="AA91" s="300"/>
-      <c r="AB91" s="300"/>
-      <c r="AC91" s="300"/>
-      <c r="AD91" s="300"/>
-      <c r="AE91" s="300"/>
-      <c r="AF91" s="300"/>
-      <c r="AG91" s="301"/>
+      <c r="X91" s="307" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y91" s="308"/>
+      <c r="Z91" s="308"/>
+      <c r="AA91" s="308"/>
+      <c r="AB91" s="308"/>
+      <c r="AC91" s="308"/>
+      <c r="AD91" s="308"/>
+      <c r="AE91" s="308"/>
+      <c r="AF91" s="308"/>
+      <c r="AG91" s="309"/>
       <c r="AH91" s="94"/>
       <c r="AI91" s="94"/>
     </row>
@@ -21152,7 +21162,7 @@
       <c r="L92" s="100"/>
       <c r="M92" s="100"/>
       <c r="N92" s="209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O92" s="210"/>
       <c r="P92" s="210"/>
@@ -21163,18 +21173,18 @@
       <c r="U92" s="210"/>
       <c r="V92" s="210"/>
       <c r="W92" s="211"/>
-      <c r="X92" s="299" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y92" s="300"/>
-      <c r="Z92" s="300"/>
-      <c r="AA92" s="300"/>
-      <c r="AB92" s="300"/>
-      <c r="AC92" s="300"/>
-      <c r="AD92" s="300"/>
-      <c r="AE92" s="300"/>
-      <c r="AF92" s="300"/>
-      <c r="AG92" s="301"/>
+      <c r="X92" s="307" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y92" s="308"/>
+      <c r="Z92" s="308"/>
+      <c r="AA92" s="308"/>
+      <c r="AB92" s="308"/>
+      <c r="AC92" s="308"/>
+      <c r="AD92" s="308"/>
+      <c r="AE92" s="308"/>
+      <c r="AF92" s="308"/>
+      <c r="AG92" s="309"/>
       <c r="AH92" s="94"/>
       <c r="AI92" s="94"/>
     </row>
@@ -21193,7 +21203,7 @@
       <c r="L93" s="100"/>
       <c r="M93" s="100"/>
       <c r="N93" s="209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O93" s="210"/>
       <c r="P93" s="210"/>
@@ -21204,18 +21214,18 @@
       <c r="U93" s="210"/>
       <c r="V93" s="210"/>
       <c r="W93" s="211"/>
-      <c r="X93" s="299" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y93" s="300"/>
-      <c r="Z93" s="300"/>
-      <c r="AA93" s="300"/>
-      <c r="AB93" s="300"/>
-      <c r="AC93" s="300"/>
-      <c r="AD93" s="300"/>
-      <c r="AE93" s="300"/>
-      <c r="AF93" s="300"/>
-      <c r="AG93" s="301"/>
+      <c r="X93" s="307" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y93" s="308"/>
+      <c r="Z93" s="308"/>
+      <c r="AA93" s="308"/>
+      <c r="AB93" s="308"/>
+      <c r="AC93" s="308"/>
+      <c r="AD93" s="308"/>
+      <c r="AE93" s="308"/>
+      <c r="AF93" s="308"/>
+      <c r="AG93" s="309"/>
       <c r="AH93" s="94"/>
       <c r="AI93" s="94"/>
     </row>
@@ -21234,7 +21244,7 @@
       <c r="L94" s="100"/>
       <c r="M94" s="100"/>
       <c r="N94" s="209" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O94" s="210"/>
       <c r="P94" s="210"/>
@@ -21245,18 +21255,18 @@
       <c r="U94" s="210"/>
       <c r="V94" s="210"/>
       <c r="W94" s="211"/>
-      <c r="X94" s="299" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y94" s="300"/>
-      <c r="Z94" s="300"/>
-      <c r="AA94" s="300"/>
-      <c r="AB94" s="300"/>
-      <c r="AC94" s="300"/>
-      <c r="AD94" s="300"/>
-      <c r="AE94" s="300"/>
-      <c r="AF94" s="300"/>
-      <c r="AG94" s="301"/>
+      <c r="X94" s="307" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y94" s="308"/>
+      <c r="Z94" s="308"/>
+      <c r="AA94" s="308"/>
+      <c r="AB94" s="308"/>
+      <c r="AC94" s="308"/>
+      <c r="AD94" s="308"/>
+      <c r="AE94" s="308"/>
+      <c r="AF94" s="308"/>
+      <c r="AG94" s="309"/>
       <c r="AH94" s="94"/>
       <c r="AI94" s="94"/>
     </row>
@@ -21275,7 +21285,7 @@
       <c r="L95" s="100"/>
       <c r="M95" s="100"/>
       <c r="N95" s="209" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O95" s="210"/>
       <c r="P95" s="210"/>
@@ -21286,18 +21296,18 @@
       <c r="U95" s="210"/>
       <c r="V95" s="210"/>
       <c r="W95" s="211"/>
-      <c r="X95" s="299" t="s">
+      <c r="X95" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="Y95" s="300"/>
-      <c r="Z95" s="300"/>
-      <c r="AA95" s="300"/>
-      <c r="AB95" s="300"/>
-      <c r="AC95" s="300"/>
-      <c r="AD95" s="300"/>
-      <c r="AE95" s="300"/>
-      <c r="AF95" s="300"/>
-      <c r="AG95" s="301"/>
+      <c r="Y95" s="308"/>
+      <c r="Z95" s="308"/>
+      <c r="AA95" s="308"/>
+      <c r="AB95" s="308"/>
+      <c r="AC95" s="308"/>
+      <c r="AD95" s="308"/>
+      <c r="AE95" s="308"/>
+      <c r="AF95" s="308"/>
+      <c r="AG95" s="309"/>
       <c r="AH95" s="94"/>
       <c r="AI95" s="94"/>
     </row>
@@ -21316,7 +21326,7 @@
       <c r="L96" s="100"/>
       <c r="M96" s="100"/>
       <c r="N96" s="209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O96" s="210"/>
       <c r="P96" s="210"/>
@@ -21327,18 +21337,18 @@
       <c r="U96" s="210"/>
       <c r="V96" s="210"/>
       <c r="W96" s="211"/>
-      <c r="X96" s="299" t="s">
+      <c r="X96" s="307" t="s">
         <v>43</v>
       </c>
-      <c r="Y96" s="300"/>
-      <c r="Z96" s="300"/>
-      <c r="AA96" s="300"/>
-      <c r="AB96" s="300"/>
-      <c r="AC96" s="300"/>
-      <c r="AD96" s="300"/>
-      <c r="AE96" s="300"/>
-      <c r="AF96" s="300"/>
-      <c r="AG96" s="301"/>
+      <c r="Y96" s="308"/>
+      <c r="Z96" s="308"/>
+      <c r="AA96" s="308"/>
+      <c r="AB96" s="308"/>
+      <c r="AC96" s="308"/>
+      <c r="AD96" s="308"/>
+      <c r="AE96" s="308"/>
+      <c r="AF96" s="308"/>
+      <c r="AG96" s="309"/>
       <c r="AH96" s="94"/>
       <c r="AI96" s="94"/>
     </row>
@@ -21357,7 +21367,7 @@
       <c r="L97" s="100"/>
       <c r="M97" s="100"/>
       <c r="N97" s="209" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O97" s="210"/>
       <c r="P97" s="210"/>
@@ -21368,18 +21378,18 @@
       <c r="U97" s="210"/>
       <c r="V97" s="210"/>
       <c r="W97" s="211"/>
-      <c r="X97" s="299" t="s">
+      <c r="X97" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="Y97" s="300"/>
-      <c r="Z97" s="300"/>
-      <c r="AA97" s="300"/>
-      <c r="AB97" s="300"/>
-      <c r="AC97" s="300"/>
-      <c r="AD97" s="300"/>
-      <c r="AE97" s="300"/>
-      <c r="AF97" s="300"/>
-      <c r="AG97" s="301"/>
+      <c r="Y97" s="308"/>
+      <c r="Z97" s="308"/>
+      <c r="AA97" s="308"/>
+      <c r="AB97" s="308"/>
+      <c r="AC97" s="308"/>
+      <c r="AD97" s="308"/>
+      <c r="AE97" s="308"/>
+      <c r="AF97" s="308"/>
+      <c r="AG97" s="309"/>
       <c r="AH97" s="94"/>
       <c r="AI97" s="94"/>
     </row>
@@ -21398,7 +21408,7 @@
       <c r="L98" s="100"/>
       <c r="M98" s="100"/>
       <c r="N98" s="209" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O98" s="210"/>
       <c r="P98" s="210"/>
@@ -21409,18 +21419,18 @@
       <c r="U98" s="210"/>
       <c r="V98" s="210"/>
       <c r="W98" s="211"/>
-      <c r="X98" s="299" t="s">
+      <c r="X98" s="307" t="s">
         <v>113</v>
       </c>
-      <c r="Y98" s="300"/>
-      <c r="Z98" s="300"/>
-      <c r="AA98" s="300"/>
-      <c r="AB98" s="300"/>
-      <c r="AC98" s="300"/>
-      <c r="AD98" s="300"/>
-      <c r="AE98" s="300"/>
-      <c r="AF98" s="300"/>
-      <c r="AG98" s="301"/>
+      <c r="Y98" s="308"/>
+      <c r="Z98" s="308"/>
+      <c r="AA98" s="308"/>
+      <c r="AB98" s="308"/>
+      <c r="AC98" s="308"/>
+      <c r="AD98" s="308"/>
+      <c r="AE98" s="308"/>
+      <c r="AF98" s="308"/>
+      <c r="AG98" s="309"/>
       <c r="AH98" s="94"/>
       <c r="AI98" s="94"/>
     </row>
@@ -21439,7 +21449,7 @@
       <c r="L99" s="100"/>
       <c r="M99" s="100"/>
       <c r="N99" s="209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O99" s="210"/>
       <c r="P99" s="210"/>
@@ -21450,18 +21460,18 @@
       <c r="U99" s="210"/>
       <c r="V99" s="210"/>
       <c r="W99" s="211"/>
-      <c r="X99" s="299" t="s">
+      <c r="X99" s="307" t="s">
         <v>114</v>
       </c>
-      <c r="Y99" s="300"/>
-      <c r="Z99" s="300"/>
-      <c r="AA99" s="300"/>
-      <c r="AB99" s="300"/>
-      <c r="AC99" s="300"/>
-      <c r="AD99" s="300"/>
-      <c r="AE99" s="300"/>
-      <c r="AF99" s="300"/>
-      <c r="AG99" s="301"/>
+      <c r="Y99" s="308"/>
+      <c r="Z99" s="308"/>
+      <c r="AA99" s="308"/>
+      <c r="AB99" s="308"/>
+      <c r="AC99" s="308"/>
+      <c r="AD99" s="308"/>
+      <c r="AE99" s="308"/>
+      <c r="AF99" s="308"/>
+      <c r="AG99" s="309"/>
       <c r="AH99" s="94"/>
       <c r="AI99" s="94"/>
     </row>
@@ -21480,7 +21490,7 @@
       <c r="L100" s="104"/>
       <c r="M100" s="104"/>
       <c r="N100" s="209" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O100" s="210"/>
       <c r="P100" s="210"/>
@@ -21491,18 +21501,18 @@
       <c r="U100" s="210"/>
       <c r="V100" s="210"/>
       <c r="W100" s="211"/>
-      <c r="X100" s="299" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y100" s="300"/>
-      <c r="Z100" s="300"/>
-      <c r="AA100" s="300"/>
-      <c r="AB100" s="300"/>
-      <c r="AC100" s="300"/>
-      <c r="AD100" s="300"/>
-      <c r="AE100" s="300"/>
-      <c r="AF100" s="300"/>
-      <c r="AG100" s="301"/>
+      <c r="X100" s="307" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y100" s="308"/>
+      <c r="Z100" s="308"/>
+      <c r="AA100" s="308"/>
+      <c r="AB100" s="308"/>
+      <c r="AC100" s="308"/>
+      <c r="AD100" s="308"/>
+      <c r="AE100" s="308"/>
+      <c r="AF100" s="308"/>
+      <c r="AG100" s="309"/>
       <c r="AH100" s="94"/>
       <c r="AI100" s="94"/>
     </row>
@@ -21514,7 +21524,7 @@
       <c r="E101" s="94"/>
       <c r="F101" s="94"/>
       <c r="G101" s="206" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H101" s="207"/>
       <c r="I101" s="207"/>
@@ -21523,7 +21533,7 @@
       <c r="L101" s="207"/>
       <c r="M101" s="208"/>
       <c r="N101" s="209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O101" s="210"/>
       <c r="P101" s="210"/>
@@ -21534,18 +21544,18 @@
       <c r="U101" s="210"/>
       <c r="V101" s="210"/>
       <c r="W101" s="211"/>
-      <c r="X101" s="299" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y101" s="300"/>
-      <c r="Z101" s="300"/>
-      <c r="AA101" s="300"/>
-      <c r="AB101" s="300"/>
-      <c r="AC101" s="300"/>
-      <c r="AD101" s="300"/>
-      <c r="AE101" s="300"/>
-      <c r="AF101" s="300"/>
-      <c r="AG101" s="301"/>
+      <c r="X101" s="307" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y101" s="308"/>
+      <c r="Z101" s="308"/>
+      <c r="AA101" s="308"/>
+      <c r="AB101" s="308"/>
+      <c r="AC101" s="308"/>
+      <c r="AD101" s="308"/>
+      <c r="AE101" s="308"/>
+      <c r="AF101" s="308"/>
+      <c r="AG101" s="309"/>
       <c r="AH101" s="94"/>
       <c r="AI101" s="94"/>
     </row>
@@ -21557,7 +21567,7 @@
       <c r="E102" s="94"/>
       <c r="F102" s="94"/>
       <c r="G102" s="206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H102" s="207"/>
       <c r="I102" s="207"/>
@@ -21566,7 +21576,7 @@
       <c r="L102" s="207"/>
       <c r="M102" s="208"/>
       <c r="N102" s="212" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O102" s="213"/>
       <c r="P102" s="213"/>
@@ -21577,18 +21587,18 @@
       <c r="U102" s="213"/>
       <c r="V102" s="213"/>
       <c r="W102" s="214"/>
-      <c r="X102" s="364" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y102" s="365"/>
-      <c r="Z102" s="365"/>
-      <c r="AA102" s="365"/>
-      <c r="AB102" s="365"/>
-      <c r="AC102" s="365"/>
-      <c r="AD102" s="365"/>
-      <c r="AE102" s="365"/>
-      <c r="AF102" s="365"/>
-      <c r="AG102" s="366"/>
+      <c r="X102" s="354" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y102" s="355"/>
+      <c r="Z102" s="355"/>
+      <c r="AA102" s="355"/>
+      <c r="AB102" s="355"/>
+      <c r="AC102" s="355"/>
+      <c r="AD102" s="355"/>
+      <c r="AE102" s="355"/>
+      <c r="AF102" s="355"/>
+      <c r="AG102" s="356"/>
       <c r="AH102" s="94"/>
       <c r="AI102" s="94"/>
       <c r="AP102" s="58"/>
@@ -21609,35 +21619,35 @@
       <c r="D103" s="94"/>
       <c r="E103" s="94"/>
       <c r="F103" s="94"/>
-      <c r="G103" s="235" t="s">
-        <v>338</v>
-      </c>
-      <c r="H103" s="236"/>
-      <c r="I103" s="236"/>
-      <c r="J103" s="236"/>
-      <c r="K103" s="236"/>
-      <c r="L103" s="236"/>
-      <c r="M103" s="236"/>
-      <c r="N103" s="236"/>
-      <c r="O103" s="236"/>
-      <c r="P103" s="236"/>
-      <c r="Q103" s="236"/>
-      <c r="R103" s="236"/>
-      <c r="S103" s="236"/>
-      <c r="T103" s="236"/>
-      <c r="U103" s="236"/>
-      <c r="V103" s="236"/>
-      <c r="W103" s="236"/>
-      <c r="X103" s="236"/>
-      <c r="Y103" s="236"/>
-      <c r="Z103" s="236"/>
-      <c r="AA103" s="236"/>
-      <c r="AB103" s="236"/>
-      <c r="AC103" s="236"/>
-      <c r="AD103" s="236"/>
-      <c r="AE103" s="236"/>
-      <c r="AF103" s="236"/>
-      <c r="AG103" s="237"/>
+      <c r="G103" s="319" t="s">
+        <v>337</v>
+      </c>
+      <c r="H103" s="320"/>
+      <c r="I103" s="320"/>
+      <c r="J103" s="320"/>
+      <c r="K103" s="320"/>
+      <c r="L103" s="320"/>
+      <c r="M103" s="320"/>
+      <c r="N103" s="320"/>
+      <c r="O103" s="320"/>
+      <c r="P103" s="320"/>
+      <c r="Q103" s="320"/>
+      <c r="R103" s="320"/>
+      <c r="S103" s="320"/>
+      <c r="T103" s="320"/>
+      <c r="U103" s="320"/>
+      <c r="V103" s="320"/>
+      <c r="W103" s="320"/>
+      <c r="X103" s="320"/>
+      <c r="Y103" s="320"/>
+      <c r="Z103" s="320"/>
+      <c r="AA103" s="320"/>
+      <c r="AB103" s="320"/>
+      <c r="AC103" s="320"/>
+      <c r="AD103" s="320"/>
+      <c r="AE103" s="320"/>
+      <c r="AF103" s="320"/>
+      <c r="AG103" s="321"/>
       <c r="AH103" s="94"/>
       <c r="AI103" s="94"/>
       <c r="AJ103" s="58"/>
@@ -21733,7 +21743,7 @@
       <c r="F105" s="94"/>
       <c r="G105" s="169"/>
       <c r="H105" s="170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I105" s="170"/>
       <c r="J105" s="170"/>
@@ -21856,13 +21866,13 @@
       <c r="G107" s="169"/>
       <c r="H107" s="170"/>
       <c r="I107" s="173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J107" s="173"/>
       <c r="K107" s="170"/>
       <c r="L107" s="170"/>
       <c r="M107" s="170" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N107" s="170"/>
       <c r="O107" s="170"/>
@@ -21920,10 +21930,10 @@
       <c r="G108" s="169"/>
       <c r="H108" s="170"/>
       <c r="I108" s="170" t="s">
+        <v>312</v>
+      </c>
+      <c r="J108" s="170" t="s">
         <v>313</v>
-      </c>
-      <c r="J108" s="170" t="s">
-        <v>314</v>
       </c>
       <c r="K108" s="170"/>
       <c r="L108" s="173"/>
@@ -21935,7 +21945,7 @@
         <v>166</v>
       </c>
       <c r="R108" s="170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S108" s="170"/>
       <c r="T108" s="170"/>
@@ -22048,13 +22058,13 @@
       <c r="G110" s="169"/>
       <c r="H110" s="170"/>
       <c r="I110" s="173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J110" s="173"/>
       <c r="K110" s="170"/>
       <c r="L110" s="170"/>
       <c r="M110" s="170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N110" s="170"/>
       <c r="O110" s="170"/>
@@ -22112,10 +22122,10 @@
       <c r="G111" s="169"/>
       <c r="H111" s="170"/>
       <c r="I111" s="170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J111" s="170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K111" s="170"/>
       <c r="L111" s="173"/>
@@ -22127,7 +22137,7 @@
         <v>166</v>
       </c>
       <c r="R111" s="170" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S111" s="170"/>
       <c r="T111" s="170"/>
@@ -22237,35 +22247,35 @@
       <c r="D113" s="94"/>
       <c r="E113" s="94"/>
       <c r="F113" s="94"/>
-      <c r="G113" s="235" t="s">
-        <v>337</v>
-      </c>
-      <c r="H113" s="236"/>
-      <c r="I113" s="236"/>
-      <c r="J113" s="236"/>
-      <c r="K113" s="236"/>
-      <c r="L113" s="236"/>
-      <c r="M113" s="236"/>
-      <c r="N113" s="236"/>
-      <c r="O113" s="236"/>
-      <c r="P113" s="236"/>
-      <c r="Q113" s="236"/>
-      <c r="R113" s="236"/>
-      <c r="S113" s="236"/>
-      <c r="T113" s="236"/>
-      <c r="U113" s="236"/>
-      <c r="V113" s="236"/>
-      <c r="W113" s="236"/>
-      <c r="X113" s="236"/>
-      <c r="Y113" s="236"/>
-      <c r="Z113" s="236"/>
-      <c r="AA113" s="236"/>
-      <c r="AB113" s="236"/>
-      <c r="AC113" s="236"/>
-      <c r="AD113" s="236"/>
-      <c r="AE113" s="236"/>
-      <c r="AF113" s="236"/>
-      <c r="AG113" s="237"/>
+      <c r="G113" s="319" t="s">
+        <v>336</v>
+      </c>
+      <c r="H113" s="320"/>
+      <c r="I113" s="320"/>
+      <c r="J113" s="320"/>
+      <c r="K113" s="320"/>
+      <c r="L113" s="320"/>
+      <c r="M113" s="320"/>
+      <c r="N113" s="320"/>
+      <c r="O113" s="320"/>
+      <c r="P113" s="320"/>
+      <c r="Q113" s="320"/>
+      <c r="R113" s="320"/>
+      <c r="S113" s="320"/>
+      <c r="T113" s="320"/>
+      <c r="U113" s="320"/>
+      <c r="V113" s="320"/>
+      <c r="W113" s="320"/>
+      <c r="X113" s="320"/>
+      <c r="Y113" s="320"/>
+      <c r="Z113" s="320"/>
+      <c r="AA113" s="320"/>
+      <c r="AB113" s="320"/>
+      <c r="AC113" s="320"/>
+      <c r="AD113" s="320"/>
+      <c r="AE113" s="320"/>
+      <c r="AF113" s="320"/>
+      <c r="AG113" s="321"/>
       <c r="AH113" s="94"/>
       <c r="AI113" s="94"/>
       <c r="AJ113" s="58"/>
@@ -22363,7 +22373,7 @@
       <c r="H115" s="94"/>
       <c r="I115" s="94"/>
       <c r="J115" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K115" s="170"/>
       <c r="L115" s="170"/>
@@ -22378,7 +22388,7 @@
       <c r="S115" s="170"/>
       <c r="T115" s="170"/>
       <c r="U115" s="170" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V115" s="170"/>
       <c r="W115" s="170"/>
@@ -22545,7 +22555,7 @@
       <c r="D118" s="94"/>
       <c r="E118" s="94"/>
       <c r="F118" s="94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G118" s="170"/>
       <c r="H118" s="170"/>
@@ -22607,7 +22617,7 @@
       <c r="D119" s="94"/>
       <c r="E119" s="94"/>
       <c r="F119" s="94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G119" s="170"/>
       <c r="H119" s="170"/>
@@ -22790,7 +22800,7 @@
       <c r="D122" s="94"/>
       <c r="E122" s="193"/>
       <c r="F122" s="154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G122" s="130"/>
       <c r="H122" s="130"/>
@@ -22913,7 +22923,7 @@
       <c r="E124" s="94"/>
       <c r="F124" s="193"/>
       <c r="G124" s="154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H124" s="154"/>
       <c r="I124" s="130"/>
@@ -23034,7 +23044,7 @@
       <c r="D126" s="94"/>
       <c r="E126" s="193"/>
       <c r="F126" s="154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G126" s="130"/>
       <c r="H126" s="130"/>
@@ -23157,7 +23167,7 @@
       <c r="E128" s="94"/>
       <c r="F128" s="193"/>
       <c r="G128" s="154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H128" s="130"/>
       <c r="I128" s="130"/>
@@ -23276,7 +23286,7 @@
       <c r="B130" s="94"/>
       <c r="C130" s="158"/>
       <c r="D130" s="157" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E130" s="157"/>
       <c r="F130" s="94"/>
@@ -23390,7 +23400,7 @@
       <c r="C132" s="94"/>
       <c r="D132" s="94"/>
       <c r="E132" s="154" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F132" s="94"/>
       <c r="G132" s="153"/>
@@ -23452,7 +23462,7 @@
       <c r="C133" s="94"/>
       <c r="D133" s="94"/>
       <c r="E133" s="154" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F133" s="155"/>
       <c r="G133" s="154"/>
@@ -23587,7 +23597,7 @@
       <c r="B136" s="94"/>
       <c r="C136" s="94"/>
       <c r="D136" s="94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E136" s="94"/>
       <c r="F136" s="94"/>
@@ -23627,7 +23637,7 @@
       <c r="C137" s="94"/>
       <c r="D137" s="94"/>
       <c r="E137" s="94" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F137" s="94"/>
       <c r="G137" s="94"/>
@@ -23666,7 +23676,7 @@
       <c r="C138" s="94"/>
       <c r="D138" s="94"/>
       <c r="E138" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F138" s="94"/>
       <c r="G138" s="94"/>
@@ -23738,27 +23748,125 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="M80:V80"/>
-    <mergeCell ref="W80:Y80"/>
-    <mergeCell ref="Z80:AC80"/>
-    <mergeCell ref="AD80:AG80"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="M81:V81"/>
-    <mergeCell ref="W81:Y81"/>
-    <mergeCell ref="Z81:AC81"/>
-    <mergeCell ref="AD81:AG81"/>
-    <mergeCell ref="X102:AG102"/>
-    <mergeCell ref="G103:AG103"/>
-    <mergeCell ref="G113:AG113"/>
-    <mergeCell ref="X99:AG99"/>
-    <mergeCell ref="X95:AG95"/>
-    <mergeCell ref="X96:AG96"/>
-    <mergeCell ref="X97:AG97"/>
-    <mergeCell ref="X94:AG94"/>
-    <mergeCell ref="X98:AG98"/>
-    <mergeCell ref="X100:AG100"/>
-    <mergeCell ref="X101:AG101"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="R72:Y72"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="R71:Y71"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="R70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:AH63"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="V64:AH64"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="K61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="V61:AH62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AG56"/>
+    <mergeCell ref="AL50:AP50"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="U54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AG54"/>
+    <mergeCell ref="AL54:AP54"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AL51:AP51"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="AL49:AP49"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AL48:AP48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="AL53:AP53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="AL52:AP52"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AL46:AP46"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="AL43:AP43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:AC41"/>
+    <mergeCell ref="AD41:AG43"/>
+    <mergeCell ref="E42:H43"/>
+    <mergeCell ref="I42:L43"/>
+    <mergeCell ref="M42:T43"/>
+    <mergeCell ref="U42:Y43"/>
+    <mergeCell ref="Z42:AB43"/>
+    <mergeCell ref="AC42:AC43"/>
     <mergeCell ref="N89:W89"/>
     <mergeCell ref="X89:AG89"/>
     <mergeCell ref="X90:AG90"/>
@@ -23783,125 +23891,27 @@
     <mergeCell ref="AD49:AG49"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:J62"/>
-    <mergeCell ref="AL43:AP43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:AC41"/>
-    <mergeCell ref="AD41:AG43"/>
-    <mergeCell ref="E42:H43"/>
-    <mergeCell ref="I42:L43"/>
-    <mergeCell ref="M42:T43"/>
-    <mergeCell ref="U42:Y43"/>
-    <mergeCell ref="Z42:AB43"/>
-    <mergeCell ref="AC42:AC43"/>
-    <mergeCell ref="AL52:AP52"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="AL49:AP49"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AL48:AP48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="AL53:AP53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="AL50:AP50"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:T54"/>
-    <mergeCell ref="U54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AG54"/>
-    <mergeCell ref="AL54:AP54"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AL51:AP51"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:AH63"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="V64:AH64"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="K61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="V61:AH62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AG55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="R70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="R72:Y72"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="R71:Y71"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="X102:AG102"/>
+    <mergeCell ref="G103:AG103"/>
+    <mergeCell ref="G113:AG113"/>
+    <mergeCell ref="X99:AG99"/>
+    <mergeCell ref="X95:AG95"/>
+    <mergeCell ref="X96:AG96"/>
+    <mergeCell ref="X97:AG97"/>
+    <mergeCell ref="X94:AG94"/>
+    <mergeCell ref="X98:AG98"/>
+    <mergeCell ref="X100:AG100"/>
+    <mergeCell ref="X101:AG101"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="M80:V80"/>
+    <mergeCell ref="W80:Y80"/>
+    <mergeCell ref="Z80:AC80"/>
+    <mergeCell ref="AD80:AG80"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="M81:V81"/>
+    <mergeCell ref="W81:Y81"/>
+    <mergeCell ref="Z81:AC81"/>
+    <mergeCell ref="AD81:AG81"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="4">
@@ -23955,13 +23965,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="189" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="C1" s="190" t="s">
         <v>230</v>
-      </c>
-      <c r="C1" s="190" t="s">
-        <v>231</v>
       </c>
       <c r="D1" s="190" t="s">
         <v>138</v>
@@ -23972,7 +23982,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="191" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="192" t="s">
         <v>5</v>
@@ -23986,10 +23996,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="191" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>234</v>
       </c>
       <c r="D3" s="133" t="s">
         <v>140</v>
@@ -24000,44 +24010,44 @@
         <v>4</v>
       </c>
       <c r="B4" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="D4" s="133" t="s">
         <v>236</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="C5" s="133" t="s">
         <v>239</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>240</v>
       </c>
       <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="94"/>
       <c r="C6" s="133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="94"/>
       <c r="C7" s="133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="94"/>
     </row>
@@ -24059,7 +24069,7 @@
     </row>
     <row r="10" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
@@ -24067,7 +24077,7 @@
     </row>
     <row r="11" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
@@ -24075,7 +24085,7 @@
     </row>
     <row r="12" spans="1:4" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="94"/>
       <c r="C12" s="94"/>
